--- a/大乐透最近100期开奖号码.xlsx
+++ b/大乐透最近100期开奖号码.xlsx
@@ -67,6 +67,12 @@
     <t>年内月号</t>
   </si>
   <si>
+    <t>2022-04-23</t>
+  </si>
+  <si>
+    <t>2022-04-20</t>
+  </si>
+  <si>
     <t>2022-04-18</t>
   </si>
   <si>
@@ -359,12 +365,6 @@
   </si>
   <si>
     <t>2021-08-18</t>
-  </si>
-  <si>
-    <t>2021-08-16</t>
-  </si>
-  <si>
-    <t>2021-08-14</t>
   </si>
 </sst>
 </file>
@@ -786,43 +786,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>22042</v>
+        <v>22044</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
       </c>
       <c r="D2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>16</v>
+      </c>
+      <c r="G2">
+        <v>17</v>
+      </c>
+      <c r="H2">
+        <v>20</v>
+      </c>
+      <c r="I2">
+        <v>3</v>
+      </c>
+      <c r="J2">
+        <v>7</v>
+      </c>
+      <c r="K2">
+        <v>56</v>
+      </c>
+      <c r="L2">
+        <v>11</v>
+      </c>
+      <c r="M2">
         <v>10</v>
       </c>
-      <c r="F2">
-        <v>11</v>
-      </c>
-      <c r="G2">
-        <v>29</v>
-      </c>
-      <c r="H2">
-        <v>32</v>
-      </c>
-      <c r="I2">
-        <v>2</v>
-      </c>
-      <c r="J2">
-        <v>6</v>
-      </c>
-      <c r="K2">
-        <v>90</v>
-      </c>
-      <c r="L2">
-        <v>18</v>
-      </c>
-      <c r="M2">
-        <v>8</v>
-      </c>
       <c r="N2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O2">
         <v>3</v>
@@ -831,7 +831,7 @@
         <v>2022</v>
       </c>
       <c r="Q2">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2">
         <v>4</v>
@@ -842,52 +842,52 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22041</v>
+        <v>22043</v>
       </c>
       <c r="C3" t="s">
         <v>18</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F3">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="G3">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H3">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K3">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="L3">
+        <v>18</v>
+      </c>
+      <c r="M3">
         <v>21</v>
       </c>
-      <c r="M3">
-        <v>17</v>
-      </c>
       <c r="N3">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P3">
         <v>2022</v>
       </c>
       <c r="Q3">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="R3">
         <v>4</v>
@@ -898,52 +898,52 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22040</v>
+        <v>22042</v>
       </c>
       <c r="C4" t="s">
         <v>19</v>
       </c>
       <c r="D4">
+        <v>8</v>
+      </c>
+      <c r="E4">
         <v>10</v>
       </c>
-      <c r="E4">
-        <v>19</v>
-      </c>
       <c r="F4">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G4">
         <v>29</v>
       </c>
       <c r="H4">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <v>6</v>
+      </c>
+      <c r="K4">
+        <v>90</v>
+      </c>
+      <c r="L4">
+        <v>18</v>
+      </c>
+      <c r="M4">
         <v>8</v>
       </c>
-      <c r="J4">
-        <v>12</v>
-      </c>
-      <c r="K4">
-        <v>116</v>
-      </c>
-      <c r="L4">
-        <v>23</v>
-      </c>
-      <c r="M4">
-        <v>20</v>
-      </c>
       <c r="N4">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P4">
         <v>2022</v>
       </c>
       <c r="Q4">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="R4">
         <v>4</v>
@@ -954,52 +954,52 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22039</v>
+        <v>22041</v>
       </c>
       <c r="C5" t="s">
         <v>20</v>
       </c>
       <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>15</v>
+      </c>
+      <c r="F5">
+        <v>25</v>
+      </c>
+      <c r="G5">
+        <v>26</v>
+      </c>
+      <c r="H5">
+        <v>33</v>
+      </c>
+      <c r="I5">
+        <v>6</v>
+      </c>
+      <c r="J5">
+        <v>11</v>
+      </c>
+      <c r="K5">
+        <v>104</v>
+      </c>
+      <c r="L5">
+        <v>21</v>
+      </c>
+      <c r="M5">
+        <v>17</v>
+      </c>
+      <c r="N5">
+        <v>9</v>
+      </c>
+      <c r="O5">
         <v>1</v>
-      </c>
-      <c r="E5">
-        <v>8</v>
-      </c>
-      <c r="F5">
-        <v>11</v>
-      </c>
-      <c r="G5">
-        <v>22</v>
-      </c>
-      <c r="H5">
-        <v>31</v>
-      </c>
-      <c r="I5">
-        <v>5</v>
-      </c>
-      <c r="J5">
-        <v>11</v>
-      </c>
-      <c r="K5">
-        <v>73</v>
-      </c>
-      <c r="L5">
-        <v>15</v>
-      </c>
-      <c r="M5">
-        <v>16</v>
-      </c>
-      <c r="N5">
-        <v>8</v>
-      </c>
-      <c r="O5">
-        <v>2</v>
       </c>
       <c r="P5">
         <v>2022</v>
       </c>
       <c r="Q5">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="R5">
         <v>4</v>
@@ -1010,52 +1010,52 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22038</v>
+        <v>22040</v>
       </c>
       <c r="C6" t="s">
         <v>21</v>
       </c>
       <c r="D6">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E6">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="F6">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="G6">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="H6">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="I6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J6">
         <v>12</v>
       </c>
       <c r="K6">
-        <v>65</v>
+        <v>116</v>
       </c>
       <c r="L6">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M6">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N6">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P6">
         <v>2022</v>
       </c>
       <c r="Q6">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="R6">
         <v>4</v>
@@ -1066,7 +1066,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22037</v>
+        <v>22039</v>
       </c>
       <c r="C7" t="s">
         <v>22</v>
@@ -1075,25 +1075,25 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F7">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G7">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H7">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K7">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L7">
         <v>15</v>
@@ -1111,7 +1111,7 @@
         <v>2022</v>
       </c>
       <c r="Q7">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="R7">
         <v>4</v>
@@ -1122,52 +1122,52 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>22036</v>
+        <v>22038</v>
       </c>
       <c r="C8" t="s">
         <v>23</v>
       </c>
       <c r="D8">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E8">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="F8">
+        <v>11</v>
+      </c>
+      <c r="G8">
+        <v>12</v>
+      </c>
+      <c r="H8">
+        <v>26</v>
+      </c>
+      <c r="I8">
+        <v>9</v>
+      </c>
+      <c r="J8">
+        <v>12</v>
+      </c>
+      <c r="K8">
+        <v>65</v>
+      </c>
+      <c r="L8">
+        <v>13</v>
+      </c>
+      <c r="M8">
         <v>21</v>
       </c>
-      <c r="G8">
-        <v>26</v>
-      </c>
-      <c r="H8">
-        <v>34</v>
-      </c>
-      <c r="I8">
-        <v>6</v>
-      </c>
-      <c r="J8">
-        <v>7</v>
-      </c>
-      <c r="K8">
-        <v>118</v>
-      </c>
-      <c r="L8">
-        <v>24</v>
-      </c>
-      <c r="M8">
-        <v>13</v>
-      </c>
       <c r="N8">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="O8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P8">
         <v>2022</v>
       </c>
       <c r="Q8">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="R8">
         <v>4</v>
@@ -1178,52 +1178,52 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22035</v>
+        <v>22037</v>
       </c>
       <c r="C9" t="s">
         <v>24</v>
       </c>
       <c r="D9">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F9">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G9">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H9">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J9">
+        <v>10</v>
+      </c>
+      <c r="K9">
+        <v>75</v>
+      </c>
+      <c r="L9">
+        <v>15</v>
+      </c>
+      <c r="M9">
+        <v>16</v>
+      </c>
+      <c r="N9">
         <v>8</v>
       </c>
-      <c r="K9">
-        <v>87</v>
-      </c>
-      <c r="L9">
-        <v>17</v>
-      </c>
-      <c r="M9">
-        <v>13</v>
-      </c>
-      <c r="N9">
-        <v>7</v>
-      </c>
       <c r="O9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P9">
         <v>2022</v>
       </c>
       <c r="Q9">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="R9">
         <v>4</v>
@@ -1234,25 +1234,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22034</v>
+        <v>22036</v>
       </c>
       <c r="C10" t="s">
         <v>25</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="E10">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F10">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G10">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H10">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="I10">
         <v>6</v>
@@ -1261,10 +1261,10 @@
         <v>7</v>
       </c>
       <c r="K10">
-        <v>91</v>
+        <v>118</v>
       </c>
       <c r="L10">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="M10">
         <v>13</v>
@@ -1273,16 +1273,16 @@
         <v>7</v>
       </c>
       <c r="O10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P10">
         <v>2022</v>
       </c>
       <c r="Q10">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R10">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -1290,55 +1290,55 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22033</v>
+        <v>22035</v>
       </c>
       <c r="C11" t="s">
         <v>26</v>
       </c>
       <c r="D11">
+        <v>9</v>
+      </c>
+      <c r="E11">
+        <v>11</v>
+      </c>
+      <c r="F11">
+        <v>13</v>
+      </c>
+      <c r="G11">
+        <v>23</v>
+      </c>
+      <c r="H11">
+        <v>31</v>
+      </c>
+      <c r="I11">
+        <v>5</v>
+      </c>
+      <c r="J11">
         <v>8</v>
       </c>
-      <c r="E11">
-        <v>15</v>
-      </c>
-      <c r="F11">
-        <v>16</v>
-      </c>
-      <c r="G11">
-        <v>19</v>
-      </c>
-      <c r="H11">
-        <v>33</v>
-      </c>
-      <c r="I11">
-        <v>3</v>
-      </c>
-      <c r="J11">
-        <v>4</v>
-      </c>
       <c r="K11">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="L11">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M11">
+        <v>13</v>
+      </c>
+      <c r="N11">
         <v>7</v>
       </c>
-      <c r="N11">
-        <v>4</v>
-      </c>
       <c r="O11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P11">
         <v>2022</v>
       </c>
       <c r="Q11">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="R11">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -1346,52 +1346,52 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>22032</v>
+        <v>22034</v>
       </c>
       <c r="C12" t="s">
         <v>27</v>
       </c>
       <c r="D12">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E12">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F12">
+        <v>24</v>
+      </c>
+      <c r="G12">
+        <v>27</v>
+      </c>
+      <c r="H12">
+        <v>28</v>
+      </c>
+      <c r="I12">
+        <v>6</v>
+      </c>
+      <c r="J12">
+        <v>7</v>
+      </c>
+      <c r="K12">
+        <v>91</v>
+      </c>
+      <c r="L12">
         <v>18</v>
       </c>
-      <c r="G12">
-        <v>31</v>
-      </c>
-      <c r="H12">
-        <v>32</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-      <c r="J12">
-        <v>5</v>
-      </c>
-      <c r="K12">
-        <v>95</v>
-      </c>
-      <c r="L12">
-        <v>19</v>
-      </c>
       <c r="M12">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="N12">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="O12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P12">
         <v>2022</v>
       </c>
       <c r="Q12">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R12">
         <v>3</v>
@@ -1402,52 +1402,52 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>22031</v>
+        <v>22033</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
       </c>
       <c r="D13">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E13">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F13">
         <v>16</v>
       </c>
       <c r="G13">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H13">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="I13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J13">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K13">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="L13">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M13">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="N13">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P13">
         <v>2022</v>
       </c>
       <c r="Q13">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="R13">
         <v>3</v>
@@ -1458,52 +1458,52 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22030</v>
+        <v>22032</v>
       </c>
       <c r="C14" t="s">
         <v>29</v>
       </c>
       <c r="D14">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E14">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F14">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G14">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="H14">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K14">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="L14">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M14">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="N14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P14">
         <v>2022</v>
       </c>
       <c r="Q14">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="R14">
         <v>3</v>
@@ -1514,7 +1514,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22029</v>
+        <v>22031</v>
       </c>
       <c r="C15" t="s">
         <v>30</v>
@@ -1523,43 +1523,43 @@
         <v>7</v>
       </c>
       <c r="E15">
+        <v>14</v>
+      </c>
+      <c r="F15">
+        <v>16</v>
+      </c>
+      <c r="G15">
+        <v>20</v>
+      </c>
+      <c r="H15">
+        <v>28</v>
+      </c>
+      <c r="I15">
+        <v>4</v>
+      </c>
+      <c r="J15">
         <v>8</v>
       </c>
-      <c r="F15">
-        <v>10</v>
-      </c>
-      <c r="G15">
-        <v>14</v>
-      </c>
-      <c r="H15">
+      <c r="K15">
+        <v>85</v>
+      </c>
+      <c r="L15">
         <v>17</v>
       </c>
-      <c r="I15">
-        <v>10</v>
-      </c>
-      <c r="J15">
+      <c r="M15">
         <v>12</v>
       </c>
-      <c r="K15">
-        <v>56</v>
-      </c>
-      <c r="L15">
-        <v>11</v>
-      </c>
-      <c r="M15">
-        <v>22</v>
-      </c>
       <c r="N15">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="O15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P15">
         <v>2022</v>
       </c>
       <c r="Q15">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="R15">
         <v>3</v>
@@ -1570,52 +1570,52 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22028</v>
+        <v>22030</v>
       </c>
       <c r="C16" t="s">
         <v>31</v>
       </c>
       <c r="D16">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E16">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F16">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G16">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H16">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="I16">
         <v>1</v>
       </c>
       <c r="J16">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K16">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="L16">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M16">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P16">
         <v>2022</v>
       </c>
       <c r="Q16">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="R16">
         <v>3</v>
@@ -1626,52 +1626,52 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22027</v>
+        <v>22029</v>
       </c>
       <c r="C17" t="s">
         <v>32</v>
       </c>
       <c r="D17">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E17">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F17">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G17">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="H17">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="I17">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J17">
         <v>12</v>
       </c>
       <c r="K17">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="L17">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="M17">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="N17">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="O17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P17">
         <v>2022</v>
       </c>
       <c r="Q17">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="R17">
         <v>3</v>
@@ -1682,43 +1682,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>22026</v>
+        <v>22028</v>
       </c>
       <c r="C18" t="s">
         <v>33</v>
       </c>
       <c r="D18">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E18">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F18">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G18">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="H18">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>7</v>
+      </c>
+      <c r="K18">
+        <v>81</v>
+      </c>
+      <c r="L18">
+        <v>16</v>
+      </c>
+      <c r="M18">
         <v>8</v>
       </c>
-      <c r="J18">
-        <v>10</v>
-      </c>
-      <c r="K18">
-        <v>97</v>
-      </c>
-      <c r="L18">
-        <v>19</v>
-      </c>
-      <c r="M18">
-        <v>18</v>
-      </c>
       <c r="N18">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="O18">
         <v>2</v>
@@ -1727,7 +1727,7 @@
         <v>2022</v>
       </c>
       <c r="Q18">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="R18">
         <v>3</v>
@@ -1738,52 +1738,52 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>22025</v>
+        <v>22027</v>
       </c>
       <c r="C19" t="s">
         <v>34</v>
       </c>
       <c r="D19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E19">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F19">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G19">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H19">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J19">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="K19">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="L19">
         <v>17</v>
       </c>
       <c r="M19">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="N19">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="O19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P19">
         <v>2022</v>
       </c>
       <c r="Q19">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="R19">
         <v>3</v>
@@ -1794,43 +1794,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22024</v>
+        <v>22026</v>
       </c>
       <c r="C20" t="s">
         <v>35</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="F20">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G20">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H20">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J20">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K20">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="L20">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M20">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="N20">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O20">
         <v>2</v>
@@ -1839,7 +1839,7 @@
         <v>2022</v>
       </c>
       <c r="Q20">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="R20">
         <v>3</v>
@@ -1850,7 +1850,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22023</v>
+        <v>22025</v>
       </c>
       <c r="C21" t="s">
         <v>36</v>
@@ -1859,34 +1859,34 @@
         <v>4</v>
       </c>
       <c r="E21">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F21">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G21">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H21">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I21">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="J21">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="K21">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="L21">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="M21">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="N21">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="O21">
         <v>3</v>
@@ -1895,7 +1895,7 @@
         <v>2022</v>
       </c>
       <c r="Q21">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R21">
         <v>3</v>
@@ -1906,7 +1906,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>22022</v>
+        <v>22024</v>
       </c>
       <c r="C22" t="s">
         <v>37</v>
@@ -1915,28 +1915,28 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G22">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="H22">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="I22">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J22">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="K22">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="L22">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M22">
         <v>13</v>
@@ -1951,7 +1951,7 @@
         <v>2022</v>
       </c>
       <c r="Q22">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="R22">
         <v>3</v>
@@ -1962,55 +1962,55 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>22021</v>
+        <v>22023</v>
       </c>
       <c r="C23" t="s">
         <v>38</v>
       </c>
       <c r="D23">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E23">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F23">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G23">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H23">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I23">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="J23">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K23">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="L23">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="M23">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="N23">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="O23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P23">
         <v>2022</v>
       </c>
       <c r="Q23">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="R23">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -2018,43 +2018,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22020</v>
+        <v>22022</v>
       </c>
       <c r="C24" t="s">
         <v>39</v>
       </c>
       <c r="D24">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E24">
+        <v>5</v>
+      </c>
+      <c r="F24">
+        <v>14</v>
+      </c>
+      <c r="G24">
         <v>17</v>
       </c>
-      <c r="F24">
-        <v>30</v>
-      </c>
-      <c r="G24">
-        <v>31</v>
-      </c>
       <c r="H24">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="I24">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J24">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K24">
-        <v>129</v>
+        <v>65</v>
       </c>
       <c r="L24">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M24">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N24">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O24">
         <v>2</v>
@@ -2063,10 +2063,10 @@
         <v>2022</v>
       </c>
       <c r="Q24">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="R24">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -2074,52 +2074,52 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22019</v>
+        <v>22021</v>
       </c>
       <c r="C25" t="s">
         <v>40</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E25">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F25">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="G25">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H25">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J25">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="K25">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="L25">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="M25">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="N25">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="O25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P25">
         <v>2022</v>
       </c>
       <c r="Q25">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="R25">
         <v>2</v>
@@ -2130,7 +2130,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>22018</v>
+        <v>22020</v>
       </c>
       <c r="C26" t="s">
         <v>41</v>
@@ -2139,34 +2139,34 @@
         <v>16</v>
       </c>
       <c r="E26">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F26">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G26">
         <v>31</v>
       </c>
       <c r="H26">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I26">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J26">
         <v>9</v>
       </c>
       <c r="K26">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L26">
         <v>26</v>
       </c>
       <c r="M26">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N26">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O26">
         <v>2</v>
@@ -2175,7 +2175,7 @@
         <v>2022</v>
       </c>
       <c r="Q26">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R26">
         <v>2</v>
@@ -2186,52 +2186,52 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>22017</v>
+        <v>22019</v>
       </c>
       <c r="C27" t="s">
         <v>42</v>
       </c>
       <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>4</v>
+      </c>
+      <c r="F27">
+        <v>7</v>
+      </c>
+      <c r="G27">
+        <v>17</v>
+      </c>
+      <c r="H27">
+        <v>21</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>2</v>
+      </c>
+      <c r="K27">
+        <v>50</v>
+      </c>
+      <c r="L27">
         <v>10</v>
       </c>
-      <c r="E27">
-        <v>14</v>
-      </c>
-      <c r="F27">
-        <v>18</v>
-      </c>
-      <c r="G27">
-        <v>23</v>
-      </c>
-      <c r="H27">
-        <v>25</v>
-      </c>
-      <c r="I27">
-        <v>7</v>
-      </c>
-      <c r="J27">
-        <v>11</v>
-      </c>
-      <c r="K27">
-        <v>90</v>
-      </c>
-      <c r="L27">
-        <v>18</v>
-      </c>
       <c r="M27">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="N27">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="O27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P27">
         <v>2022</v>
       </c>
       <c r="Q27">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="R27">
         <v>2</v>
@@ -2242,43 +2242,43 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>22016</v>
+        <v>22018</v>
       </c>
       <c r="C28" t="s">
         <v>43</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E28">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="F28">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="G28">
+        <v>31</v>
+      </c>
+      <c r="H28">
+        <v>34</v>
+      </c>
+      <c r="I28">
+        <v>6</v>
+      </c>
+      <c r="J28">
+        <v>9</v>
+      </c>
+      <c r="K28">
+        <v>131</v>
+      </c>
+      <c r="L28">
         <v>26</v>
       </c>
-      <c r="H28">
-        <v>32</v>
-      </c>
-      <c r="I28">
-        <v>1</v>
-      </c>
-      <c r="J28">
-        <v>9</v>
-      </c>
-      <c r="K28">
-        <v>83</v>
-      </c>
-      <c r="L28">
-        <v>17</v>
-      </c>
       <c r="M28">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N28">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="O28">
         <v>2</v>
@@ -2287,7 +2287,7 @@
         <v>2022</v>
       </c>
       <c r="Q28">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="R28">
         <v>2</v>
@@ -2298,52 +2298,52 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>22015</v>
+        <v>22017</v>
       </c>
       <c r="C29" t="s">
         <v>44</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E29">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="F29">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="G29">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="H29">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I29">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J29">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K29">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="L29">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="M29">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N29">
         <v>9</v>
       </c>
       <c r="O29">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P29">
         <v>2022</v>
       </c>
       <c r="Q29">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="R29">
         <v>2</v>
@@ -2354,7 +2354,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>22014</v>
+        <v>22016</v>
       </c>
       <c r="C30" t="s">
         <v>45</v>
@@ -2363,13 +2363,13 @@
         <v>1</v>
       </c>
       <c r="E30">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F30">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G30">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="H30">
         <v>32</v>
@@ -2381,10 +2381,10 @@
         <v>9</v>
       </c>
       <c r="K30">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="L30">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="M30">
         <v>10</v>
@@ -2393,13 +2393,13 @@
         <v>5</v>
       </c>
       <c r="O30">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P30">
         <v>2022</v>
       </c>
       <c r="Q30">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="R30">
         <v>2</v>
@@ -2410,52 +2410,52 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>22013</v>
+        <v>22015</v>
       </c>
       <c r="C31" t="s">
         <v>46</v>
       </c>
       <c r="D31">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E31">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F31">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G31">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="H31">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I31">
         <v>5</v>
       </c>
       <c r="J31">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="K31">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="L31">
+        <v>11</v>
+      </c>
+      <c r="M31">
         <v>17</v>
       </c>
-      <c r="M31">
-        <v>11</v>
-      </c>
       <c r="N31">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="O31">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P31">
         <v>2022</v>
       </c>
       <c r="Q31">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="R31">
         <v>2</v>
@@ -2466,55 +2466,55 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>22012</v>
+        <v>22014</v>
       </c>
       <c r="C32" t="s">
         <v>47</v>
       </c>
       <c r="D32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E32">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F32">
         <v>10</v>
       </c>
       <c r="G32">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="H32">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I32">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J32">
+        <v>9</v>
+      </c>
+      <c r="K32">
+        <v>65</v>
+      </c>
+      <c r="L32">
+        <v>13</v>
+      </c>
+      <c r="M32">
         <v>10</v>
       </c>
-      <c r="K32">
-        <v>85</v>
-      </c>
-      <c r="L32">
-        <v>17</v>
-      </c>
-      <c r="M32">
-        <v>17</v>
-      </c>
       <c r="N32">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O32">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P32">
         <v>2022</v>
       </c>
       <c r="Q32">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="R32">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -2522,22 +2522,22 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>22011</v>
+        <v>22013</v>
       </c>
       <c r="C33" t="s">
         <v>48</v>
       </c>
       <c r="D33">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E33">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F33">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G33">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H33">
         <v>32</v>
@@ -2546,31 +2546,31 @@
         <v>5</v>
       </c>
       <c r="J33">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="K33">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="L33">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M33">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="N33">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="O33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P33">
         <v>2022</v>
       </c>
       <c r="Q33">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="R33">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -2578,52 +2578,52 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>22010</v>
+        <v>22012</v>
       </c>
       <c r="C34" t="s">
         <v>49</v>
       </c>
       <c r="D34">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E34">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="F34">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G34">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H34">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I34">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J34">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K34">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="L34">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M34">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N34">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P34">
         <v>2022</v>
       </c>
       <c r="Q34">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="R34">
         <v>1</v>
@@ -2634,37 +2634,37 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>22009</v>
+        <v>22011</v>
       </c>
       <c r="C35" t="s">
         <v>50</v>
       </c>
       <c r="D35">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E35">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="F35">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G35">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="H35">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I35">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J35">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K35">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="L35">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="M35">
         <v>17</v>
@@ -2679,7 +2679,7 @@
         <v>2022</v>
       </c>
       <c r="Q35">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="R35">
         <v>1</v>
@@ -2690,37 +2690,37 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>22008</v>
+        <v>22010</v>
       </c>
       <c r="C36" t="s">
         <v>51</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E36">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="F36">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="G36">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="H36">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I36">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J36">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="K36">
-        <v>68</v>
+        <v>114</v>
       </c>
       <c r="L36">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="M36">
         <v>13</v>
@@ -2729,13 +2729,13 @@
         <v>7</v>
       </c>
       <c r="O36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P36">
         <v>2022</v>
       </c>
       <c r="Q36">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="R36">
         <v>1</v>
@@ -2746,52 +2746,52 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>22007</v>
+        <v>22009</v>
       </c>
       <c r="C37" t="s">
         <v>52</v>
       </c>
       <c r="D37">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E37">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F37">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="G37">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H37">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I37">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J37">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K37">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L37">
         <v>22</v>
       </c>
       <c r="M37">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="N37">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P37">
         <v>2022</v>
       </c>
       <c r="Q37">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="R37">
         <v>1</v>
@@ -2802,7 +2802,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>22006</v>
+        <v>22008</v>
       </c>
       <c r="C38" t="s">
         <v>53</v>
@@ -2811,43 +2811,43 @@
         <v>1</v>
       </c>
       <c r="E38">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F38">
+        <v>13</v>
+      </c>
+      <c r="G38">
+        <v>18</v>
+      </c>
+      <c r="H38">
+        <v>34</v>
+      </c>
+      <c r="I38">
+        <v>6</v>
+      </c>
+      <c r="J38">
         <v>7</v>
       </c>
-      <c r="G38">
-        <v>17</v>
-      </c>
-      <c r="H38">
-        <v>20</v>
-      </c>
-      <c r="I38">
-        <v>5</v>
-      </c>
-      <c r="J38">
-        <v>12</v>
-      </c>
       <c r="K38">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="L38">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="M38">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N38">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P38">
         <v>2022</v>
       </c>
       <c r="Q38">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="R38">
         <v>1</v>
@@ -2858,37 +2858,37 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>22005</v>
+        <v>22007</v>
       </c>
       <c r="C39" t="s">
         <v>54</v>
       </c>
       <c r="D39">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E39">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F39">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="G39">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="H39">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I39">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J39">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K39">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="L39">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="M39">
         <v>14</v>
@@ -2897,13 +2897,13 @@
         <v>7</v>
       </c>
       <c r="O39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P39">
         <v>2022</v>
       </c>
       <c r="Q39">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="R39">
         <v>1</v>
@@ -2914,52 +2914,52 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>22004</v>
+        <v>22006</v>
       </c>
       <c r="C40" t="s">
         <v>55</v>
       </c>
       <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>5</v>
+      </c>
+      <c r="F40">
         <v>7</v>
       </c>
-      <c r="E40">
+      <c r="G40">
+        <v>17</v>
+      </c>
+      <c r="H40">
         <v>20</v>
       </c>
-      <c r="F40">
-        <v>27</v>
-      </c>
-      <c r="G40">
-        <v>30</v>
-      </c>
-      <c r="H40">
-        <v>33</v>
-      </c>
       <c r="I40">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J40">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="K40">
-        <v>117</v>
+        <v>50</v>
       </c>
       <c r="L40">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="M40">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="N40">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="O40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P40">
         <v>2022</v>
       </c>
       <c r="Q40">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="R40">
         <v>1</v>
@@ -2970,7 +2970,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>22003</v>
+        <v>22005</v>
       </c>
       <c r="C41" t="s">
         <v>56</v>
@@ -2979,43 +2979,43 @@
         <v>2</v>
       </c>
       <c r="E41">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F41">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="G41">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H41">
         <v>34</v>
       </c>
       <c r="I41">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J41">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="K41">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="L41">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="M41">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="N41">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="O41">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P41">
         <v>2022</v>
       </c>
       <c r="Q41">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R41">
         <v>1</v>
@@ -3026,52 +3026,52 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>22002</v>
+        <v>22004</v>
       </c>
       <c r="C42" t="s">
         <v>57</v>
       </c>
       <c r="D42">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E42">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="F42">
+        <v>27</v>
+      </c>
+      <c r="G42">
+        <v>30</v>
+      </c>
+      <c r="H42">
+        <v>33</v>
+      </c>
+      <c r="I42">
+        <v>3</v>
+      </c>
+      <c r="J42">
+        <v>4</v>
+      </c>
+      <c r="K42">
+        <v>117</v>
+      </c>
+      <c r="L42">
+        <v>23</v>
+      </c>
+      <c r="M42">
         <v>7</v>
       </c>
-      <c r="G42">
-        <v>9</v>
-      </c>
-      <c r="H42">
-        <v>24</v>
-      </c>
-      <c r="I42">
-        <v>4</v>
-      </c>
-      <c r="J42">
-        <v>12</v>
-      </c>
-      <c r="K42">
-        <v>50</v>
-      </c>
-      <c r="L42">
-        <v>10</v>
-      </c>
-      <c r="M42">
-        <v>16</v>
-      </c>
       <c r="N42">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="O42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P42">
         <v>2022</v>
       </c>
       <c r="Q42">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R42">
         <v>1</v>
@@ -3082,52 +3082,52 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>22001</v>
+        <v>22003</v>
       </c>
       <c r="C43" t="s">
         <v>58</v>
       </c>
       <c r="D43">
+        <v>2</v>
+      </c>
+      <c r="E43">
+        <v>18</v>
+      </c>
+      <c r="F43">
+        <v>24</v>
+      </c>
+      <c r="G43">
+        <v>25</v>
+      </c>
+      <c r="H43">
+        <v>34</v>
+      </c>
+      <c r="I43">
         <v>8</v>
       </c>
-      <c r="E43">
-        <v>11</v>
-      </c>
-      <c r="F43">
-        <v>19</v>
-      </c>
-      <c r="G43">
-        <v>22</v>
-      </c>
-      <c r="H43">
-        <v>29</v>
-      </c>
-      <c r="I43">
-        <v>3</v>
-      </c>
       <c r="J43">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K43">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="L43">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M43">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="N43">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="O43">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P43">
         <v>2022</v>
       </c>
       <c r="Q43">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R43">
         <v>1</v>
@@ -3138,7 +3138,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>21150</v>
+        <v>22002</v>
       </c>
       <c r="C44" t="s">
         <v>59</v>
@@ -3147,46 +3147,46 @@
         <v>4</v>
       </c>
       <c r="E44">
+        <v>6</v>
+      </c>
+      <c r="F44">
+        <v>7</v>
+      </c>
+      <c r="G44">
+        <v>9</v>
+      </c>
+      <c r="H44">
+        <v>24</v>
+      </c>
+      <c r="I44">
+        <v>4</v>
+      </c>
+      <c r="J44">
+        <v>12</v>
+      </c>
+      <c r="K44">
+        <v>50</v>
+      </c>
+      <c r="L44">
         <v>10</v>
       </c>
-      <c r="F44">
-        <v>11</v>
-      </c>
-      <c r="G44">
-        <v>23</v>
-      </c>
-      <c r="H44">
-        <v>26</v>
-      </c>
-      <c r="I44">
-        <v>7</v>
-      </c>
-      <c r="J44">
-        <v>10</v>
-      </c>
-      <c r="K44">
-        <v>74</v>
-      </c>
-      <c r="L44">
-        <v>15</v>
-      </c>
       <c r="M44">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N44">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O44">
         <v>3</v>
       </c>
       <c r="P44">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="Q44">
-        <v>150</v>
+        <v>2</v>
       </c>
       <c r="R44">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:18">
@@ -3194,55 +3194,55 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>21149</v>
+        <v>22001</v>
       </c>
       <c r="C45" t="s">
         <v>60</v>
       </c>
       <c r="D45">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E45">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F45">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="G45">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H45">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="I45">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="J45">
         <v>11</v>
       </c>
       <c r="K45">
-        <v>139</v>
+        <v>89</v>
       </c>
       <c r="L45">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="M45">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="N45">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="O45">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P45">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="Q45">
-        <v>149</v>
+        <v>1</v>
       </c>
       <c r="R45">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -3250,43 +3250,43 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>21148</v>
+        <v>21150</v>
       </c>
       <c r="C46" t="s">
         <v>61</v>
       </c>
       <c r="D46">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E46">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F46">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G46">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="H46">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I46">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J46">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K46">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="L46">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="M46">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="N46">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="O46">
         <v>3</v>
@@ -3295,7 +3295,7 @@
         <v>2021</v>
       </c>
       <c r="Q46">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="R46">
         <v>12</v>
@@ -3306,43 +3306,43 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>21147</v>
+        <v>21149</v>
       </c>
       <c r="C47" t="s">
         <v>62</v>
       </c>
       <c r="D47">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E47">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="F47">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="G47">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="H47">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="I47">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J47">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="K47">
-        <v>49</v>
+        <v>139</v>
       </c>
       <c r="L47">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="M47">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="N47">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="O47">
         <v>4</v>
@@ -3351,7 +3351,7 @@
         <v>2021</v>
       </c>
       <c r="Q47">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="R47">
         <v>12</v>
@@ -3362,43 +3362,43 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>21146</v>
+        <v>21148</v>
       </c>
       <c r="C48" t="s">
         <v>63</v>
       </c>
       <c r="D48">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E48">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F48">
+        <v>12</v>
+      </c>
+      <c r="G48">
+        <v>16</v>
+      </c>
+      <c r="H48">
+        <v>29</v>
+      </c>
+      <c r="I48">
+        <v>4</v>
+      </c>
+      <c r="J48">
         <v>8</v>
       </c>
-      <c r="G48">
-        <v>18</v>
-      </c>
-      <c r="H48">
-        <v>20</v>
-      </c>
-      <c r="I48">
-        <v>9</v>
-      </c>
-      <c r="J48">
-        <v>11</v>
-      </c>
       <c r="K48">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="L48">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M48">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="N48">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="O48">
         <v>3</v>
@@ -3407,7 +3407,7 @@
         <v>2021</v>
       </c>
       <c r="Q48">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="R48">
         <v>12</v>
@@ -3418,52 +3418,52 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>21145</v>
+        <v>21147</v>
       </c>
       <c r="C49" t="s">
         <v>64</v>
       </c>
       <c r="D49">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E49">
+        <v>2</v>
+      </c>
+      <c r="F49">
         <v>8</v>
       </c>
-      <c r="F49">
-        <v>25</v>
-      </c>
       <c r="G49">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="H49">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I49">
         <v>1</v>
       </c>
       <c r="J49">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K49">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="L49">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="M49">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N49">
         <v>4</v>
       </c>
       <c r="O49">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P49">
         <v>2021</v>
       </c>
       <c r="Q49">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="R49">
         <v>12</v>
@@ -3474,7 +3474,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>21144</v>
+        <v>21146</v>
       </c>
       <c r="C50" t="s">
         <v>65</v>
@@ -3483,34 +3483,34 @@
         <v>3</v>
       </c>
       <c r="E50">
+        <v>5</v>
+      </c>
+      <c r="F50">
+        <v>8</v>
+      </c>
+      <c r="G50">
+        <v>18</v>
+      </c>
+      <c r="H50">
         <v>20</v>
       </c>
-      <c r="F50">
-        <v>25</v>
-      </c>
-      <c r="G50">
-        <v>30</v>
-      </c>
-      <c r="H50">
-        <v>34</v>
-      </c>
       <c r="I50">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J50">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K50">
-        <v>112</v>
+        <v>54</v>
       </c>
       <c r="L50">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="M50">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="N50">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="O50">
         <v>3</v>
@@ -3519,7 +3519,7 @@
         <v>2021</v>
       </c>
       <c r="Q50">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="R50">
         <v>12</v>
@@ -3530,52 +3530,52 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>21143</v>
+        <v>21145</v>
       </c>
       <c r="C51" t="s">
         <v>66</v>
       </c>
       <c r="D51">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E51">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F51">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="G51">
         <v>29</v>
       </c>
       <c r="H51">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I51">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J51">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="K51">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="L51">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="M51">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="N51">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="O51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P51">
         <v>2021</v>
       </c>
       <c r="Q51">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="R51">
         <v>12</v>
@@ -3586,25 +3586,25 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>21142</v>
+        <v>21144</v>
       </c>
       <c r="C52" t="s">
         <v>67</v>
       </c>
       <c r="D52">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E52">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F52">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="G52">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H52">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="I52">
         <v>2</v>
@@ -3613,10 +3613,10 @@
         <v>9</v>
       </c>
       <c r="K52">
-        <v>85</v>
+        <v>112</v>
       </c>
       <c r="L52">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="M52">
         <v>11</v>
@@ -3625,13 +3625,13 @@
         <v>6</v>
       </c>
       <c r="O52">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P52">
         <v>2021</v>
       </c>
       <c r="Q52">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="R52">
         <v>12</v>
@@ -3642,19 +3642,19 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>21141</v>
+        <v>21143</v>
       </c>
       <c r="C53" t="s">
         <v>68</v>
       </c>
       <c r="D53">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E53">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F53">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G53">
         <v>29</v>
@@ -3663,31 +3663,31 @@
         <v>34</v>
       </c>
       <c r="I53">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J53">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K53">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="L53">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="M53">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N53">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O53">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P53">
         <v>2021</v>
       </c>
       <c r="Q53">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="R53">
         <v>12</v>
@@ -3698,52 +3698,52 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>21140</v>
+        <v>21142</v>
       </c>
       <c r="C54" t="s">
         <v>69</v>
       </c>
       <c r="D54">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E54">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F54">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="G54">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="H54">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I54">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="J54">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="K54">
-        <v>123</v>
+        <v>85</v>
       </c>
       <c r="L54">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="M54">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="N54">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="O54">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P54">
         <v>2021</v>
       </c>
       <c r="Q54">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="R54">
         <v>12</v>
@@ -3754,37 +3754,37 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>21139</v>
+        <v>21141</v>
       </c>
       <c r="C55" t="s">
         <v>70</v>
       </c>
       <c r="D55">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E55">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F55">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G55">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="H55">
         <v>34</v>
       </c>
       <c r="I55">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J55">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K55">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="L55">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M55">
         <v>17</v>
@@ -3793,13 +3793,13 @@
         <v>9</v>
       </c>
       <c r="O55">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P55">
         <v>2021</v>
       </c>
       <c r="Q55">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="R55">
         <v>12</v>
@@ -3810,52 +3810,52 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>21138</v>
+        <v>21140</v>
       </c>
       <c r="C56" t="s">
         <v>71</v>
       </c>
       <c r="D56">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E56">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="F56">
+        <v>26</v>
+      </c>
+      <c r="G56">
+        <v>33</v>
+      </c>
+      <c r="H56">
+        <v>35</v>
+      </c>
+      <c r="I56">
+        <v>9</v>
+      </c>
+      <c r="J56">
         <v>12</v>
       </c>
-      <c r="G56">
-        <v>15</v>
-      </c>
-      <c r="H56">
-        <v>31</v>
-      </c>
-      <c r="I56">
-        <v>5</v>
-      </c>
-      <c r="J56">
-        <v>11</v>
-      </c>
       <c r="K56">
-        <v>78</v>
+        <v>123</v>
       </c>
       <c r="L56">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="M56">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="N56">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="O56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P56">
         <v>2021</v>
       </c>
       <c r="Q56">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="R56">
         <v>12</v>
@@ -3866,43 +3866,43 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>21137</v>
+        <v>21139</v>
       </c>
       <c r="C57" t="s">
         <v>72</v>
       </c>
       <c r="D57">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E57">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="F57">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G57">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="H57">
+        <v>34</v>
+      </c>
+      <c r="I57">
+        <v>8</v>
+      </c>
+      <c r="J57">
+        <v>9</v>
+      </c>
+      <c r="K57">
+        <v>93</v>
+      </c>
+      <c r="L57">
         <v>19</v>
       </c>
-      <c r="I57">
-        <v>4</v>
-      </c>
-      <c r="J57">
-        <v>5</v>
-      </c>
-      <c r="K57">
-        <v>55</v>
-      </c>
-      <c r="L57">
-        <v>11</v>
-      </c>
       <c r="M57">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="N57">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="O57">
         <v>2</v>
@@ -3911,10 +3911,10 @@
         <v>2021</v>
       </c>
       <c r="Q57">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="R57">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" spans="1:18">
@@ -3922,55 +3922,55 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>21136</v>
+        <v>21138</v>
       </c>
       <c r="C58" t="s">
         <v>73</v>
       </c>
       <c r="D58">
+        <v>9</v>
+      </c>
+      <c r="E58">
+        <v>11</v>
+      </c>
+      <c r="F58">
+        <v>12</v>
+      </c>
+      <c r="G58">
+        <v>15</v>
+      </c>
+      <c r="H58">
+        <v>31</v>
+      </c>
+      <c r="I58">
+        <v>5</v>
+      </c>
+      <c r="J58">
+        <v>11</v>
+      </c>
+      <c r="K58">
+        <v>78</v>
+      </c>
+      <c r="L58">
+        <v>16</v>
+      </c>
+      <c r="M58">
+        <v>16</v>
+      </c>
+      <c r="N58">
         <v>8</v>
       </c>
-      <c r="E58">
-        <v>12</v>
-      </c>
-      <c r="F58">
-        <v>19</v>
-      </c>
-      <c r="G58">
-        <v>27</v>
-      </c>
-      <c r="H58">
-        <v>33</v>
-      </c>
-      <c r="I58">
-        <v>2</v>
-      </c>
-      <c r="J58">
-        <v>5</v>
-      </c>
-      <c r="K58">
-        <v>99</v>
-      </c>
-      <c r="L58">
-        <v>20</v>
-      </c>
-      <c r="M58">
-        <v>7</v>
-      </c>
-      <c r="N58">
-        <v>4</v>
-      </c>
       <c r="O58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P58">
         <v>2021</v>
       </c>
       <c r="Q58">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="R58">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -3978,52 +3978,52 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>21135</v>
+        <v>21137</v>
       </c>
       <c r="C59" t="s">
         <v>74</v>
       </c>
       <c r="D59">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E59">
         <v>7</v>
       </c>
       <c r="F59">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G59">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="H59">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="I59">
+        <v>4</v>
+      </c>
+      <c r="J59">
         <v>5</v>
       </c>
-      <c r="J59">
-        <v>6</v>
-      </c>
       <c r="K59">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="L59">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="M59">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="N59">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P59">
         <v>2021</v>
       </c>
       <c r="Q59">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="R59">
         <v>11</v>
@@ -4034,37 +4034,37 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>21134</v>
+        <v>21136</v>
       </c>
       <c r="C60" t="s">
         <v>75</v>
       </c>
       <c r="D60">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E60">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F60">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G60">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="H60">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="I60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J60">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K60">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="L60">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="M60">
         <v>7</v>
@@ -4073,13 +4073,13 @@
         <v>4</v>
       </c>
       <c r="O60">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P60">
         <v>2021</v>
       </c>
       <c r="Q60">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="R60">
         <v>11</v>
@@ -4090,31 +4090,31 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>21133</v>
+        <v>21135</v>
       </c>
       <c r="C61" t="s">
         <v>76</v>
       </c>
       <c r="D61">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E61">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F61">
         <v>17</v>
       </c>
       <c r="G61">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H61">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I61">
+        <v>5</v>
+      </c>
+      <c r="J61">
         <v>6</v>
-      </c>
-      <c r="J61">
-        <v>8</v>
       </c>
       <c r="K61">
         <v>88</v>
@@ -4123,19 +4123,19 @@
         <v>18</v>
       </c>
       <c r="M61">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="N61">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O61">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P61">
         <v>2021</v>
       </c>
       <c r="Q61">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="R61">
         <v>11</v>
@@ -4146,52 +4146,52 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>21132</v>
+        <v>21134</v>
       </c>
       <c r="C62" t="s">
         <v>77</v>
       </c>
       <c r="D62">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E62">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="F62">
+        <v>14</v>
+      </c>
+      <c r="G62">
+        <v>19</v>
+      </c>
+      <c r="H62">
         <v>28</v>
       </c>
-      <c r="G62">
-        <v>29</v>
-      </c>
-      <c r="H62">
-        <v>33</v>
-      </c>
       <c r="I62">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J62">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="K62">
-        <v>115</v>
+        <v>69</v>
       </c>
       <c r="L62">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="M62">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N62">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="O62">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P62">
         <v>2021</v>
       </c>
       <c r="Q62">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="R62">
         <v>11</v>
@@ -4202,52 +4202,52 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>21131</v>
+        <v>21133</v>
       </c>
       <c r="C63" t="s">
         <v>78</v>
       </c>
       <c r="D63">
+        <v>8</v>
+      </c>
+      <c r="E63">
+        <v>9</v>
+      </c>
+      <c r="F63">
+        <v>17</v>
+      </c>
+      <c r="G63">
+        <v>26</v>
+      </c>
+      <c r="H63">
+        <v>28</v>
+      </c>
+      <c r="I63">
         <v>6</v>
       </c>
-      <c r="E63">
+      <c r="J63">
         <v>8</v>
       </c>
-      <c r="F63">
-        <v>16</v>
-      </c>
-      <c r="G63">
-        <v>34</v>
-      </c>
-      <c r="H63">
-        <v>35</v>
-      </c>
-      <c r="I63">
-        <v>5</v>
-      </c>
-      <c r="J63">
-        <v>6</v>
-      </c>
       <c r="K63">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="L63">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M63">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="N63">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O63">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P63">
         <v>2021</v>
       </c>
       <c r="Q63">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="R63">
         <v>11</v>
@@ -4258,52 +4258,52 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>21130</v>
+        <v>21132</v>
       </c>
       <c r="C64" t="s">
         <v>79</v>
       </c>
       <c r="D64">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E64">
+        <v>21</v>
+      </c>
+      <c r="F64">
+        <v>28</v>
+      </c>
+      <c r="G64">
+        <v>29</v>
+      </c>
+      <c r="H64">
+        <v>33</v>
+      </c>
+      <c r="I64">
         <v>3</v>
       </c>
-      <c r="F64">
+      <c r="J64">
+        <v>11</v>
+      </c>
+      <c r="K64">
+        <v>115</v>
+      </c>
+      <c r="L64">
+        <v>23</v>
+      </c>
+      <c r="M64">
         <v>14</v>
       </c>
-      <c r="G64">
-        <v>27</v>
-      </c>
-      <c r="H64">
-        <v>28</v>
-      </c>
-      <c r="I64">
-        <v>5</v>
-      </c>
-      <c r="J64">
-        <v>10</v>
-      </c>
-      <c r="K64">
-        <v>74</v>
-      </c>
-      <c r="L64">
-        <v>15</v>
-      </c>
-      <c r="M64">
-        <v>15</v>
-      </c>
       <c r="N64">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O64">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P64">
         <v>2021</v>
       </c>
       <c r="Q64">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="R64">
         <v>11</v>
@@ -4314,43 +4314,43 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>21129</v>
+        <v>21131</v>
       </c>
       <c r="C65" t="s">
         <v>80</v>
       </c>
       <c r="D65">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E65">
+        <v>8</v>
+      </c>
+      <c r="F65">
         <v>16</v>
       </c>
-      <c r="F65">
-        <v>17</v>
-      </c>
       <c r="G65">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="H65">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I65">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J65">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="K65">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="L65">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M65">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="N65">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O65">
         <v>4</v>
@@ -4359,7 +4359,7 @@
         <v>2021</v>
       </c>
       <c r="Q65">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="R65">
         <v>11</v>
@@ -4370,52 +4370,52 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>21128</v>
+        <v>21130</v>
       </c>
       <c r="C66" t="s">
         <v>81</v>
       </c>
       <c r="D66">
+        <v>2</v>
+      </c>
+      <c r="E66">
+        <v>3</v>
+      </c>
+      <c r="F66">
         <v>14</v>
       </c>
-      <c r="E66">
-        <v>17</v>
-      </c>
-      <c r="F66">
-        <v>18</v>
-      </c>
       <c r="G66">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H66">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I66">
         <v>5</v>
       </c>
       <c r="J66">
+        <v>10</v>
+      </c>
+      <c r="K66">
+        <v>74</v>
+      </c>
+      <c r="L66">
+        <v>15</v>
+      </c>
+      <c r="M66">
+        <v>15</v>
+      </c>
+      <c r="N66">
         <v>8</v>
       </c>
-      <c r="K66">
-        <v>99</v>
-      </c>
-      <c r="L66">
-        <v>20</v>
-      </c>
-      <c r="M66">
-        <v>13</v>
-      </c>
-      <c r="N66">
-        <v>7</v>
-      </c>
       <c r="O66">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P66">
         <v>2021</v>
       </c>
       <c r="Q66">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="R66">
         <v>11</v>
@@ -4426,52 +4426,52 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>21127</v>
+        <v>21129</v>
       </c>
       <c r="C67" t="s">
         <v>82</v>
       </c>
       <c r="D67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E67">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="F67">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G67">
+        <v>18</v>
+      </c>
+      <c r="H67">
+        <v>34</v>
+      </c>
+      <c r="I67">
+        <v>4</v>
+      </c>
+      <c r="J67">
+        <v>10</v>
+      </c>
+      <c r="K67">
+        <v>87</v>
+      </c>
+      <c r="L67">
         <v>17</v>
       </c>
-      <c r="H67">
-        <v>26</v>
-      </c>
-      <c r="I67">
-        <v>2</v>
-      </c>
-      <c r="J67">
-        <v>11</v>
-      </c>
-      <c r="K67">
-        <v>61</v>
-      </c>
-      <c r="L67">
-        <v>12</v>
-      </c>
       <c r="M67">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N67">
         <v>7</v>
       </c>
       <c r="O67">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P67">
         <v>2021</v>
       </c>
       <c r="Q67">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="R67">
         <v>11</v>
@@ -4482,43 +4482,43 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>21126</v>
+        <v>21128</v>
       </c>
       <c r="C68" t="s">
         <v>83</v>
       </c>
       <c r="D68">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E68">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F68">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G68">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="H68">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="I68">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J68">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="K68">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="L68">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M68">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="N68">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="O68">
         <v>2</v>
@@ -4527,7 +4527,7 @@
         <v>2021</v>
       </c>
       <c r="Q68">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="R68">
         <v>11</v>
@@ -4538,37 +4538,37 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>21125</v>
+        <v>21127</v>
       </c>
       <c r="C69" t="s">
         <v>84</v>
       </c>
       <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69">
+        <v>2</v>
+      </c>
+      <c r="F69">
+        <v>15</v>
+      </c>
+      <c r="G69">
         <v>17</v>
       </c>
-      <c r="E69">
-        <v>19</v>
-      </c>
-      <c r="F69">
-        <v>21</v>
-      </c>
-      <c r="G69">
-        <v>27</v>
-      </c>
       <c r="H69">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I69">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J69">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K69">
-        <v>115</v>
+        <v>61</v>
       </c>
       <c r="L69">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="M69">
         <v>13</v>
@@ -4577,13 +4577,13 @@
         <v>7</v>
       </c>
       <c r="O69">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P69">
         <v>2021</v>
       </c>
       <c r="Q69">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="R69">
         <v>11</v>
@@ -4594,43 +4594,43 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>21124</v>
+        <v>21126</v>
       </c>
       <c r="C70" t="s">
         <v>85</v>
       </c>
       <c r="D70">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E70">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F70">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G70">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="H70">
         <v>35</v>
       </c>
       <c r="I70">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J70">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K70">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="L70">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="M70">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="N70">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="O70">
         <v>2</v>
@@ -4639,10 +4639,10 @@
         <v>2021</v>
       </c>
       <c r="Q70">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="R70">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="71" spans="1:18">
@@ -4650,55 +4650,55 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>21123</v>
+        <v>21125</v>
       </c>
       <c r="C71" t="s">
         <v>86</v>
       </c>
       <c r="D71">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E71">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F71">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G71">
         <v>27</v>
       </c>
       <c r="H71">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I71">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J71">
         <v>9</v>
       </c>
       <c r="K71">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L71">
         <v>23</v>
       </c>
       <c r="M71">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N71">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O71">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P71">
         <v>2021</v>
       </c>
       <c r="Q71">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="R71">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -4706,43 +4706,43 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>21122</v>
+        <v>21124</v>
       </c>
       <c r="C72" t="s">
         <v>87</v>
       </c>
       <c r="D72">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E72">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F72">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G72">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H72">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="I72">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J72">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K72">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L72">
         <v>22</v>
       </c>
       <c r="M72">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="N72">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="O72">
         <v>2</v>
@@ -4751,7 +4751,7 @@
         <v>2021</v>
       </c>
       <c r="Q72">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="R72">
         <v>10</v>
@@ -4762,43 +4762,43 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>21121</v>
+        <v>21123</v>
       </c>
       <c r="C73" t="s">
         <v>88</v>
       </c>
       <c r="D73">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E73">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F73">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G73">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H73">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I73">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J73">
         <v>9</v>
       </c>
       <c r="K73">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="L73">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M73">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="N73">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="O73">
         <v>2</v>
@@ -4807,7 +4807,7 @@
         <v>2021</v>
       </c>
       <c r="Q73">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="R73">
         <v>10</v>
@@ -4818,52 +4818,52 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>21120</v>
+        <v>21122</v>
       </c>
       <c r="C74" t="s">
         <v>89</v>
       </c>
       <c r="D74">
+        <v>14</v>
+      </c>
+      <c r="E74">
+        <v>15</v>
+      </c>
+      <c r="F74">
+        <v>26</v>
+      </c>
+      <c r="G74">
+        <v>27</v>
+      </c>
+      <c r="H74">
+        <v>29</v>
+      </c>
+      <c r="I74">
+        <v>4</v>
+      </c>
+      <c r="J74">
         <v>5</v>
       </c>
-      <c r="E74">
-        <v>10</v>
-      </c>
-      <c r="F74">
-        <v>21</v>
-      </c>
-      <c r="G74">
-        <v>25</v>
-      </c>
-      <c r="H74">
-        <v>31</v>
-      </c>
-      <c r="I74">
+      <c r="K74">
+        <v>111</v>
+      </c>
+      <c r="L74">
+        <v>22</v>
+      </c>
+      <c r="M74">
+        <v>9</v>
+      </c>
+      <c r="N74">
         <v>5</v>
       </c>
-      <c r="J74">
-        <v>11</v>
-      </c>
-      <c r="K74">
-        <v>92</v>
-      </c>
-      <c r="L74">
-        <v>18</v>
-      </c>
-      <c r="M74">
-        <v>16</v>
-      </c>
-      <c r="N74">
-        <v>8</v>
-      </c>
       <c r="O74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P74">
         <v>2021</v>
       </c>
       <c r="Q74">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="R74">
         <v>10</v>
@@ -4874,52 +4874,52 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>21119</v>
+        <v>21121</v>
       </c>
       <c r="C75" t="s">
         <v>90</v>
       </c>
       <c r="D75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E75">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="F75">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="G75">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="H75">
         <v>30</v>
       </c>
       <c r="I75">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="J75">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K75">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="L75">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="M75">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="N75">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="O75">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P75">
         <v>2021</v>
       </c>
       <c r="Q75">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="R75">
         <v>10</v>
@@ -4930,52 +4930,52 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>21118</v>
+        <v>21120</v>
       </c>
       <c r="C76" t="s">
         <v>91</v>
       </c>
       <c r="D76">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E76">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F76">
+        <v>21</v>
+      </c>
+      <c r="G76">
+        <v>25</v>
+      </c>
+      <c r="H76">
+        <v>31</v>
+      </c>
+      <c r="I76">
+        <v>5</v>
+      </c>
+      <c r="J76">
+        <v>11</v>
+      </c>
+      <c r="K76">
+        <v>92</v>
+      </c>
+      <c r="L76">
         <v>18</v>
       </c>
-      <c r="G76">
-        <v>28</v>
-      </c>
-      <c r="H76">
-        <v>34</v>
-      </c>
-      <c r="I76">
-        <v>2</v>
-      </c>
-      <c r="J76">
-        <v>3</v>
-      </c>
-      <c r="K76">
-        <v>111</v>
-      </c>
-      <c r="L76">
-        <v>22</v>
-      </c>
       <c r="M76">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="N76">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="O76">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P76">
         <v>2021</v>
       </c>
       <c r="Q76">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="R76">
         <v>10</v>
@@ -4986,52 +4986,52 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>21117</v>
+        <v>21119</v>
       </c>
       <c r="C77" t="s">
         <v>92</v>
       </c>
       <c r="D77">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E77">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F77">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="G77">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H77">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I77">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J77">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K77">
-        <v>105</v>
+        <v>58</v>
       </c>
       <c r="L77">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="M77">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="N77">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="O77">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P77">
         <v>2021</v>
       </c>
       <c r="Q77">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="R77">
         <v>10</v>
@@ -5042,52 +5042,52 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>21116</v>
+        <v>21118</v>
       </c>
       <c r="C78" t="s">
         <v>93</v>
       </c>
       <c r="D78">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E78">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="F78">
+        <v>18</v>
+      </c>
+      <c r="G78">
         <v>28</v>
       </c>
-      <c r="G78">
-        <v>29</v>
-      </c>
       <c r="H78">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I78">
+        <v>2</v>
+      </c>
+      <c r="J78">
         <v>3</v>
       </c>
-      <c r="J78">
-        <v>11</v>
-      </c>
       <c r="K78">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="L78">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M78">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="N78">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="O78">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P78">
         <v>2021</v>
       </c>
       <c r="Q78">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="R78">
         <v>10</v>
@@ -5098,43 +5098,43 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>21115</v>
+        <v>21117</v>
       </c>
       <c r="C79" t="s">
         <v>94</v>
       </c>
       <c r="D79">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E79">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F79">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G79">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H79">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I79">
+        <v>5</v>
+      </c>
+      <c r="J79">
         <v>6</v>
       </c>
-      <c r="J79">
-        <v>10</v>
-      </c>
       <c r="K79">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="L79">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M79">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="N79">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O79">
         <v>2</v>
@@ -5143,7 +5143,7 @@
         <v>2021</v>
       </c>
       <c r="Q79">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="R79">
         <v>10</v>
@@ -5154,43 +5154,43 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>21114</v>
+        <v>21116</v>
       </c>
       <c r="C80" t="s">
         <v>95</v>
       </c>
       <c r="D80">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E80">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="F80">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="G80">
         <v>29</v>
       </c>
       <c r="H80">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="I80">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J80">
         <v>11</v>
       </c>
       <c r="K80">
-        <v>89</v>
+        <v>121</v>
       </c>
       <c r="L80">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="M80">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N80">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O80">
         <v>2</v>
@@ -5199,7 +5199,7 @@
         <v>2021</v>
       </c>
       <c r="Q80">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="R80">
         <v>10</v>
@@ -5210,43 +5210,43 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>21113</v>
+        <v>21115</v>
       </c>
       <c r="C81" t="s">
         <v>96</v>
       </c>
       <c r="D81">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E81">
+        <v>13</v>
+      </c>
+      <c r="F81">
+        <v>19</v>
+      </c>
+      <c r="G81">
+        <v>20</v>
+      </c>
+      <c r="H81">
+        <v>29</v>
+      </c>
+      <c r="I81">
+        <v>6</v>
+      </c>
+      <c r="J81">
+        <v>10</v>
+      </c>
+      <c r="K81">
+        <v>89</v>
+      </c>
+      <c r="L81">
         <v>18</v>
       </c>
-      <c r="F81">
-        <v>25</v>
-      </c>
-      <c r="G81">
-        <v>27</v>
-      </c>
-      <c r="H81">
-        <v>28</v>
-      </c>
-      <c r="I81">
-        <v>4</v>
-      </c>
-      <c r="J81">
+      <c r="M81">
+        <v>16</v>
+      </c>
+      <c r="N81">
         <v>8</v>
-      </c>
-      <c r="K81">
-        <v>115</v>
-      </c>
-      <c r="L81">
-        <v>23</v>
-      </c>
-      <c r="M81">
-        <v>12</v>
-      </c>
-      <c r="N81">
-        <v>6</v>
       </c>
       <c r="O81">
         <v>2</v>
@@ -5255,10 +5255,10 @@
         <v>2021</v>
       </c>
       <c r="Q81">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="R81">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="82" spans="1:18">
@@ -5266,43 +5266,43 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>21112</v>
+        <v>21114</v>
       </c>
       <c r="C82" t="s">
         <v>97</v>
       </c>
       <c r="D82">
+        <v>8</v>
+      </c>
+      <c r="E82">
+        <v>9</v>
+      </c>
+      <c r="F82">
+        <v>13</v>
+      </c>
+      <c r="G82">
+        <v>29</v>
+      </c>
+      <c r="H82">
+        <v>30</v>
+      </c>
+      <c r="I82">
+        <v>1</v>
+      </c>
+      <c r="J82">
+        <v>11</v>
+      </c>
+      <c r="K82">
+        <v>89</v>
+      </c>
+      <c r="L82">
         <v>18</v>
       </c>
-      <c r="E82">
-        <v>21</v>
-      </c>
-      <c r="F82">
-        <v>22</v>
-      </c>
-      <c r="G82">
-        <v>23</v>
-      </c>
-      <c r="H82">
-        <v>35</v>
-      </c>
-      <c r="I82">
-        <v>11</v>
-      </c>
-      <c r="J82">
+      <c r="M82">
         <v>12</v>
       </c>
-      <c r="K82">
-        <v>119</v>
-      </c>
-      <c r="L82">
-        <v>24</v>
-      </c>
-      <c r="M82">
-        <v>23</v>
-      </c>
       <c r="N82">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="O82">
         <v>2</v>
@@ -5311,10 +5311,10 @@
         <v>2021</v>
       </c>
       <c r="Q82">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="R82">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="83" spans="1:18">
@@ -5322,43 +5322,43 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>21111</v>
+        <v>21113</v>
       </c>
       <c r="C83" t="s">
         <v>98</v>
       </c>
       <c r="D83">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E83">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F83">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G83">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="H83">
         <v>28</v>
       </c>
       <c r="I83">
+        <v>4</v>
+      </c>
+      <c r="J83">
         <v>8</v>
       </c>
-      <c r="J83">
-        <v>9</v>
-      </c>
       <c r="K83">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="L83">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M83">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="N83">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="O83">
         <v>2</v>
@@ -5367,7 +5367,7 @@
         <v>2021</v>
       </c>
       <c r="Q83">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="R83">
         <v>9</v>
@@ -5378,25 +5378,25 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>21110</v>
+        <v>21112</v>
       </c>
       <c r="C84" t="s">
         <v>99</v>
       </c>
       <c r="D84">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E84">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F84">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="G84">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="H84">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I84">
         <v>11</v>
@@ -5405,10 +5405,10 @@
         <v>12</v>
       </c>
       <c r="K84">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L84">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M84">
         <v>23</v>
@@ -5423,7 +5423,7 @@
         <v>2021</v>
       </c>
       <c r="Q84">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="R84">
         <v>9</v>
@@ -5434,52 +5434,52 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>21109</v>
+        <v>21111</v>
       </c>
       <c r="C85" t="s">
         <v>100</v>
       </c>
       <c r="D85">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E85">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F85">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="G85">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="H85">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I85">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J85">
         <v>9</v>
       </c>
       <c r="K85">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="L85">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M85">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N85">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P85">
         <v>2021</v>
       </c>
       <c r="Q85">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="R85">
         <v>9</v>
@@ -5490,43 +5490,43 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>21108</v>
+        <v>21110</v>
       </c>
       <c r="C86" t="s">
         <v>101</v>
       </c>
       <c r="D86">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E86">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F86">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G86">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H86">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I86">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="J86">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="K86">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="L86">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M86">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="N86">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="O86">
         <v>2</v>
@@ -5535,7 +5535,7 @@
         <v>2021</v>
       </c>
       <c r="Q86">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="R86">
         <v>9</v>
@@ -5546,7 +5546,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>21107</v>
+        <v>21109</v>
       </c>
       <c r="C87" t="s">
         <v>102</v>
@@ -5555,34 +5555,34 @@
         <v>3</v>
       </c>
       <c r="E87">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F87">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="G87">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="H87">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I87">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J87">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K87">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L87">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M87">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N87">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O87">
         <v>1</v>
@@ -5591,7 +5591,7 @@
         <v>2021</v>
       </c>
       <c r="Q87">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="R87">
         <v>9</v>
@@ -5602,52 +5602,52 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>21106</v>
+        <v>21108</v>
       </c>
       <c r="C88" t="s">
         <v>103</v>
       </c>
       <c r="D88">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E88">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F88">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G88">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="H88">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I88">
         <v>2</v>
       </c>
       <c r="J88">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="K88">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="L88">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M88">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="N88">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="O88">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P88">
         <v>2021</v>
       </c>
       <c r="Q88">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="R88">
         <v>9</v>
@@ -5658,52 +5658,52 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>21105</v>
+        <v>21107</v>
       </c>
       <c r="C89" t="s">
         <v>104</v>
       </c>
       <c r="D89">
+        <v>3</v>
+      </c>
+      <c r="E89">
+        <v>5</v>
+      </c>
+      <c r="F89">
+        <v>13</v>
+      </c>
+      <c r="G89">
+        <v>20</v>
+      </c>
+      <c r="H89">
+        <v>25</v>
+      </c>
+      <c r="I89">
         <v>7</v>
       </c>
-      <c r="E89">
-        <v>10</v>
-      </c>
-      <c r="F89">
-        <v>11</v>
-      </c>
-      <c r="G89">
-        <v>17</v>
-      </c>
-      <c r="H89">
-        <v>18</v>
-      </c>
-      <c r="I89">
-        <v>4</v>
-      </c>
       <c r="J89">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K89">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="L89">
         <v>13</v>
       </c>
       <c r="M89">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="N89">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O89">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P89">
         <v>2021</v>
       </c>
       <c r="Q89">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="R89">
         <v>9</v>
@@ -5714,37 +5714,37 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>21104</v>
+        <v>21106</v>
       </c>
       <c r="C90" t="s">
         <v>105</v>
       </c>
       <c r="D90">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="E90">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="F90">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="G90">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H90">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I90">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J90">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K90">
-        <v>137</v>
+        <v>95</v>
       </c>
       <c r="L90">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="M90">
         <v>14</v>
@@ -5753,13 +5753,13 @@
         <v>7</v>
       </c>
       <c r="O90">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P90">
         <v>2021</v>
       </c>
       <c r="Q90">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="R90">
         <v>9</v>
@@ -5770,52 +5770,52 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>21103</v>
+        <v>21105</v>
       </c>
       <c r="C91" t="s">
         <v>106</v>
       </c>
       <c r="D91">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E91">
         <v>10</v>
       </c>
       <c r="F91">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="G91">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="H91">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="I91">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J91">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K91">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="L91">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M91">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="N91">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O91">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P91">
         <v>2021</v>
       </c>
       <c r="Q91">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="R91">
         <v>9</v>
@@ -5826,52 +5826,52 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>21102</v>
+        <v>21104</v>
       </c>
       <c r="C92" t="s">
         <v>107</v>
       </c>
       <c r="D92">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="E92">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="F92">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G92">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="H92">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I92">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J92">
+        <v>11</v>
+      </c>
+      <c r="K92">
+        <v>137</v>
+      </c>
+      <c r="L92">
+        <v>27</v>
+      </c>
+      <c r="M92">
+        <v>14</v>
+      </c>
+      <c r="N92">
         <v>7</v>
       </c>
-      <c r="K92">
-        <v>60</v>
-      </c>
-      <c r="L92">
-        <v>12</v>
-      </c>
-      <c r="M92">
-        <v>9</v>
-      </c>
-      <c r="N92">
-        <v>5</v>
-      </c>
       <c r="O92">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P92">
         <v>2021</v>
       </c>
       <c r="Q92">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="R92">
         <v>9</v>
@@ -5882,52 +5882,52 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>21101</v>
+        <v>21103</v>
       </c>
       <c r="C93" t="s">
         <v>108</v>
       </c>
       <c r="D93">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="E93">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F93">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G93">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H93">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I93">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J93">
         <v>11</v>
       </c>
       <c r="K93">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="L93">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M93">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N93">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O93">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P93">
         <v>2021</v>
       </c>
       <c r="Q93">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="R93">
         <v>9</v>
@@ -5938,25 +5938,25 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>21100</v>
+        <v>21102</v>
       </c>
       <c r="C94" t="s">
         <v>109</v>
       </c>
       <c r="D94">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E94">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F94">
+        <v>11</v>
+      </c>
+      <c r="G94">
+        <v>16</v>
+      </c>
+      <c r="H94">
         <v>23</v>
-      </c>
-      <c r="G94">
-        <v>26</v>
-      </c>
-      <c r="H94">
-        <v>28</v>
       </c>
       <c r="I94">
         <v>2</v>
@@ -5965,10 +5965,10 @@
         <v>7</v>
       </c>
       <c r="K94">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="L94">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="M94">
         <v>9</v>
@@ -5977,16 +5977,16 @@
         <v>5</v>
       </c>
       <c r="O94">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P94">
         <v>2021</v>
       </c>
       <c r="Q94">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="R94">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="95" spans="1:18">
@@ -5994,43 +5994,43 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>21099</v>
+        <v>21101</v>
       </c>
       <c r="C95" t="s">
         <v>110</v>
       </c>
       <c r="D95">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E95">
+        <v>18</v>
+      </c>
+      <c r="F95">
         <v>19</v>
       </c>
-      <c r="F95">
+      <c r="G95">
         <v>27</v>
       </c>
-      <c r="G95">
-        <v>28</v>
-      </c>
       <c r="H95">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I95">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J95">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="K95">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="L95">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M95">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="N95">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="O95">
         <v>2</v>
@@ -6039,10 +6039,10 @@
         <v>2021</v>
       </c>
       <c r="Q95">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="R95">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="96" spans="1:18">
@@ -6050,52 +6050,52 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>21098</v>
+        <v>21100</v>
       </c>
       <c r="C96" t="s">
         <v>111</v>
       </c>
       <c r="D96">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E96">
+        <v>11</v>
+      </c>
+      <c r="F96">
+        <v>23</v>
+      </c>
+      <c r="G96">
+        <v>26</v>
+      </c>
+      <c r="H96">
+        <v>28</v>
+      </c>
+      <c r="I96">
+        <v>2</v>
+      </c>
+      <c r="J96">
         <v>7</v>
       </c>
-      <c r="F96">
-        <v>21</v>
-      </c>
-      <c r="G96">
-        <v>27</v>
-      </c>
-      <c r="H96">
-        <v>33</v>
-      </c>
-      <c r="I96">
-        <v>7</v>
-      </c>
-      <c r="J96">
-        <v>9</v>
-      </c>
       <c r="K96">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="L96">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M96">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="N96">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="O96">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P96">
         <v>2021</v>
       </c>
       <c r="Q96">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="R96">
         <v>8</v>
@@ -6106,43 +6106,43 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>21097</v>
+        <v>21099</v>
       </c>
       <c r="C97" t="s">
         <v>112</v>
       </c>
       <c r="D97">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E97">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F97">
+        <v>27</v>
+      </c>
+      <c r="G97">
+        <v>28</v>
+      </c>
+      <c r="H97">
         <v>30</v>
-      </c>
-      <c r="G97">
-        <v>31</v>
-      </c>
-      <c r="H97">
-        <v>33</v>
       </c>
       <c r="I97">
         <v>3</v>
       </c>
       <c r="J97">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="K97">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="L97">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M97">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="N97">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="O97">
         <v>2</v>
@@ -6151,7 +6151,7 @@
         <v>2021</v>
       </c>
       <c r="Q97">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="R97">
         <v>8</v>
@@ -6162,52 +6162,52 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>21096</v>
+        <v>21098</v>
       </c>
       <c r="C98" t="s">
         <v>113</v>
       </c>
       <c r="D98">
+        <v>2</v>
+      </c>
+      <c r="E98">
         <v>7</v>
       </c>
-      <c r="E98">
+      <c r="F98">
+        <v>21</v>
+      </c>
+      <c r="G98">
+        <v>27</v>
+      </c>
+      <c r="H98">
+        <v>33</v>
+      </c>
+      <c r="I98">
+        <v>7</v>
+      </c>
+      <c r="J98">
+        <v>9</v>
+      </c>
+      <c r="K98">
+        <v>90</v>
+      </c>
+      <c r="L98">
+        <v>18</v>
+      </c>
+      <c r="M98">
+        <v>16</v>
+      </c>
+      <c r="N98">
         <v>8</v>
       </c>
-      <c r="F98">
-        <v>10</v>
-      </c>
-      <c r="G98">
-        <v>20</v>
-      </c>
-      <c r="H98">
-        <v>21</v>
-      </c>
-      <c r="I98">
+      <c r="O98">
         <v>1</v>
-      </c>
-      <c r="J98">
-        <v>5</v>
-      </c>
-      <c r="K98">
-        <v>66</v>
-      </c>
-      <c r="L98">
-        <v>13</v>
-      </c>
-      <c r="M98">
-        <v>6</v>
-      </c>
-      <c r="N98">
-        <v>3</v>
-      </c>
-      <c r="O98">
-        <v>3</v>
       </c>
       <c r="P98">
         <v>2021</v>
       </c>
       <c r="Q98">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="R98">
         <v>8</v>
@@ -6218,52 +6218,52 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>21095</v>
+        <v>21097</v>
       </c>
       <c r="C99" t="s">
         <v>114</v>
       </c>
       <c r="D99">
+        <v>11</v>
+      </c>
+      <c r="E99">
+        <v>26</v>
+      </c>
+      <c r="F99">
+        <v>30</v>
+      </c>
+      <c r="G99">
+        <v>31</v>
+      </c>
+      <c r="H99">
+        <v>33</v>
+      </c>
+      <c r="I99">
+        <v>3</v>
+      </c>
+      <c r="J99">
         <v>10</v>
       </c>
-      <c r="E99">
-        <v>15</v>
-      </c>
-      <c r="F99">
-        <v>19</v>
-      </c>
-      <c r="G99">
-        <v>20</v>
-      </c>
-      <c r="H99">
-        <v>30</v>
-      </c>
-      <c r="I99">
-        <v>11</v>
-      </c>
-      <c r="J99">
-        <v>12</v>
-      </c>
       <c r="K99">
-        <v>94</v>
+        <v>131</v>
       </c>
       <c r="L99">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M99">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="N99">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="O99">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P99">
         <v>2021</v>
       </c>
       <c r="Q99">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="R99">
         <v>8</v>
@@ -6274,52 +6274,52 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>21094</v>
+        <v>21096</v>
       </c>
       <c r="C100" t="s">
         <v>115</v>
       </c>
       <c r="D100">
+        <v>7</v>
+      </c>
+      <c r="E100">
+        <v>8</v>
+      </c>
+      <c r="F100">
+        <v>10</v>
+      </c>
+      <c r="G100">
+        <v>20</v>
+      </c>
+      <c r="H100">
+        <v>21</v>
+      </c>
+      <c r="I100">
+        <v>1</v>
+      </c>
+      <c r="J100">
         <v>5</v>
       </c>
-      <c r="E100">
+      <c r="K100">
+        <v>66</v>
+      </c>
+      <c r="L100">
+        <v>13</v>
+      </c>
+      <c r="M100">
         <v>6</v>
       </c>
-      <c r="F100">
-        <v>24</v>
-      </c>
-      <c r="G100">
-        <v>27</v>
-      </c>
-      <c r="H100">
-        <v>33</v>
-      </c>
-      <c r="I100">
-        <v>5</v>
-      </c>
-      <c r="J100">
-        <v>12</v>
-      </c>
-      <c r="K100">
-        <v>95</v>
-      </c>
-      <c r="L100">
-        <v>19</v>
-      </c>
-      <c r="M100">
-        <v>17</v>
-      </c>
       <c r="N100">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="O100">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P100">
         <v>2021</v>
       </c>
       <c r="Q100">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="R100">
         <v>8</v>
@@ -6330,52 +6330,52 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>21093</v>
+        <v>21095</v>
       </c>
       <c r="C101" t="s">
         <v>116</v>
       </c>
       <c r="D101">
+        <v>10</v>
+      </c>
+      <c r="E101">
+        <v>15</v>
+      </c>
+      <c r="F101">
+        <v>19</v>
+      </c>
+      <c r="G101">
         <v>20</v>
       </c>
-      <c r="E101">
-        <v>25</v>
-      </c>
-      <c r="F101">
-        <v>27</v>
-      </c>
-      <c r="G101">
-        <v>28</v>
-      </c>
       <c r="H101">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I101">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J101">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K101">
-        <v>131</v>
+        <v>94</v>
       </c>
       <c r="L101">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="M101">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="N101">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="O101">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P101">
         <v>2021</v>
       </c>
       <c r="Q101">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="R101">
         <v>8</v>

--- a/大乐透最近100期开奖号码.xlsx
+++ b/大乐透最近100期开奖号码.xlsx
@@ -67,6 +67,9 @@
     <t>年内月号</t>
   </si>
   <si>
+    <t>2022-04-25</t>
+  </si>
+  <si>
     <t>2022-04-23</t>
   </si>
   <si>
@@ -362,9 +365,6 @@
   </si>
   <si>
     <t>2021-08-21</t>
-  </si>
-  <si>
-    <t>2021-08-18</t>
   </si>
 </sst>
 </file>
@@ -786,43 +786,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>22044</v>
+        <v>22045</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="G2">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="H2">
         <v>20</v>
       </c>
       <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>5</v>
+      </c>
+      <c r="K2">
+        <v>44</v>
+      </c>
+      <c r="L2">
+        <v>9</v>
+      </c>
+      <c r="M2">
+        <v>6</v>
+      </c>
+      <c r="N2">
         <v>3</v>
-      </c>
-      <c r="J2">
-        <v>7</v>
-      </c>
-      <c r="K2">
-        <v>56</v>
-      </c>
-      <c r="L2">
-        <v>11</v>
-      </c>
-      <c r="M2">
-        <v>10</v>
-      </c>
-      <c r="N2">
-        <v>5</v>
       </c>
       <c r="O2">
         <v>3</v>
@@ -831,7 +831,7 @@
         <v>2022</v>
       </c>
       <c r="Q2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R2">
         <v>4</v>
@@ -842,52 +842,52 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22043</v>
+        <v>22044</v>
       </c>
       <c r="C3" t="s">
         <v>18</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
         <v>16</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>17</v>
       </c>
-      <c r="G3">
-        <v>24</v>
-      </c>
       <c r="H3">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I3">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="J3">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="K3">
-        <v>89</v>
+        <v>56</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="M3">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="N3">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="O3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P3">
         <v>2022</v>
       </c>
       <c r="Q3">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R3">
         <v>4</v>
@@ -898,52 +898,52 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22042</v>
+        <v>22043</v>
       </c>
       <c r="C4" t="s">
         <v>19</v>
       </c>
       <c r="D4">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E4">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F4">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G4">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="H4">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J4">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="K4">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L4">
         <v>18</v>
       </c>
       <c r="M4">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="N4">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="O4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P4">
         <v>2022</v>
       </c>
       <c r="Q4">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R4">
         <v>4</v>
@@ -954,52 +954,52 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22041</v>
+        <v>22042</v>
       </c>
       <c r="C5" t="s">
         <v>20</v>
       </c>
       <c r="D5">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E5">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F5">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G5">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H5">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5">
         <v>6</v>
       </c>
-      <c r="J5">
-        <v>11</v>
-      </c>
       <c r="K5">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="L5">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M5">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="N5">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P5">
         <v>2022</v>
       </c>
       <c r="Q5">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R5">
         <v>4</v>
@@ -1010,43 +1010,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22040</v>
+        <v>22041</v>
       </c>
       <c r="C6" t="s">
         <v>21</v>
       </c>
       <c r="D6">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E6">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F6">
         <v>25</v>
       </c>
       <c r="G6">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H6">
         <v>33</v>
       </c>
       <c r="I6">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J6">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K6">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="L6">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M6">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N6">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O6">
         <v>1</v>
@@ -1055,7 +1055,7 @@
         <v>2022</v>
       </c>
       <c r="Q6">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R6">
         <v>4</v>
@@ -1066,52 +1066,52 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22039</v>
+        <v>22040</v>
       </c>
       <c r="C7" t="s">
         <v>22</v>
       </c>
       <c r="D7">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <v>19</v>
+      </c>
+      <c r="F7">
+        <v>25</v>
+      </c>
+      <c r="G7">
+        <v>29</v>
+      </c>
+      <c r="H7">
+        <v>33</v>
+      </c>
+      <c r="I7">
+        <v>8</v>
+      </c>
+      <c r="J7">
+        <v>12</v>
+      </c>
+      <c r="K7">
+        <v>116</v>
+      </c>
+      <c r="L7">
+        <v>23</v>
+      </c>
+      <c r="M7">
+        <v>20</v>
+      </c>
+      <c r="N7">
+        <v>10</v>
+      </c>
+      <c r="O7">
         <v>1</v>
-      </c>
-      <c r="E7">
-        <v>8</v>
-      </c>
-      <c r="F7">
-        <v>11</v>
-      </c>
-      <c r="G7">
-        <v>22</v>
-      </c>
-      <c r="H7">
-        <v>31</v>
-      </c>
-      <c r="I7">
-        <v>5</v>
-      </c>
-      <c r="J7">
-        <v>11</v>
-      </c>
-      <c r="K7">
-        <v>73</v>
-      </c>
-      <c r="L7">
-        <v>15</v>
-      </c>
-      <c r="M7">
-        <v>16</v>
-      </c>
-      <c r="N7">
-        <v>8</v>
-      </c>
-      <c r="O7">
-        <v>2</v>
       </c>
       <c r="P7">
         <v>2022</v>
       </c>
       <c r="Q7">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R7">
         <v>4</v>
@@ -1122,43 +1122,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>22038</v>
+        <v>22039</v>
       </c>
       <c r="C8" t="s">
         <v>23</v>
       </c>
       <c r="D8">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F8">
         <v>11</v>
       </c>
       <c r="G8">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="H8">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I8">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J8">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K8">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="L8">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M8">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="N8">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="O8">
         <v>2</v>
@@ -1167,7 +1167,7 @@
         <v>2022</v>
       </c>
       <c r="Q8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R8">
         <v>4</v>
@@ -1178,43 +1178,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22037</v>
+        <v>22038</v>
       </c>
       <c r="C9" t="s">
         <v>24</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E9">
         <v>9</v>
       </c>
       <c r="F9">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H9">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I9">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J9">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K9">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="L9">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="N9">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="O9">
         <v>2</v>
@@ -1223,7 +1223,7 @@
         <v>2022</v>
       </c>
       <c r="Q9">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R9">
         <v>4</v>
@@ -1234,52 +1234,52 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22036</v>
+        <v>22037</v>
       </c>
       <c r="C10" t="s">
         <v>25</v>
       </c>
       <c r="D10">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="E10">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="F10">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G10">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H10">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="I10">
         <v>6</v>
       </c>
       <c r="J10">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="K10">
-        <v>118</v>
+        <v>75</v>
       </c>
       <c r="L10">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="M10">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P10">
         <v>2022</v>
       </c>
       <c r="Q10">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="R10">
         <v>4</v>
@@ -1290,37 +1290,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22035</v>
+        <v>22036</v>
       </c>
       <c r="C11" t="s">
         <v>26</v>
       </c>
       <c r="D11">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E11">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F11">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G11">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H11">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J11">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K11">
-        <v>87</v>
+        <v>118</v>
       </c>
       <c r="L11">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="M11">
         <v>13</v>
@@ -1329,13 +1329,13 @@
         <v>7</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P11">
         <v>2022</v>
       </c>
       <c r="Q11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R11">
         <v>4</v>
@@ -1346,37 +1346,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>22034</v>
+        <v>22035</v>
       </c>
       <c r="C12" t="s">
         <v>27</v>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E12">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="G12">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H12">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I12">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J12">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K12">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="L12">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M12">
         <v>13</v>
@@ -1385,16 +1385,16 @@
         <v>7</v>
       </c>
       <c r="O12">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P12">
         <v>2022</v>
       </c>
       <c r="Q12">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R12">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -1402,31 +1402,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>22033</v>
+        <v>22034</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
       </c>
       <c r="D13">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E13">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F13">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="G13">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="H13">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="I13">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J13">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K13">
         <v>91</v>
@@ -1435,19 +1435,19 @@
         <v>18</v>
       </c>
       <c r="M13">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="N13">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="O13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P13">
         <v>2022</v>
       </c>
       <c r="Q13">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R13">
         <v>3</v>
@@ -1458,43 +1458,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22032</v>
+        <v>22033</v>
       </c>
       <c r="C14" t="s">
         <v>29</v>
       </c>
       <c r="D14">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E14">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F14">
+        <v>16</v>
+      </c>
+      <c r="G14">
+        <v>19</v>
+      </c>
+      <c r="H14">
+        <v>33</v>
+      </c>
+      <c r="I14">
+        <v>3</v>
+      </c>
+      <c r="J14">
+        <v>4</v>
+      </c>
+      <c r="K14">
+        <v>91</v>
+      </c>
+      <c r="L14">
         <v>18</v>
       </c>
-      <c r="G14">
-        <v>31</v>
-      </c>
-      <c r="H14">
-        <v>32</v>
-      </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
-      <c r="J14">
-        <v>5</v>
-      </c>
-      <c r="K14">
-        <v>95</v>
-      </c>
-      <c r="L14">
-        <v>19</v>
-      </c>
       <c r="M14">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O14">
         <v>2</v>
@@ -1503,7 +1503,7 @@
         <v>2022</v>
       </c>
       <c r="Q14">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R14">
         <v>3</v>
@@ -1514,52 +1514,52 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22031</v>
+        <v>22032</v>
       </c>
       <c r="C15" t="s">
         <v>30</v>
       </c>
       <c r="D15">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E15">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F15">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G15">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="H15">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="I15">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J15">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K15">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="L15">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M15">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="N15">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P15">
         <v>2022</v>
       </c>
       <c r="Q15">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R15">
         <v>3</v>
@@ -1570,52 +1570,52 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22030</v>
+        <v>22031</v>
       </c>
       <c r="C16" t="s">
         <v>31</v>
       </c>
       <c r="D16">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E16">
         <v>14</v>
       </c>
       <c r="F16">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G16">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H16">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J16">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K16">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="L16">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M16">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N16">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P16">
         <v>2022</v>
       </c>
       <c r="Q16">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="R16">
         <v>3</v>
@@ -1626,43 +1626,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22029</v>
+        <v>22030</v>
       </c>
       <c r="C17" t="s">
         <v>32</v>
       </c>
       <c r="D17">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E17">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F17">
+        <v>15</v>
+      </c>
+      <c r="G17">
+        <v>21</v>
+      </c>
+      <c r="H17">
+        <v>30</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>9</v>
+      </c>
+      <c r="K17">
+        <v>92</v>
+      </c>
+      <c r="L17">
+        <v>18</v>
+      </c>
+      <c r="M17">
         <v>10</v>
       </c>
-      <c r="G17">
-        <v>14</v>
-      </c>
-      <c r="H17">
-        <v>17</v>
-      </c>
-      <c r="I17">
-        <v>10</v>
-      </c>
-      <c r="J17">
-        <v>12</v>
-      </c>
-      <c r="K17">
-        <v>56</v>
-      </c>
-      <c r="L17">
-        <v>11</v>
-      </c>
-      <c r="M17">
-        <v>22</v>
-      </c>
       <c r="N17">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="O17">
         <v>3</v>
@@ -1671,7 +1671,7 @@
         <v>2022</v>
       </c>
       <c r="Q17">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R17">
         <v>3</v>
@@ -1682,52 +1682,52 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>22028</v>
+        <v>22029</v>
       </c>
       <c r="C18" t="s">
         <v>33</v>
       </c>
       <c r="D18">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E18">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F18">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G18">
+        <v>14</v>
+      </c>
+      <c r="H18">
         <v>17</v>
       </c>
-      <c r="H18">
-        <v>35</v>
-      </c>
       <c r="I18">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J18">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="K18">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="L18">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="M18">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="N18">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="O18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P18">
         <v>2022</v>
       </c>
       <c r="Q18">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="R18">
         <v>3</v>
@@ -1738,43 +1738,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>22027</v>
+        <v>22028</v>
       </c>
       <c r="C19" t="s">
         <v>34</v>
       </c>
       <c r="D19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E19">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F19">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G19">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="H19">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I19">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J19">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="K19">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L19">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M19">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="N19">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="O19">
         <v>2</v>
@@ -1783,7 +1783,7 @@
         <v>2022</v>
       </c>
       <c r="Q19">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="R19">
         <v>3</v>
@@ -1794,40 +1794,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22026</v>
+        <v>22027</v>
       </c>
       <c r="C20" t="s">
         <v>35</v>
       </c>
       <c r="D20">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E20">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F20">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G20">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="H20">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I20">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J20">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K20">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="L20">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M20">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N20">
         <v>9</v>
@@ -1839,7 +1839,7 @@
         <v>2022</v>
       </c>
       <c r="Q20">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R20">
         <v>3</v>
@@ -1850,52 +1850,52 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22025</v>
+        <v>22026</v>
       </c>
       <c r="C21" t="s">
         <v>36</v>
       </c>
       <c r="D21">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E21">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F21">
         <v>22</v>
       </c>
       <c r="G21">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H21">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J21">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="K21">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="L21">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M21">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="N21">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="O21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P21">
         <v>2022</v>
       </c>
       <c r="Q21">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R21">
         <v>3</v>
@@ -1906,52 +1906,52 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>22024</v>
+        <v>22025</v>
       </c>
       <c r="C22" t="s">
         <v>37</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F22">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G22">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="H22">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="I22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="K22">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="L22">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M22">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="N22">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="O22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P22">
         <v>2022</v>
       </c>
       <c r="Q22">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R22">
         <v>3</v>
@@ -1962,52 +1962,52 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>22023</v>
+        <v>22024</v>
       </c>
       <c r="C23" t="s">
         <v>38</v>
       </c>
       <c r="D23">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E23">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G23">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H23">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="I23">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="J23">
         <v>12</v>
       </c>
       <c r="K23">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="L23">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M23">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="N23">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="O23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P23">
         <v>2022</v>
       </c>
       <c r="Q23">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="R23">
         <v>3</v>
@@ -2018,52 +2018,52 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22022</v>
+        <v>22023</v>
       </c>
       <c r="C24" t="s">
         <v>39</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E24">
         <v>5</v>
       </c>
       <c r="F24">
+        <v>18</v>
+      </c>
+      <c r="G24">
+        <v>20</v>
+      </c>
+      <c r="H24">
+        <v>25</v>
+      </c>
+      <c r="I24">
+        <v>11</v>
+      </c>
+      <c r="J24">
+        <v>12</v>
+      </c>
+      <c r="K24">
+        <v>72</v>
+      </c>
+      <c r="L24">
         <v>14</v>
       </c>
-      <c r="G24">
-        <v>17</v>
-      </c>
-      <c r="H24">
-        <v>28</v>
-      </c>
-      <c r="I24">
-        <v>6</v>
-      </c>
-      <c r="J24">
-        <v>7</v>
-      </c>
-      <c r="K24">
-        <v>65</v>
-      </c>
-      <c r="L24">
-        <v>13</v>
-      </c>
       <c r="M24">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="N24">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="O24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P24">
         <v>2022</v>
       </c>
       <c r="Q24">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R24">
         <v>3</v>
@@ -2074,43 +2074,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22021</v>
+        <v>22022</v>
       </c>
       <c r="C25" t="s">
         <v>40</v>
       </c>
       <c r="D25">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E25">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F25">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G25">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H25">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="I25">
         <v>6</v>
       </c>
       <c r="J25">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K25">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="L25">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M25">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N25">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O25">
         <v>2</v>
@@ -2119,10 +2119,10 @@
         <v>2022</v>
       </c>
       <c r="Q25">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="R25">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -2130,43 +2130,43 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>22020</v>
+        <v>22021</v>
       </c>
       <c r="C26" t="s">
         <v>41</v>
       </c>
       <c r="D26">
+        <v>11</v>
+      </c>
+      <c r="E26">
+        <v>15</v>
+      </c>
+      <c r="F26">
         <v>16</v>
       </c>
-      <c r="E26">
-        <v>17</v>
-      </c>
-      <c r="F26">
-        <v>30</v>
-      </c>
       <c r="G26">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="H26">
         <v>35</v>
       </c>
       <c r="I26">
+        <v>6</v>
+      </c>
+      <c r="J26">
+        <v>9</v>
+      </c>
+      <c r="K26">
+        <v>95</v>
+      </c>
+      <c r="L26">
+        <v>19</v>
+      </c>
+      <c r="M26">
+        <v>15</v>
+      </c>
+      <c r="N26">
         <v>8</v>
-      </c>
-      <c r="J26">
-        <v>9</v>
-      </c>
-      <c r="K26">
-        <v>129</v>
-      </c>
-      <c r="L26">
-        <v>26</v>
-      </c>
-      <c r="M26">
-        <v>17</v>
-      </c>
-      <c r="N26">
-        <v>9</v>
       </c>
       <c r="O26">
         <v>2</v>
@@ -2175,7 +2175,7 @@
         <v>2022</v>
       </c>
       <c r="Q26">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R26">
         <v>2</v>
@@ -2186,52 +2186,52 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>22019</v>
+        <v>22020</v>
       </c>
       <c r="C27" t="s">
         <v>42</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E27">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="F27">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="G27">
+        <v>31</v>
+      </c>
+      <c r="H27">
+        <v>35</v>
+      </c>
+      <c r="I27">
+        <v>8</v>
+      </c>
+      <c r="J27">
+        <v>9</v>
+      </c>
+      <c r="K27">
+        <v>129</v>
+      </c>
+      <c r="L27">
+        <v>26</v>
+      </c>
+      <c r="M27">
         <v>17</v>
       </c>
-      <c r="H27">
-        <v>21</v>
-      </c>
-      <c r="I27">
-        <v>1</v>
-      </c>
-      <c r="J27">
-        <v>2</v>
-      </c>
-      <c r="K27">
-        <v>50</v>
-      </c>
-      <c r="L27">
-        <v>10</v>
-      </c>
-      <c r="M27">
-        <v>3</v>
-      </c>
       <c r="N27">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="O27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P27">
         <v>2022</v>
       </c>
       <c r="Q27">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R27">
         <v>2</v>
@@ -2242,52 +2242,52 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>22018</v>
+        <v>22019</v>
       </c>
       <c r="C28" t="s">
         <v>43</v>
       </c>
       <c r="D28">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E28">
+        <v>4</v>
+      </c>
+      <c r="F28">
+        <v>7</v>
+      </c>
+      <c r="G28">
+        <v>17</v>
+      </c>
+      <c r="H28">
         <v>21</v>
       </c>
-      <c r="F28">
-        <v>29</v>
-      </c>
-      <c r="G28">
-        <v>31</v>
-      </c>
-      <c r="H28">
-        <v>34</v>
-      </c>
       <c r="I28">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J28">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="K28">
-        <v>131</v>
+        <v>50</v>
       </c>
       <c r="L28">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="M28">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="N28">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="O28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P28">
         <v>2022</v>
       </c>
       <c r="Q28">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="R28">
         <v>2</v>
@@ -2298,52 +2298,52 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>22017</v>
+        <v>22018</v>
       </c>
       <c r="C29" t="s">
         <v>44</v>
       </c>
       <c r="D29">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E29">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F29">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="G29">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="H29">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="I29">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J29">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K29">
-        <v>90</v>
+        <v>131</v>
       </c>
       <c r="L29">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="M29">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N29">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P29">
         <v>2022</v>
       </c>
       <c r="Q29">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="R29">
         <v>2</v>
@@ -2354,52 +2354,52 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>22016</v>
+        <v>22017</v>
       </c>
       <c r="C30" t="s">
         <v>45</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E30">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F30">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G30">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H30">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J30">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K30">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="L30">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M30">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="N30">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="O30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P30">
         <v>2022</v>
       </c>
       <c r="Q30">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="R30">
         <v>2</v>
@@ -2410,7 +2410,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>22015</v>
+        <v>22016</v>
       </c>
       <c r="C31" t="s">
         <v>46</v>
@@ -2419,43 +2419,43 @@
         <v>1</v>
       </c>
       <c r="E31">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F31">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="G31">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="H31">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>9</v>
+      </c>
+      <c r="K31">
+        <v>83</v>
+      </c>
+      <c r="L31">
+        <v>17</v>
+      </c>
+      <c r="M31">
+        <v>10</v>
+      </c>
+      <c r="N31">
         <v>5</v>
       </c>
-      <c r="J31">
-        <v>12</v>
-      </c>
-      <c r="K31">
-        <v>53</v>
-      </c>
-      <c r="L31">
-        <v>11</v>
-      </c>
-      <c r="M31">
-        <v>17</v>
-      </c>
-      <c r="N31">
-        <v>9</v>
-      </c>
       <c r="O31">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P31">
         <v>2022</v>
       </c>
       <c r="Q31">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R31">
         <v>2</v>
@@ -2466,7 +2466,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>22014</v>
+        <v>22015</v>
       </c>
       <c r="C32" t="s">
         <v>47</v>
@@ -2475,34 +2475,34 @@
         <v>1</v>
       </c>
       <c r="E32">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F32">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G32">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H32">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I32">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J32">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K32">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="L32">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M32">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="N32">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="O32">
         <v>4</v>
@@ -2511,7 +2511,7 @@
         <v>2022</v>
       </c>
       <c r="Q32">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="R32">
         <v>2</v>
@@ -2522,52 +2522,52 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>22013</v>
+        <v>22014</v>
       </c>
       <c r="C33" t="s">
         <v>48</v>
       </c>
       <c r="D33">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E33">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F33">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G33">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="H33">
         <v>32</v>
       </c>
       <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>9</v>
+      </c>
+      <c r="K33">
+        <v>65</v>
+      </c>
+      <c r="L33">
+        <v>13</v>
+      </c>
+      <c r="M33">
+        <v>10</v>
+      </c>
+      <c r="N33">
         <v>5</v>
       </c>
-      <c r="J33">
-        <v>6</v>
-      </c>
-      <c r="K33">
-        <v>86</v>
-      </c>
-      <c r="L33">
-        <v>17</v>
-      </c>
-      <c r="M33">
-        <v>11</v>
-      </c>
-      <c r="N33">
-        <v>6</v>
-      </c>
       <c r="O33">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P33">
         <v>2022</v>
       </c>
       <c r="Q33">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="R33">
         <v>2</v>
@@ -2578,55 +2578,55 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>22012</v>
+        <v>22013</v>
       </c>
       <c r="C34" t="s">
         <v>49</v>
       </c>
       <c r="D34">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E34">
+        <v>9</v>
+      </c>
+      <c r="F34">
+        <v>16</v>
+      </c>
+      <c r="G34">
+        <v>25</v>
+      </c>
+      <c r="H34">
+        <v>32</v>
+      </c>
+      <c r="I34">
         <v>5</v>
       </c>
-      <c r="F34">
-        <v>10</v>
-      </c>
-      <c r="G34">
-        <v>33</v>
-      </c>
-      <c r="H34">
-        <v>34</v>
-      </c>
-      <c r="I34">
-        <v>7</v>
-      </c>
       <c r="J34">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="K34">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L34">
         <v>17</v>
       </c>
       <c r="M34">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="N34">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="O34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P34">
         <v>2022</v>
       </c>
       <c r="Q34">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="R34">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -2634,7 +2634,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>22011</v>
+        <v>22012</v>
       </c>
       <c r="C35" t="s">
         <v>50</v>
@@ -2646,25 +2646,25 @@
         <v>5</v>
       </c>
       <c r="F35">
+        <v>10</v>
+      </c>
+      <c r="G35">
+        <v>33</v>
+      </c>
+      <c r="H35">
+        <v>34</v>
+      </c>
+      <c r="I35">
+        <v>7</v>
+      </c>
+      <c r="J35">
+        <v>10</v>
+      </c>
+      <c r="K35">
+        <v>85</v>
+      </c>
+      <c r="L35">
         <v>17</v>
-      </c>
-      <c r="G35">
-        <v>24</v>
-      </c>
-      <c r="H35">
-        <v>32</v>
-      </c>
-      <c r="I35">
-        <v>5</v>
-      </c>
-      <c r="J35">
-        <v>12</v>
-      </c>
-      <c r="K35">
-        <v>81</v>
-      </c>
-      <c r="L35">
-        <v>16</v>
       </c>
       <c r="M35">
         <v>17</v>
@@ -2679,7 +2679,7 @@
         <v>2022</v>
       </c>
       <c r="Q35">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="R35">
         <v>1</v>
@@ -2690,52 +2690,52 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>22010</v>
+        <v>22011</v>
       </c>
       <c r="C36" t="s">
         <v>51</v>
       </c>
       <c r="D36">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E36">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="F36">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="G36">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="H36">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I36">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J36">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K36">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="L36">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="M36">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N36">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P36">
         <v>2022</v>
       </c>
       <c r="Q36">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="R36">
         <v>1</v>
@@ -2746,52 +2746,52 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>22009</v>
+        <v>22010</v>
       </c>
       <c r="C37" t="s">
         <v>52</v>
       </c>
       <c r="D37">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="E37">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F37">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G37">
         <v>31</v>
       </c>
       <c r="H37">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I37">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J37">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K37">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="L37">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M37">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N37">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P37">
         <v>2022</v>
       </c>
       <c r="Q37">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="R37">
         <v>1</v>
@@ -2802,52 +2802,52 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>22008</v>
+        <v>22009</v>
       </c>
       <c r="C38" t="s">
         <v>53</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E38">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="F38">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G38">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="H38">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I38">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J38">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="K38">
-        <v>68</v>
+        <v>109</v>
       </c>
       <c r="L38">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="M38">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N38">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O38">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P38">
         <v>2022</v>
       </c>
       <c r="Q38">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R38">
         <v>1</v>
@@ -2858,52 +2858,52 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>22007</v>
+        <v>22008</v>
       </c>
       <c r="C39" t="s">
         <v>54</v>
       </c>
       <c r="D39">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E39">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="F39">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G39">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="H39">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I39">
+        <v>6</v>
+      </c>
+      <c r="J39">
+        <v>7</v>
+      </c>
+      <c r="K39">
+        <v>68</v>
+      </c>
+      <c r="L39">
+        <v>14</v>
+      </c>
+      <c r="M39">
+        <v>13</v>
+      </c>
+      <c r="N39">
+        <v>7</v>
+      </c>
+      <c r="O39">
         <v>3</v>
-      </c>
-      <c r="J39">
-        <v>11</v>
-      </c>
-      <c r="K39">
-        <v>110</v>
-      </c>
-      <c r="L39">
-        <v>22</v>
-      </c>
-      <c r="M39">
-        <v>14</v>
-      </c>
-      <c r="N39">
-        <v>7</v>
-      </c>
-      <c r="O39">
-        <v>1</v>
       </c>
       <c r="P39">
         <v>2022</v>
       </c>
       <c r="Q39">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R39">
         <v>1</v>
@@ -2914,43 +2914,43 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>22006</v>
+        <v>22007</v>
       </c>
       <c r="C40" t="s">
         <v>55</v>
       </c>
       <c r="D40">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E40">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="F40">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="G40">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="H40">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="I40">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J40">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K40">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="L40">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="M40">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="N40">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O40">
         <v>1</v>
@@ -2959,7 +2959,7 @@
         <v>2022</v>
       </c>
       <c r="Q40">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R40">
         <v>1</v>
@@ -2970,52 +2970,52 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>22005</v>
+        <v>22006</v>
       </c>
       <c r="C41" t="s">
         <v>56</v>
       </c>
       <c r="D41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E41">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F41">
+        <v>7</v>
+      </c>
+      <c r="G41">
         <v>17</v>
       </c>
-      <c r="G41">
-        <v>19</v>
-      </c>
       <c r="H41">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="I41">
         <v>5</v>
       </c>
       <c r="J41">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K41">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="L41">
+        <v>10</v>
+      </c>
+      <c r="M41">
         <v>17</v>
       </c>
-      <c r="M41">
-        <v>14</v>
-      </c>
       <c r="N41">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P41">
         <v>2022</v>
       </c>
       <c r="Q41">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R41">
         <v>1</v>
@@ -3026,43 +3026,43 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>22004</v>
+        <v>22005</v>
       </c>
       <c r="C42" t="s">
         <v>57</v>
       </c>
       <c r="D42">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E42">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F42">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="G42">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="H42">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I42">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J42">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="K42">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c r="L42">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M42">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="N42">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="O42">
         <v>2</v>
@@ -3071,7 +3071,7 @@
         <v>2022</v>
       </c>
       <c r="Q42">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R42">
         <v>1</v>
@@ -3082,52 +3082,52 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>22003</v>
+        <v>22004</v>
       </c>
       <c r="C43" t="s">
         <v>58</v>
       </c>
       <c r="D43">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E43">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F43">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G43">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H43">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I43">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J43">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="K43">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="L43">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M43">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="N43">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="O43">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P43">
         <v>2022</v>
       </c>
       <c r="Q43">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R43">
         <v>1</v>
@@ -3138,52 +3138,52 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>22002</v>
+        <v>22003</v>
       </c>
       <c r="C44" t="s">
         <v>59</v>
       </c>
       <c r="D44">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E44">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="F44">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="G44">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="H44">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="I44">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J44">
         <v>12</v>
       </c>
       <c r="K44">
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="L44">
+        <v>21</v>
+      </c>
+      <c r="M44">
+        <v>20</v>
+      </c>
+      <c r="N44">
         <v>10</v>
       </c>
-      <c r="M44">
-        <v>16</v>
-      </c>
-      <c r="N44">
-        <v>8</v>
-      </c>
       <c r="O44">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P44">
         <v>2022</v>
       </c>
       <c r="Q44">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R44">
         <v>1</v>
@@ -3194,52 +3194,52 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>22001</v>
+        <v>22002</v>
       </c>
       <c r="C45" t="s">
         <v>60</v>
       </c>
       <c r="D45">
+        <v>4</v>
+      </c>
+      <c r="E45">
+        <v>6</v>
+      </c>
+      <c r="F45">
+        <v>7</v>
+      </c>
+      <c r="G45">
+        <v>9</v>
+      </c>
+      <c r="H45">
+        <v>24</v>
+      </c>
+      <c r="I45">
+        <v>4</v>
+      </c>
+      <c r="J45">
+        <v>12</v>
+      </c>
+      <c r="K45">
+        <v>50</v>
+      </c>
+      <c r="L45">
+        <v>10</v>
+      </c>
+      <c r="M45">
+        <v>16</v>
+      </c>
+      <c r="N45">
         <v>8</v>
       </c>
-      <c r="E45">
-        <v>11</v>
-      </c>
-      <c r="F45">
-        <v>19</v>
-      </c>
-      <c r="G45">
-        <v>22</v>
-      </c>
-      <c r="H45">
-        <v>29</v>
-      </c>
-      <c r="I45">
+      <c r="O45">
         <v>3</v>
-      </c>
-      <c r="J45">
-        <v>11</v>
-      </c>
-      <c r="K45">
-        <v>89</v>
-      </c>
-      <c r="L45">
-        <v>18</v>
-      </c>
-      <c r="M45">
-        <v>14</v>
-      </c>
-      <c r="N45">
-        <v>7</v>
-      </c>
-      <c r="O45">
-        <v>2</v>
       </c>
       <c r="P45">
         <v>2022</v>
       </c>
       <c r="Q45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R45">
         <v>1</v>
@@ -3250,55 +3250,55 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>21150</v>
+        <v>22001</v>
       </c>
       <c r="C46" t="s">
         <v>61</v>
       </c>
       <c r="D46">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E46">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G46">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H46">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I46">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J46">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K46">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="L46">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M46">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="N46">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O46">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P46">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="Q46">
-        <v>150</v>
+        <v>1</v>
       </c>
       <c r="R46">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:18">
@@ -3306,52 +3306,52 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>21149</v>
+        <v>21150</v>
       </c>
       <c r="C47" t="s">
         <v>62</v>
       </c>
       <c r="D47">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="E47">
+        <v>10</v>
+      </c>
+      <c r="F47">
+        <v>11</v>
+      </c>
+      <c r="G47">
+        <v>23</v>
+      </c>
+      <c r="H47">
         <v>26</v>
       </c>
-      <c r="F47">
-        <v>28</v>
-      </c>
-      <c r="G47">
-        <v>30</v>
-      </c>
-      <c r="H47">
-        <v>35</v>
-      </c>
       <c r="I47">
+        <v>7</v>
+      </c>
+      <c r="J47">
         <v>10</v>
       </c>
-      <c r="J47">
-        <v>11</v>
-      </c>
       <c r="K47">
-        <v>139</v>
+        <v>74</v>
       </c>
       <c r="L47">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="M47">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="N47">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O47">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P47">
         <v>2021</v>
       </c>
       <c r="Q47">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="R47">
         <v>12</v>
@@ -3362,52 +3362,52 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>21148</v>
+        <v>21149</v>
       </c>
       <c r="C48" t="s">
         <v>63</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E48">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="F48">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="G48">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="H48">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="I48">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="J48">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="K48">
-        <v>62</v>
+        <v>139</v>
       </c>
       <c r="L48">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="M48">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="N48">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="O48">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P48">
         <v>2021</v>
       </c>
       <c r="Q48">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="R48">
         <v>12</v>
@@ -3418,7 +3418,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>21147</v>
+        <v>21148</v>
       </c>
       <c r="C49" t="s">
         <v>64</v>
@@ -3427,43 +3427,43 @@
         <v>1</v>
       </c>
       <c r="E49">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F49">
+        <v>12</v>
+      </c>
+      <c r="G49">
+        <v>16</v>
+      </c>
+      <c r="H49">
+        <v>29</v>
+      </c>
+      <c r="I49">
+        <v>4</v>
+      </c>
+      <c r="J49">
         <v>8</v>
       </c>
-      <c r="G49">
+      <c r="K49">
+        <v>62</v>
+      </c>
+      <c r="L49">
         <v>12</v>
       </c>
-      <c r="H49">
-        <v>26</v>
-      </c>
-      <c r="I49">
-        <v>1</v>
-      </c>
-      <c r="J49">
-        <v>7</v>
-      </c>
-      <c r="K49">
-        <v>49</v>
-      </c>
-      <c r="L49">
-        <v>10</v>
-      </c>
       <c r="M49">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="N49">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O49">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P49">
         <v>2021</v>
       </c>
       <c r="Q49">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="R49">
         <v>12</v>
@@ -3474,52 +3474,52 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>21146</v>
+        <v>21147</v>
       </c>
       <c r="C50" t="s">
         <v>65</v>
       </c>
       <c r="D50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E50">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F50">
         <v>8</v>
       </c>
       <c r="G50">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H50">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I50">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="J50">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="K50">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="L50">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M50">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="N50">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="O50">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P50">
         <v>2021</v>
       </c>
       <c r="Q50">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="R50">
         <v>12</v>
@@ -3530,7 +3530,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>21145</v>
+        <v>21146</v>
       </c>
       <c r="C51" t="s">
         <v>66</v>
@@ -3539,43 +3539,43 @@
         <v>3</v>
       </c>
       <c r="E51">
+        <v>5</v>
+      </c>
+      <c r="F51">
         <v>8</v>
       </c>
-      <c r="F51">
-        <v>25</v>
-      </c>
       <c r="G51">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="H51">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I51">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J51">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="K51">
-        <v>95</v>
+        <v>54</v>
       </c>
       <c r="L51">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="M51">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="N51">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="O51">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P51">
         <v>2021</v>
       </c>
       <c r="Q51">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="R51">
         <v>12</v>
@@ -3586,7 +3586,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>21144</v>
+        <v>21145</v>
       </c>
       <c r="C52" t="s">
         <v>67</v>
@@ -3595,43 +3595,43 @@
         <v>3</v>
       </c>
       <c r="E52">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F52">
         <v>25</v>
       </c>
       <c r="G52">
+        <v>29</v>
+      </c>
+      <c r="H52">
         <v>30</v>
       </c>
-      <c r="H52">
-        <v>34</v>
-      </c>
       <c r="I52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J52">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K52">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="L52">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="M52">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N52">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O52">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P52">
         <v>2021</v>
       </c>
       <c r="Q52">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="R52">
         <v>12</v>
@@ -3642,52 +3642,52 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>21143</v>
+        <v>21144</v>
       </c>
       <c r="C53" t="s">
         <v>68</v>
       </c>
       <c r="D53">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E53">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F53">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="G53">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H53">
         <v>34</v>
       </c>
       <c r="I53">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J53">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K53">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="L53">
         <v>22</v>
       </c>
       <c r="M53">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="N53">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O53">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P53">
         <v>2021</v>
       </c>
       <c r="Q53">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="R53">
         <v>12</v>
@@ -3698,52 +3698,52 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>21142</v>
+        <v>21143</v>
       </c>
       <c r="C54" t="s">
         <v>69</v>
       </c>
       <c r="D54">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E54">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F54">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G54">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H54">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="I54">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J54">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K54">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="L54">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="M54">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="N54">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P54">
         <v>2021</v>
       </c>
       <c r="Q54">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="R54">
         <v>12</v>
@@ -3754,52 +3754,52 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>21141</v>
+        <v>21142</v>
       </c>
       <c r="C55" t="s">
         <v>70</v>
       </c>
       <c r="D55">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E55">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F55">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G55">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="H55">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="I55">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J55">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="K55">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="L55">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M55">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="N55">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="O55">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P55">
         <v>2021</v>
       </c>
       <c r="Q55">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="R55">
         <v>12</v>
@@ -3810,52 +3810,52 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>21140</v>
+        <v>21141</v>
       </c>
       <c r="C56" t="s">
         <v>71</v>
       </c>
       <c r="D56">
+        <v>2</v>
+      </c>
+      <c r="E56">
+        <v>8</v>
+      </c>
+      <c r="F56">
+        <v>16</v>
+      </c>
+      <c r="G56">
+        <v>29</v>
+      </c>
+      <c r="H56">
+        <v>34</v>
+      </c>
+      <c r="I56">
         <v>5</v>
-      </c>
-      <c r="E56">
-        <v>24</v>
-      </c>
-      <c r="F56">
-        <v>26</v>
-      </c>
-      <c r="G56">
-        <v>33</v>
-      </c>
-      <c r="H56">
-        <v>35</v>
-      </c>
-      <c r="I56">
-        <v>9</v>
       </c>
       <c r="J56">
         <v>12</v>
       </c>
       <c r="K56">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="L56">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="M56">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="N56">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O56">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P56">
         <v>2021</v>
       </c>
       <c r="Q56">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="R56">
         <v>12</v>
@@ -3866,7 +3866,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>21139</v>
+        <v>21140</v>
       </c>
       <c r="C57" t="s">
         <v>72</v>
@@ -3875,34 +3875,34 @@
         <v>5</v>
       </c>
       <c r="E57">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F57">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="G57">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="H57">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I57">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J57">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K57">
-        <v>93</v>
+        <v>123</v>
       </c>
       <c r="L57">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="M57">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="N57">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="O57">
         <v>2</v>
@@ -3911,7 +3911,7 @@
         <v>2021</v>
       </c>
       <c r="Q57">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="R57">
         <v>12</v>
@@ -3922,52 +3922,52 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>21138</v>
+        <v>21139</v>
       </c>
       <c r="C58" t="s">
         <v>73</v>
       </c>
       <c r="D58">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E58">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F58">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G58">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H58">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I58">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J58">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K58">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="L58">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M58">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N58">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P58">
         <v>2021</v>
       </c>
       <c r="Q58">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="R58">
         <v>12</v>
@@ -3978,55 +3978,55 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>21137</v>
+        <v>21138</v>
       </c>
       <c r="C59" t="s">
         <v>74</v>
       </c>
       <c r="D59">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E59">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F59">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G59">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H59">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="I59">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J59">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K59">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="L59">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="M59">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="N59">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="O59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P59">
         <v>2021</v>
       </c>
       <c r="Q59">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="R59">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" spans="1:18">
@@ -4034,43 +4034,43 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>21136</v>
+        <v>21137</v>
       </c>
       <c r="C60" t="s">
         <v>75</v>
       </c>
       <c r="D60">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E60">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F60">
+        <v>13</v>
+      </c>
+      <c r="G60">
+        <v>14</v>
+      </c>
+      <c r="H60">
         <v>19</v>
       </c>
-      <c r="G60">
-        <v>27</v>
-      </c>
-      <c r="H60">
-        <v>33</v>
-      </c>
       <c r="I60">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J60">
         <v>5</v>
       </c>
       <c r="K60">
-        <v>99</v>
+        <v>55</v>
       </c>
       <c r="L60">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="M60">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N60">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O60">
         <v>2</v>
@@ -4079,7 +4079,7 @@
         <v>2021</v>
       </c>
       <c r="Q60">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="R60">
         <v>11</v>
@@ -4090,52 +4090,52 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>21135</v>
+        <v>21136</v>
       </c>
       <c r="C61" t="s">
         <v>76</v>
       </c>
       <c r="D61">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E61">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F61">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G61">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H61">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I61">
+        <v>2</v>
+      </c>
+      <c r="J61">
         <v>5</v>
       </c>
-      <c r="J61">
-        <v>6</v>
-      </c>
       <c r="K61">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="L61">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M61">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N61">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P61">
         <v>2021</v>
       </c>
       <c r="Q61">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="R61">
         <v>11</v>
@@ -4146,52 +4146,52 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>21134</v>
+        <v>21135</v>
       </c>
       <c r="C62" t="s">
         <v>77</v>
       </c>
       <c r="D62">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E62">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F62">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G62">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H62">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I62">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J62">
         <v>6</v>
       </c>
       <c r="K62">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="L62">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="M62">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="N62">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O62">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P62">
         <v>2021</v>
       </c>
       <c r="Q62">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="R62">
         <v>11</v>
@@ -4202,52 +4202,52 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>21133</v>
+        <v>21134</v>
       </c>
       <c r="C63" t="s">
         <v>78</v>
       </c>
       <c r="D63">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E63">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F63">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G63">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="H63">
         <v>28</v>
       </c>
       <c r="I63">
+        <v>1</v>
+      </c>
+      <c r="J63">
         <v>6</v>
       </c>
-      <c r="J63">
-        <v>8</v>
-      </c>
       <c r="K63">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="L63">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="M63">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N63">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="O63">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P63">
         <v>2021</v>
       </c>
       <c r="Q63">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="R63">
         <v>11</v>
@@ -4258,37 +4258,37 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>21132</v>
+        <v>21133</v>
       </c>
       <c r="C64" t="s">
         <v>79</v>
       </c>
       <c r="D64">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E64">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="F64">
+        <v>17</v>
+      </c>
+      <c r="G64">
+        <v>26</v>
+      </c>
+      <c r="H64">
         <v>28</v>
       </c>
-      <c r="G64">
-        <v>29</v>
-      </c>
-      <c r="H64">
-        <v>33</v>
-      </c>
       <c r="I64">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J64">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="K64">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="L64">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="M64">
         <v>14</v>
@@ -4297,13 +4297,13 @@
         <v>7</v>
       </c>
       <c r="O64">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P64">
         <v>2021</v>
       </c>
       <c r="Q64">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="R64">
         <v>11</v>
@@ -4314,52 +4314,52 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>21131</v>
+        <v>21132</v>
       </c>
       <c r="C65" t="s">
         <v>80</v>
       </c>
       <c r="D65">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E65">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="F65">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="G65">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H65">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I65">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J65">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="K65">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="L65">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="M65">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="N65">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O65">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P65">
         <v>2021</v>
       </c>
       <c r="Q65">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="R65">
         <v>11</v>
@@ -4370,52 +4370,52 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>21130</v>
+        <v>21131</v>
       </c>
       <c r="C66" t="s">
         <v>81</v>
       </c>
       <c r="D66">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E66">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F66">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G66">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="H66">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="I66">
         <v>5</v>
       </c>
       <c r="J66">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="K66">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="L66">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="M66">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="N66">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O66">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P66">
         <v>2021</v>
       </c>
       <c r="Q66">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="R66">
         <v>11</v>
@@ -4426,7 +4426,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>21129</v>
+        <v>21130</v>
       </c>
       <c r="C67" t="s">
         <v>82</v>
@@ -4435,43 +4435,43 @@
         <v>2</v>
       </c>
       <c r="E67">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="F67">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G67">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="H67">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="I67">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J67">
         <v>10</v>
       </c>
       <c r="K67">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="L67">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M67">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N67">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O67">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P67">
         <v>2021</v>
       </c>
       <c r="Q67">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="R67">
         <v>11</v>
@@ -4482,52 +4482,52 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>21128</v>
+        <v>21129</v>
       </c>
       <c r="C68" t="s">
         <v>83</v>
       </c>
       <c r="D68">
+        <v>2</v>
+      </c>
+      <c r="E68">
+        <v>16</v>
+      </c>
+      <c r="F68">
+        <v>17</v>
+      </c>
+      <c r="G68">
+        <v>18</v>
+      </c>
+      <c r="H68">
+        <v>34</v>
+      </c>
+      <c r="I68">
+        <v>4</v>
+      </c>
+      <c r="J68">
+        <v>10</v>
+      </c>
+      <c r="K68">
+        <v>87</v>
+      </c>
+      <c r="L68">
+        <v>17</v>
+      </c>
+      <c r="M68">
         <v>14</v>
       </c>
-      <c r="E68">
-        <v>17</v>
-      </c>
-      <c r="F68">
-        <v>18</v>
-      </c>
-      <c r="G68">
-        <v>23</v>
-      </c>
-      <c r="H68">
-        <v>27</v>
-      </c>
-      <c r="I68">
-        <v>5</v>
-      </c>
-      <c r="J68">
-        <v>8</v>
-      </c>
-      <c r="K68">
-        <v>99</v>
-      </c>
-      <c r="L68">
-        <v>20</v>
-      </c>
-      <c r="M68">
-        <v>13</v>
-      </c>
       <c r="N68">
         <v>7</v>
       </c>
       <c r="O68">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P68">
         <v>2021</v>
       </c>
       <c r="Q68">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="R68">
         <v>11</v>
@@ -4538,37 +4538,37 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>21127</v>
+        <v>21128</v>
       </c>
       <c r="C69" t="s">
         <v>84</v>
       </c>
       <c r="D69">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E69">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="F69">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G69">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="H69">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I69">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J69">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="K69">
-        <v>61</v>
+        <v>99</v>
       </c>
       <c r="L69">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="M69">
         <v>13</v>
@@ -4583,7 +4583,7 @@
         <v>2021</v>
       </c>
       <c r="Q69">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="R69">
         <v>11</v>
@@ -4594,7 +4594,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>21126</v>
+        <v>21127</v>
       </c>
       <c r="C70" t="s">
         <v>85</v>
@@ -4603,34 +4603,34 @@
         <v>1</v>
       </c>
       <c r="E70">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F70">
+        <v>15</v>
+      </c>
+      <c r="G70">
+        <v>17</v>
+      </c>
+      <c r="H70">
+        <v>26</v>
+      </c>
+      <c r="I70">
+        <v>2</v>
+      </c>
+      <c r="J70">
+        <v>11</v>
+      </c>
+      <c r="K70">
+        <v>61</v>
+      </c>
+      <c r="L70">
         <v>12</v>
       </c>
-      <c r="G70">
-        <v>34</v>
-      </c>
-      <c r="H70">
-        <v>35</v>
-      </c>
-      <c r="I70">
-        <v>9</v>
-      </c>
-      <c r="J70">
-        <v>12</v>
-      </c>
-      <c r="K70">
-        <v>93</v>
-      </c>
-      <c r="L70">
-        <v>19</v>
-      </c>
       <c r="M70">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="N70">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="O70">
         <v>2</v>
@@ -4639,7 +4639,7 @@
         <v>2021</v>
       </c>
       <c r="Q70">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="R70">
         <v>11</v>
@@ -4650,52 +4650,52 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>21125</v>
+        <v>21126</v>
       </c>
       <c r="C71" t="s">
         <v>86</v>
       </c>
       <c r="D71">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="E71">
+        <v>11</v>
+      </c>
+      <c r="F71">
+        <v>12</v>
+      </c>
+      <c r="G71">
+        <v>34</v>
+      </c>
+      <c r="H71">
+        <v>35</v>
+      </c>
+      <c r="I71">
+        <v>9</v>
+      </c>
+      <c r="J71">
+        <v>12</v>
+      </c>
+      <c r="K71">
+        <v>93</v>
+      </c>
+      <c r="L71">
         <v>19</v>
       </c>
-      <c r="F71">
+      <c r="M71">
         <v>21</v>
       </c>
-      <c r="G71">
-        <v>27</v>
-      </c>
-      <c r="H71">
-        <v>31</v>
-      </c>
-      <c r="I71">
-        <v>4</v>
-      </c>
-      <c r="J71">
-        <v>9</v>
-      </c>
-      <c r="K71">
-        <v>115</v>
-      </c>
-      <c r="L71">
-        <v>23</v>
-      </c>
-      <c r="M71">
-        <v>13</v>
-      </c>
       <c r="N71">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="O71">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P71">
         <v>2021</v>
       </c>
       <c r="Q71">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="R71">
         <v>11</v>
@@ -4706,55 +4706,55 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>21124</v>
+        <v>21125</v>
       </c>
       <c r="C72" t="s">
         <v>87</v>
       </c>
       <c r="D72">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E72">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F72">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G72">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H72">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I72">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J72">
         <v>9</v>
       </c>
       <c r="K72">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="L72">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M72">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="N72">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O72">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P72">
         <v>2021</v>
       </c>
       <c r="Q72">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="R72">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="73" spans="1:18">
@@ -4762,43 +4762,43 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>21123</v>
+        <v>21124</v>
       </c>
       <c r="C73" t="s">
         <v>88</v>
       </c>
       <c r="D73">
+        <v>10</v>
+      </c>
+      <c r="E73">
+        <v>17</v>
+      </c>
+      <c r="F73">
+        <v>22</v>
+      </c>
+      <c r="G73">
+        <v>25</v>
+      </c>
+      <c r="H73">
+        <v>35</v>
+      </c>
+      <c r="I73">
+        <v>7</v>
+      </c>
+      <c r="J73">
+        <v>9</v>
+      </c>
+      <c r="K73">
+        <v>109</v>
+      </c>
+      <c r="L73">
+        <v>22</v>
+      </c>
+      <c r="M73">
+        <v>16</v>
+      </c>
+      <c r="N73">
         <v>8</v>
-      </c>
-      <c r="E73">
-        <v>23</v>
-      </c>
-      <c r="F73">
-        <v>26</v>
-      </c>
-      <c r="G73">
-        <v>27</v>
-      </c>
-      <c r="H73">
-        <v>33</v>
-      </c>
-      <c r="I73">
-        <v>8</v>
-      </c>
-      <c r="J73">
-        <v>9</v>
-      </c>
-      <c r="K73">
-        <v>117</v>
-      </c>
-      <c r="L73">
-        <v>23</v>
-      </c>
-      <c r="M73">
-        <v>17</v>
-      </c>
-      <c r="N73">
-        <v>9</v>
       </c>
       <c r="O73">
         <v>2</v>
@@ -4807,7 +4807,7 @@
         <v>2021</v>
       </c>
       <c r="Q73">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="R73">
         <v>10</v>
@@ -4818,16 +4818,16 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>21122</v>
+        <v>21123</v>
       </c>
       <c r="C74" t="s">
         <v>89</v>
       </c>
       <c r="D74">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E74">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F74">
         <v>26</v>
@@ -4836,25 +4836,25 @@
         <v>27</v>
       </c>
       <c r="H74">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I74">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J74">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K74">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="L74">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M74">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="N74">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="O74">
         <v>2</v>
@@ -4863,7 +4863,7 @@
         <v>2021</v>
       </c>
       <c r="Q74">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="R74">
         <v>10</v>
@@ -4874,43 +4874,43 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>21121</v>
+        <v>21122</v>
       </c>
       <c r="C75" t="s">
         <v>90</v>
       </c>
       <c r="D75">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E75">
         <v>15</v>
       </c>
       <c r="F75">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G75">
+        <v>27</v>
+      </c>
+      <c r="H75">
         <v>29</v>
       </c>
-      <c r="H75">
-        <v>30</v>
-      </c>
       <c r="I75">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J75">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K75">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="L75">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M75">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="N75">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O75">
         <v>2</v>
@@ -4919,7 +4919,7 @@
         <v>2021</v>
       </c>
       <c r="Q75">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="R75">
         <v>10</v>
@@ -4930,52 +4930,52 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>21120</v>
+        <v>21121</v>
       </c>
       <c r="C76" t="s">
         <v>91</v>
       </c>
       <c r="D76">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E76">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F76">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G76">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H76">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I76">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J76">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K76">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="L76">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M76">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="N76">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P76">
         <v>2021</v>
       </c>
       <c r="Q76">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="R76">
         <v>10</v>
@@ -4986,52 +4986,52 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>21119</v>
+        <v>21120</v>
       </c>
       <c r="C77" t="s">
         <v>92</v>
       </c>
       <c r="D77">
+        <v>5</v>
+      </c>
+      <c r="E77">
+        <v>10</v>
+      </c>
+      <c r="F77">
+        <v>21</v>
+      </c>
+      <c r="G77">
+        <v>25</v>
+      </c>
+      <c r="H77">
+        <v>31</v>
+      </c>
+      <c r="I77">
+        <v>5</v>
+      </c>
+      <c r="J77">
+        <v>11</v>
+      </c>
+      <c r="K77">
+        <v>92</v>
+      </c>
+      <c r="L77">
+        <v>18</v>
+      </c>
+      <c r="M77">
+        <v>16</v>
+      </c>
+      <c r="N77">
+        <v>8</v>
+      </c>
+      <c r="O77">
         <v>1</v>
-      </c>
-      <c r="E77">
-        <v>2</v>
-      </c>
-      <c r="F77">
-        <v>9</v>
-      </c>
-      <c r="G77">
-        <v>16</v>
-      </c>
-      <c r="H77">
-        <v>30</v>
-      </c>
-      <c r="I77">
-        <v>9</v>
-      </c>
-      <c r="J77">
-        <v>10</v>
-      </c>
-      <c r="K77">
-        <v>58</v>
-      </c>
-      <c r="L77">
-        <v>12</v>
-      </c>
-      <c r="M77">
-        <v>19</v>
-      </c>
-      <c r="N77">
-        <v>10</v>
-      </c>
-      <c r="O77">
-        <v>3</v>
       </c>
       <c r="P77">
         <v>2021</v>
       </c>
       <c r="Q77">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="R77">
         <v>10</v>
@@ -5042,52 +5042,52 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>21118</v>
+        <v>21119</v>
       </c>
       <c r="C78" t="s">
         <v>93</v>
       </c>
       <c r="D78">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="E78">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="F78">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="G78">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="H78">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I78">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J78">
+        <v>10</v>
+      </c>
+      <c r="K78">
+        <v>58</v>
+      </c>
+      <c r="L78">
+        <v>12</v>
+      </c>
+      <c r="M78">
+        <v>19</v>
+      </c>
+      <c r="N78">
+        <v>10</v>
+      </c>
+      <c r="O78">
         <v>3</v>
-      </c>
-      <c r="K78">
-        <v>111</v>
-      </c>
-      <c r="L78">
-        <v>22</v>
-      </c>
-      <c r="M78">
-        <v>5</v>
-      </c>
-      <c r="N78">
-        <v>3</v>
-      </c>
-      <c r="O78">
-        <v>4</v>
       </c>
       <c r="P78">
         <v>2021</v>
       </c>
       <c r="Q78">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="R78">
         <v>10</v>
@@ -5098,52 +5098,52 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>21117</v>
+        <v>21118</v>
       </c>
       <c r="C79" t="s">
         <v>94</v>
       </c>
       <c r="D79">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E79">
+        <v>17</v>
+      </c>
+      <c r="F79">
         <v>18</v>
       </c>
-      <c r="F79">
-        <v>21</v>
-      </c>
       <c r="G79">
+        <v>28</v>
+      </c>
+      <c r="H79">
+        <v>34</v>
+      </c>
+      <c r="I79">
+        <v>2</v>
+      </c>
+      <c r="J79">
+        <v>3</v>
+      </c>
+      <c r="K79">
+        <v>111</v>
+      </c>
+      <c r="L79">
         <v>22</v>
       </c>
-      <c r="H79">
-        <v>33</v>
-      </c>
-      <c r="I79">
+      <c r="M79">
         <v>5</v>
       </c>
-      <c r="J79">
-        <v>6</v>
-      </c>
-      <c r="K79">
-        <v>105</v>
-      </c>
-      <c r="L79">
-        <v>21</v>
-      </c>
-      <c r="M79">
-        <v>11</v>
-      </c>
       <c r="N79">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O79">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P79">
         <v>2021</v>
       </c>
       <c r="Q79">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="R79">
         <v>10</v>
@@ -5154,43 +5154,43 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>21116</v>
+        <v>21117</v>
       </c>
       <c r="C80" t="s">
         <v>95</v>
       </c>
       <c r="D80">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E80">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F80">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="G80">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="H80">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I80">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J80">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="K80">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="L80">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M80">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="N80">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O80">
         <v>2</v>
@@ -5199,7 +5199,7 @@
         <v>2021</v>
       </c>
       <c r="Q80">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="R80">
         <v>10</v>
@@ -5210,43 +5210,43 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>21115</v>
+        <v>21116</v>
       </c>
       <c r="C81" t="s">
         <v>96</v>
       </c>
       <c r="D81">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E81">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F81">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G81">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="H81">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="I81">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J81">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K81">
-        <v>89</v>
+        <v>121</v>
       </c>
       <c r="L81">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="M81">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N81">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O81">
         <v>2</v>
@@ -5255,7 +5255,7 @@
         <v>2021</v>
       </c>
       <c r="Q81">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="R81">
         <v>10</v>
@@ -5266,7 +5266,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>21114</v>
+        <v>21115</v>
       </c>
       <c r="C82" t="s">
         <v>97</v>
@@ -5275,22 +5275,22 @@
         <v>8</v>
       </c>
       <c r="E82">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F82">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G82">
+        <v>20</v>
+      </c>
+      <c r="H82">
         <v>29</v>
       </c>
-      <c r="H82">
-        <v>30</v>
-      </c>
       <c r="I82">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J82">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K82">
         <v>89</v>
@@ -5299,10 +5299,10 @@
         <v>18</v>
       </c>
       <c r="M82">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="N82">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O82">
         <v>2</v>
@@ -5311,7 +5311,7 @@
         <v>2021</v>
       </c>
       <c r="Q82">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="R82">
         <v>10</v>
@@ -5322,37 +5322,37 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>21113</v>
+        <v>21114</v>
       </c>
       <c r="C83" t="s">
         <v>98</v>
       </c>
       <c r="D83">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E83">
+        <v>9</v>
+      </c>
+      <c r="F83">
+        <v>13</v>
+      </c>
+      <c r="G83">
+        <v>29</v>
+      </c>
+      <c r="H83">
+        <v>30</v>
+      </c>
+      <c r="I83">
+        <v>1</v>
+      </c>
+      <c r="J83">
+        <v>11</v>
+      </c>
+      <c r="K83">
+        <v>89</v>
+      </c>
+      <c r="L83">
         <v>18</v>
-      </c>
-      <c r="F83">
-        <v>25</v>
-      </c>
-      <c r="G83">
-        <v>27</v>
-      </c>
-      <c r="H83">
-        <v>28</v>
-      </c>
-      <c r="I83">
-        <v>4</v>
-      </c>
-      <c r="J83">
-        <v>8</v>
-      </c>
-      <c r="K83">
-        <v>115</v>
-      </c>
-      <c r="L83">
-        <v>23</v>
       </c>
       <c r="M83">
         <v>12</v>
@@ -5367,10 +5367,10 @@
         <v>2021</v>
       </c>
       <c r="Q83">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="R83">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="84" spans="1:18">
@@ -5378,43 +5378,43 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>21112</v>
+        <v>21113</v>
       </c>
       <c r="C84" t="s">
         <v>99</v>
       </c>
       <c r="D84">
+        <v>17</v>
+      </c>
+      <c r="E84">
         <v>18</v>
       </c>
-      <c r="E84">
-        <v>21</v>
-      </c>
       <c r="F84">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G84">
+        <v>27</v>
+      </c>
+      <c r="H84">
+        <v>28</v>
+      </c>
+      <c r="I84">
+        <v>4</v>
+      </c>
+      <c r="J84">
+        <v>8</v>
+      </c>
+      <c r="K84">
+        <v>115</v>
+      </c>
+      <c r="L84">
         <v>23</v>
       </c>
-      <c r="H84">
-        <v>35</v>
-      </c>
-      <c r="I84">
-        <v>11</v>
-      </c>
-      <c r="J84">
+      <c r="M84">
         <v>12</v>
       </c>
-      <c r="K84">
-        <v>119</v>
-      </c>
-      <c r="L84">
-        <v>24</v>
-      </c>
-      <c r="M84">
-        <v>23</v>
-      </c>
       <c r="N84">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="O84">
         <v>2</v>
@@ -5423,7 +5423,7 @@
         <v>2021</v>
       </c>
       <c r="Q84">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="R84">
         <v>9</v>
@@ -5434,43 +5434,43 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>21111</v>
+        <v>21112</v>
       </c>
       <c r="C85" t="s">
         <v>100</v>
       </c>
       <c r="D85">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E85">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="F85">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G85">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H85">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="I85">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J85">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K85">
-        <v>77</v>
+        <v>119</v>
       </c>
       <c r="L85">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="M85">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="N85">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="O85">
         <v>2</v>
@@ -5479,7 +5479,7 @@
         <v>2021</v>
       </c>
       <c r="Q85">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="R85">
         <v>9</v>
@@ -5490,43 +5490,43 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>21110</v>
+        <v>21111</v>
       </c>
       <c r="C86" t="s">
         <v>101</v>
       </c>
       <c r="D86">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E86">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F86">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="G86">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="H86">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I86">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J86">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="K86">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="L86">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="M86">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="N86">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="O86">
         <v>2</v>
@@ -5535,7 +5535,7 @@
         <v>2021</v>
       </c>
       <c r="Q86">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R86">
         <v>9</v>
@@ -5546,52 +5546,52 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>21109</v>
+        <v>21110</v>
       </c>
       <c r="C87" t="s">
         <v>102</v>
       </c>
       <c r="D87">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E87">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F87">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="G87">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H87">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I87">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="J87">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K87">
-        <v>72</v>
+        <v>117</v>
       </c>
       <c r="L87">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="M87">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="N87">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="O87">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P87">
         <v>2021</v>
       </c>
       <c r="Q87">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R87">
         <v>9</v>
@@ -5602,52 +5602,52 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>21108</v>
+        <v>21109</v>
       </c>
       <c r="C88" t="s">
         <v>103</v>
       </c>
       <c r="D88">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E88">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="F88">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="G88">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H88">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I88">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J88">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K88">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="L88">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="M88">
+        <v>15</v>
+      </c>
+      <c r="N88">
         <v>8</v>
       </c>
-      <c r="N88">
-        <v>4</v>
-      </c>
       <c r="O88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P88">
         <v>2021</v>
       </c>
       <c r="Q88">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="R88">
         <v>9</v>
@@ -5658,52 +5658,52 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>21107</v>
+        <v>21108</v>
       </c>
       <c r="C89" t="s">
         <v>104</v>
       </c>
       <c r="D89">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E89">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="F89">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G89">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="H89">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="I89">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J89">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="K89">
-        <v>66</v>
+        <v>107</v>
       </c>
       <c r="L89">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M89">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="N89">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="O89">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P89">
         <v>2021</v>
       </c>
       <c r="Q89">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="R89">
         <v>9</v>
@@ -5714,52 +5714,52 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>21106</v>
+        <v>21107</v>
       </c>
       <c r="C90" t="s">
         <v>105</v>
       </c>
       <c r="D90">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E90">
+        <v>5</v>
+      </c>
+      <c r="F90">
         <v>13</v>
       </c>
-      <c r="F90">
-        <v>14</v>
-      </c>
       <c r="G90">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="H90">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="I90">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J90">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K90">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="L90">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M90">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="N90">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O90">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P90">
         <v>2021</v>
       </c>
       <c r="Q90">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="R90">
         <v>9</v>
@@ -5770,52 +5770,52 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>21105</v>
+        <v>21106</v>
       </c>
       <c r="C91" t="s">
         <v>106</v>
       </c>
       <c r="D91">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E91">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F91">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G91">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="H91">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="I91">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J91">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K91">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="L91">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M91">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N91">
         <v>7</v>
       </c>
       <c r="O91">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P91">
         <v>2021</v>
       </c>
       <c r="Q91">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="R91">
         <v>9</v>
@@ -5826,40 +5826,40 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>21104</v>
+        <v>21105</v>
       </c>
       <c r="C92" t="s">
         <v>107</v>
       </c>
       <c r="D92">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="E92">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F92">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="G92">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="H92">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I92">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J92">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K92">
-        <v>137</v>
+        <v>63</v>
       </c>
       <c r="L92">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M92">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N92">
         <v>7</v>
@@ -5871,7 +5871,7 @@
         <v>2021</v>
       </c>
       <c r="Q92">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="R92">
         <v>9</v>
@@ -5882,52 +5882,52 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>21103</v>
+        <v>21104</v>
       </c>
       <c r="C93" t="s">
         <v>108</v>
       </c>
       <c r="D93">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="E93">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F93">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G93">
         <v>30</v>
       </c>
       <c r="H93">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I93">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J93">
         <v>11</v>
       </c>
       <c r="K93">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="L93">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="M93">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N93">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O93">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P93">
         <v>2021</v>
       </c>
       <c r="Q93">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="R93">
         <v>9</v>
@@ -5938,43 +5938,43 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>21102</v>
+        <v>21103</v>
       </c>
       <c r="C94" t="s">
         <v>109</v>
       </c>
       <c r="D94">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E94">
+        <v>10</v>
+      </c>
+      <c r="F94">
+        <v>23</v>
+      </c>
+      <c r="G94">
+        <v>30</v>
+      </c>
+      <c r="H94">
+        <v>31</v>
+      </c>
+      <c r="I94">
+        <v>5</v>
+      </c>
+      <c r="J94">
+        <v>11</v>
+      </c>
+      <c r="K94">
+        <v>98</v>
+      </c>
+      <c r="L94">
+        <v>20</v>
+      </c>
+      <c r="M94">
+        <v>16</v>
+      </c>
+      <c r="N94">
         <v>8</v>
-      </c>
-      <c r="F94">
-        <v>11</v>
-      </c>
-      <c r="G94">
-        <v>16</v>
-      </c>
-      <c r="H94">
-        <v>23</v>
-      </c>
-      <c r="I94">
-        <v>2</v>
-      </c>
-      <c r="J94">
-        <v>7</v>
-      </c>
-      <c r="K94">
-        <v>60</v>
-      </c>
-      <c r="L94">
-        <v>12</v>
-      </c>
-      <c r="M94">
-        <v>9</v>
-      </c>
-      <c r="N94">
-        <v>5</v>
       </c>
       <c r="O94">
         <v>3</v>
@@ -5983,7 +5983,7 @@
         <v>2021</v>
       </c>
       <c r="Q94">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="R94">
         <v>9</v>
@@ -5994,52 +5994,52 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>21101</v>
+        <v>21102</v>
       </c>
       <c r="C95" t="s">
         <v>110</v>
       </c>
       <c r="D95">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="E95">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F95">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G95">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="H95">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="I95">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J95">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="K95">
-        <v>109</v>
+        <v>60</v>
       </c>
       <c r="L95">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="M95">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="N95">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O95">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P95">
         <v>2021</v>
       </c>
       <c r="Q95">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="R95">
         <v>9</v>
@@ -6050,43 +6050,43 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>21100</v>
+        <v>21101</v>
       </c>
       <c r="C96" t="s">
         <v>111</v>
       </c>
       <c r="D96">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E96">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F96">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G96">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H96">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="I96">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J96">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="K96">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="L96">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M96">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="N96">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="O96">
         <v>2</v>
@@ -6095,10 +6095,10 @@
         <v>2021</v>
       </c>
       <c r="Q96">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="R96">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="97" spans="1:18">
@@ -6106,43 +6106,43 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>21099</v>
+        <v>21100</v>
       </c>
       <c r="C97" t="s">
         <v>112</v>
       </c>
       <c r="D97">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E97">
+        <v>11</v>
+      </c>
+      <c r="F97">
+        <v>23</v>
+      </c>
+      <c r="G97">
+        <v>26</v>
+      </c>
+      <c r="H97">
+        <v>28</v>
+      </c>
+      <c r="I97">
+        <v>2</v>
+      </c>
+      <c r="J97">
+        <v>7</v>
+      </c>
+      <c r="K97">
+        <v>95</v>
+      </c>
+      <c r="L97">
         <v>19</v>
       </c>
-      <c r="F97">
-        <v>27</v>
-      </c>
-      <c r="G97">
-        <v>28</v>
-      </c>
-      <c r="H97">
-        <v>30</v>
-      </c>
-      <c r="I97">
-        <v>3</v>
-      </c>
-      <c r="J97">
-        <v>4</v>
-      </c>
-      <c r="K97">
-        <v>119</v>
-      </c>
-      <c r="L97">
-        <v>24</v>
-      </c>
       <c r="M97">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N97">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O97">
         <v>2</v>
@@ -6151,7 +6151,7 @@
         <v>2021</v>
       </c>
       <c r="Q97">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="R97">
         <v>8</v>
@@ -6162,52 +6162,52 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>21098</v>
+        <v>21099</v>
       </c>
       <c r="C98" t="s">
         <v>113</v>
       </c>
       <c r="D98">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E98">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="F98">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G98">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H98">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I98">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J98">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="K98">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="L98">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="M98">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="N98">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="O98">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P98">
         <v>2021</v>
       </c>
       <c r="Q98">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="R98">
         <v>8</v>
@@ -6218,52 +6218,52 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>21097</v>
+        <v>21098</v>
       </c>
       <c r="C99" t="s">
         <v>114</v>
       </c>
       <c r="D99">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E99">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="F99">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="G99">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H99">
         <v>33</v>
       </c>
       <c r="I99">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J99">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K99">
-        <v>131</v>
+        <v>90</v>
       </c>
       <c r="L99">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="M99">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N99">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O99">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P99">
         <v>2021</v>
       </c>
       <c r="Q99">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="R99">
         <v>8</v>
@@ -6274,52 +6274,52 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>21096</v>
+        <v>21097</v>
       </c>
       <c r="C100" t="s">
         <v>115</v>
       </c>
       <c r="D100">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E100">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="F100">
+        <v>30</v>
+      </c>
+      <c r="G100">
+        <v>31</v>
+      </c>
+      <c r="H100">
+        <v>33</v>
+      </c>
+      <c r="I100">
+        <v>3</v>
+      </c>
+      <c r="J100">
         <v>10</v>
       </c>
-      <c r="G100">
-        <v>20</v>
-      </c>
-      <c r="H100">
-        <v>21</v>
-      </c>
-      <c r="I100">
-        <v>1</v>
-      </c>
-      <c r="J100">
-        <v>5</v>
-      </c>
       <c r="K100">
-        <v>66</v>
+        <v>131</v>
       </c>
       <c r="L100">
+        <v>26</v>
+      </c>
+      <c r="M100">
         <v>13</v>
       </c>
-      <c r="M100">
-        <v>6</v>
-      </c>
       <c r="N100">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="O100">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P100">
         <v>2021</v>
       </c>
       <c r="Q100">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R100">
         <v>8</v>
@@ -6330,43 +6330,43 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>21095</v>
+        <v>21096</v>
       </c>
       <c r="C101" t="s">
         <v>116</v>
       </c>
       <c r="D101">
+        <v>7</v>
+      </c>
+      <c r="E101">
+        <v>8</v>
+      </c>
+      <c r="F101">
         <v>10</v>
-      </c>
-      <c r="E101">
-        <v>15</v>
-      </c>
-      <c r="F101">
-        <v>19</v>
       </c>
       <c r="G101">
         <v>20</v>
       </c>
       <c r="H101">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="I101">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="J101">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="K101">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="L101">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M101">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="N101">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="O101">
         <v>3</v>
@@ -6375,7 +6375,7 @@
         <v>2021</v>
       </c>
       <c r="Q101">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="R101">
         <v>8</v>

--- a/大乐透最近100期开奖号码.xlsx
+++ b/大乐透最近100期开奖号码.xlsx
@@ -67,6 +67,12 @@
     <t>年内月号</t>
   </si>
   <si>
+    <t>2022-04-30</t>
+  </si>
+  <si>
+    <t>2022-04-27</t>
+  </si>
+  <si>
     <t>2022-04-25</t>
   </si>
   <si>
@@ -359,12 +365,6 @@
   </si>
   <si>
     <t>2021-08-25</t>
-  </si>
-  <si>
-    <t>2021-08-23</t>
-  </si>
-  <si>
-    <t>2021-08-21</t>
   </si>
 </sst>
 </file>
@@ -786,52 +786,52 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>22045</v>
+        <v>22047</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F2">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G2">
         <v>12</v>
       </c>
       <c r="H2">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J2">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K2">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="L2">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="M2">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="N2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="O2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P2">
         <v>2022</v>
       </c>
       <c r="Q2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="R2">
         <v>4</v>
@@ -842,43 +842,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22044</v>
+        <v>22046</v>
       </c>
       <c r="C3" t="s">
         <v>18</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F3">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G3">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H3">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="I3">
         <v>3</v>
       </c>
       <c r="J3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K3">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="L3">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="M3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O3">
         <v>3</v>
@@ -887,7 +887,7 @@
         <v>2022</v>
       </c>
       <c r="Q3">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="R3">
         <v>4</v>
@@ -898,7 +898,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22043</v>
+        <v>22045</v>
       </c>
       <c r="C4" t="s">
         <v>19</v>
@@ -907,43 +907,43 @@
         <v>2</v>
       </c>
       <c r="E4">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="G4">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="H4">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I4">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="K4">
-        <v>89</v>
+        <v>44</v>
       </c>
       <c r="L4">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="M4">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="N4">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="O4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P4">
         <v>2022</v>
       </c>
       <c r="Q4">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="R4">
         <v>4</v>
@@ -954,43 +954,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22042</v>
+        <v>22044</v>
       </c>
       <c r="C5" t="s">
         <v>20</v>
       </c>
       <c r="D5">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>16</v>
+      </c>
+      <c r="G5">
+        <v>17</v>
+      </c>
+      <c r="H5">
+        <v>20</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+      <c r="J5">
+        <v>7</v>
+      </c>
+      <c r="K5">
+        <v>56</v>
+      </c>
+      <c r="L5">
+        <v>11</v>
+      </c>
+      <c r="M5">
         <v>10</v>
       </c>
-      <c r="F5">
-        <v>11</v>
-      </c>
-      <c r="G5">
-        <v>29</v>
-      </c>
-      <c r="H5">
-        <v>32</v>
-      </c>
-      <c r="I5">
-        <v>2</v>
-      </c>
-      <c r="J5">
-        <v>6</v>
-      </c>
-      <c r="K5">
-        <v>90</v>
-      </c>
-      <c r="L5">
-        <v>18</v>
-      </c>
-      <c r="M5">
-        <v>8</v>
-      </c>
       <c r="N5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O5">
         <v>3</v>
@@ -999,7 +999,7 @@
         <v>2022</v>
       </c>
       <c r="Q5">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R5">
         <v>4</v>
@@ -1010,52 +1010,52 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22041</v>
+        <v>22043</v>
       </c>
       <c r="C6" t="s">
         <v>21</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E6">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F6">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="G6">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H6">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I6">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J6">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K6">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="L6">
+        <v>18</v>
+      </c>
+      <c r="M6">
         <v>21</v>
       </c>
-      <c r="M6">
-        <v>17</v>
-      </c>
       <c r="N6">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P6">
         <v>2022</v>
       </c>
       <c r="Q6">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="R6">
         <v>4</v>
@@ -1066,52 +1066,52 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22040</v>
+        <v>22042</v>
       </c>
       <c r="C7" t="s">
         <v>22</v>
       </c>
       <c r="D7">
+        <v>8</v>
+      </c>
+      <c r="E7">
         <v>10</v>
       </c>
-      <c r="E7">
-        <v>19</v>
-      </c>
       <c r="F7">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G7">
         <v>29</v>
       </c>
       <c r="H7">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7">
+        <v>6</v>
+      </c>
+      <c r="K7">
+        <v>90</v>
+      </c>
+      <c r="L7">
+        <v>18</v>
+      </c>
+      <c r="M7">
         <v>8</v>
       </c>
-      <c r="J7">
-        <v>12</v>
-      </c>
-      <c r="K7">
-        <v>116</v>
-      </c>
-      <c r="L7">
-        <v>23</v>
-      </c>
-      <c r="M7">
-        <v>20</v>
-      </c>
       <c r="N7">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="O7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P7">
         <v>2022</v>
       </c>
       <c r="Q7">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="R7">
         <v>4</v>
@@ -1122,52 +1122,52 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>22039</v>
+        <v>22041</v>
       </c>
       <c r="C8" t="s">
         <v>23</v>
       </c>
       <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>15</v>
+      </c>
+      <c r="F8">
+        <v>25</v>
+      </c>
+      <c r="G8">
+        <v>26</v>
+      </c>
+      <c r="H8">
+        <v>33</v>
+      </c>
+      <c r="I8">
+        <v>6</v>
+      </c>
+      <c r="J8">
+        <v>11</v>
+      </c>
+      <c r="K8">
+        <v>104</v>
+      </c>
+      <c r="L8">
+        <v>21</v>
+      </c>
+      <c r="M8">
+        <v>17</v>
+      </c>
+      <c r="N8">
+        <v>9</v>
+      </c>
+      <c r="O8">
         <v>1</v>
-      </c>
-      <c r="E8">
-        <v>8</v>
-      </c>
-      <c r="F8">
-        <v>11</v>
-      </c>
-      <c r="G8">
-        <v>22</v>
-      </c>
-      <c r="H8">
-        <v>31</v>
-      </c>
-      <c r="I8">
-        <v>5</v>
-      </c>
-      <c r="J8">
-        <v>11</v>
-      </c>
-      <c r="K8">
-        <v>73</v>
-      </c>
-      <c r="L8">
-        <v>15</v>
-      </c>
-      <c r="M8">
-        <v>16</v>
-      </c>
-      <c r="N8">
-        <v>8</v>
-      </c>
-      <c r="O8">
-        <v>2</v>
       </c>
       <c r="P8">
         <v>2022</v>
       </c>
       <c r="Q8">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="R8">
         <v>4</v>
@@ -1178,52 +1178,52 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22038</v>
+        <v>22040</v>
       </c>
       <c r="C9" t="s">
         <v>24</v>
       </c>
       <c r="D9">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E9">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="F9">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="G9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="H9">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="I9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J9">
         <v>12</v>
       </c>
       <c r="K9">
-        <v>65</v>
+        <v>116</v>
       </c>
       <c r="L9">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M9">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N9">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P9">
         <v>2022</v>
       </c>
       <c r="Q9">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="R9">
         <v>4</v>
@@ -1234,7 +1234,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22037</v>
+        <v>22039</v>
       </c>
       <c r="C10" t="s">
         <v>25</v>
@@ -1243,25 +1243,25 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F10">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G10">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H10">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K10">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L10">
         <v>15</v>
@@ -1279,7 +1279,7 @@
         <v>2022</v>
       </c>
       <c r="Q10">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="R10">
         <v>4</v>
@@ -1290,52 +1290,52 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22036</v>
+        <v>22038</v>
       </c>
       <c r="C11" t="s">
         <v>26</v>
       </c>
       <c r="D11">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E11">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="F11">
+        <v>11</v>
+      </c>
+      <c r="G11">
+        <v>12</v>
+      </c>
+      <c r="H11">
+        <v>26</v>
+      </c>
+      <c r="I11">
+        <v>9</v>
+      </c>
+      <c r="J11">
+        <v>12</v>
+      </c>
+      <c r="K11">
+        <v>65</v>
+      </c>
+      <c r="L11">
+        <v>13</v>
+      </c>
+      <c r="M11">
         <v>21</v>
       </c>
-      <c r="G11">
-        <v>26</v>
-      </c>
-      <c r="H11">
-        <v>34</v>
-      </c>
-      <c r="I11">
-        <v>6</v>
-      </c>
-      <c r="J11">
-        <v>7</v>
-      </c>
-      <c r="K11">
-        <v>118</v>
-      </c>
-      <c r="L11">
-        <v>24</v>
-      </c>
-      <c r="M11">
-        <v>13</v>
-      </c>
       <c r="N11">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="O11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P11">
         <v>2022</v>
       </c>
       <c r="Q11">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="R11">
         <v>4</v>
@@ -1346,52 +1346,52 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>22035</v>
+        <v>22037</v>
       </c>
       <c r="C12" t="s">
         <v>27</v>
       </c>
       <c r="D12">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E12">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F12">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G12">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H12">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J12">
+        <v>10</v>
+      </c>
+      <c r="K12">
+        <v>75</v>
+      </c>
+      <c r="L12">
+        <v>15</v>
+      </c>
+      <c r="M12">
+        <v>16</v>
+      </c>
+      <c r="N12">
         <v>8</v>
       </c>
-      <c r="K12">
-        <v>87</v>
-      </c>
-      <c r="L12">
-        <v>17</v>
-      </c>
-      <c r="M12">
-        <v>13</v>
-      </c>
-      <c r="N12">
-        <v>7</v>
-      </c>
       <c r="O12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P12">
         <v>2022</v>
       </c>
       <c r="Q12">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="R12">
         <v>4</v>
@@ -1402,25 +1402,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>22034</v>
+        <v>22036</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="E13">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F13">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G13">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H13">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="I13">
         <v>6</v>
@@ -1429,10 +1429,10 @@
         <v>7</v>
       </c>
       <c r="K13">
-        <v>91</v>
+        <v>118</v>
       </c>
       <c r="L13">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="M13">
         <v>13</v>
@@ -1441,16 +1441,16 @@
         <v>7</v>
       </c>
       <c r="O13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P13">
         <v>2022</v>
       </c>
       <c r="Q13">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R13">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -1458,55 +1458,55 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22033</v>
+        <v>22035</v>
       </c>
       <c r="C14" t="s">
         <v>29</v>
       </c>
       <c r="D14">
+        <v>9</v>
+      </c>
+      <c r="E14">
+        <v>11</v>
+      </c>
+      <c r="F14">
+        <v>13</v>
+      </c>
+      <c r="G14">
+        <v>23</v>
+      </c>
+      <c r="H14">
+        <v>31</v>
+      </c>
+      <c r="I14">
+        <v>5</v>
+      </c>
+      <c r="J14">
         <v>8</v>
       </c>
-      <c r="E14">
-        <v>15</v>
-      </c>
-      <c r="F14">
-        <v>16</v>
-      </c>
-      <c r="G14">
-        <v>19</v>
-      </c>
-      <c r="H14">
-        <v>33</v>
-      </c>
-      <c r="I14">
-        <v>3</v>
-      </c>
-      <c r="J14">
-        <v>4</v>
-      </c>
       <c r="K14">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="L14">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M14">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="N14">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="O14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P14">
         <v>2022</v>
       </c>
       <c r="Q14">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="R14">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -1514,52 +1514,52 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22032</v>
+        <v>22034</v>
       </c>
       <c r="C15" t="s">
         <v>30</v>
       </c>
       <c r="D15">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E15">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F15">
+        <v>24</v>
+      </c>
+      <c r="G15">
+        <v>27</v>
+      </c>
+      <c r="H15">
+        <v>28</v>
+      </c>
+      <c r="I15">
+        <v>6</v>
+      </c>
+      <c r="J15">
+        <v>7</v>
+      </c>
+      <c r="K15">
+        <v>91</v>
+      </c>
+      <c r="L15">
         <v>18</v>
       </c>
-      <c r="G15">
-        <v>31</v>
-      </c>
-      <c r="H15">
-        <v>32</v>
-      </c>
-      <c r="I15">
-        <v>1</v>
-      </c>
-      <c r="J15">
-        <v>5</v>
-      </c>
-      <c r="K15">
-        <v>95</v>
-      </c>
-      <c r="L15">
-        <v>19</v>
-      </c>
       <c r="M15">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="N15">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="O15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P15">
         <v>2022</v>
       </c>
       <c r="Q15">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R15">
         <v>3</v>
@@ -1570,52 +1570,52 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22031</v>
+        <v>22033</v>
       </c>
       <c r="C16" t="s">
         <v>31</v>
       </c>
       <c r="D16">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E16">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F16">
         <v>16</v>
       </c>
       <c r="G16">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H16">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="I16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J16">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K16">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="L16">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M16">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="N16">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P16">
         <v>2022</v>
       </c>
       <c r="Q16">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="R16">
         <v>3</v>
@@ -1626,52 +1626,52 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22030</v>
+        <v>22032</v>
       </c>
       <c r="C17" t="s">
         <v>32</v>
       </c>
       <c r="D17">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E17">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F17">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G17">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="H17">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I17">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K17">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="L17">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M17">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="N17">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P17">
         <v>2022</v>
       </c>
       <c r="Q17">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="R17">
         <v>3</v>
@@ -1682,7 +1682,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>22029</v>
+        <v>22031</v>
       </c>
       <c r="C18" t="s">
         <v>33</v>
@@ -1691,43 +1691,43 @@
         <v>7</v>
       </c>
       <c r="E18">
+        <v>14</v>
+      </c>
+      <c r="F18">
+        <v>16</v>
+      </c>
+      <c r="G18">
+        <v>20</v>
+      </c>
+      <c r="H18">
+        <v>28</v>
+      </c>
+      <c r="I18">
+        <v>4</v>
+      </c>
+      <c r="J18">
         <v>8</v>
       </c>
-      <c r="F18">
-        <v>10</v>
-      </c>
-      <c r="G18">
-        <v>14</v>
-      </c>
-      <c r="H18">
+      <c r="K18">
+        <v>85</v>
+      </c>
+      <c r="L18">
         <v>17</v>
       </c>
-      <c r="I18">
-        <v>10</v>
-      </c>
-      <c r="J18">
+      <c r="M18">
         <v>12</v>
       </c>
-      <c r="K18">
-        <v>56</v>
-      </c>
-      <c r="L18">
-        <v>11</v>
-      </c>
-      <c r="M18">
-        <v>22</v>
-      </c>
       <c r="N18">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="O18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P18">
         <v>2022</v>
       </c>
       <c r="Q18">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="R18">
         <v>3</v>
@@ -1738,52 +1738,52 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>22028</v>
+        <v>22030</v>
       </c>
       <c r="C19" t="s">
         <v>34</v>
       </c>
       <c r="D19">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E19">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F19">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G19">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H19">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="I19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K19">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="L19">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M19">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P19">
         <v>2022</v>
       </c>
       <c r="Q19">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="R19">
         <v>3</v>
@@ -1794,52 +1794,52 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22027</v>
+        <v>22029</v>
       </c>
       <c r="C20" t="s">
         <v>35</v>
       </c>
       <c r="D20">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E20">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F20">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G20">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="H20">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="I20">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J20">
         <v>12</v>
       </c>
       <c r="K20">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="L20">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="M20">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="N20">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="O20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P20">
         <v>2022</v>
       </c>
       <c r="Q20">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="R20">
         <v>3</v>
@@ -1850,43 +1850,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22026</v>
+        <v>22028</v>
       </c>
       <c r="C21" t="s">
         <v>36</v>
       </c>
       <c r="D21">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E21">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F21">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G21">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="H21">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>7</v>
+      </c>
+      <c r="K21">
+        <v>81</v>
+      </c>
+      <c r="L21">
+        <v>16</v>
+      </c>
+      <c r="M21">
         <v>8</v>
       </c>
-      <c r="J21">
-        <v>10</v>
-      </c>
-      <c r="K21">
-        <v>97</v>
-      </c>
-      <c r="L21">
-        <v>19</v>
-      </c>
-      <c r="M21">
-        <v>18</v>
-      </c>
       <c r="N21">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="O21">
         <v>2</v>
@@ -1895,7 +1895,7 @@
         <v>2022</v>
       </c>
       <c r="Q21">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="R21">
         <v>3</v>
@@ -1906,52 +1906,52 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>22025</v>
+        <v>22027</v>
       </c>
       <c r="C22" t="s">
         <v>37</v>
       </c>
       <c r="D22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E22">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F22">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G22">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H22">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J22">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="K22">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="L22">
         <v>17</v>
       </c>
       <c r="M22">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="N22">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="O22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P22">
         <v>2022</v>
       </c>
       <c r="Q22">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="R22">
         <v>3</v>
@@ -1962,43 +1962,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>22024</v>
+        <v>22026</v>
       </c>
       <c r="C23" t="s">
         <v>38</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="F23">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G23">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H23">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J23">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K23">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="L23">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M23">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="N23">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O23">
         <v>2</v>
@@ -2007,7 +2007,7 @@
         <v>2022</v>
       </c>
       <c r="Q23">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="R23">
         <v>3</v>
@@ -2018,7 +2018,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22023</v>
+        <v>22025</v>
       </c>
       <c r="C24" t="s">
         <v>39</v>
@@ -2027,34 +2027,34 @@
         <v>4</v>
       </c>
       <c r="E24">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F24">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G24">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H24">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I24">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="J24">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="K24">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="L24">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="M24">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="N24">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="O24">
         <v>3</v>
@@ -2063,7 +2063,7 @@
         <v>2022</v>
       </c>
       <c r="Q24">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R24">
         <v>3</v>
@@ -2074,7 +2074,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22022</v>
+        <v>22024</v>
       </c>
       <c r="C25" t="s">
         <v>40</v>
@@ -2083,28 +2083,28 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G25">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="H25">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="I25">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J25">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="K25">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="L25">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M25">
         <v>13</v>
@@ -2119,7 +2119,7 @@
         <v>2022</v>
       </c>
       <c r="Q25">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="R25">
         <v>3</v>
@@ -2130,55 +2130,55 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>22021</v>
+        <v>22023</v>
       </c>
       <c r="C26" t="s">
         <v>41</v>
       </c>
       <c r="D26">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E26">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F26">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G26">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H26">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I26">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="J26">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K26">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="L26">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="M26">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="N26">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="O26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P26">
         <v>2022</v>
       </c>
       <c r="Q26">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="R26">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -2186,43 +2186,43 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>22020</v>
+        <v>22022</v>
       </c>
       <c r="C27" t="s">
         <v>42</v>
       </c>
       <c r="D27">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E27">
+        <v>5</v>
+      </c>
+      <c r="F27">
+        <v>14</v>
+      </c>
+      <c r="G27">
         <v>17</v>
       </c>
-      <c r="F27">
-        <v>30</v>
-      </c>
-      <c r="G27">
-        <v>31</v>
-      </c>
       <c r="H27">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="I27">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J27">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K27">
-        <v>129</v>
+        <v>65</v>
       </c>
       <c r="L27">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M27">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N27">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O27">
         <v>2</v>
@@ -2231,10 +2231,10 @@
         <v>2022</v>
       </c>
       <c r="Q27">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="R27">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -2242,52 +2242,52 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>22019</v>
+        <v>22021</v>
       </c>
       <c r="C28" t="s">
         <v>43</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E28">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F28">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="G28">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H28">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="I28">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J28">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="K28">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="L28">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="M28">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="N28">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="O28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P28">
         <v>2022</v>
       </c>
       <c r="Q28">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="R28">
         <v>2</v>
@@ -2298,7 +2298,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>22018</v>
+        <v>22020</v>
       </c>
       <c r="C29" t="s">
         <v>44</v>
@@ -2307,34 +2307,34 @@
         <v>16</v>
       </c>
       <c r="E29">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F29">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G29">
         <v>31</v>
       </c>
       <c r="H29">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I29">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J29">
         <v>9</v>
       </c>
       <c r="K29">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L29">
         <v>26</v>
       </c>
       <c r="M29">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N29">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O29">
         <v>2</v>
@@ -2343,7 +2343,7 @@
         <v>2022</v>
       </c>
       <c r="Q29">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R29">
         <v>2</v>
@@ -2354,52 +2354,52 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>22017</v>
+        <v>22019</v>
       </c>
       <c r="C30" t="s">
         <v>45</v>
       </c>
       <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>4</v>
+      </c>
+      <c r="F30">
+        <v>7</v>
+      </c>
+      <c r="G30">
+        <v>17</v>
+      </c>
+      <c r="H30">
+        <v>21</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>2</v>
+      </c>
+      <c r="K30">
+        <v>50</v>
+      </c>
+      <c r="L30">
         <v>10</v>
       </c>
-      <c r="E30">
-        <v>14</v>
-      </c>
-      <c r="F30">
-        <v>18</v>
-      </c>
-      <c r="G30">
-        <v>23</v>
-      </c>
-      <c r="H30">
-        <v>25</v>
-      </c>
-      <c r="I30">
-        <v>7</v>
-      </c>
-      <c r="J30">
-        <v>11</v>
-      </c>
-      <c r="K30">
-        <v>90</v>
-      </c>
-      <c r="L30">
-        <v>18</v>
-      </c>
       <c r="M30">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="N30">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="O30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P30">
         <v>2022</v>
       </c>
       <c r="Q30">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="R30">
         <v>2</v>
@@ -2410,43 +2410,43 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>22016</v>
+        <v>22018</v>
       </c>
       <c r="C31" t="s">
         <v>46</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E31">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="F31">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="G31">
+        <v>31</v>
+      </c>
+      <c r="H31">
+        <v>34</v>
+      </c>
+      <c r="I31">
+        <v>6</v>
+      </c>
+      <c r="J31">
+        <v>9</v>
+      </c>
+      <c r="K31">
+        <v>131</v>
+      </c>
+      <c r="L31">
         <v>26</v>
       </c>
-      <c r="H31">
-        <v>32</v>
-      </c>
-      <c r="I31">
-        <v>1</v>
-      </c>
-      <c r="J31">
-        <v>9</v>
-      </c>
-      <c r="K31">
-        <v>83</v>
-      </c>
-      <c r="L31">
-        <v>17</v>
-      </c>
       <c r="M31">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N31">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="O31">
         <v>2</v>
@@ -2455,7 +2455,7 @@
         <v>2022</v>
       </c>
       <c r="Q31">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="R31">
         <v>2</v>
@@ -2466,52 +2466,52 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>22015</v>
+        <v>22017</v>
       </c>
       <c r="C32" t="s">
         <v>47</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E32">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="F32">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="G32">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="H32">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I32">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J32">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K32">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="L32">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="M32">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N32">
         <v>9</v>
       </c>
       <c r="O32">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P32">
         <v>2022</v>
       </c>
       <c r="Q32">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="R32">
         <v>2</v>
@@ -2522,7 +2522,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>22014</v>
+        <v>22016</v>
       </c>
       <c r="C33" t="s">
         <v>48</v>
@@ -2531,13 +2531,13 @@
         <v>1</v>
       </c>
       <c r="E33">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F33">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G33">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="H33">
         <v>32</v>
@@ -2549,10 +2549,10 @@
         <v>9</v>
       </c>
       <c r="K33">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="L33">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="M33">
         <v>10</v>
@@ -2561,13 +2561,13 @@
         <v>5</v>
       </c>
       <c r="O33">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P33">
         <v>2022</v>
       </c>
       <c r="Q33">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="R33">
         <v>2</v>
@@ -2578,52 +2578,52 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>22013</v>
+        <v>22015</v>
       </c>
       <c r="C34" t="s">
         <v>49</v>
       </c>
       <c r="D34">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E34">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F34">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G34">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="H34">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I34">
         <v>5</v>
       </c>
       <c r="J34">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="K34">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="L34">
+        <v>11</v>
+      </c>
+      <c r="M34">
         <v>17</v>
       </c>
-      <c r="M34">
-        <v>11</v>
-      </c>
       <c r="N34">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="O34">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P34">
         <v>2022</v>
       </c>
       <c r="Q34">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="R34">
         <v>2</v>
@@ -2634,55 +2634,55 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>22012</v>
+        <v>22014</v>
       </c>
       <c r="C35" t="s">
         <v>50</v>
       </c>
       <c r="D35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E35">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F35">
         <v>10</v>
       </c>
       <c r="G35">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="H35">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I35">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J35">
+        <v>9</v>
+      </c>
+      <c r="K35">
+        <v>65</v>
+      </c>
+      <c r="L35">
+        <v>13</v>
+      </c>
+      <c r="M35">
         <v>10</v>
       </c>
-      <c r="K35">
-        <v>85</v>
-      </c>
-      <c r="L35">
-        <v>17</v>
-      </c>
-      <c r="M35">
-        <v>17</v>
-      </c>
       <c r="N35">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O35">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P35">
         <v>2022</v>
       </c>
       <c r="Q35">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="R35">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -2690,22 +2690,22 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>22011</v>
+        <v>22013</v>
       </c>
       <c r="C36" t="s">
         <v>51</v>
       </c>
       <c r="D36">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E36">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F36">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G36">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H36">
         <v>32</v>
@@ -2714,31 +2714,31 @@
         <v>5</v>
       </c>
       <c r="J36">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="K36">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="L36">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M36">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="N36">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="O36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P36">
         <v>2022</v>
       </c>
       <c r="Q36">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="R36">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -2746,52 +2746,52 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>22010</v>
+        <v>22012</v>
       </c>
       <c r="C37" t="s">
         <v>52</v>
       </c>
       <c r="D37">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E37">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="F37">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G37">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H37">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I37">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J37">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K37">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="L37">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M37">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N37">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P37">
         <v>2022</v>
       </c>
       <c r="Q37">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="R37">
         <v>1</v>
@@ -2802,37 +2802,37 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>22009</v>
+        <v>22011</v>
       </c>
       <c r="C38" t="s">
         <v>53</v>
       </c>
       <c r="D38">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E38">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="F38">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G38">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="H38">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I38">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J38">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K38">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="L38">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="M38">
         <v>17</v>
@@ -2847,7 +2847,7 @@
         <v>2022</v>
       </c>
       <c r="Q38">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="R38">
         <v>1</v>
@@ -2858,37 +2858,37 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>22008</v>
+        <v>22010</v>
       </c>
       <c r="C39" t="s">
         <v>54</v>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E39">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="F39">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="G39">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="H39">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I39">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J39">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="K39">
-        <v>68</v>
+        <v>114</v>
       </c>
       <c r="L39">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="M39">
         <v>13</v>
@@ -2897,13 +2897,13 @@
         <v>7</v>
       </c>
       <c r="O39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P39">
         <v>2022</v>
       </c>
       <c r="Q39">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="R39">
         <v>1</v>
@@ -2914,52 +2914,52 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>22007</v>
+        <v>22009</v>
       </c>
       <c r="C40" t="s">
         <v>55</v>
       </c>
       <c r="D40">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E40">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F40">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="G40">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H40">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I40">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J40">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K40">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L40">
         <v>22</v>
       </c>
       <c r="M40">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="N40">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P40">
         <v>2022</v>
       </c>
       <c r="Q40">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="R40">
         <v>1</v>
@@ -2970,7 +2970,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>22006</v>
+        <v>22008</v>
       </c>
       <c r="C41" t="s">
         <v>56</v>
@@ -2979,43 +2979,43 @@
         <v>1</v>
       </c>
       <c r="E41">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F41">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="G41">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H41">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="I41">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J41">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="K41">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="L41">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="M41">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N41">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O41">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P41">
         <v>2022</v>
       </c>
       <c r="Q41">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="R41">
         <v>1</v>
@@ -3026,37 +3026,37 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>22005</v>
+        <v>22007</v>
       </c>
       <c r="C42" t="s">
         <v>57</v>
       </c>
       <c r="D42">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E42">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F42">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="G42">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="H42">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I42">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J42">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K42">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="L42">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="M42">
         <v>14</v>
@@ -3065,13 +3065,13 @@
         <v>7</v>
       </c>
       <c r="O42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P42">
         <v>2022</v>
       </c>
       <c r="Q42">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="R42">
         <v>1</v>
@@ -3082,52 +3082,52 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>22004</v>
+        <v>22006</v>
       </c>
       <c r="C43" t="s">
         <v>58</v>
       </c>
       <c r="D43">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E43">
+        <v>5</v>
+      </c>
+      <c r="F43">
+        <v>7</v>
+      </c>
+      <c r="G43">
+        <v>17</v>
+      </c>
+      <c r="H43">
         <v>20</v>
       </c>
-      <c r="F43">
-        <v>27</v>
-      </c>
-      <c r="G43">
-        <v>30</v>
-      </c>
-      <c r="H43">
-        <v>33</v>
-      </c>
       <c r="I43">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J43">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="K43">
-        <v>117</v>
+        <v>50</v>
       </c>
       <c r="L43">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="M43">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="N43">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="O43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P43">
         <v>2022</v>
       </c>
       <c r="Q43">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="R43">
         <v>1</v>
@@ -3138,7 +3138,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>22003</v>
+        <v>22005</v>
       </c>
       <c r="C44" t="s">
         <v>59</v>
@@ -3147,43 +3147,43 @@
         <v>2</v>
       </c>
       <c r="E44">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F44">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="G44">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H44">
         <v>34</v>
       </c>
       <c r="I44">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J44">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="K44">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="L44">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="M44">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="N44">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="O44">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P44">
         <v>2022</v>
       </c>
       <c r="Q44">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R44">
         <v>1</v>
@@ -3194,52 +3194,52 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>22002</v>
+        <v>22004</v>
       </c>
       <c r="C45" t="s">
         <v>60</v>
       </c>
       <c r="D45">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E45">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="F45">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="G45">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="H45">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="I45">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J45">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="K45">
-        <v>50</v>
+        <v>117</v>
       </c>
       <c r="L45">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="M45">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="N45">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="O45">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P45">
         <v>2022</v>
       </c>
       <c r="Q45">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R45">
         <v>1</v>
@@ -3250,52 +3250,52 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>22001</v>
+        <v>22003</v>
       </c>
       <c r="C46" t="s">
         <v>61</v>
       </c>
       <c r="D46">
+        <v>2</v>
+      </c>
+      <c r="E46">
+        <v>18</v>
+      </c>
+      <c r="F46">
+        <v>24</v>
+      </c>
+      <c r="G46">
+        <v>25</v>
+      </c>
+      <c r="H46">
+        <v>34</v>
+      </c>
+      <c r="I46">
         <v>8</v>
       </c>
-      <c r="E46">
-        <v>11</v>
-      </c>
-      <c r="F46">
-        <v>19</v>
-      </c>
-      <c r="G46">
-        <v>22</v>
-      </c>
-      <c r="H46">
-        <v>29</v>
-      </c>
-      <c r="I46">
-        <v>3</v>
-      </c>
       <c r="J46">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K46">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="L46">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M46">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="N46">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="O46">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P46">
         <v>2022</v>
       </c>
       <c r="Q46">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R46">
         <v>1</v>
@@ -3306,7 +3306,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>21150</v>
+        <v>22002</v>
       </c>
       <c r="C47" t="s">
         <v>62</v>
@@ -3315,46 +3315,46 @@
         <v>4</v>
       </c>
       <c r="E47">
+        <v>6</v>
+      </c>
+      <c r="F47">
+        <v>7</v>
+      </c>
+      <c r="G47">
+        <v>9</v>
+      </c>
+      <c r="H47">
+        <v>24</v>
+      </c>
+      <c r="I47">
+        <v>4</v>
+      </c>
+      <c r="J47">
+        <v>12</v>
+      </c>
+      <c r="K47">
+        <v>50</v>
+      </c>
+      <c r="L47">
         <v>10</v>
       </c>
-      <c r="F47">
-        <v>11</v>
-      </c>
-      <c r="G47">
-        <v>23</v>
-      </c>
-      <c r="H47">
-        <v>26</v>
-      </c>
-      <c r="I47">
-        <v>7</v>
-      </c>
-      <c r="J47">
-        <v>10</v>
-      </c>
-      <c r="K47">
-        <v>74</v>
-      </c>
-      <c r="L47">
-        <v>15</v>
-      </c>
       <c r="M47">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N47">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O47">
         <v>3</v>
       </c>
       <c r="P47">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="Q47">
-        <v>150</v>
+        <v>2</v>
       </c>
       <c r="R47">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -3362,55 +3362,55 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>21149</v>
+        <v>22001</v>
       </c>
       <c r="C48" t="s">
         <v>63</v>
       </c>
       <c r="D48">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E48">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F48">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="G48">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H48">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="I48">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="J48">
         <v>11</v>
       </c>
       <c r="K48">
-        <v>139</v>
+        <v>89</v>
       </c>
       <c r="L48">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="M48">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="N48">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="O48">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P48">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="Q48">
-        <v>149</v>
+        <v>1</v>
       </c>
       <c r="R48">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:18">
@@ -3418,43 +3418,43 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>21148</v>
+        <v>21150</v>
       </c>
       <c r="C49" t="s">
         <v>64</v>
       </c>
       <c r="D49">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E49">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F49">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G49">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="H49">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I49">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J49">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K49">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="L49">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="M49">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="N49">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="O49">
         <v>3</v>
@@ -3463,7 +3463,7 @@
         <v>2021</v>
       </c>
       <c r="Q49">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="R49">
         <v>12</v>
@@ -3474,43 +3474,43 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>21147</v>
+        <v>21149</v>
       </c>
       <c r="C50" t="s">
         <v>65</v>
       </c>
       <c r="D50">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E50">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="F50">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="G50">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="H50">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="I50">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J50">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="K50">
-        <v>49</v>
+        <v>139</v>
       </c>
       <c r="L50">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="M50">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="N50">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="O50">
         <v>4</v>
@@ -3519,7 +3519,7 @@
         <v>2021</v>
       </c>
       <c r="Q50">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="R50">
         <v>12</v>
@@ -3530,43 +3530,43 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>21146</v>
+        <v>21148</v>
       </c>
       <c r="C51" t="s">
         <v>66</v>
       </c>
       <c r="D51">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E51">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F51">
+        <v>12</v>
+      </c>
+      <c r="G51">
+        <v>16</v>
+      </c>
+      <c r="H51">
+        <v>29</v>
+      </c>
+      <c r="I51">
+        <v>4</v>
+      </c>
+      <c r="J51">
         <v>8</v>
       </c>
-      <c r="G51">
-        <v>18</v>
-      </c>
-      <c r="H51">
-        <v>20</v>
-      </c>
-      <c r="I51">
-        <v>9</v>
-      </c>
-      <c r="J51">
-        <v>11</v>
-      </c>
       <c r="K51">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="L51">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M51">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="N51">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="O51">
         <v>3</v>
@@ -3575,7 +3575,7 @@
         <v>2021</v>
       </c>
       <c r="Q51">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="R51">
         <v>12</v>
@@ -3586,52 +3586,52 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>21145</v>
+        <v>21147</v>
       </c>
       <c r="C52" t="s">
         <v>67</v>
       </c>
       <c r="D52">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E52">
+        <v>2</v>
+      </c>
+      <c r="F52">
         <v>8</v>
       </c>
-      <c r="F52">
-        <v>25</v>
-      </c>
       <c r="G52">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="H52">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I52">
         <v>1</v>
       </c>
       <c r="J52">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K52">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="L52">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="M52">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N52">
         <v>4</v>
       </c>
       <c r="O52">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P52">
         <v>2021</v>
       </c>
       <c r="Q52">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="R52">
         <v>12</v>
@@ -3642,7 +3642,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>21144</v>
+        <v>21146</v>
       </c>
       <c r="C53" t="s">
         <v>68</v>
@@ -3651,34 +3651,34 @@
         <v>3</v>
       </c>
       <c r="E53">
+        <v>5</v>
+      </c>
+      <c r="F53">
+        <v>8</v>
+      </c>
+      <c r="G53">
+        <v>18</v>
+      </c>
+      <c r="H53">
         <v>20</v>
       </c>
-      <c r="F53">
-        <v>25</v>
-      </c>
-      <c r="G53">
-        <v>30</v>
-      </c>
-      <c r="H53">
-        <v>34</v>
-      </c>
       <c r="I53">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J53">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K53">
-        <v>112</v>
+        <v>54</v>
       </c>
       <c r="L53">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="M53">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="N53">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="O53">
         <v>3</v>
@@ -3687,7 +3687,7 @@
         <v>2021</v>
       </c>
       <c r="Q53">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="R53">
         <v>12</v>
@@ -3698,52 +3698,52 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>21143</v>
+        <v>21145</v>
       </c>
       <c r="C54" t="s">
         <v>69</v>
       </c>
       <c r="D54">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E54">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F54">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="G54">
         <v>29</v>
       </c>
       <c r="H54">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I54">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J54">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="K54">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="L54">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="M54">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="N54">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="O54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P54">
         <v>2021</v>
       </c>
       <c r="Q54">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="R54">
         <v>12</v>
@@ -3754,25 +3754,25 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>21142</v>
+        <v>21144</v>
       </c>
       <c r="C55" t="s">
         <v>70</v>
       </c>
       <c r="D55">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E55">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F55">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="G55">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H55">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="I55">
         <v>2</v>
@@ -3781,10 +3781,10 @@
         <v>9</v>
       </c>
       <c r="K55">
-        <v>85</v>
+        <v>112</v>
       </c>
       <c r="L55">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="M55">
         <v>11</v>
@@ -3793,13 +3793,13 @@
         <v>6</v>
       </c>
       <c r="O55">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P55">
         <v>2021</v>
       </c>
       <c r="Q55">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="R55">
         <v>12</v>
@@ -3810,19 +3810,19 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>21141</v>
+        <v>21143</v>
       </c>
       <c r="C56" t="s">
         <v>71</v>
       </c>
       <c r="D56">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E56">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F56">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G56">
         <v>29</v>
@@ -3831,31 +3831,31 @@
         <v>34</v>
       </c>
       <c r="I56">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J56">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K56">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="L56">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="M56">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N56">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O56">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P56">
         <v>2021</v>
       </c>
       <c r="Q56">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="R56">
         <v>12</v>
@@ -3866,52 +3866,52 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>21140</v>
+        <v>21142</v>
       </c>
       <c r="C57" t="s">
         <v>72</v>
       </c>
       <c r="D57">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E57">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F57">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="G57">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="H57">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I57">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="J57">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="K57">
-        <v>123</v>
+        <v>85</v>
       </c>
       <c r="L57">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="M57">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="N57">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="O57">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P57">
         <v>2021</v>
       </c>
       <c r="Q57">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="R57">
         <v>12</v>
@@ -3922,37 +3922,37 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>21139</v>
+        <v>21141</v>
       </c>
       <c r="C58" t="s">
         <v>73</v>
       </c>
       <c r="D58">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E58">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F58">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G58">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="H58">
         <v>34</v>
       </c>
       <c r="I58">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J58">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K58">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="L58">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M58">
         <v>17</v>
@@ -3961,13 +3961,13 @@
         <v>9</v>
       </c>
       <c r="O58">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P58">
         <v>2021</v>
       </c>
       <c r="Q58">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="R58">
         <v>12</v>
@@ -3978,52 +3978,52 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>21138</v>
+        <v>21140</v>
       </c>
       <c r="C59" t="s">
         <v>74</v>
       </c>
       <c r="D59">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E59">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="F59">
+        <v>26</v>
+      </c>
+      <c r="G59">
+        <v>33</v>
+      </c>
+      <c r="H59">
+        <v>35</v>
+      </c>
+      <c r="I59">
+        <v>9</v>
+      </c>
+      <c r="J59">
         <v>12</v>
       </c>
-      <c r="G59">
-        <v>15</v>
-      </c>
-      <c r="H59">
-        <v>31</v>
-      </c>
-      <c r="I59">
-        <v>5</v>
-      </c>
-      <c r="J59">
-        <v>11</v>
-      </c>
       <c r="K59">
-        <v>78</v>
+        <v>123</v>
       </c>
       <c r="L59">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="M59">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="N59">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="O59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P59">
         <v>2021</v>
       </c>
       <c r="Q59">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="R59">
         <v>12</v>
@@ -4034,43 +4034,43 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>21137</v>
+        <v>21139</v>
       </c>
       <c r="C60" t="s">
         <v>75</v>
       </c>
       <c r="D60">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E60">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="F60">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G60">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="H60">
+        <v>34</v>
+      </c>
+      <c r="I60">
+        <v>8</v>
+      </c>
+      <c r="J60">
+        <v>9</v>
+      </c>
+      <c r="K60">
+        <v>93</v>
+      </c>
+      <c r="L60">
         <v>19</v>
       </c>
-      <c r="I60">
-        <v>4</v>
-      </c>
-      <c r="J60">
-        <v>5</v>
-      </c>
-      <c r="K60">
-        <v>55</v>
-      </c>
-      <c r="L60">
-        <v>11</v>
-      </c>
       <c r="M60">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="N60">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="O60">
         <v>2</v>
@@ -4079,10 +4079,10 @@
         <v>2021</v>
       </c>
       <c r="Q60">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="R60">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" spans="1:18">
@@ -4090,55 +4090,55 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>21136</v>
+        <v>21138</v>
       </c>
       <c r="C61" t="s">
         <v>76</v>
       </c>
       <c r="D61">
+        <v>9</v>
+      </c>
+      <c r="E61">
+        <v>11</v>
+      </c>
+      <c r="F61">
+        <v>12</v>
+      </c>
+      <c r="G61">
+        <v>15</v>
+      </c>
+      <c r="H61">
+        <v>31</v>
+      </c>
+      <c r="I61">
+        <v>5</v>
+      </c>
+      <c r="J61">
+        <v>11</v>
+      </c>
+      <c r="K61">
+        <v>78</v>
+      </c>
+      <c r="L61">
+        <v>16</v>
+      </c>
+      <c r="M61">
+        <v>16</v>
+      </c>
+      <c r="N61">
         <v>8</v>
       </c>
-      <c r="E61">
-        <v>12</v>
-      </c>
-      <c r="F61">
-        <v>19</v>
-      </c>
-      <c r="G61">
-        <v>27</v>
-      </c>
-      <c r="H61">
-        <v>33</v>
-      </c>
-      <c r="I61">
-        <v>2</v>
-      </c>
-      <c r="J61">
-        <v>5</v>
-      </c>
-      <c r="K61">
-        <v>99</v>
-      </c>
-      <c r="L61">
-        <v>20</v>
-      </c>
-      <c r="M61">
-        <v>7</v>
-      </c>
-      <c r="N61">
-        <v>4</v>
-      </c>
       <c r="O61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P61">
         <v>2021</v>
       </c>
       <c r="Q61">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="R61">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" spans="1:18">
@@ -4146,52 +4146,52 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>21135</v>
+        <v>21137</v>
       </c>
       <c r="C62" t="s">
         <v>77</v>
       </c>
       <c r="D62">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E62">
         <v>7</v>
       </c>
       <c r="F62">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G62">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="H62">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="I62">
+        <v>4</v>
+      </c>
+      <c r="J62">
         <v>5</v>
       </c>
-      <c r="J62">
-        <v>6</v>
-      </c>
       <c r="K62">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="L62">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="M62">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="N62">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P62">
         <v>2021</v>
       </c>
       <c r="Q62">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="R62">
         <v>11</v>
@@ -4202,37 +4202,37 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>21134</v>
+        <v>21136</v>
       </c>
       <c r="C63" t="s">
         <v>78</v>
       </c>
       <c r="D63">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E63">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F63">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G63">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="H63">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="I63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J63">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K63">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="L63">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="M63">
         <v>7</v>
@@ -4241,13 +4241,13 @@
         <v>4</v>
       </c>
       <c r="O63">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P63">
         <v>2021</v>
       </c>
       <c r="Q63">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="R63">
         <v>11</v>
@@ -4258,31 +4258,31 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>21133</v>
+        <v>21135</v>
       </c>
       <c r="C64" t="s">
         <v>79</v>
       </c>
       <c r="D64">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E64">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F64">
         <v>17</v>
       </c>
       <c r="G64">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H64">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I64">
+        <v>5</v>
+      </c>
+      <c r="J64">
         <v>6</v>
-      </c>
-      <c r="J64">
-        <v>8</v>
       </c>
       <c r="K64">
         <v>88</v>
@@ -4291,19 +4291,19 @@
         <v>18</v>
       </c>
       <c r="M64">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="N64">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O64">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P64">
         <v>2021</v>
       </c>
       <c r="Q64">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="R64">
         <v>11</v>
@@ -4314,52 +4314,52 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>21132</v>
+        <v>21134</v>
       </c>
       <c r="C65" t="s">
         <v>80</v>
       </c>
       <c r="D65">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E65">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="F65">
+        <v>14</v>
+      </c>
+      <c r="G65">
+        <v>19</v>
+      </c>
+      <c r="H65">
         <v>28</v>
       </c>
-      <c r="G65">
-        <v>29</v>
-      </c>
-      <c r="H65">
-        <v>33</v>
-      </c>
       <c r="I65">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J65">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="K65">
-        <v>115</v>
+        <v>69</v>
       </c>
       <c r="L65">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="M65">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N65">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="O65">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P65">
         <v>2021</v>
       </c>
       <c r="Q65">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="R65">
         <v>11</v>
@@ -4370,52 +4370,52 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>21131</v>
+        <v>21133</v>
       </c>
       <c r="C66" t="s">
         <v>81</v>
       </c>
       <c r="D66">
+        <v>8</v>
+      </c>
+      <c r="E66">
+        <v>9</v>
+      </c>
+      <c r="F66">
+        <v>17</v>
+      </c>
+      <c r="G66">
+        <v>26</v>
+      </c>
+      <c r="H66">
+        <v>28</v>
+      </c>
+      <c r="I66">
         <v>6</v>
       </c>
-      <c r="E66">
+      <c r="J66">
         <v>8</v>
       </c>
-      <c r="F66">
-        <v>16</v>
-      </c>
-      <c r="G66">
-        <v>34</v>
-      </c>
-      <c r="H66">
-        <v>35</v>
-      </c>
-      <c r="I66">
-        <v>5</v>
-      </c>
-      <c r="J66">
-        <v>6</v>
-      </c>
       <c r="K66">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="L66">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M66">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="N66">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O66">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P66">
         <v>2021</v>
       </c>
       <c r="Q66">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="R66">
         <v>11</v>
@@ -4426,52 +4426,52 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>21130</v>
+        <v>21132</v>
       </c>
       <c r="C67" t="s">
         <v>82</v>
       </c>
       <c r="D67">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E67">
+        <v>21</v>
+      </c>
+      <c r="F67">
+        <v>28</v>
+      </c>
+      <c r="G67">
+        <v>29</v>
+      </c>
+      <c r="H67">
+        <v>33</v>
+      </c>
+      <c r="I67">
         <v>3</v>
       </c>
-      <c r="F67">
+      <c r="J67">
+        <v>11</v>
+      </c>
+      <c r="K67">
+        <v>115</v>
+      </c>
+      <c r="L67">
+        <v>23</v>
+      </c>
+      <c r="M67">
         <v>14</v>
       </c>
-      <c r="G67">
-        <v>27</v>
-      </c>
-      <c r="H67">
-        <v>28</v>
-      </c>
-      <c r="I67">
-        <v>5</v>
-      </c>
-      <c r="J67">
-        <v>10</v>
-      </c>
-      <c r="K67">
-        <v>74</v>
-      </c>
-      <c r="L67">
-        <v>15</v>
-      </c>
-      <c r="M67">
-        <v>15</v>
-      </c>
       <c r="N67">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O67">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P67">
         <v>2021</v>
       </c>
       <c r="Q67">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="R67">
         <v>11</v>
@@ -4482,43 +4482,43 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>21129</v>
+        <v>21131</v>
       </c>
       <c r="C68" t="s">
         <v>83</v>
       </c>
       <c r="D68">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E68">
+        <v>8</v>
+      </c>
+      <c r="F68">
         <v>16</v>
       </c>
-      <c r="F68">
-        <v>17</v>
-      </c>
       <c r="G68">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="H68">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I68">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J68">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="K68">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="L68">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M68">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="N68">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O68">
         <v>4</v>
@@ -4527,7 +4527,7 @@
         <v>2021</v>
       </c>
       <c r="Q68">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="R68">
         <v>11</v>
@@ -4538,52 +4538,52 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>21128</v>
+        <v>21130</v>
       </c>
       <c r="C69" t="s">
         <v>84</v>
       </c>
       <c r="D69">
+        <v>2</v>
+      </c>
+      <c r="E69">
+        <v>3</v>
+      </c>
+      <c r="F69">
         <v>14</v>
       </c>
-      <c r="E69">
-        <v>17</v>
-      </c>
-      <c r="F69">
-        <v>18</v>
-      </c>
       <c r="G69">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H69">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I69">
         <v>5</v>
       </c>
       <c r="J69">
+        <v>10</v>
+      </c>
+      <c r="K69">
+        <v>74</v>
+      </c>
+      <c r="L69">
+        <v>15</v>
+      </c>
+      <c r="M69">
+        <v>15</v>
+      </c>
+      <c r="N69">
         <v>8</v>
       </c>
-      <c r="K69">
-        <v>99</v>
-      </c>
-      <c r="L69">
-        <v>20</v>
-      </c>
-      <c r="M69">
-        <v>13</v>
-      </c>
-      <c r="N69">
-        <v>7</v>
-      </c>
       <c r="O69">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P69">
         <v>2021</v>
       </c>
       <c r="Q69">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="R69">
         <v>11</v>
@@ -4594,52 +4594,52 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>21127</v>
+        <v>21129</v>
       </c>
       <c r="C70" t="s">
         <v>85</v>
       </c>
       <c r="D70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E70">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="F70">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G70">
+        <v>18</v>
+      </c>
+      <c r="H70">
+        <v>34</v>
+      </c>
+      <c r="I70">
+        <v>4</v>
+      </c>
+      <c r="J70">
+        <v>10</v>
+      </c>
+      <c r="K70">
+        <v>87</v>
+      </c>
+      <c r="L70">
         <v>17</v>
       </c>
-      <c r="H70">
-        <v>26</v>
-      </c>
-      <c r="I70">
-        <v>2</v>
-      </c>
-      <c r="J70">
-        <v>11</v>
-      </c>
-      <c r="K70">
-        <v>61</v>
-      </c>
-      <c r="L70">
-        <v>12</v>
-      </c>
       <c r="M70">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N70">
         <v>7</v>
       </c>
       <c r="O70">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P70">
         <v>2021</v>
       </c>
       <c r="Q70">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="R70">
         <v>11</v>
@@ -4650,43 +4650,43 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>21126</v>
+        <v>21128</v>
       </c>
       <c r="C71" t="s">
         <v>86</v>
       </c>
       <c r="D71">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E71">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F71">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G71">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="H71">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="I71">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J71">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="K71">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="L71">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M71">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="N71">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="O71">
         <v>2</v>
@@ -4695,7 +4695,7 @@
         <v>2021</v>
       </c>
       <c r="Q71">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="R71">
         <v>11</v>
@@ -4706,37 +4706,37 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>21125</v>
+        <v>21127</v>
       </c>
       <c r="C72" t="s">
         <v>87</v>
       </c>
       <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="E72">
+        <v>2</v>
+      </c>
+      <c r="F72">
+        <v>15</v>
+      </c>
+      <c r="G72">
         <v>17</v>
       </c>
-      <c r="E72">
-        <v>19</v>
-      </c>
-      <c r="F72">
-        <v>21</v>
-      </c>
-      <c r="G72">
-        <v>27</v>
-      </c>
       <c r="H72">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I72">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J72">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K72">
-        <v>115</v>
+        <v>61</v>
       </c>
       <c r="L72">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="M72">
         <v>13</v>
@@ -4745,13 +4745,13 @@
         <v>7</v>
       </c>
       <c r="O72">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P72">
         <v>2021</v>
       </c>
       <c r="Q72">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="R72">
         <v>11</v>
@@ -4762,43 +4762,43 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>21124</v>
+        <v>21126</v>
       </c>
       <c r="C73" t="s">
         <v>88</v>
       </c>
       <c r="D73">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E73">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F73">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G73">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="H73">
         <v>35</v>
       </c>
       <c r="I73">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J73">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K73">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="L73">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="M73">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="N73">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="O73">
         <v>2</v>
@@ -4807,10 +4807,10 @@
         <v>2021</v>
       </c>
       <c r="Q73">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="R73">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="74" spans="1:18">
@@ -4818,55 +4818,55 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>21123</v>
+        <v>21125</v>
       </c>
       <c r="C74" t="s">
         <v>89</v>
       </c>
       <c r="D74">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E74">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F74">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G74">
         <v>27</v>
       </c>
       <c r="H74">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I74">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J74">
         <v>9</v>
       </c>
       <c r="K74">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L74">
         <v>23</v>
       </c>
       <c r="M74">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N74">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O74">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P74">
         <v>2021</v>
       </c>
       <c r="Q74">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="R74">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="75" spans="1:18">
@@ -4874,43 +4874,43 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>21122</v>
+        <v>21124</v>
       </c>
       <c r="C75" t="s">
         <v>90</v>
       </c>
       <c r="D75">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E75">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F75">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G75">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H75">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="I75">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J75">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K75">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L75">
         <v>22</v>
       </c>
       <c r="M75">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="N75">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="O75">
         <v>2</v>
@@ -4919,7 +4919,7 @@
         <v>2021</v>
       </c>
       <c r="Q75">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="R75">
         <v>10</v>
@@ -4930,43 +4930,43 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>21121</v>
+        <v>21123</v>
       </c>
       <c r="C76" t="s">
         <v>91</v>
       </c>
       <c r="D76">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E76">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F76">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G76">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H76">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I76">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J76">
         <v>9</v>
       </c>
       <c r="K76">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="L76">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M76">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="N76">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="O76">
         <v>2</v>
@@ -4975,7 +4975,7 @@
         <v>2021</v>
       </c>
       <c r="Q76">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="R76">
         <v>10</v>
@@ -4986,52 +4986,52 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>21120</v>
+        <v>21122</v>
       </c>
       <c r="C77" t="s">
         <v>92</v>
       </c>
       <c r="D77">
+        <v>14</v>
+      </c>
+      <c r="E77">
+        <v>15</v>
+      </c>
+      <c r="F77">
+        <v>26</v>
+      </c>
+      <c r="G77">
+        <v>27</v>
+      </c>
+      <c r="H77">
+        <v>29</v>
+      </c>
+      <c r="I77">
+        <v>4</v>
+      </c>
+      <c r="J77">
         <v>5</v>
       </c>
-      <c r="E77">
-        <v>10</v>
-      </c>
-      <c r="F77">
-        <v>21</v>
-      </c>
-      <c r="G77">
-        <v>25</v>
-      </c>
-      <c r="H77">
-        <v>31</v>
-      </c>
-      <c r="I77">
+      <c r="K77">
+        <v>111</v>
+      </c>
+      <c r="L77">
+        <v>22</v>
+      </c>
+      <c r="M77">
+        <v>9</v>
+      </c>
+      <c r="N77">
         <v>5</v>
       </c>
-      <c r="J77">
-        <v>11</v>
-      </c>
-      <c r="K77">
-        <v>92</v>
-      </c>
-      <c r="L77">
-        <v>18</v>
-      </c>
-      <c r="M77">
-        <v>16</v>
-      </c>
-      <c r="N77">
-        <v>8</v>
-      </c>
       <c r="O77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P77">
         <v>2021</v>
       </c>
       <c r="Q77">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="R77">
         <v>10</v>
@@ -5042,52 +5042,52 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>21119</v>
+        <v>21121</v>
       </c>
       <c r="C78" t="s">
         <v>93</v>
       </c>
       <c r="D78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E78">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="F78">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="G78">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="H78">
         <v>30</v>
       </c>
       <c r="I78">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="J78">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K78">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="L78">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="M78">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="N78">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="O78">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P78">
         <v>2021</v>
       </c>
       <c r="Q78">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="R78">
         <v>10</v>
@@ -5098,52 +5098,52 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>21118</v>
+        <v>21120</v>
       </c>
       <c r="C79" t="s">
         <v>94</v>
       </c>
       <c r="D79">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E79">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F79">
+        <v>21</v>
+      </c>
+      <c r="G79">
+        <v>25</v>
+      </c>
+      <c r="H79">
+        <v>31</v>
+      </c>
+      <c r="I79">
+        <v>5</v>
+      </c>
+      <c r="J79">
+        <v>11</v>
+      </c>
+      <c r="K79">
+        <v>92</v>
+      </c>
+      <c r="L79">
         <v>18</v>
       </c>
-      <c r="G79">
-        <v>28</v>
-      </c>
-      <c r="H79">
-        <v>34</v>
-      </c>
-      <c r="I79">
-        <v>2</v>
-      </c>
-      <c r="J79">
-        <v>3</v>
-      </c>
-      <c r="K79">
-        <v>111</v>
-      </c>
-      <c r="L79">
-        <v>22</v>
-      </c>
       <c r="M79">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="N79">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="O79">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P79">
         <v>2021</v>
       </c>
       <c r="Q79">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="R79">
         <v>10</v>
@@ -5154,52 +5154,52 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>21117</v>
+        <v>21119</v>
       </c>
       <c r="C80" t="s">
         <v>95</v>
       </c>
       <c r="D80">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E80">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F80">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="G80">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H80">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I80">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J80">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K80">
-        <v>105</v>
+        <v>58</v>
       </c>
       <c r="L80">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="M80">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="N80">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="O80">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P80">
         <v>2021</v>
       </c>
       <c r="Q80">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="R80">
         <v>10</v>
@@ -5210,52 +5210,52 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>21116</v>
+        <v>21118</v>
       </c>
       <c r="C81" t="s">
         <v>96</v>
       </c>
       <c r="D81">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E81">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="F81">
+        <v>18</v>
+      </c>
+      <c r="G81">
         <v>28</v>
       </c>
-      <c r="G81">
-        <v>29</v>
-      </c>
       <c r="H81">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I81">
+        <v>2</v>
+      </c>
+      <c r="J81">
         <v>3</v>
       </c>
-      <c r="J81">
-        <v>11</v>
-      </c>
       <c r="K81">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="L81">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M81">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="N81">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="O81">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P81">
         <v>2021</v>
       </c>
       <c r="Q81">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="R81">
         <v>10</v>
@@ -5266,43 +5266,43 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>21115</v>
+        <v>21117</v>
       </c>
       <c r="C82" t="s">
         <v>97</v>
       </c>
       <c r="D82">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E82">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F82">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G82">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H82">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I82">
+        <v>5</v>
+      </c>
+      <c r="J82">
         <v>6</v>
       </c>
-      <c r="J82">
-        <v>10</v>
-      </c>
       <c r="K82">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="L82">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M82">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="N82">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O82">
         <v>2</v>
@@ -5311,7 +5311,7 @@
         <v>2021</v>
       </c>
       <c r="Q82">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="R82">
         <v>10</v>
@@ -5322,43 +5322,43 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>21114</v>
+        <v>21116</v>
       </c>
       <c r="C83" t="s">
         <v>98</v>
       </c>
       <c r="D83">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E83">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="F83">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="G83">
         <v>29</v>
       </c>
       <c r="H83">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="I83">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J83">
         <v>11</v>
       </c>
       <c r="K83">
-        <v>89</v>
+        <v>121</v>
       </c>
       <c r="L83">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="M83">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N83">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O83">
         <v>2</v>
@@ -5367,7 +5367,7 @@
         <v>2021</v>
       </c>
       <c r="Q83">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="R83">
         <v>10</v>
@@ -5378,43 +5378,43 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>21113</v>
+        <v>21115</v>
       </c>
       <c r="C84" t="s">
         <v>99</v>
       </c>
       <c r="D84">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E84">
+        <v>13</v>
+      </c>
+      <c r="F84">
+        <v>19</v>
+      </c>
+      <c r="G84">
+        <v>20</v>
+      </c>
+      <c r="H84">
+        <v>29</v>
+      </c>
+      <c r="I84">
+        <v>6</v>
+      </c>
+      <c r="J84">
+        <v>10</v>
+      </c>
+      <c r="K84">
+        <v>89</v>
+      </c>
+      <c r="L84">
         <v>18</v>
       </c>
-      <c r="F84">
-        <v>25</v>
-      </c>
-      <c r="G84">
-        <v>27</v>
-      </c>
-      <c r="H84">
-        <v>28</v>
-      </c>
-      <c r="I84">
-        <v>4</v>
-      </c>
-      <c r="J84">
+      <c r="M84">
+        <v>16</v>
+      </c>
+      <c r="N84">
         <v>8</v>
-      </c>
-      <c r="K84">
-        <v>115</v>
-      </c>
-      <c r="L84">
-        <v>23</v>
-      </c>
-      <c r="M84">
-        <v>12</v>
-      </c>
-      <c r="N84">
-        <v>6</v>
       </c>
       <c r="O84">
         <v>2</v>
@@ -5423,10 +5423,10 @@
         <v>2021</v>
       </c>
       <c r="Q84">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="R84">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="85" spans="1:18">
@@ -5434,43 +5434,43 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>21112</v>
+        <v>21114</v>
       </c>
       <c r="C85" t="s">
         <v>100</v>
       </c>
       <c r="D85">
+        <v>8</v>
+      </c>
+      <c r="E85">
+        <v>9</v>
+      </c>
+      <c r="F85">
+        <v>13</v>
+      </c>
+      <c r="G85">
+        <v>29</v>
+      </c>
+      <c r="H85">
+        <v>30</v>
+      </c>
+      <c r="I85">
+        <v>1</v>
+      </c>
+      <c r="J85">
+        <v>11</v>
+      </c>
+      <c r="K85">
+        <v>89</v>
+      </c>
+      <c r="L85">
         <v>18</v>
       </c>
-      <c r="E85">
-        <v>21</v>
-      </c>
-      <c r="F85">
-        <v>22</v>
-      </c>
-      <c r="G85">
-        <v>23</v>
-      </c>
-      <c r="H85">
-        <v>35</v>
-      </c>
-      <c r="I85">
-        <v>11</v>
-      </c>
-      <c r="J85">
+      <c r="M85">
         <v>12</v>
       </c>
-      <c r="K85">
-        <v>119</v>
-      </c>
-      <c r="L85">
-        <v>24</v>
-      </c>
-      <c r="M85">
-        <v>23</v>
-      </c>
       <c r="N85">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="O85">
         <v>2</v>
@@ -5479,10 +5479,10 @@
         <v>2021</v>
       </c>
       <c r="Q85">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="R85">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="86" spans="1:18">
@@ -5490,43 +5490,43 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>21111</v>
+        <v>21113</v>
       </c>
       <c r="C86" t="s">
         <v>101</v>
       </c>
       <c r="D86">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E86">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F86">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G86">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="H86">
         <v>28</v>
       </c>
       <c r="I86">
+        <v>4</v>
+      </c>
+      <c r="J86">
         <v>8</v>
       </c>
-      <c r="J86">
-        <v>9</v>
-      </c>
       <c r="K86">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="L86">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M86">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="N86">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="O86">
         <v>2</v>
@@ -5535,7 +5535,7 @@
         <v>2021</v>
       </c>
       <c r="Q86">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="R86">
         <v>9</v>
@@ -5546,25 +5546,25 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>21110</v>
+        <v>21112</v>
       </c>
       <c r="C87" t="s">
         <v>102</v>
       </c>
       <c r="D87">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E87">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F87">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="G87">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="H87">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I87">
         <v>11</v>
@@ -5573,10 +5573,10 @@
         <v>12</v>
       </c>
       <c r="K87">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L87">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M87">
         <v>23</v>
@@ -5591,7 +5591,7 @@
         <v>2021</v>
       </c>
       <c r="Q87">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="R87">
         <v>9</v>
@@ -5602,52 +5602,52 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>21109</v>
+        <v>21111</v>
       </c>
       <c r="C88" t="s">
         <v>103</v>
       </c>
       <c r="D88">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E88">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F88">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="G88">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="H88">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I88">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J88">
         <v>9</v>
       </c>
       <c r="K88">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="L88">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M88">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N88">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O88">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P88">
         <v>2021</v>
       </c>
       <c r="Q88">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="R88">
         <v>9</v>
@@ -5658,43 +5658,43 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>21108</v>
+        <v>21110</v>
       </c>
       <c r="C89" t="s">
         <v>104</v>
       </c>
       <c r="D89">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E89">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F89">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G89">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H89">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I89">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="J89">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="K89">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="L89">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M89">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="N89">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="O89">
         <v>2</v>
@@ -5703,7 +5703,7 @@
         <v>2021</v>
       </c>
       <c r="Q89">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="R89">
         <v>9</v>
@@ -5714,7 +5714,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>21107</v>
+        <v>21109</v>
       </c>
       <c r="C90" t="s">
         <v>105</v>
@@ -5723,34 +5723,34 @@
         <v>3</v>
       </c>
       <c r="E90">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F90">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="G90">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="H90">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I90">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J90">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K90">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L90">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M90">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N90">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O90">
         <v>1</v>
@@ -5759,7 +5759,7 @@
         <v>2021</v>
       </c>
       <c r="Q90">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="R90">
         <v>9</v>
@@ -5770,52 +5770,52 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>21106</v>
+        <v>21108</v>
       </c>
       <c r="C91" t="s">
         <v>106</v>
       </c>
       <c r="D91">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E91">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F91">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G91">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="H91">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I91">
         <v>2</v>
       </c>
       <c r="J91">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="K91">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="L91">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M91">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="N91">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="O91">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P91">
         <v>2021</v>
       </c>
       <c r="Q91">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="R91">
         <v>9</v>
@@ -5826,52 +5826,52 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>21105</v>
+        <v>21107</v>
       </c>
       <c r="C92" t="s">
         <v>107</v>
       </c>
       <c r="D92">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E92">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F92">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G92">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H92">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I92">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J92">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K92">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="L92">
         <v>13</v>
       </c>
       <c r="M92">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="N92">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O92">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P92">
         <v>2021</v>
       </c>
       <c r="Q92">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="R92">
         <v>9</v>
@@ -5882,37 +5882,37 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>21104</v>
+        <v>21106</v>
       </c>
       <c r="C93" t="s">
         <v>108</v>
       </c>
       <c r="D93">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="E93">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="F93">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="G93">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H93">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I93">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J93">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K93">
-        <v>137</v>
+        <v>95</v>
       </c>
       <c r="L93">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="M93">
         <v>14</v>
@@ -5921,13 +5921,13 @@
         <v>7</v>
       </c>
       <c r="O93">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P93">
         <v>2021</v>
       </c>
       <c r="Q93">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="R93">
         <v>9</v>
@@ -5938,52 +5938,52 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>21103</v>
+        <v>21105</v>
       </c>
       <c r="C94" t="s">
         <v>109</v>
       </c>
       <c r="D94">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E94">
         <v>10</v>
       </c>
       <c r="F94">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="G94">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="H94">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="I94">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J94">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K94">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="L94">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M94">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="N94">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O94">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P94">
         <v>2021</v>
       </c>
       <c r="Q94">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="R94">
         <v>9</v>
@@ -5994,52 +5994,52 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>21102</v>
+        <v>21104</v>
       </c>
       <c r="C95" t="s">
         <v>110</v>
       </c>
       <c r="D95">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="E95">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="F95">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G95">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="H95">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I95">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J95">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="K95">
-        <v>60</v>
+        <v>137</v>
       </c>
       <c r="L95">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="M95">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="N95">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O95">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P95">
         <v>2021</v>
       </c>
       <c r="Q95">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="R95">
         <v>9</v>
@@ -6050,52 +6050,52 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>21101</v>
+        <v>21103</v>
       </c>
       <c r="C96" t="s">
         <v>111</v>
       </c>
       <c r="D96">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="E96">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F96">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G96">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H96">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I96">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J96">
         <v>11</v>
       </c>
       <c r="K96">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="L96">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M96">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N96">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O96">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P96">
         <v>2021</v>
       </c>
       <c r="Q96">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="R96">
         <v>9</v>
@@ -6106,26 +6106,26 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>21100</v>
+        <v>21102</v>
       </c>
       <c r="C97" t="s">
         <v>112</v>
       </c>
       <c r="D97">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E97">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F97">
+        <v>11</v>
+      </c>
+      <c r="G97">
+        <v>16</v>
+      </c>
+      <c r="H97">
         <v>23</v>
       </c>
-      <c r="G97">
-        <v>26</v>
-      </c>
-      <c r="H97">
-        <v>28</v>
-      </c>
       <c r="I97">
         <v>2</v>
       </c>
@@ -6133,10 +6133,10 @@
         <v>7</v>
       </c>
       <c r="K97">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="L97">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="M97">
         <v>9</v>
@@ -6145,16 +6145,16 @@
         <v>5</v>
       </c>
       <c r="O97">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P97">
         <v>2021</v>
       </c>
       <c r="Q97">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="R97">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="98" spans="1:18">
@@ -6162,43 +6162,43 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>21099</v>
+        <v>21101</v>
       </c>
       <c r="C98" t="s">
         <v>113</v>
       </c>
       <c r="D98">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E98">
+        <v>18</v>
+      </c>
+      <c r="F98">
         <v>19</v>
       </c>
-      <c r="F98">
+      <c r="G98">
         <v>27</v>
       </c>
-      <c r="G98">
-        <v>28</v>
-      </c>
       <c r="H98">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I98">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J98">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="K98">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="L98">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M98">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="N98">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="O98">
         <v>2</v>
@@ -6207,10 +6207,10 @@
         <v>2021</v>
       </c>
       <c r="Q98">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="R98">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="99" spans="1:18">
@@ -6218,52 +6218,52 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>21098</v>
+        <v>21100</v>
       </c>
       <c r="C99" t="s">
         <v>114</v>
       </c>
       <c r="D99">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E99">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F99">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G99">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H99">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="I99">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J99">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K99">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="L99">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M99">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="N99">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="O99">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P99">
         <v>2021</v>
       </c>
       <c r="Q99">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="R99">
         <v>8</v>
@@ -6274,43 +6274,43 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>21097</v>
+        <v>21099</v>
       </c>
       <c r="C100" t="s">
         <v>115</v>
       </c>
       <c r="D100">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E100">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F100">
+        <v>27</v>
+      </c>
+      <c r="G100">
+        <v>28</v>
+      </c>
+      <c r="H100">
         <v>30</v>
-      </c>
-      <c r="G100">
-        <v>31</v>
-      </c>
-      <c r="H100">
-        <v>33</v>
       </c>
       <c r="I100">
         <v>3</v>
       </c>
       <c r="J100">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="K100">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="L100">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M100">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="N100">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="O100">
         <v>2</v>
@@ -6319,7 +6319,7 @@
         <v>2021</v>
       </c>
       <c r="Q100">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="R100">
         <v>8</v>
@@ -6330,52 +6330,52 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>21096</v>
+        <v>21098</v>
       </c>
       <c r="C101" t="s">
         <v>116</v>
       </c>
       <c r="D101">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E101">
+        <v>7</v>
+      </c>
+      <c r="F101">
+        <v>21</v>
+      </c>
+      <c r="G101">
+        <v>27</v>
+      </c>
+      <c r="H101">
+        <v>33</v>
+      </c>
+      <c r="I101">
+        <v>7</v>
+      </c>
+      <c r="J101">
+        <v>9</v>
+      </c>
+      <c r="K101">
+        <v>90</v>
+      </c>
+      <c r="L101">
+        <v>18</v>
+      </c>
+      <c r="M101">
+        <v>16</v>
+      </c>
+      <c r="N101">
         <v>8</v>
       </c>
-      <c r="F101">
-        <v>10</v>
-      </c>
-      <c r="G101">
-        <v>20</v>
-      </c>
-      <c r="H101">
-        <v>21</v>
-      </c>
-      <c r="I101">
+      <c r="O101">
         <v>1</v>
-      </c>
-      <c r="J101">
-        <v>5</v>
-      </c>
-      <c r="K101">
-        <v>66</v>
-      </c>
-      <c r="L101">
-        <v>13</v>
-      </c>
-      <c r="M101">
-        <v>6</v>
-      </c>
-      <c r="N101">
-        <v>3</v>
-      </c>
-      <c r="O101">
-        <v>3</v>
       </c>
       <c r="P101">
         <v>2021</v>
       </c>
       <c r="Q101">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="R101">
         <v>8</v>

--- a/大乐透最近100期开奖号码.xlsx
+++ b/大乐透最近100期开奖号码.xlsx
@@ -67,6 +67,15 @@
     <t>年内月号</t>
   </si>
   <si>
+    <t>2022-05-07</t>
+  </si>
+  <si>
+    <t>2022-05-04</t>
+  </si>
+  <si>
+    <t>2022-05-02</t>
+  </si>
+  <si>
     <t>2022-04-30</t>
   </si>
   <si>
@@ -356,15 +365,6 @@
   </si>
   <si>
     <t>2021-09-01</t>
-  </si>
-  <si>
-    <t>2021-08-30</t>
-  </si>
-  <si>
-    <t>2021-08-28</t>
-  </si>
-  <si>
-    <t>2021-08-25</t>
   </si>
 </sst>
 </file>
@@ -786,55 +786,55 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>22047</v>
+        <v>22050</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
       </c>
       <c r="D2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E2">
         <v>10</v>
       </c>
       <c r="F2">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G2">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="H2">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K2">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="L2">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M2">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="N2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P2">
         <v>2022</v>
       </c>
       <c r="Q2">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="R2">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -842,7 +842,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22046</v>
+        <v>22049</v>
       </c>
       <c r="C3" t="s">
         <v>18</v>
@@ -851,46 +851,46 @@
         <v>6</v>
       </c>
       <c r="E3">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F3">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G3">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="H3">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="I3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K3">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="L3">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="M3">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="N3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P3">
         <v>2022</v>
       </c>
       <c r="Q3">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="R3">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -898,55 +898,55 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22045</v>
+        <v>22048</v>
       </c>
       <c r="C4" t="s">
         <v>19</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="F4">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="G4">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="H4">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J4">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K4">
-        <v>44</v>
+        <v>127</v>
       </c>
       <c r="L4">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="M4">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="N4">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="O4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P4">
         <v>2022</v>
       </c>
       <c r="Q4">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="R4">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -954,52 +954,52 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22044</v>
+        <v>22047</v>
       </c>
       <c r="C5" t="s">
         <v>20</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F5">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G5">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="H5">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="I5">
         <v>3</v>
       </c>
       <c r="J5">
+        <v>11</v>
+      </c>
+      <c r="K5">
+        <v>73</v>
+      </c>
+      <c r="L5">
+        <v>15</v>
+      </c>
+      <c r="M5">
+        <v>14</v>
+      </c>
+      <c r="N5">
         <v>7</v>
       </c>
-      <c r="K5">
-        <v>56</v>
-      </c>
-      <c r="L5">
-        <v>11</v>
-      </c>
-      <c r="M5">
-        <v>10</v>
-      </c>
-      <c r="N5">
-        <v>5</v>
-      </c>
       <c r="O5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P5">
         <v>2022</v>
       </c>
       <c r="Q5">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="R5">
         <v>4</v>
@@ -1010,52 +1010,52 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22043</v>
+        <v>22046</v>
       </c>
       <c r="C6" t="s">
         <v>21</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E6">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="F6">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G6">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H6">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I6">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="J6">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="K6">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="L6">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M6">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="N6">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="O6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P6">
         <v>2022</v>
       </c>
       <c r="Q6">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="R6">
         <v>4</v>
@@ -1066,43 +1066,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22042</v>
+        <v>22045</v>
       </c>
       <c r="C7" t="s">
         <v>22</v>
       </c>
       <c r="D7">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E7">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G7">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="H7">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J7">
+        <v>5</v>
+      </c>
+      <c r="K7">
+        <v>44</v>
+      </c>
+      <c r="L7">
+        <v>9</v>
+      </c>
+      <c r="M7">
         <v>6</v>
       </c>
-      <c r="K7">
-        <v>90</v>
-      </c>
-      <c r="L7">
-        <v>18</v>
-      </c>
-      <c r="M7">
-        <v>8</v>
-      </c>
       <c r="N7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O7">
         <v>3</v>
@@ -1111,7 +1111,7 @@
         <v>2022</v>
       </c>
       <c r="Q7">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="R7">
         <v>4</v>
@@ -1122,52 +1122,52 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>22041</v>
+        <v>22044</v>
       </c>
       <c r="C8" t="s">
         <v>23</v>
       </c>
       <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>16</v>
+      </c>
+      <c r="G8">
+        <v>17</v>
+      </c>
+      <c r="H8">
+        <v>20</v>
+      </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
+      <c r="J8">
+        <v>7</v>
+      </c>
+      <c r="K8">
+        <v>56</v>
+      </c>
+      <c r="L8">
+        <v>11</v>
+      </c>
+      <c r="M8">
+        <v>10</v>
+      </c>
+      <c r="N8">
         <v>5</v>
       </c>
-      <c r="E8">
-        <v>15</v>
-      </c>
-      <c r="F8">
-        <v>25</v>
-      </c>
-      <c r="G8">
-        <v>26</v>
-      </c>
-      <c r="H8">
-        <v>33</v>
-      </c>
-      <c r="I8">
-        <v>6</v>
-      </c>
-      <c r="J8">
-        <v>11</v>
-      </c>
-      <c r="K8">
-        <v>104</v>
-      </c>
-      <c r="L8">
-        <v>21</v>
-      </c>
-      <c r="M8">
-        <v>17</v>
-      </c>
-      <c r="N8">
-        <v>9</v>
-      </c>
       <c r="O8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P8">
         <v>2022</v>
       </c>
       <c r="Q8">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="R8">
         <v>4</v>
@@ -1178,52 +1178,52 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22040</v>
+        <v>22043</v>
       </c>
       <c r="C9" t="s">
         <v>24</v>
       </c>
       <c r="D9">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E9">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F9">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="G9">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="H9">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J9">
         <v>12</v>
       </c>
       <c r="K9">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="L9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="M9">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P9">
         <v>2022</v>
       </c>
       <c r="Q9">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="R9">
         <v>4</v>
@@ -1234,52 +1234,52 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22039</v>
+        <v>22042</v>
       </c>
       <c r="C10" t="s">
         <v>25</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E10">
+        <v>10</v>
+      </c>
+      <c r="F10">
+        <v>11</v>
+      </c>
+      <c r="G10">
+        <v>29</v>
+      </c>
+      <c r="H10">
+        <v>32</v>
+      </c>
+      <c r="I10">
+        <v>2</v>
+      </c>
+      <c r="J10">
+        <v>6</v>
+      </c>
+      <c r="K10">
+        <v>90</v>
+      </c>
+      <c r="L10">
+        <v>18</v>
+      </c>
+      <c r="M10">
         <v>8</v>
       </c>
-      <c r="F10">
-        <v>11</v>
-      </c>
-      <c r="G10">
-        <v>22</v>
-      </c>
-      <c r="H10">
-        <v>31</v>
-      </c>
-      <c r="I10">
-        <v>5</v>
-      </c>
-      <c r="J10">
-        <v>11</v>
-      </c>
-      <c r="K10">
-        <v>73</v>
-      </c>
-      <c r="L10">
-        <v>15</v>
-      </c>
-      <c r="M10">
-        <v>16</v>
-      </c>
       <c r="N10">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="O10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P10">
         <v>2022</v>
       </c>
       <c r="Q10">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="R10">
         <v>4</v>
@@ -1290,52 +1290,52 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22038</v>
+        <v>22041</v>
       </c>
       <c r="C11" t="s">
         <v>26</v>
       </c>
       <c r="D11">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E11">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F11">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="G11">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="H11">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="I11">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J11">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K11">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="L11">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M11">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="N11">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P11">
         <v>2022</v>
       </c>
       <c r="Q11">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="R11">
         <v>4</v>
@@ -1346,52 +1346,52 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>22037</v>
+        <v>22040</v>
       </c>
       <c r="C12" t="s">
         <v>27</v>
       </c>
       <c r="D12">
+        <v>10</v>
+      </c>
+      <c r="E12">
+        <v>19</v>
+      </c>
+      <c r="F12">
+        <v>25</v>
+      </c>
+      <c r="G12">
+        <v>29</v>
+      </c>
+      <c r="H12">
+        <v>33</v>
+      </c>
+      <c r="I12">
+        <v>8</v>
+      </c>
+      <c r="J12">
+        <v>12</v>
+      </c>
+      <c r="K12">
+        <v>116</v>
+      </c>
+      <c r="L12">
+        <v>23</v>
+      </c>
+      <c r="M12">
+        <v>20</v>
+      </c>
+      <c r="N12">
+        <v>10</v>
+      </c>
+      <c r="O12">
         <v>1</v>
-      </c>
-      <c r="E12">
-        <v>9</v>
-      </c>
-      <c r="F12">
-        <v>17</v>
-      </c>
-      <c r="G12">
-        <v>20</v>
-      </c>
-      <c r="H12">
-        <v>28</v>
-      </c>
-      <c r="I12">
-        <v>6</v>
-      </c>
-      <c r="J12">
-        <v>10</v>
-      </c>
-      <c r="K12">
-        <v>75</v>
-      </c>
-      <c r="L12">
-        <v>15</v>
-      </c>
-      <c r="M12">
-        <v>16</v>
-      </c>
-      <c r="N12">
-        <v>8</v>
-      </c>
-      <c r="O12">
-        <v>2</v>
       </c>
       <c r="P12">
         <v>2022</v>
       </c>
       <c r="Q12">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="R12">
         <v>4</v>
@@ -1402,52 +1402,52 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>22036</v>
+        <v>22039</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
       </c>
       <c r="D13">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="E13">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="F13">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="G13">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H13">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I13">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J13">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="K13">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c r="L13">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="M13">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N13">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P13">
         <v>2022</v>
       </c>
       <c r="Q13">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="R13">
         <v>4</v>
@@ -1458,52 +1458,52 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22035</v>
+        <v>22038</v>
       </c>
       <c r="C14" t="s">
         <v>29</v>
       </c>
       <c r="D14">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E14">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F14">
+        <v>11</v>
+      </c>
+      <c r="G14">
+        <v>12</v>
+      </c>
+      <c r="H14">
+        <v>26</v>
+      </c>
+      <c r="I14">
+        <v>9</v>
+      </c>
+      <c r="J14">
+        <v>12</v>
+      </c>
+      <c r="K14">
+        <v>65</v>
+      </c>
+      <c r="L14">
         <v>13</v>
       </c>
-      <c r="G14">
-        <v>23</v>
-      </c>
-      <c r="H14">
-        <v>31</v>
-      </c>
-      <c r="I14">
-        <v>5</v>
-      </c>
-      <c r="J14">
-        <v>8</v>
-      </c>
-      <c r="K14">
-        <v>87</v>
-      </c>
-      <c r="L14">
-        <v>17</v>
-      </c>
       <c r="M14">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="N14">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P14">
         <v>2022</v>
       </c>
       <c r="Q14">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="R14">
         <v>4</v>
@@ -1514,22 +1514,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22034</v>
+        <v>22037</v>
       </c>
       <c r="C15" t="s">
         <v>30</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E15">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F15">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="G15">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="H15">
         <v>28</v>
@@ -1538,31 +1538,31 @@
         <v>6</v>
       </c>
       <c r="J15">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="K15">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="L15">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M15">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N15">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P15">
         <v>2022</v>
       </c>
       <c r="Q15">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="R15">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -1570,55 +1570,55 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22033</v>
+        <v>22036</v>
       </c>
       <c r="C16" t="s">
         <v>31</v>
       </c>
       <c r="D16">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E16">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F16">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G16">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H16">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I16">
+        <v>6</v>
+      </c>
+      <c r="J16">
+        <v>7</v>
+      </c>
+      <c r="K16">
+        <v>118</v>
+      </c>
+      <c r="L16">
+        <v>24</v>
+      </c>
+      <c r="M16">
+        <v>13</v>
+      </c>
+      <c r="N16">
+        <v>7</v>
+      </c>
+      <c r="O16">
         <v>3</v>
-      </c>
-      <c r="J16">
-        <v>4</v>
-      </c>
-      <c r="K16">
-        <v>91</v>
-      </c>
-      <c r="L16">
-        <v>18</v>
-      </c>
-      <c r="M16">
-        <v>7</v>
-      </c>
-      <c r="N16">
-        <v>4</v>
-      </c>
-      <c r="O16">
-        <v>2</v>
       </c>
       <c r="P16">
         <v>2022</v>
       </c>
       <c r="Q16">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="R16">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -1626,55 +1626,55 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22032</v>
+        <v>22035</v>
       </c>
       <c r="C17" t="s">
         <v>32</v>
       </c>
       <c r="D17">
+        <v>9</v>
+      </c>
+      <c r="E17">
+        <v>11</v>
+      </c>
+      <c r="F17">
+        <v>13</v>
+      </c>
+      <c r="G17">
+        <v>23</v>
+      </c>
+      <c r="H17">
+        <v>31</v>
+      </c>
+      <c r="I17">
         <v>5</v>
       </c>
-      <c r="E17">
-        <v>9</v>
-      </c>
-      <c r="F17">
-        <v>18</v>
-      </c>
-      <c r="G17">
-        <v>31</v>
-      </c>
-      <c r="H17">
-        <v>32</v>
-      </c>
-      <c r="I17">
-        <v>1</v>
-      </c>
       <c r="J17">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K17">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="L17">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M17">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="N17">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="O17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P17">
         <v>2022</v>
       </c>
       <c r="Q17">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R17">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -1682,43 +1682,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>22031</v>
+        <v>22034</v>
       </c>
       <c r="C18" t="s">
         <v>33</v>
       </c>
       <c r="D18">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E18">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F18">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="G18">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="H18">
         <v>28</v>
       </c>
       <c r="I18">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J18">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K18">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="L18">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M18">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N18">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O18">
         <v>4</v>
@@ -1727,7 +1727,7 @@
         <v>2022</v>
       </c>
       <c r="Q18">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="R18">
         <v>3</v>
@@ -1738,52 +1738,52 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>22030</v>
+        <v>22033</v>
       </c>
       <c r="C19" t="s">
         <v>34</v>
       </c>
       <c r="D19">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E19">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F19">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G19">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H19">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J19">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="K19">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L19">
         <v>18</v>
       </c>
       <c r="M19">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="N19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P19">
         <v>2022</v>
       </c>
       <c r="Q19">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="R19">
         <v>3</v>
@@ -1794,52 +1794,52 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22029</v>
+        <v>22032</v>
       </c>
       <c r="C20" t="s">
         <v>35</v>
       </c>
       <c r="D20">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E20">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F20">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G20">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="H20">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="I20">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J20">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="K20">
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="L20">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="M20">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="N20">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="O20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P20">
         <v>2022</v>
       </c>
       <c r="Q20">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="R20">
         <v>3</v>
@@ -1850,52 +1850,52 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22028</v>
+        <v>22031</v>
       </c>
       <c r="C21" t="s">
         <v>36</v>
       </c>
       <c r="D21">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E21">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F21">
         <v>16</v>
       </c>
       <c r="G21">
+        <v>20</v>
+      </c>
+      <c r="H21">
+        <v>28</v>
+      </c>
+      <c r="I21">
+        <v>4</v>
+      </c>
+      <c r="J21">
+        <v>8</v>
+      </c>
+      <c r="K21">
+        <v>85</v>
+      </c>
+      <c r="L21">
         <v>17</v>
       </c>
-      <c r="H21">
-        <v>35</v>
-      </c>
-      <c r="I21">
-        <v>1</v>
-      </c>
-      <c r="J21">
-        <v>7</v>
-      </c>
-      <c r="K21">
-        <v>81</v>
-      </c>
-      <c r="L21">
-        <v>16</v>
-      </c>
       <c r="M21">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="N21">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P21">
         <v>2022</v>
       </c>
       <c r="Q21">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="R21">
         <v>3</v>
@@ -1906,52 +1906,52 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>22027</v>
+        <v>22030</v>
       </c>
       <c r="C22" t="s">
         <v>37</v>
       </c>
       <c r="D22">
+        <v>12</v>
+      </c>
+      <c r="E22">
+        <v>14</v>
+      </c>
+      <c r="F22">
+        <v>15</v>
+      </c>
+      <c r="G22">
+        <v>21</v>
+      </c>
+      <c r="H22">
+        <v>30</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>9</v>
+      </c>
+      <c r="K22">
+        <v>92</v>
+      </c>
+      <c r="L22">
+        <v>18</v>
+      </c>
+      <c r="M22">
+        <v>10</v>
+      </c>
+      <c r="N22">
+        <v>5</v>
+      </c>
+      <c r="O22">
         <v>3</v>
-      </c>
-      <c r="E22">
-        <v>6</v>
-      </c>
-      <c r="F22">
-        <v>11</v>
-      </c>
-      <c r="G22">
-        <v>31</v>
-      </c>
-      <c r="H22">
-        <v>32</v>
-      </c>
-      <c r="I22">
-        <v>5</v>
-      </c>
-      <c r="J22">
-        <v>12</v>
-      </c>
-      <c r="K22">
-        <v>83</v>
-      </c>
-      <c r="L22">
-        <v>17</v>
-      </c>
-      <c r="M22">
-        <v>17</v>
-      </c>
-      <c r="N22">
-        <v>9</v>
-      </c>
-      <c r="O22">
-        <v>2</v>
       </c>
       <c r="P22">
         <v>2022</v>
       </c>
       <c r="Q22">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="R22">
         <v>3</v>
@@ -1962,52 +1962,52 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>22026</v>
+        <v>22029</v>
       </c>
       <c r="C23" t="s">
         <v>38</v>
       </c>
       <c r="D23">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E23">
+        <v>8</v>
+      </c>
+      <c r="F23">
+        <v>10</v>
+      </c>
+      <c r="G23">
         <v>14</v>
       </c>
-      <c r="F23">
+      <c r="H23">
+        <v>17</v>
+      </c>
+      <c r="I23">
+        <v>10</v>
+      </c>
+      <c r="J23">
+        <v>12</v>
+      </c>
+      <c r="K23">
+        <v>56</v>
+      </c>
+      <c r="L23">
+        <v>11</v>
+      </c>
+      <c r="M23">
         <v>22</v>
       </c>
-      <c r="G23">
-        <v>23</v>
-      </c>
-      <c r="H23">
-        <v>27</v>
-      </c>
-      <c r="I23">
-        <v>8</v>
-      </c>
-      <c r="J23">
-        <v>10</v>
-      </c>
-      <c r="K23">
-        <v>97</v>
-      </c>
-      <c r="L23">
-        <v>19</v>
-      </c>
-      <c r="M23">
-        <v>18</v>
-      </c>
       <c r="N23">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="O23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P23">
         <v>2022</v>
       </c>
       <c r="Q23">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="R23">
         <v>3</v>
@@ -2018,7 +2018,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22025</v>
+        <v>22028</v>
       </c>
       <c r="C24" t="s">
         <v>39</v>
@@ -2027,16 +2027,16 @@
         <v>4</v>
       </c>
       <c r="E24">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F24">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G24">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H24">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="I24">
         <v>1</v>
@@ -2045,10 +2045,10 @@
         <v>7</v>
       </c>
       <c r="K24">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="L24">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M24">
         <v>8</v>
@@ -2057,13 +2057,13 @@
         <v>4</v>
       </c>
       <c r="O24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P24">
         <v>2022</v>
       </c>
       <c r="Q24">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R24">
         <v>3</v>
@@ -2074,43 +2074,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22024</v>
+        <v>22027</v>
       </c>
       <c r="C25" t="s">
         <v>40</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F25">
         <v>11</v>
       </c>
       <c r="G25">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H25">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J25">
         <v>12</v>
       </c>
       <c r="K25">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="L25">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M25">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N25">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O25">
         <v>2</v>
@@ -2119,7 +2119,7 @@
         <v>2022</v>
       </c>
       <c r="Q25">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="R25">
         <v>3</v>
@@ -2130,52 +2130,52 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>22023</v>
+        <v>22026</v>
       </c>
       <c r="C26" t="s">
         <v>41</v>
       </c>
       <c r="D26">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E26">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F26">
+        <v>22</v>
+      </c>
+      <c r="G26">
+        <v>23</v>
+      </c>
+      <c r="H26">
+        <v>27</v>
+      </c>
+      <c r="I26">
+        <v>8</v>
+      </c>
+      <c r="J26">
+        <v>10</v>
+      </c>
+      <c r="K26">
+        <v>97</v>
+      </c>
+      <c r="L26">
+        <v>19</v>
+      </c>
+      <c r="M26">
         <v>18</v>
       </c>
-      <c r="G26">
-        <v>20</v>
-      </c>
-      <c r="H26">
-        <v>25</v>
-      </c>
-      <c r="I26">
-        <v>11</v>
-      </c>
-      <c r="J26">
-        <v>12</v>
-      </c>
-      <c r="K26">
-        <v>72</v>
-      </c>
-      <c r="L26">
-        <v>14</v>
-      </c>
-      <c r="M26">
-        <v>23</v>
-      </c>
       <c r="N26">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="O26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P26">
         <v>2022</v>
       </c>
       <c r="Q26">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="R26">
         <v>3</v>
@@ -2186,52 +2186,52 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>22022</v>
+        <v>22025</v>
       </c>
       <c r="C27" t="s">
         <v>42</v>
       </c>
       <c r="D27">
+        <v>4</v>
+      </c>
+      <c r="E27">
+        <v>7</v>
+      </c>
+      <c r="F27">
+        <v>22</v>
+      </c>
+      <c r="G27">
+        <v>24</v>
+      </c>
+      <c r="H27">
+        <v>29</v>
+      </c>
+      <c r="I27">
         <v>1</v>
-      </c>
-      <c r="E27">
-        <v>5</v>
-      </c>
-      <c r="F27">
-        <v>14</v>
-      </c>
-      <c r="G27">
-        <v>17</v>
-      </c>
-      <c r="H27">
-        <v>28</v>
-      </c>
-      <c r="I27">
-        <v>6</v>
       </c>
       <c r="J27">
         <v>7</v>
       </c>
       <c r="K27">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="L27">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="M27">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="N27">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="O27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P27">
         <v>2022</v>
       </c>
       <c r="Q27">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="R27">
         <v>3</v>
@@ -2242,43 +2242,43 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>22021</v>
+        <v>22024</v>
       </c>
       <c r="C28" t="s">
         <v>43</v>
       </c>
       <c r="D28">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E28">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="F28">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G28">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H28">
         <v>35</v>
       </c>
       <c r="I28">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J28">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K28">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="L28">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M28">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N28">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O28">
         <v>2</v>
@@ -2287,10 +2287,10 @@
         <v>2022</v>
       </c>
       <c r="Q28">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="R28">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -2298,55 +2298,55 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>22020</v>
+        <v>22023</v>
       </c>
       <c r="C29" t="s">
         <v>44</v>
       </c>
       <c r="D29">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E29">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="F29">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="G29">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="H29">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I29">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J29">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K29">
-        <v>129</v>
+        <v>72</v>
       </c>
       <c r="L29">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="M29">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="N29">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="O29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P29">
         <v>2022</v>
       </c>
       <c r="Q29">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="R29">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -2354,7 +2354,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>22019</v>
+        <v>22022</v>
       </c>
       <c r="C30" t="s">
         <v>45</v>
@@ -2363,46 +2363,46 @@
         <v>1</v>
       </c>
       <c r="E30">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F30">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="G30">
         <v>17</v>
       </c>
       <c r="H30">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J30">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K30">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="L30">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="M30">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="N30">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="O30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P30">
         <v>2022</v>
       </c>
       <c r="Q30">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="R30">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -2410,25 +2410,25 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>22018</v>
+        <v>22021</v>
       </c>
       <c r="C31" t="s">
         <v>46</v>
       </c>
       <c r="D31">
+        <v>11</v>
+      </c>
+      <c r="E31">
+        <v>15</v>
+      </c>
+      <c r="F31">
         <v>16</v>
       </c>
-      <c r="E31">
-        <v>21</v>
-      </c>
-      <c r="F31">
-        <v>29</v>
-      </c>
       <c r="G31">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="H31">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I31">
         <v>6</v>
@@ -2437,10 +2437,10 @@
         <v>9</v>
       </c>
       <c r="K31">
-        <v>131</v>
+        <v>95</v>
       </c>
       <c r="L31">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="M31">
         <v>15</v>
@@ -2455,7 +2455,7 @@
         <v>2022</v>
       </c>
       <c r="Q31">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="R31">
         <v>2</v>
@@ -2466,52 +2466,52 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>22017</v>
+        <v>22020</v>
       </c>
       <c r="C32" t="s">
         <v>47</v>
       </c>
       <c r="D32">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E32">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F32">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G32">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="H32">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="I32">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J32">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K32">
-        <v>90</v>
+        <v>129</v>
       </c>
       <c r="L32">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="M32">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N32">
         <v>9</v>
       </c>
       <c r="O32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P32">
         <v>2022</v>
       </c>
       <c r="Q32">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="R32">
         <v>2</v>
@@ -2522,7 +2522,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>22016</v>
+        <v>22019</v>
       </c>
       <c r="C33" t="s">
         <v>48</v>
@@ -2531,43 +2531,43 @@
         <v>1</v>
       </c>
       <c r="E33">
+        <v>4</v>
+      </c>
+      <c r="F33">
         <v>7</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>17</v>
       </c>
-      <c r="G33">
-        <v>26</v>
-      </c>
       <c r="H33">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I33">
         <v>1</v>
       </c>
       <c r="J33">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="K33">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="L33">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="M33">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="N33">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P33">
         <v>2022</v>
       </c>
       <c r="Q33">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="R33">
         <v>2</v>
@@ -2578,52 +2578,52 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>22015</v>
+        <v>22018</v>
       </c>
       <c r="C34" t="s">
         <v>49</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E34">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="F34">
+        <v>29</v>
+      </c>
+      <c r="G34">
+        <v>31</v>
+      </c>
+      <c r="H34">
+        <v>34</v>
+      </c>
+      <c r="I34">
+        <v>6</v>
+      </c>
+      <c r="J34">
+        <v>9</v>
+      </c>
+      <c r="K34">
+        <v>131</v>
+      </c>
+      <c r="L34">
+        <v>26</v>
+      </c>
+      <c r="M34">
+        <v>15</v>
+      </c>
+      <c r="N34">
         <v>8</v>
       </c>
-      <c r="G34">
-        <v>12</v>
-      </c>
-      <c r="H34">
-        <v>30</v>
-      </c>
-      <c r="I34">
-        <v>5</v>
-      </c>
-      <c r="J34">
-        <v>12</v>
-      </c>
-      <c r="K34">
-        <v>53</v>
-      </c>
-      <c r="L34">
-        <v>11</v>
-      </c>
-      <c r="M34">
-        <v>17</v>
-      </c>
-      <c r="N34">
-        <v>9</v>
-      </c>
       <c r="O34">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P34">
         <v>2022</v>
       </c>
       <c r="Q34">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R34">
         <v>2</v>
@@ -2634,52 +2634,52 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>22014</v>
+        <v>22017</v>
       </c>
       <c r="C35" t="s">
         <v>50</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E35">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F35">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G35">
+        <v>23</v>
+      </c>
+      <c r="H35">
+        <v>25</v>
+      </c>
+      <c r="I35">
+        <v>7</v>
+      </c>
+      <c r="J35">
+        <v>11</v>
+      </c>
+      <c r="K35">
+        <v>90</v>
+      </c>
+      <c r="L35">
         <v>18</v>
       </c>
-      <c r="H35">
-        <v>32</v>
-      </c>
-      <c r="I35">
-        <v>1</v>
-      </c>
-      <c r="J35">
-        <v>9</v>
-      </c>
-      <c r="K35">
-        <v>65</v>
-      </c>
-      <c r="L35">
-        <v>13</v>
-      </c>
       <c r="M35">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="N35">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="O35">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P35">
         <v>2022</v>
       </c>
       <c r="Q35">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="R35">
         <v>2</v>
@@ -2690,52 +2690,52 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>22013</v>
+        <v>22016</v>
       </c>
       <c r="C36" t="s">
         <v>51</v>
       </c>
       <c r="D36">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E36">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F36">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G36">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H36">
         <v>32</v>
       </c>
       <c r="I36">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J36">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K36">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="L36">
         <v>17</v>
       </c>
       <c r="M36">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N36">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P36">
         <v>2022</v>
       </c>
       <c r="Q36">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="R36">
         <v>2</v>
@@ -2746,37 +2746,37 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>22012</v>
+        <v>22015</v>
       </c>
       <c r="C37" t="s">
         <v>52</v>
       </c>
       <c r="D37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>8</v>
+      </c>
+      <c r="G37">
+        <v>12</v>
+      </c>
+      <c r="H37">
+        <v>30</v>
+      </c>
+      <c r="I37">
         <v>5</v>
       </c>
-      <c r="F37">
-        <v>10</v>
-      </c>
-      <c r="G37">
-        <v>33</v>
-      </c>
-      <c r="H37">
-        <v>34</v>
-      </c>
-      <c r="I37">
-        <v>7</v>
-      </c>
       <c r="J37">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K37">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="L37">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="M37">
         <v>17</v>
@@ -2785,16 +2785,16 @@
         <v>9</v>
       </c>
       <c r="O37">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P37">
         <v>2022</v>
       </c>
       <c r="Q37">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R37">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -2802,55 +2802,55 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>22011</v>
+        <v>22014</v>
       </c>
       <c r="C38" t="s">
         <v>53</v>
       </c>
       <c r="D38">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E38">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F38">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G38">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H38">
         <v>32</v>
       </c>
       <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>9</v>
+      </c>
+      <c r="K38">
+        <v>65</v>
+      </c>
+      <c r="L38">
+        <v>13</v>
+      </c>
+      <c r="M38">
+        <v>10</v>
+      </c>
+      <c r="N38">
         <v>5</v>
       </c>
-      <c r="J38">
-        <v>12</v>
-      </c>
-      <c r="K38">
-        <v>81</v>
-      </c>
-      <c r="L38">
-        <v>16</v>
-      </c>
-      <c r="M38">
-        <v>17</v>
-      </c>
-      <c r="N38">
-        <v>9</v>
-      </c>
       <c r="O38">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P38">
         <v>2022</v>
       </c>
       <c r="Q38">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="R38">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -2858,7 +2858,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>22010</v>
+        <v>22013</v>
       </c>
       <c r="C39" t="s">
         <v>54</v>
@@ -2867,46 +2867,46 @@
         <v>4</v>
       </c>
       <c r="E39">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="F39">
+        <v>16</v>
+      </c>
+      <c r="G39">
         <v>25</v>
       </c>
-      <c r="G39">
-        <v>31</v>
-      </c>
       <c r="H39">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I39">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J39">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="K39">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="L39">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M39">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N39">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P39">
         <v>2022</v>
       </c>
       <c r="Q39">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="R39">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -2914,25 +2914,25 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>22009</v>
+        <v>22012</v>
       </c>
       <c r="C40" t="s">
         <v>55</v>
       </c>
       <c r="D40">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E40">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="F40">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G40">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H40">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I40">
         <v>7</v>
@@ -2941,10 +2941,10 @@
         <v>10</v>
       </c>
       <c r="K40">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="L40">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="M40">
         <v>17</v>
@@ -2959,7 +2959,7 @@
         <v>2022</v>
       </c>
       <c r="Q40">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="R40">
         <v>1</v>
@@ -2970,52 +2970,52 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>22008</v>
+        <v>22011</v>
       </c>
       <c r="C41" t="s">
         <v>56</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E41">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F41">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G41">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="H41">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I41">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J41">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="K41">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="L41">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M41">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N41">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O41">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P41">
         <v>2022</v>
       </c>
       <c r="Q41">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="R41">
         <v>1</v>
@@ -3026,40 +3026,40 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>22007</v>
+        <v>22010</v>
       </c>
       <c r="C42" t="s">
         <v>57</v>
       </c>
       <c r="D42">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E42">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F42">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G42">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H42">
         <v>35</v>
       </c>
       <c r="I42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J42">
         <v>11</v>
       </c>
       <c r="K42">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="L42">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M42">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N42">
         <v>7</v>
@@ -3071,7 +3071,7 @@
         <v>2022</v>
       </c>
       <c r="Q42">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="R42">
         <v>1</v>
@@ -3082,37 +3082,37 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>22006</v>
+        <v>22009</v>
       </c>
       <c r="C43" t="s">
         <v>58</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E43">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F43">
+        <v>18</v>
+      </c>
+      <c r="G43">
+        <v>31</v>
+      </c>
+      <c r="H43">
+        <v>33</v>
+      </c>
+      <c r="I43">
         <v>7</v>
       </c>
-      <c r="G43">
-        <v>17</v>
-      </c>
-      <c r="H43">
-        <v>20</v>
-      </c>
-      <c r="I43">
-        <v>5</v>
-      </c>
       <c r="J43">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K43">
-        <v>50</v>
+        <v>109</v>
       </c>
       <c r="L43">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="M43">
         <v>17</v>
@@ -3121,13 +3121,13 @@
         <v>9</v>
       </c>
       <c r="O43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P43">
         <v>2022</v>
       </c>
       <c r="Q43">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="R43">
         <v>1</v>
@@ -3138,52 +3138,52 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>22005</v>
+        <v>22008</v>
       </c>
       <c r="C44" t="s">
         <v>59</v>
       </c>
       <c r="D44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E44">
+        <v>2</v>
+      </c>
+      <c r="F44">
         <v>13</v>
       </c>
-      <c r="F44">
-        <v>17</v>
-      </c>
       <c r="G44">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H44">
         <v>34</v>
       </c>
       <c r="I44">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J44">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K44">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="L44">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="M44">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N44">
         <v>7</v>
       </c>
       <c r="O44">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P44">
         <v>2022</v>
       </c>
       <c r="Q44">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="R44">
         <v>1</v>
@@ -3194,52 +3194,52 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>22004</v>
+        <v>22007</v>
       </c>
       <c r="C45" t="s">
         <v>60</v>
       </c>
       <c r="D45">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E45">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F45">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G45">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H45">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I45">
         <v>3</v>
       </c>
       <c r="J45">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="K45">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="L45">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M45">
+        <v>14</v>
+      </c>
+      <c r="N45">
         <v>7</v>
       </c>
-      <c r="N45">
-        <v>4</v>
-      </c>
       <c r="O45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P45">
         <v>2022</v>
       </c>
       <c r="Q45">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="R45">
         <v>1</v>
@@ -3250,52 +3250,52 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>22003</v>
+        <v>22006</v>
       </c>
       <c r="C46" t="s">
         <v>61</v>
       </c>
       <c r="D46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E46">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="F46">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="G46">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H46">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="I46">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J46">
         <v>12</v>
       </c>
       <c r="K46">
-        <v>103</v>
+        <v>50</v>
       </c>
       <c r="L46">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="M46">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N46">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O46">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P46">
         <v>2022</v>
       </c>
       <c r="Q46">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="R46">
         <v>1</v>
@@ -3306,52 +3306,52 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>22002</v>
+        <v>22005</v>
       </c>
       <c r="C47" t="s">
         <v>62</v>
       </c>
       <c r="D47">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E47">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="F47">
+        <v>17</v>
+      </c>
+      <c r="G47">
+        <v>19</v>
+      </c>
+      <c r="H47">
+        <v>34</v>
+      </c>
+      <c r="I47">
+        <v>5</v>
+      </c>
+      <c r="J47">
+        <v>9</v>
+      </c>
+      <c r="K47">
+        <v>85</v>
+      </c>
+      <c r="L47">
+        <v>17</v>
+      </c>
+      <c r="M47">
+        <v>14</v>
+      </c>
+      <c r="N47">
         <v>7</v>
       </c>
-      <c r="G47">
-        <v>9</v>
-      </c>
-      <c r="H47">
-        <v>24</v>
-      </c>
-      <c r="I47">
-        <v>4</v>
-      </c>
-      <c r="J47">
-        <v>12</v>
-      </c>
-      <c r="K47">
-        <v>50</v>
-      </c>
-      <c r="L47">
-        <v>10</v>
-      </c>
-      <c r="M47">
-        <v>16</v>
-      </c>
-      <c r="N47">
-        <v>8</v>
-      </c>
       <c r="O47">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P47">
         <v>2022</v>
       </c>
       <c r="Q47">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R47">
         <v>1</v>
@@ -3362,43 +3362,43 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>22001</v>
+        <v>22004</v>
       </c>
       <c r="C48" t="s">
         <v>63</v>
       </c>
       <c r="D48">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E48">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F48">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="G48">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="H48">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I48">
         <v>3</v>
       </c>
       <c r="J48">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="K48">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="L48">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="M48">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N48">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="O48">
         <v>2</v>
@@ -3407,7 +3407,7 @@
         <v>2022</v>
       </c>
       <c r="Q48">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R48">
         <v>1</v>
@@ -3418,55 +3418,55 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>21150</v>
+        <v>22003</v>
       </c>
       <c r="C49" t="s">
         <v>64</v>
       </c>
       <c r="D49">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E49">
+        <v>18</v>
+      </c>
+      <c r="F49">
+        <v>24</v>
+      </c>
+      <c r="G49">
+        <v>25</v>
+      </c>
+      <c r="H49">
+        <v>34</v>
+      </c>
+      <c r="I49">
+        <v>8</v>
+      </c>
+      <c r="J49">
+        <v>12</v>
+      </c>
+      <c r="K49">
+        <v>103</v>
+      </c>
+      <c r="L49">
+        <v>21</v>
+      </c>
+      <c r="M49">
+        <v>20</v>
+      </c>
+      <c r="N49">
         <v>10</v>
       </c>
-      <c r="F49">
-        <v>11</v>
-      </c>
-      <c r="G49">
-        <v>23</v>
-      </c>
-      <c r="H49">
-        <v>26</v>
-      </c>
-      <c r="I49">
-        <v>7</v>
-      </c>
-      <c r="J49">
-        <v>10</v>
-      </c>
-      <c r="K49">
-        <v>74</v>
-      </c>
-      <c r="L49">
-        <v>15</v>
-      </c>
-      <c r="M49">
-        <v>17</v>
-      </c>
-      <c r="N49">
-        <v>9</v>
-      </c>
       <c r="O49">
+        <v>4</v>
+      </c>
+      <c r="P49">
+        <v>2022</v>
+      </c>
+      <c r="Q49">
         <v>3</v>
       </c>
-      <c r="P49">
-        <v>2021</v>
-      </c>
-      <c r="Q49">
-        <v>150</v>
-      </c>
       <c r="R49">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:18">
@@ -3474,55 +3474,55 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>21149</v>
+        <v>22002</v>
       </c>
       <c r="C50" t="s">
         <v>65</v>
       </c>
       <c r="D50">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="E50">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="F50">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="G50">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="H50">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="I50">
+        <v>4</v>
+      </c>
+      <c r="J50">
+        <v>12</v>
+      </c>
+      <c r="K50">
+        <v>50</v>
+      </c>
+      <c r="L50">
         <v>10</v>
       </c>
-      <c r="J50">
-        <v>11</v>
-      </c>
-      <c r="K50">
-        <v>139</v>
-      </c>
-      <c r="L50">
-        <v>28</v>
-      </c>
       <c r="M50">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="N50">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="O50">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P50">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="Q50">
-        <v>149</v>
+        <v>2</v>
       </c>
       <c r="R50">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:18">
@@ -3530,55 +3530,55 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>21148</v>
+        <v>22001</v>
       </c>
       <c r="C51" t="s">
         <v>66</v>
       </c>
       <c r="D51">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E51">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F51">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G51">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H51">
         <v>29</v>
       </c>
       <c r="I51">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J51">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="K51">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="L51">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="M51">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N51">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O51">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P51">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="Q51">
-        <v>148</v>
+        <v>1</v>
       </c>
       <c r="R51">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:18">
@@ -3586,52 +3586,52 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>21147</v>
+        <v>21150</v>
       </c>
       <c r="C52" t="s">
         <v>67</v>
       </c>
       <c r="D52">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E52">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F52">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G52">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="H52">
         <v>26</v>
       </c>
       <c r="I52">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J52">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="K52">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="L52">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="M52">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="N52">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="O52">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P52">
         <v>2021</v>
       </c>
       <c r="Q52">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="R52">
         <v>12</v>
@@ -3642,52 +3642,52 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>21146</v>
+        <v>21149</v>
       </c>
       <c r="C53" t="s">
         <v>68</v>
       </c>
       <c r="D53">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="E53">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="F53">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="G53">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H53">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="I53">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J53">
         <v>11</v>
       </c>
       <c r="K53">
-        <v>54</v>
+        <v>139</v>
       </c>
       <c r="L53">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="M53">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N53">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O53">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P53">
         <v>2021</v>
       </c>
       <c r="Q53">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="R53">
         <v>12</v>
@@ -3698,52 +3698,52 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>21145</v>
+        <v>21148</v>
       </c>
       <c r="C54" t="s">
         <v>69</v>
       </c>
       <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <v>4</v>
+      </c>
+      <c r="F54">
+        <v>12</v>
+      </c>
+      <c r="G54">
+        <v>16</v>
+      </c>
+      <c r="H54">
+        <v>29</v>
+      </c>
+      <c r="I54">
+        <v>4</v>
+      </c>
+      <c r="J54">
+        <v>8</v>
+      </c>
+      <c r="K54">
+        <v>62</v>
+      </c>
+      <c r="L54">
+        <v>12</v>
+      </c>
+      <c r="M54">
+        <v>12</v>
+      </c>
+      <c r="N54">
+        <v>6</v>
+      </c>
+      <c r="O54">
         <v>3</v>
-      </c>
-      <c r="E54">
-        <v>8</v>
-      </c>
-      <c r="F54">
-        <v>25</v>
-      </c>
-      <c r="G54">
-        <v>29</v>
-      </c>
-      <c r="H54">
-        <v>30</v>
-      </c>
-      <c r="I54">
-        <v>1</v>
-      </c>
-      <c r="J54">
-        <v>6</v>
-      </c>
-      <c r="K54">
-        <v>95</v>
-      </c>
-      <c r="L54">
-        <v>19</v>
-      </c>
-      <c r="M54">
-        <v>7</v>
-      </c>
-      <c r="N54">
-        <v>4</v>
-      </c>
-      <c r="O54">
-        <v>2</v>
       </c>
       <c r="P54">
         <v>2021</v>
       </c>
       <c r="Q54">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="R54">
         <v>12</v>
@@ -3754,52 +3754,52 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>21144</v>
+        <v>21147</v>
       </c>
       <c r="C55" t="s">
         <v>70</v>
       </c>
       <c r="D55">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E55">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="F55">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="G55">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="H55">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="I55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J55">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K55">
-        <v>112</v>
+        <v>49</v>
       </c>
       <c r="L55">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="M55">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="N55">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O55">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P55">
         <v>2021</v>
       </c>
       <c r="Q55">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="R55">
         <v>12</v>
@@ -3810,52 +3810,52 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>21143</v>
+        <v>21146</v>
       </c>
       <c r="C56" t="s">
         <v>71</v>
       </c>
       <c r="D56">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E56">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="F56">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="G56">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="H56">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="I56">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J56">
         <v>11</v>
       </c>
       <c r="K56">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="L56">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="M56">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N56">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O56">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P56">
         <v>2021</v>
       </c>
       <c r="Q56">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="R56">
         <v>12</v>
@@ -3866,52 +3866,52 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>21142</v>
+        <v>21145</v>
       </c>
       <c r="C57" t="s">
         <v>72</v>
       </c>
       <c r="D57">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E57">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F57">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="G57">
+        <v>29</v>
+      </c>
+      <c r="H57">
+        <v>30</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
+      </c>
+      <c r="J57">
+        <v>6</v>
+      </c>
+      <c r="K57">
+        <v>95</v>
+      </c>
+      <c r="L57">
         <v>19</v>
       </c>
-      <c r="H57">
-        <v>25</v>
-      </c>
-      <c r="I57">
-        <v>2</v>
-      </c>
-      <c r="J57">
-        <v>9</v>
-      </c>
-      <c r="K57">
-        <v>85</v>
-      </c>
-      <c r="L57">
-        <v>17</v>
-      </c>
       <c r="M57">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N57">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O57">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P57">
         <v>2021</v>
       </c>
       <c r="Q57">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="R57">
         <v>12</v>
@@ -3922,52 +3922,52 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>21141</v>
+        <v>21144</v>
       </c>
       <c r="C58" t="s">
         <v>73</v>
       </c>
       <c r="D58">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E58">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F58">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="G58">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H58">
         <v>34</v>
       </c>
       <c r="I58">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J58">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="K58">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="L58">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="M58">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="N58">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="O58">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P58">
         <v>2021</v>
       </c>
       <c r="Q58">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="R58">
         <v>12</v>
@@ -3978,52 +3978,52 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>21140</v>
+        <v>21143</v>
       </c>
       <c r="C59" t="s">
         <v>74</v>
       </c>
       <c r="D59">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E59">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F59">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="G59">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H59">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I59">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J59">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K59">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="L59">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M59">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="N59">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="O59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P59">
         <v>2021</v>
       </c>
       <c r="Q59">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="R59">
         <v>12</v>
@@ -4034,52 +4034,52 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>21139</v>
+        <v>21142</v>
       </c>
       <c r="C60" t="s">
         <v>75</v>
       </c>
       <c r="D60">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E60">
         <v>13</v>
       </c>
       <c r="F60">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G60">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H60">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="I60">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J60">
         <v>9</v>
       </c>
       <c r="K60">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="L60">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M60">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="N60">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="O60">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P60">
         <v>2021</v>
       </c>
       <c r="Q60">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="R60">
         <v>12</v>
@@ -4090,52 +4090,52 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>21138</v>
+        <v>21141</v>
       </c>
       <c r="C61" t="s">
         <v>76</v>
       </c>
       <c r="D61">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E61">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F61">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G61">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="H61">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I61">
         <v>5</v>
       </c>
       <c r="J61">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K61">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="L61">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M61">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N61">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O61">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P61">
         <v>2021</v>
       </c>
       <c r="Q61">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="R61">
         <v>12</v>
@@ -4146,43 +4146,43 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>21137</v>
+        <v>21140</v>
       </c>
       <c r="C62" t="s">
         <v>77</v>
       </c>
       <c r="D62">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E62">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="F62">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="G62">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="H62">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="I62">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J62">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="K62">
-        <v>55</v>
+        <v>123</v>
       </c>
       <c r="L62">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="M62">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="N62">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O62">
         <v>2</v>
@@ -4191,10 +4191,10 @@
         <v>2021</v>
       </c>
       <c r="Q62">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="R62">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" spans="1:18">
@@ -4202,43 +4202,43 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>21136</v>
+        <v>21139</v>
       </c>
       <c r="C63" t="s">
         <v>78</v>
       </c>
       <c r="D63">
+        <v>5</v>
+      </c>
+      <c r="E63">
+        <v>13</v>
+      </c>
+      <c r="F63">
+        <v>18</v>
+      </c>
+      <c r="G63">
+        <v>23</v>
+      </c>
+      <c r="H63">
+        <v>34</v>
+      </c>
+      <c r="I63">
         <v>8</v>
       </c>
-      <c r="E63">
-        <v>12</v>
-      </c>
-      <c r="F63">
+      <c r="J63">
+        <v>9</v>
+      </c>
+      <c r="K63">
+        <v>93</v>
+      </c>
+      <c r="L63">
         <v>19</v>
       </c>
-      <c r="G63">
-        <v>27</v>
-      </c>
-      <c r="H63">
-        <v>33</v>
-      </c>
-      <c r="I63">
-        <v>2</v>
-      </c>
-      <c r="J63">
-        <v>5</v>
-      </c>
-      <c r="K63">
-        <v>99</v>
-      </c>
-      <c r="L63">
-        <v>20</v>
-      </c>
       <c r="M63">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="N63">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="O63">
         <v>2</v>
@@ -4247,10 +4247,10 @@
         <v>2021</v>
       </c>
       <c r="Q63">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="R63">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" spans="1:18">
@@ -4258,22 +4258,22 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>21135</v>
+        <v>21138</v>
       </c>
       <c r="C64" t="s">
         <v>79</v>
       </c>
       <c r="D64">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E64">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F64">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G64">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="H64">
         <v>31</v>
@@ -4282,19 +4282,19 @@
         <v>5</v>
       </c>
       <c r="J64">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="K64">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="L64">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M64">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="N64">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O64">
         <v>1</v>
@@ -4303,10 +4303,10 @@
         <v>2021</v>
       </c>
       <c r="Q64">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="R64">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" spans="1:18">
@@ -4314,7 +4314,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>21134</v>
+        <v>21137</v>
       </c>
       <c r="C65" t="s">
         <v>80</v>
@@ -4323,43 +4323,43 @@
         <v>2</v>
       </c>
       <c r="E65">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F65">
+        <v>13</v>
+      </c>
+      <c r="G65">
         <v>14</v>
       </c>
-      <c r="G65">
+      <c r="H65">
         <v>19</v>
       </c>
-      <c r="H65">
-        <v>28</v>
-      </c>
       <c r="I65">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J65">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K65">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="L65">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="M65">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N65">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O65">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P65">
         <v>2021</v>
       </c>
       <c r="Q65">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="R65">
         <v>11</v>
@@ -4370,7 +4370,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>21133</v>
+        <v>21136</v>
       </c>
       <c r="C66" t="s">
         <v>81</v>
@@ -4379,43 +4379,43 @@
         <v>8</v>
       </c>
       <c r="E66">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F66">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G66">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H66">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="I66">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J66">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K66">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="L66">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M66">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N66">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="O66">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P66">
         <v>2021</v>
       </c>
       <c r="Q66">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="R66">
         <v>11</v>
@@ -4426,7 +4426,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>21132</v>
+        <v>21135</v>
       </c>
       <c r="C67" t="s">
         <v>82</v>
@@ -4435,43 +4435,43 @@
         <v>4</v>
       </c>
       <c r="E67">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="F67">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="G67">
         <v>29</v>
       </c>
       <c r="H67">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I67">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J67">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="K67">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="L67">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="M67">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="N67">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P67">
         <v>2021</v>
       </c>
       <c r="Q67">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="R67">
         <v>11</v>
@@ -4482,43 +4482,43 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>21131</v>
+        <v>21134</v>
       </c>
       <c r="C68" t="s">
         <v>83</v>
       </c>
       <c r="D68">
+        <v>2</v>
+      </c>
+      <c r="E68">
         <v>6</v>
       </c>
-      <c r="E68">
-        <v>8</v>
-      </c>
       <c r="F68">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G68">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="H68">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="I68">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J68">
         <v>6</v>
       </c>
       <c r="K68">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="L68">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="M68">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N68">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O68">
         <v>4</v>
@@ -4527,7 +4527,7 @@
         <v>2021</v>
       </c>
       <c r="Q68">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="R68">
         <v>11</v>
@@ -4538,43 +4538,43 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>21130</v>
+        <v>21133</v>
       </c>
       <c r="C69" t="s">
         <v>84</v>
       </c>
       <c r="D69">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E69">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F69">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G69">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H69">
         <v>28</v>
       </c>
       <c r="I69">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J69">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K69">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="L69">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M69">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N69">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O69">
         <v>3</v>
@@ -4583,7 +4583,7 @@
         <v>2021</v>
       </c>
       <c r="Q69">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="R69">
         <v>11</v>
@@ -4594,37 +4594,37 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>21129</v>
+        <v>21132</v>
       </c>
       <c r="C70" t="s">
         <v>85</v>
       </c>
       <c r="D70">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E70">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F70">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="G70">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="H70">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I70">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J70">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K70">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="L70">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="M70">
         <v>14</v>
@@ -4633,13 +4633,13 @@
         <v>7</v>
       </c>
       <c r="O70">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P70">
         <v>2021</v>
       </c>
       <c r="Q70">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="R70">
         <v>11</v>
@@ -4650,31 +4650,31 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>21128</v>
+        <v>21131</v>
       </c>
       <c r="C71" t="s">
         <v>86</v>
       </c>
       <c r="D71">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E71">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F71">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G71">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="H71">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="I71">
         <v>5</v>
       </c>
       <c r="J71">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K71">
         <v>99</v>
@@ -4683,19 +4683,19 @@
         <v>20</v>
       </c>
       <c r="M71">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N71">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O71">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P71">
         <v>2021</v>
       </c>
       <c r="Q71">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="R71">
         <v>11</v>
@@ -4706,52 +4706,52 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>21127</v>
+        <v>21130</v>
       </c>
       <c r="C72" t="s">
         <v>87</v>
       </c>
       <c r="D72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E72">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F72">
+        <v>14</v>
+      </c>
+      <c r="G72">
+        <v>27</v>
+      </c>
+      <c r="H72">
+        <v>28</v>
+      </c>
+      <c r="I72">
+        <v>5</v>
+      </c>
+      <c r="J72">
+        <v>10</v>
+      </c>
+      <c r="K72">
+        <v>74</v>
+      </c>
+      <c r="L72">
         <v>15</v>
       </c>
-      <c r="G72">
-        <v>17</v>
-      </c>
-      <c r="H72">
-        <v>26</v>
-      </c>
-      <c r="I72">
-        <v>2</v>
-      </c>
-      <c r="J72">
-        <v>11</v>
-      </c>
-      <c r="K72">
-        <v>61</v>
-      </c>
-      <c r="L72">
-        <v>12</v>
-      </c>
       <c r="M72">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N72">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O72">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P72">
         <v>2021</v>
       </c>
       <c r="Q72">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="R72">
         <v>11</v>
@@ -4762,52 +4762,52 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>21126</v>
+        <v>21129</v>
       </c>
       <c r="C73" t="s">
         <v>88</v>
       </c>
       <c r="D73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E73">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F73">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G73">
+        <v>18</v>
+      </c>
+      <c r="H73">
         <v>34</v>
       </c>
-      <c r="H73">
-        <v>35</v>
-      </c>
       <c r="I73">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J73">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K73">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="L73">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M73">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="N73">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="O73">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P73">
         <v>2021</v>
       </c>
       <c r="Q73">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="R73">
         <v>11</v>
@@ -4818,37 +4818,37 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>21125</v>
+        <v>21128</v>
       </c>
       <c r="C74" t="s">
         <v>89</v>
       </c>
       <c r="D74">
+        <v>14</v>
+      </c>
+      <c r="E74">
         <v>17</v>
       </c>
-      <c r="E74">
-        <v>19</v>
-      </c>
       <c r="F74">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G74">
+        <v>23</v>
+      </c>
+      <c r="H74">
         <v>27</v>
       </c>
-      <c r="H74">
-        <v>31</v>
-      </c>
       <c r="I74">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J74">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K74">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="L74">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M74">
         <v>13</v>
@@ -4857,13 +4857,13 @@
         <v>7</v>
       </c>
       <c r="O74">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P74">
         <v>2021</v>
       </c>
       <c r="Q74">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="R74">
         <v>11</v>
@@ -4874,43 +4874,43 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>21124</v>
+        <v>21127</v>
       </c>
       <c r="C75" t="s">
         <v>90</v>
       </c>
       <c r="D75">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E75">
+        <v>2</v>
+      </c>
+      <c r="F75">
+        <v>15</v>
+      </c>
+      <c r="G75">
         <v>17</v>
       </c>
-      <c r="F75">
-        <v>22</v>
-      </c>
-      <c r="G75">
-        <v>25</v>
-      </c>
       <c r="H75">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="I75">
+        <v>2</v>
+      </c>
+      <c r="J75">
+        <v>11</v>
+      </c>
+      <c r="K75">
+        <v>61</v>
+      </c>
+      <c r="L75">
+        <v>12</v>
+      </c>
+      <c r="M75">
+        <v>13</v>
+      </c>
+      <c r="N75">
         <v>7</v>
-      </c>
-      <c r="J75">
-        <v>9</v>
-      </c>
-      <c r="K75">
-        <v>109</v>
-      </c>
-      <c r="L75">
-        <v>22</v>
-      </c>
-      <c r="M75">
-        <v>16</v>
-      </c>
-      <c r="N75">
-        <v>8</v>
       </c>
       <c r="O75">
         <v>2</v>
@@ -4919,10 +4919,10 @@
         <v>2021</v>
       </c>
       <c r="Q75">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="R75">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="76" spans="1:18">
@@ -4930,43 +4930,43 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>21123</v>
+        <v>21126</v>
       </c>
       <c r="C76" t="s">
         <v>91</v>
       </c>
       <c r="D76">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E76">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="F76">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G76">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="H76">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I76">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J76">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K76">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="L76">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M76">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="N76">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="O76">
         <v>2</v>
@@ -4975,10 +4975,10 @@
         <v>2021</v>
       </c>
       <c r="Q76">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="R76">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="77" spans="1:18">
@@ -4986,55 +4986,55 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>21122</v>
+        <v>21125</v>
       </c>
       <c r="C77" t="s">
         <v>92</v>
       </c>
       <c r="D77">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E77">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F77">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G77">
         <v>27</v>
       </c>
       <c r="H77">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I77">
         <v>4</v>
       </c>
       <c r="J77">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K77">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="L77">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M77">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="N77">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O77">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P77">
         <v>2021</v>
       </c>
       <c r="Q77">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="R77">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="78" spans="1:18">
@@ -5042,43 +5042,43 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>21121</v>
+        <v>21124</v>
       </c>
       <c r="C78" t="s">
         <v>93</v>
       </c>
       <c r="D78">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E78">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F78">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G78">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H78">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="I78">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J78">
         <v>9</v>
       </c>
       <c r="K78">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="L78">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M78">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="N78">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O78">
         <v>2</v>
@@ -5087,7 +5087,7 @@
         <v>2021</v>
       </c>
       <c r="Q78">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="R78">
         <v>10</v>
@@ -5098,52 +5098,52 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>21120</v>
+        <v>21123</v>
       </c>
       <c r="C79" t="s">
         <v>94</v>
       </c>
       <c r="D79">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E79">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="F79">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G79">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H79">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I79">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J79">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K79">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="L79">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="M79">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N79">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P79">
         <v>2021</v>
       </c>
       <c r="Q79">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="R79">
         <v>10</v>
@@ -5154,52 +5154,52 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>21119</v>
+        <v>21122</v>
       </c>
       <c r="C80" t="s">
         <v>95</v>
       </c>
       <c r="D80">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E80">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="F80">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="G80">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="H80">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I80">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J80">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K80">
-        <v>58</v>
+        <v>111</v>
       </c>
       <c r="L80">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="M80">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="N80">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="O80">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P80">
         <v>2021</v>
       </c>
       <c r="Q80">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="R80">
         <v>10</v>
@@ -5210,52 +5210,52 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>21118</v>
+        <v>21121</v>
       </c>
       <c r="C81" t="s">
         <v>96</v>
       </c>
       <c r="D81">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E81">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F81">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G81">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H81">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I81">
         <v>2</v>
       </c>
       <c r="J81">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="K81">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="L81">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="M81">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N81">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O81">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P81">
         <v>2021</v>
       </c>
       <c r="Q81">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="R81">
         <v>10</v>
@@ -5266,52 +5266,52 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>21117</v>
+        <v>21120</v>
       </c>
       <c r="C82" t="s">
         <v>97</v>
       </c>
       <c r="D82">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E82">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F82">
         <v>21</v>
       </c>
       <c r="G82">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H82">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I82">
         <v>5</v>
       </c>
       <c r="J82">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="K82">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="L82">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M82">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="N82">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P82">
         <v>2021</v>
       </c>
       <c r="Q82">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="R82">
         <v>10</v>
@@ -5322,52 +5322,52 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>21116</v>
+        <v>21119</v>
       </c>
       <c r="C83" t="s">
         <v>98</v>
       </c>
       <c r="D83">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E83">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="F83">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="G83">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="H83">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="I83">
+        <v>9</v>
+      </c>
+      <c r="J83">
+        <v>10</v>
+      </c>
+      <c r="K83">
+        <v>58</v>
+      </c>
+      <c r="L83">
+        <v>12</v>
+      </c>
+      <c r="M83">
+        <v>19</v>
+      </c>
+      <c r="N83">
+        <v>10</v>
+      </c>
+      <c r="O83">
         <v>3</v>
-      </c>
-      <c r="J83">
-        <v>11</v>
-      </c>
-      <c r="K83">
-        <v>121</v>
-      </c>
-      <c r="L83">
-        <v>24</v>
-      </c>
-      <c r="M83">
-        <v>14</v>
-      </c>
-      <c r="N83">
-        <v>7</v>
-      </c>
-      <c r="O83">
-        <v>2</v>
       </c>
       <c r="P83">
         <v>2021</v>
       </c>
       <c r="Q83">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="R83">
         <v>10</v>
@@ -5378,52 +5378,52 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>21115</v>
+        <v>21118</v>
       </c>
       <c r="C84" t="s">
         <v>99</v>
       </c>
       <c r="D84">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E84">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F84">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G84">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="H84">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="I84">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J84">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="K84">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="L84">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="M84">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="N84">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="O84">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P84">
         <v>2021</v>
       </c>
       <c r="Q84">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="R84">
         <v>10</v>
@@ -5434,40 +5434,40 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>21114</v>
+        <v>21117</v>
       </c>
       <c r="C85" t="s">
         <v>100</v>
       </c>
       <c r="D85">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E85">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="F85">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G85">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="H85">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I85">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J85">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="K85">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="L85">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M85">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N85">
         <v>6</v>
@@ -5479,7 +5479,7 @@
         <v>2021</v>
       </c>
       <c r="Q85">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="R85">
         <v>10</v>
@@ -5490,43 +5490,43 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>21113</v>
+        <v>21116</v>
       </c>
       <c r="C86" t="s">
         <v>101</v>
       </c>
       <c r="D86">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="E86">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F86">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G86">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H86">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="I86">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J86">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="K86">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="L86">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M86">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N86">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O86">
         <v>2</v>
@@ -5535,10 +5535,10 @@
         <v>2021</v>
       </c>
       <c r="Q86">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="R86">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="87" spans="1:18">
@@ -5546,43 +5546,43 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>21112</v>
+        <v>21115</v>
       </c>
       <c r="C87" t="s">
         <v>102</v>
       </c>
       <c r="D87">
+        <v>8</v>
+      </c>
+      <c r="E87">
+        <v>13</v>
+      </c>
+      <c r="F87">
+        <v>19</v>
+      </c>
+      <c r="G87">
+        <v>20</v>
+      </c>
+      <c r="H87">
+        <v>29</v>
+      </c>
+      <c r="I87">
+        <v>6</v>
+      </c>
+      <c r="J87">
+        <v>10</v>
+      </c>
+      <c r="K87">
+        <v>89</v>
+      </c>
+      <c r="L87">
         <v>18</v>
       </c>
-      <c r="E87">
-        <v>21</v>
-      </c>
-      <c r="F87">
-        <v>22</v>
-      </c>
-      <c r="G87">
-        <v>23</v>
-      </c>
-      <c r="H87">
-        <v>35</v>
-      </c>
-      <c r="I87">
-        <v>11</v>
-      </c>
-      <c r="J87">
-        <v>12</v>
-      </c>
-      <c r="K87">
-        <v>119</v>
-      </c>
-      <c r="L87">
-        <v>24</v>
-      </c>
       <c r="M87">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="N87">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="O87">
         <v>2</v>
@@ -5591,10 +5591,10 @@
         <v>2021</v>
       </c>
       <c r="Q87">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="R87">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="88" spans="1:18">
@@ -5602,43 +5602,43 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>21111</v>
+        <v>21114</v>
       </c>
       <c r="C88" t="s">
         <v>103</v>
       </c>
       <c r="D88">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E88">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F88">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G88">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H88">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I88">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J88">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K88">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="L88">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M88">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="N88">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="O88">
         <v>2</v>
@@ -5647,10 +5647,10 @@
         <v>2021</v>
       </c>
       <c r="Q88">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="R88">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="89" spans="1:18">
@@ -5658,43 +5658,43 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>21110</v>
+        <v>21113</v>
       </c>
       <c r="C89" t="s">
         <v>104</v>
       </c>
       <c r="D89">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E89">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F89">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G89">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H89">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I89">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="J89">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="K89">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L89">
         <v>23</v>
       </c>
       <c r="M89">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="N89">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="O89">
         <v>2</v>
@@ -5703,7 +5703,7 @@
         <v>2021</v>
       </c>
       <c r="Q89">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="R89">
         <v>9</v>
@@ -5714,52 +5714,52 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>21109</v>
+        <v>21112</v>
       </c>
       <c r="C90" t="s">
         <v>105</v>
       </c>
       <c r="D90">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="E90">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="F90">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="G90">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H90">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I90">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="J90">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K90">
-        <v>72</v>
+        <v>119</v>
       </c>
       <c r="L90">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="M90">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="N90">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="O90">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P90">
         <v>2021</v>
       </c>
       <c r="Q90">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="R90">
         <v>9</v>
@@ -5770,43 +5770,43 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>21108</v>
+        <v>21111</v>
       </c>
       <c r="C91" t="s">
         <v>106</v>
       </c>
       <c r="D91">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E91">
+        <v>8</v>
+      </c>
+      <c r="F91">
+        <v>15</v>
+      </c>
+      <c r="G91">
         <v>19</v>
       </c>
-      <c r="F91">
-        <v>22</v>
-      </c>
-      <c r="G91">
-        <v>26</v>
-      </c>
       <c r="H91">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="I91">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J91">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K91">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="L91">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="M91">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="N91">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="O91">
         <v>2</v>
@@ -5815,7 +5815,7 @@
         <v>2021</v>
       </c>
       <c r="Q91">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="R91">
         <v>9</v>
@@ -5826,52 +5826,52 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>21107</v>
+        <v>21110</v>
       </c>
       <c r="C92" t="s">
         <v>107</v>
       </c>
       <c r="D92">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E92">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F92">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="G92">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="H92">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I92">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="J92">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K92">
-        <v>66</v>
+        <v>117</v>
       </c>
       <c r="L92">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M92">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="N92">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="O92">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P92">
         <v>2021</v>
       </c>
       <c r="Q92">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="R92">
         <v>9</v>
@@ -5882,52 +5882,52 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>21106</v>
+        <v>21109</v>
       </c>
       <c r="C93" t="s">
         <v>108</v>
       </c>
       <c r="D93">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E93">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F93">
+        <v>7</v>
+      </c>
+      <c r="G93">
+        <v>27</v>
+      </c>
+      <c r="H93">
+        <v>31</v>
+      </c>
+      <c r="I93">
+        <v>6</v>
+      </c>
+      <c r="J93">
+        <v>9</v>
+      </c>
+      <c r="K93">
+        <v>72</v>
+      </c>
+      <c r="L93">
         <v>14</v>
       </c>
-      <c r="G93">
-        <v>32</v>
-      </c>
-      <c r="H93">
-        <v>34</v>
-      </c>
-      <c r="I93">
-        <v>2</v>
-      </c>
-      <c r="J93">
-        <v>12</v>
-      </c>
-      <c r="K93">
-        <v>95</v>
-      </c>
-      <c r="L93">
-        <v>19</v>
-      </c>
       <c r="M93">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N93">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O93">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P93">
         <v>2021</v>
       </c>
       <c r="Q93">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="R93">
         <v>9</v>
@@ -5938,43 +5938,43 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>21105</v>
+        <v>21108</v>
       </c>
       <c r="C94" t="s">
         <v>109</v>
       </c>
       <c r="D94">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E94">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F94">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G94">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="H94">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="I94">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J94">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K94">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="L94">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M94">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="N94">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="O94">
         <v>2</v>
@@ -5983,7 +5983,7 @@
         <v>2021</v>
       </c>
       <c r="Q94">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="R94">
         <v>9</v>
@@ -5994,52 +5994,52 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>21104</v>
+        <v>21107</v>
       </c>
       <c r="C95" t="s">
         <v>110</v>
       </c>
       <c r="D95">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="E95">
+        <v>5</v>
+      </c>
+      <c r="F95">
+        <v>13</v>
+      </c>
+      <c r="G95">
+        <v>20</v>
+      </c>
+      <c r="H95">
         <v>25</v>
       </c>
-      <c r="F95">
-        <v>26</v>
-      </c>
-      <c r="G95">
-        <v>30</v>
-      </c>
-      <c r="H95">
-        <v>33</v>
-      </c>
       <c r="I95">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J95">
         <v>11</v>
       </c>
       <c r="K95">
-        <v>137</v>
+        <v>66</v>
       </c>
       <c r="L95">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M95">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="N95">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P95">
         <v>2021</v>
       </c>
       <c r="Q95">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="R95">
         <v>9</v>
@@ -6050,52 +6050,52 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>21103</v>
+        <v>21106</v>
       </c>
       <c r="C96" t="s">
         <v>111</v>
       </c>
       <c r="D96">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E96">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F96">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="G96">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H96">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I96">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J96">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K96">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="L96">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M96">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N96">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O96">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P96">
         <v>2021</v>
       </c>
       <c r="Q96">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="R96">
         <v>9</v>
@@ -6106,52 +6106,52 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>21102</v>
+        <v>21105</v>
       </c>
       <c r="C97" t="s">
         <v>112</v>
       </c>
       <c r="D97">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E97">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F97">
         <v>11</v>
       </c>
       <c r="G97">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H97">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I97">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J97">
+        <v>9</v>
+      </c>
+      <c r="K97">
+        <v>63</v>
+      </c>
+      <c r="L97">
+        <v>13</v>
+      </c>
+      <c r="M97">
+        <v>13</v>
+      </c>
+      <c r="N97">
         <v>7</v>
       </c>
-      <c r="K97">
-        <v>60</v>
-      </c>
-      <c r="L97">
-        <v>12</v>
-      </c>
-      <c r="M97">
-        <v>9</v>
-      </c>
-      <c r="N97">
-        <v>5</v>
-      </c>
       <c r="O97">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P97">
         <v>2021</v>
       </c>
       <c r="Q97">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="R97">
         <v>9</v>
@@ -6162,43 +6162,43 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>21101</v>
+        <v>21104</v>
       </c>
       <c r="C98" t="s">
         <v>113</v>
       </c>
       <c r="D98">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E98">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F98">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G98">
+        <v>30</v>
+      </c>
+      <c r="H98">
+        <v>33</v>
+      </c>
+      <c r="I98">
+        <v>3</v>
+      </c>
+      <c r="J98">
+        <v>11</v>
+      </c>
+      <c r="K98">
+        <v>137</v>
+      </c>
+      <c r="L98">
         <v>27</v>
       </c>
-      <c r="H98">
-        <v>32</v>
-      </c>
-      <c r="I98">
-        <v>6</v>
-      </c>
-      <c r="J98">
-        <v>11</v>
-      </c>
-      <c r="K98">
-        <v>109</v>
-      </c>
-      <c r="L98">
-        <v>22</v>
-      </c>
       <c r="M98">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="N98">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O98">
         <v>2</v>
@@ -6207,7 +6207,7 @@
         <v>2021</v>
       </c>
       <c r="Q98">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="R98">
         <v>9</v>
@@ -6218,55 +6218,55 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>21100</v>
+        <v>21103</v>
       </c>
       <c r="C99" t="s">
         <v>114</v>
       </c>
       <c r="D99">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E99">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F99">
         <v>23</v>
       </c>
       <c r="G99">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H99">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I99">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J99">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="K99">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="L99">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M99">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="N99">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="O99">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P99">
         <v>2021</v>
       </c>
       <c r="Q99">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="R99">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="100" spans="1:18">
@@ -6274,55 +6274,55 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>21099</v>
+        <v>21102</v>
       </c>
       <c r="C100" t="s">
         <v>115</v>
       </c>
       <c r="D100">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E100">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="F100">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="G100">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="H100">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="I100">
+        <v>2</v>
+      </c>
+      <c r="J100">
+        <v>7</v>
+      </c>
+      <c r="K100">
+        <v>60</v>
+      </c>
+      <c r="L100">
+        <v>12</v>
+      </c>
+      <c r="M100">
+        <v>9</v>
+      </c>
+      <c r="N100">
+        <v>5</v>
+      </c>
+      <c r="O100">
         <v>3</v>
-      </c>
-      <c r="J100">
-        <v>4</v>
-      </c>
-      <c r="K100">
-        <v>119</v>
-      </c>
-      <c r="L100">
-        <v>24</v>
-      </c>
-      <c r="M100">
-        <v>7</v>
-      </c>
-      <c r="N100">
-        <v>4</v>
-      </c>
-      <c r="O100">
-        <v>2</v>
       </c>
       <c r="P100">
         <v>2021</v>
       </c>
       <c r="Q100">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="R100">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="101" spans="1:18">
@@ -6330,55 +6330,55 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>21098</v>
+        <v>21101</v>
       </c>
       <c r="C101" t="s">
         <v>116</v>
       </c>
       <c r="D101">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="E101">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="F101">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G101">
         <v>27</v>
       </c>
       <c r="H101">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I101">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J101">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K101">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="L101">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="M101">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N101">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O101">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P101">
         <v>2021</v>
       </c>
       <c r="Q101">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="R101">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/大乐透最近100期开奖号码.xlsx
+++ b/大乐透最近100期开奖号码.xlsx
@@ -67,6 +67,24 @@
     <t>年内月号</t>
   </si>
   <si>
+    <t>2022-05-21</t>
+  </si>
+  <si>
+    <t>2022-05-18</t>
+  </si>
+  <si>
+    <t>2022-05-16</t>
+  </si>
+  <si>
+    <t>2022-05-14</t>
+  </si>
+  <si>
+    <t>2022-05-11</t>
+  </si>
+  <si>
+    <t>2022-05-09</t>
+  </si>
+  <si>
     <t>2022-05-07</t>
   </si>
   <si>
@@ -347,24 +365,6 @@
   </si>
   <si>
     <t>2021-09-15</t>
-  </si>
-  <si>
-    <t>2021-09-13</t>
-  </si>
-  <si>
-    <t>2021-09-11</t>
-  </si>
-  <si>
-    <t>2021-09-08</t>
-  </si>
-  <si>
-    <t>2021-09-06</t>
-  </si>
-  <si>
-    <t>2021-09-04</t>
-  </si>
-  <si>
-    <t>2021-09-01</t>
   </si>
 </sst>
 </file>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>22050</v>
+        <v>22056</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
@@ -795,43 +795,43 @@
         <v>2</v>
       </c>
       <c r="E2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G2">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I2">
+        <v>7</v>
+      </c>
+      <c r="J2">
+        <v>9</v>
+      </c>
+      <c r="K2">
+        <v>76</v>
+      </c>
+      <c r="L2">
+        <v>15</v>
+      </c>
+      <c r="M2">
+        <v>16</v>
+      </c>
+      <c r="N2">
         <v>8</v>
       </c>
-      <c r="J2">
-        <v>10</v>
-      </c>
-      <c r="K2">
-        <v>87</v>
-      </c>
-      <c r="L2">
-        <v>17</v>
-      </c>
-      <c r="M2">
-        <v>18</v>
-      </c>
-      <c r="N2">
-        <v>9</v>
-      </c>
       <c r="O2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P2">
         <v>2022</v>
       </c>
       <c r="Q2">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="R2">
         <v>5</v>
@@ -842,52 +842,52 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22049</v>
+        <v>22055</v>
       </c>
       <c r="C3" t="s">
         <v>18</v>
       </c>
       <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>12</v>
+      </c>
+      <c r="G3">
+        <v>15</v>
+      </c>
+      <c r="H3">
+        <v>23</v>
+      </c>
+      <c r="I3">
+        <v>4</v>
+      </c>
+      <c r="J3">
         <v>6</v>
       </c>
-      <c r="E3">
+      <c r="K3">
+        <v>53</v>
+      </c>
+      <c r="L3">
+        <v>11</v>
+      </c>
+      <c r="M3">
         <v>10</v>
       </c>
-      <c r="F3">
-        <v>20</v>
-      </c>
-      <c r="G3">
-        <v>28</v>
-      </c>
-      <c r="H3">
-        <v>35</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>10</v>
-      </c>
-      <c r="K3">
-        <v>99</v>
-      </c>
-      <c r="L3">
-        <v>20</v>
-      </c>
-      <c r="M3">
-        <v>11</v>
-      </c>
       <c r="N3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P3">
         <v>2022</v>
       </c>
       <c r="Q3">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="R3">
         <v>5</v>
@@ -898,37 +898,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22048</v>
+        <v>22054</v>
       </c>
       <c r="C4" t="s">
         <v>19</v>
       </c>
       <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4">
         <v>16</v>
       </c>
-      <c r="E4">
-        <v>22</v>
-      </c>
       <c r="F4">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="G4">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="H4">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K4">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c r="L4">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="M4">
         <v>17</v>
@@ -937,13 +937,13 @@
         <v>9</v>
       </c>
       <c r="O4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P4">
         <v>2022</v>
       </c>
       <c r="Q4">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="R4">
         <v>5</v>
@@ -954,55 +954,55 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22047</v>
+        <v>22053</v>
       </c>
       <c r="C5" t="s">
         <v>20</v>
       </c>
       <c r="D5">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E5">
+        <v>17</v>
+      </c>
+      <c r="F5">
+        <v>19</v>
+      </c>
+      <c r="G5">
+        <v>20</v>
+      </c>
+      <c r="H5">
+        <v>25</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>9</v>
+      </c>
+      <c r="K5">
+        <v>90</v>
+      </c>
+      <c r="L5">
+        <v>18</v>
+      </c>
+      <c r="M5">
         <v>10</v>
       </c>
-      <c r="F5">
-        <v>11</v>
-      </c>
-      <c r="G5">
-        <v>12</v>
-      </c>
-      <c r="H5">
-        <v>33</v>
-      </c>
-      <c r="I5">
-        <v>3</v>
-      </c>
-      <c r="J5">
-        <v>11</v>
-      </c>
-      <c r="K5">
-        <v>73</v>
-      </c>
-      <c r="L5">
-        <v>15</v>
-      </c>
-      <c r="M5">
-        <v>14</v>
-      </c>
       <c r="N5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P5">
         <v>2022</v>
       </c>
       <c r="Q5">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="R5">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -1010,55 +1010,55 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22046</v>
+        <v>22052</v>
       </c>
       <c r="C6" t="s">
         <v>21</v>
       </c>
       <c r="D6">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E6">
+        <v>13</v>
+      </c>
+      <c r="F6">
+        <v>18</v>
+      </c>
+      <c r="G6">
+        <v>29</v>
+      </c>
+      <c r="H6">
+        <v>35</v>
+      </c>
+      <c r="I6">
+        <v>4</v>
+      </c>
+      <c r="J6">
+        <v>9</v>
+      </c>
+      <c r="K6">
+        <v>96</v>
+      </c>
+      <c r="L6">
+        <v>19</v>
+      </c>
+      <c r="M6">
+        <v>13</v>
+      </c>
+      <c r="N6">
         <v>7</v>
       </c>
-      <c r="F6">
-        <v>12</v>
-      </c>
-      <c r="G6">
-        <v>22</v>
-      </c>
-      <c r="H6">
-        <v>27</v>
-      </c>
-      <c r="I6">
-        <v>3</v>
-      </c>
-      <c r="J6">
-        <v>5</v>
-      </c>
-      <c r="K6">
-        <v>74</v>
-      </c>
-      <c r="L6">
-        <v>15</v>
-      </c>
-      <c r="M6">
-        <v>8</v>
-      </c>
-      <c r="N6">
-        <v>4</v>
-      </c>
       <c r="O6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P6">
         <v>2022</v>
       </c>
       <c r="Q6">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="R6">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -1066,55 +1066,55 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22045</v>
+        <v>22051</v>
       </c>
       <c r="C7" t="s">
         <v>22</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="F7">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="G7">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H7">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K7">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="L7">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="M7">
+        <v>11</v>
+      </c>
+      <c r="N7">
         <v>6</v>
       </c>
-      <c r="N7">
-        <v>3</v>
-      </c>
       <c r="O7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P7">
         <v>2022</v>
       </c>
       <c r="Q7">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="R7">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -1122,55 +1122,55 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>22044</v>
+        <v>22050</v>
       </c>
       <c r="C8" t="s">
         <v>23</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F8">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G8">
+        <v>24</v>
+      </c>
+      <c r="H8">
+        <v>30</v>
+      </c>
+      <c r="I8">
+        <v>8</v>
+      </c>
+      <c r="J8">
+        <v>10</v>
+      </c>
+      <c r="K8">
+        <v>87</v>
+      </c>
+      <c r="L8">
         <v>17</v>
       </c>
-      <c r="H8">
-        <v>20</v>
-      </c>
-      <c r="I8">
-        <v>3</v>
-      </c>
-      <c r="J8">
-        <v>7</v>
-      </c>
-      <c r="K8">
-        <v>56</v>
-      </c>
-      <c r="L8">
-        <v>11</v>
-      </c>
       <c r="M8">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="N8">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="O8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P8">
         <v>2022</v>
       </c>
       <c r="Q8">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="R8">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -1178,43 +1178,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22043</v>
+        <v>22049</v>
       </c>
       <c r="C9" t="s">
         <v>24</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E9">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F9">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G9">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H9">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="I9">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="J9">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K9">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="L9">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M9">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="N9">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="O9">
         <v>4</v>
@@ -1223,10 +1223,10 @@
         <v>2022</v>
       </c>
       <c r="Q9">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="R9">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -1234,19 +1234,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22042</v>
+        <v>22048</v>
       </c>
       <c r="C10" t="s">
         <v>25</v>
       </c>
       <c r="D10">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E10">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F10">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="G10">
         <v>29</v>
@@ -1255,34 +1255,34 @@
         <v>32</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J10">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K10">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="L10">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="M10">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="N10">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="O10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P10">
         <v>2022</v>
       </c>
       <c r="Q10">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="R10">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -1290,52 +1290,52 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22041</v>
+        <v>22047</v>
       </c>
       <c r="C11" t="s">
         <v>26</v>
       </c>
       <c r="D11">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E11">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F11">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G11">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="H11">
         <v>33</v>
       </c>
       <c r="I11">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J11">
         <v>11</v>
       </c>
       <c r="K11">
-        <v>104</v>
+        <v>73</v>
       </c>
       <c r="L11">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="M11">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="N11">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P11">
         <v>2022</v>
       </c>
       <c r="Q11">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="R11">
         <v>4</v>
@@ -1346,52 +1346,52 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>22040</v>
+        <v>22046</v>
       </c>
       <c r="C12" t="s">
         <v>27</v>
       </c>
       <c r="D12">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E12">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="F12">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="G12">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="H12">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="I12">
+        <v>3</v>
+      </c>
+      <c r="J12">
+        <v>5</v>
+      </c>
+      <c r="K12">
+        <v>74</v>
+      </c>
+      <c r="L12">
+        <v>15</v>
+      </c>
+      <c r="M12">
         <v>8</v>
       </c>
-      <c r="J12">
-        <v>12</v>
-      </c>
-      <c r="K12">
-        <v>116</v>
-      </c>
-      <c r="L12">
-        <v>23</v>
-      </c>
-      <c r="M12">
-        <v>20</v>
-      </c>
       <c r="N12">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="O12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P12">
         <v>2022</v>
       </c>
       <c r="Q12">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="R12">
         <v>4</v>
@@ -1402,52 +1402,52 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>22039</v>
+        <v>22045</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E13">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G13">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="H13">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
         <v>5</v>
       </c>
-      <c r="J13">
-        <v>11</v>
-      </c>
       <c r="K13">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="L13">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="M13">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="N13">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="O13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P13">
         <v>2022</v>
       </c>
       <c r="Q13">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="R13">
         <v>4</v>
@@ -1458,52 +1458,52 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22038</v>
+        <v>22044</v>
       </c>
       <c r="C14" t="s">
         <v>29</v>
       </c>
       <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>16</v>
+      </c>
+      <c r="G14">
+        <v>17</v>
+      </c>
+      <c r="H14">
+        <v>20</v>
+      </c>
+      <c r="I14">
+        <v>3</v>
+      </c>
+      <c r="J14">
         <v>7</v>
       </c>
-      <c r="E14">
-        <v>9</v>
-      </c>
-      <c r="F14">
-        <v>11</v>
-      </c>
-      <c r="G14">
-        <v>12</v>
-      </c>
-      <c r="H14">
-        <v>26</v>
-      </c>
-      <c r="I14">
-        <v>9</v>
-      </c>
-      <c r="J14">
-        <v>12</v>
-      </c>
       <c r="K14">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="L14">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M14">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="N14">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="O14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P14">
         <v>2022</v>
       </c>
       <c r="Q14">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="R14">
         <v>4</v>
@@ -1514,52 +1514,52 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22037</v>
+        <v>22043</v>
       </c>
       <c r="C15" t="s">
         <v>30</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F15">
         <v>17</v>
       </c>
       <c r="G15">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H15">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I15">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J15">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K15">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="L15">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M15">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="N15">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="O15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P15">
         <v>2022</v>
       </c>
       <c r="Q15">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="R15">
         <v>4</v>
@@ -1570,43 +1570,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22036</v>
+        <v>22042</v>
       </c>
       <c r="C16" t="s">
         <v>31</v>
       </c>
       <c r="D16">
+        <v>8</v>
+      </c>
+      <c r="E16">
+        <v>10</v>
+      </c>
+      <c r="F16">
+        <v>11</v>
+      </c>
+      <c r="G16">
+        <v>29</v>
+      </c>
+      <c r="H16">
+        <v>32</v>
+      </c>
+      <c r="I16">
+        <v>2</v>
+      </c>
+      <c r="J16">
+        <v>6</v>
+      </c>
+      <c r="K16">
+        <v>90</v>
+      </c>
+      <c r="L16">
         <v>18</v>
       </c>
-      <c r="E16">
-        <v>19</v>
-      </c>
-      <c r="F16">
-        <v>21</v>
-      </c>
-      <c r="G16">
-        <v>26</v>
-      </c>
-      <c r="H16">
-        <v>34</v>
-      </c>
-      <c r="I16">
-        <v>6</v>
-      </c>
-      <c r="J16">
-        <v>7</v>
-      </c>
-      <c r="K16">
-        <v>118</v>
-      </c>
-      <c r="L16">
-        <v>24</v>
-      </c>
       <c r="M16">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="N16">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="O16">
         <v>3</v>
@@ -1615,7 +1615,7 @@
         <v>2022</v>
       </c>
       <c r="Q16">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="R16">
         <v>4</v>
@@ -1626,52 +1626,52 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22035</v>
+        <v>22041</v>
       </c>
       <c r="C17" t="s">
         <v>32</v>
       </c>
       <c r="D17">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E17">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F17">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="G17">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H17">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I17">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J17">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="K17">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="L17">
+        <v>21</v>
+      </c>
+      <c r="M17">
         <v>17</v>
       </c>
-      <c r="M17">
-        <v>13</v>
-      </c>
       <c r="N17">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P17">
         <v>2022</v>
       </c>
       <c r="Q17">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="R17">
         <v>4</v>
@@ -1682,55 +1682,55 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>22034</v>
+        <v>22040</v>
       </c>
       <c r="C18" t="s">
         <v>33</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E18">
+        <v>19</v>
+      </c>
+      <c r="F18">
+        <v>25</v>
+      </c>
+      <c r="G18">
+        <v>29</v>
+      </c>
+      <c r="H18">
+        <v>33</v>
+      </c>
+      <c r="I18">
+        <v>8</v>
+      </c>
+      <c r="J18">
+        <v>12</v>
+      </c>
+      <c r="K18">
+        <v>116</v>
+      </c>
+      <c r="L18">
+        <v>23</v>
+      </c>
+      <c r="M18">
+        <v>20</v>
+      </c>
+      <c r="N18">
         <v>10</v>
       </c>
-      <c r="F18">
-        <v>24</v>
-      </c>
-      <c r="G18">
-        <v>27</v>
-      </c>
-      <c r="H18">
-        <v>28</v>
-      </c>
-      <c r="I18">
-        <v>6</v>
-      </c>
-      <c r="J18">
-        <v>7</v>
-      </c>
-      <c r="K18">
-        <v>91</v>
-      </c>
-      <c r="L18">
-        <v>18</v>
-      </c>
-      <c r="M18">
-        <v>13</v>
-      </c>
-      <c r="N18">
-        <v>7</v>
-      </c>
       <c r="O18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P18">
         <v>2022</v>
       </c>
       <c r="Q18">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="R18">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -1738,43 +1738,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>22033</v>
+        <v>22039</v>
       </c>
       <c r="C19" t="s">
         <v>34</v>
       </c>
       <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
         <v>8</v>
       </c>
-      <c r="E19">
+      <c r="F19">
+        <v>11</v>
+      </c>
+      <c r="G19">
+        <v>22</v>
+      </c>
+      <c r="H19">
+        <v>31</v>
+      </c>
+      <c r="I19">
+        <v>5</v>
+      </c>
+      <c r="J19">
+        <v>11</v>
+      </c>
+      <c r="K19">
+        <v>73</v>
+      </c>
+      <c r="L19">
         <v>15</v>
       </c>
-      <c r="F19">
+      <c r="M19">
         <v>16</v>
       </c>
-      <c r="G19">
-        <v>19</v>
-      </c>
-      <c r="H19">
-        <v>33</v>
-      </c>
-      <c r="I19">
-        <v>3</v>
-      </c>
-      <c r="J19">
-        <v>4</v>
-      </c>
-      <c r="K19">
-        <v>91</v>
-      </c>
-      <c r="L19">
-        <v>18</v>
-      </c>
-      <c r="M19">
-        <v>7</v>
-      </c>
       <c r="N19">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="O19">
         <v>2</v>
@@ -1783,10 +1783,10 @@
         <v>2022</v>
       </c>
       <c r="Q19">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="R19">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -1794,43 +1794,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22032</v>
+        <v>22038</v>
       </c>
       <c r="C20" t="s">
         <v>35</v>
       </c>
       <c r="D20">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E20">
         <v>9</v>
       </c>
       <c r="F20">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G20">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="H20">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J20">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="K20">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="L20">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M20">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="N20">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="O20">
         <v>2</v>
@@ -1839,10 +1839,10 @@
         <v>2022</v>
       </c>
       <c r="Q20">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="R20">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -1850,19 +1850,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22031</v>
+        <v>22037</v>
       </c>
       <c r="C21" t="s">
         <v>36</v>
       </c>
       <c r="D21">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E21">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F21">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G21">
         <v>20</v>
@@ -1871,34 +1871,34 @@
         <v>28</v>
       </c>
       <c r="I21">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J21">
+        <v>10</v>
+      </c>
+      <c r="K21">
+        <v>75</v>
+      </c>
+      <c r="L21">
+        <v>15</v>
+      </c>
+      <c r="M21">
+        <v>16</v>
+      </c>
+      <c r="N21">
         <v>8</v>
       </c>
-      <c r="K21">
-        <v>85</v>
-      </c>
-      <c r="L21">
-        <v>17</v>
-      </c>
-      <c r="M21">
-        <v>12</v>
-      </c>
-      <c r="N21">
-        <v>6</v>
-      </c>
       <c r="O21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P21">
         <v>2022</v>
       </c>
       <c r="Q21">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="R21">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -1906,43 +1906,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>22030</v>
+        <v>22036</v>
       </c>
       <c r="C22" t="s">
         <v>37</v>
       </c>
       <c r="D22">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E22">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F22">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G22">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H22">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J22">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K22">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="L22">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="M22">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="N22">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O22">
         <v>3</v>
@@ -1951,10 +1951,10 @@
         <v>2022</v>
       </c>
       <c r="Q22">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="R22">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -1962,55 +1962,55 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>22029</v>
+        <v>22035</v>
       </c>
       <c r="C23" t="s">
         <v>38</v>
       </c>
       <c r="D23">
+        <v>9</v>
+      </c>
+      <c r="E23">
+        <v>11</v>
+      </c>
+      <c r="F23">
+        <v>13</v>
+      </c>
+      <c r="G23">
+        <v>23</v>
+      </c>
+      <c r="H23">
+        <v>31</v>
+      </c>
+      <c r="I23">
+        <v>5</v>
+      </c>
+      <c r="J23">
+        <v>8</v>
+      </c>
+      <c r="K23">
+        <v>87</v>
+      </c>
+      <c r="L23">
+        <v>17</v>
+      </c>
+      <c r="M23">
+        <v>13</v>
+      </c>
+      <c r="N23">
         <v>7</v>
       </c>
-      <c r="E23">
-        <v>8</v>
-      </c>
-      <c r="F23">
-        <v>10</v>
-      </c>
-      <c r="G23">
-        <v>14</v>
-      </c>
-      <c r="H23">
-        <v>17</v>
-      </c>
-      <c r="I23">
-        <v>10</v>
-      </c>
-      <c r="J23">
-        <v>12</v>
-      </c>
-      <c r="K23">
-        <v>56</v>
-      </c>
-      <c r="L23">
-        <v>11</v>
-      </c>
-      <c r="M23">
-        <v>22</v>
-      </c>
-      <c r="N23">
-        <v>11</v>
-      </c>
       <c r="O23">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P23">
         <v>2022</v>
       </c>
       <c r="Q23">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="R23">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -2018,52 +2018,52 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22028</v>
+        <v>22034</v>
       </c>
       <c r="C24" t="s">
         <v>39</v>
       </c>
       <c r="D24">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E24">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F24">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="G24">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="H24">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J24">
         <v>7</v>
       </c>
       <c r="K24">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="L24">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M24">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="N24">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="O24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P24">
         <v>2022</v>
       </c>
       <c r="Q24">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="R24">
         <v>3</v>
@@ -2074,43 +2074,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22027</v>
+        <v>22033</v>
       </c>
       <c r="C25" t="s">
         <v>40</v>
       </c>
       <c r="D25">
+        <v>8</v>
+      </c>
+      <c r="E25">
+        <v>15</v>
+      </c>
+      <c r="F25">
+        <v>16</v>
+      </c>
+      <c r="G25">
+        <v>19</v>
+      </c>
+      <c r="H25">
+        <v>33</v>
+      </c>
+      <c r="I25">
         <v>3</v>
       </c>
-      <c r="E25">
-        <v>6</v>
-      </c>
-      <c r="F25">
-        <v>11</v>
-      </c>
-      <c r="G25">
-        <v>31</v>
-      </c>
-      <c r="H25">
-        <v>32</v>
-      </c>
-      <c r="I25">
-        <v>5</v>
-      </c>
       <c r="J25">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="K25">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="L25">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M25">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="N25">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="O25">
         <v>2</v>
@@ -2119,7 +2119,7 @@
         <v>2022</v>
       </c>
       <c r="Q25">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="R25">
         <v>3</v>
@@ -2130,43 +2130,43 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>22026</v>
+        <v>22032</v>
       </c>
       <c r="C26" t="s">
         <v>41</v>
       </c>
       <c r="D26">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E26">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F26">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G26">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="H26">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I26">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J26">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K26">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L26">
         <v>19</v>
       </c>
       <c r="M26">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="N26">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="O26">
         <v>2</v>
@@ -2175,7 +2175,7 @@
         <v>2022</v>
       </c>
       <c r="Q26">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="R26">
         <v>3</v>
@@ -2186,52 +2186,52 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>22025</v>
+        <v>22031</v>
       </c>
       <c r="C27" t="s">
         <v>42</v>
       </c>
       <c r="D27">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E27">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F27">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G27">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H27">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J27">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K27">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L27">
         <v>17</v>
       </c>
       <c r="M27">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="N27">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P27">
         <v>2022</v>
       </c>
       <c r="Q27">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="R27">
         <v>3</v>
@@ -2242,52 +2242,52 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>22024</v>
+        <v>22030</v>
       </c>
       <c r="C28" t="s">
         <v>43</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E28">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="F28">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G28">
+        <v>21</v>
+      </c>
+      <c r="H28">
         <v>30</v>
       </c>
-      <c r="H28">
-        <v>35</v>
-      </c>
       <c r="I28">
         <v>1</v>
       </c>
       <c r="J28">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="K28">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="L28">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M28">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="N28">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P28">
         <v>2022</v>
       </c>
       <c r="Q28">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="R28">
         <v>3</v>
@@ -2298,43 +2298,43 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>22023</v>
+        <v>22029</v>
       </c>
       <c r="C29" t="s">
         <v>44</v>
       </c>
       <c r="D29">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E29">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F29">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G29">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H29">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="I29">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J29">
         <v>12</v>
       </c>
       <c r="K29">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="L29">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="M29">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N29">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O29">
         <v>3</v>
@@ -2343,7 +2343,7 @@
         <v>2022</v>
       </c>
       <c r="Q29">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="R29">
         <v>3</v>
@@ -2354,43 +2354,43 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>22022</v>
+        <v>22028</v>
       </c>
       <c r="C30" t="s">
         <v>45</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E30">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F30">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G30">
         <v>17</v>
       </c>
       <c r="H30">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="I30">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J30">
         <v>7</v>
       </c>
       <c r="K30">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="L30">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M30">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="N30">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="O30">
         <v>2</v>
@@ -2399,7 +2399,7 @@
         <v>2022</v>
       </c>
       <c r="Q30">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="R30">
         <v>3</v>
@@ -2410,43 +2410,43 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>22021</v>
+        <v>22027</v>
       </c>
       <c r="C31" t="s">
         <v>46</v>
       </c>
       <c r="D31">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E31">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="F31">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G31">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="H31">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I31">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J31">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K31">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="L31">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M31">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N31">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O31">
         <v>2</v>
@@ -2455,10 +2455,10 @@
         <v>2022</v>
       </c>
       <c r="Q31">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="R31">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -2466,40 +2466,40 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>22020</v>
+        <v>22026</v>
       </c>
       <c r="C32" t="s">
         <v>47</v>
       </c>
       <c r="D32">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E32">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F32">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="G32">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="H32">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="I32">
         <v>8</v>
       </c>
       <c r="J32">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K32">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="L32">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="M32">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N32">
         <v>9</v>
@@ -2511,10 +2511,10 @@
         <v>2022</v>
       </c>
       <c r="Q32">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="R32">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -2522,55 +2522,55 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>22019</v>
+        <v>22025</v>
       </c>
       <c r="C33" t="s">
         <v>48</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E33">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F33">
+        <v>22</v>
+      </c>
+      <c r="G33">
+        <v>24</v>
+      </c>
+      <c r="H33">
+        <v>29</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33">
         <v>7</v>
       </c>
-      <c r="G33">
+      <c r="K33">
+        <v>86</v>
+      </c>
+      <c r="L33">
         <v>17</v>
       </c>
-      <c r="H33">
-        <v>21</v>
-      </c>
-      <c r="I33">
-        <v>1</v>
-      </c>
-      <c r="J33">
-        <v>2</v>
-      </c>
-      <c r="K33">
-        <v>50</v>
-      </c>
-      <c r="L33">
-        <v>10</v>
-      </c>
       <c r="M33">
+        <v>8</v>
+      </c>
+      <c r="N33">
+        <v>4</v>
+      </c>
+      <c r="O33">
         <v>3</v>
-      </c>
-      <c r="N33">
-        <v>2</v>
-      </c>
-      <c r="O33">
-        <v>1</v>
       </c>
       <c r="P33">
         <v>2022</v>
       </c>
       <c r="Q33">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="R33">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -2578,43 +2578,43 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>22018</v>
+        <v>22024</v>
       </c>
       <c r="C34" t="s">
         <v>49</v>
       </c>
       <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>11</v>
+      </c>
+      <c r="G34">
+        <v>30</v>
+      </c>
+      <c r="H34">
+        <v>35</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>12</v>
+      </c>
+      <c r="K34">
+        <v>79</v>
+      </c>
+      <c r="L34">
         <v>16</v>
       </c>
-      <c r="E34">
-        <v>21</v>
-      </c>
-      <c r="F34">
-        <v>29</v>
-      </c>
-      <c r="G34">
-        <v>31</v>
-      </c>
-      <c r="H34">
-        <v>34</v>
-      </c>
-      <c r="I34">
-        <v>6</v>
-      </c>
-      <c r="J34">
-        <v>9</v>
-      </c>
-      <c r="K34">
-        <v>131</v>
-      </c>
-      <c r="L34">
-        <v>26</v>
-      </c>
       <c r="M34">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N34">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O34">
         <v>2</v>
@@ -2623,10 +2623,10 @@
         <v>2022</v>
       </c>
       <c r="Q34">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="R34">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -2634,43 +2634,43 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>22017</v>
+        <v>22023</v>
       </c>
       <c r="C35" t="s">
         <v>50</v>
       </c>
       <c r="D35">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E35">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="F35">
         <v>18</v>
       </c>
       <c r="G35">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H35">
         <v>25</v>
       </c>
       <c r="I35">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="J35">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K35">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="L35">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="M35">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="N35">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="O35">
         <v>3</v>
@@ -2679,10 +2679,10 @@
         <v>2022</v>
       </c>
       <c r="Q35">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="R35">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -2690,7 +2690,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>22016</v>
+        <v>22022</v>
       </c>
       <c r="C36" t="s">
         <v>51</v>
@@ -2699,34 +2699,34 @@
         <v>1</v>
       </c>
       <c r="E36">
+        <v>5</v>
+      </c>
+      <c r="F36">
+        <v>14</v>
+      </c>
+      <c r="G36">
+        <v>17</v>
+      </c>
+      <c r="H36">
+        <v>28</v>
+      </c>
+      <c r="I36">
+        <v>6</v>
+      </c>
+      <c r="J36">
         <v>7</v>
       </c>
-      <c r="F36">
-        <v>17</v>
-      </c>
-      <c r="G36">
-        <v>26</v>
-      </c>
-      <c r="H36">
-        <v>32</v>
-      </c>
-      <c r="I36">
-        <v>1</v>
-      </c>
-      <c r="J36">
-        <v>9</v>
-      </c>
       <c r="K36">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="L36">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M36">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="N36">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O36">
         <v>2</v>
@@ -2735,10 +2735,10 @@
         <v>2022</v>
       </c>
       <c r="Q36">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="R36">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -2746,52 +2746,52 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>22015</v>
+        <v>22021</v>
       </c>
       <c r="C37" t="s">
         <v>52</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="F37">
+        <v>16</v>
+      </c>
+      <c r="G37">
+        <v>18</v>
+      </c>
+      <c r="H37">
+        <v>35</v>
+      </c>
+      <c r="I37">
+        <v>6</v>
+      </c>
+      <c r="J37">
+        <v>9</v>
+      </c>
+      <c r="K37">
+        <v>95</v>
+      </c>
+      <c r="L37">
+        <v>19</v>
+      </c>
+      <c r="M37">
+        <v>15</v>
+      </c>
+      <c r="N37">
         <v>8</v>
       </c>
-      <c r="G37">
-        <v>12</v>
-      </c>
-      <c r="H37">
-        <v>30</v>
-      </c>
-      <c r="I37">
-        <v>5</v>
-      </c>
-      <c r="J37">
-        <v>12</v>
-      </c>
-      <c r="K37">
-        <v>53</v>
-      </c>
-      <c r="L37">
-        <v>11</v>
-      </c>
-      <c r="M37">
-        <v>17</v>
-      </c>
-      <c r="N37">
-        <v>9</v>
-      </c>
       <c r="O37">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P37">
         <v>2022</v>
       </c>
       <c r="Q37">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="R37">
         <v>2</v>
@@ -2802,52 +2802,52 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>22014</v>
+        <v>22020</v>
       </c>
       <c r="C38" t="s">
         <v>53</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E38">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="F38">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G38">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="H38">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I38">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J38">
         <v>9</v>
       </c>
       <c r="K38">
-        <v>65</v>
+        <v>129</v>
       </c>
       <c r="L38">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M38">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="N38">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="O38">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P38">
         <v>2022</v>
       </c>
       <c r="Q38">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="R38">
         <v>2</v>
@@ -2858,52 +2858,52 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>22013</v>
+        <v>22019</v>
       </c>
       <c r="C39" t="s">
         <v>54</v>
       </c>
       <c r="D39">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E39">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F39">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="G39">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H39">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I39">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J39">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K39">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="L39">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="M39">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="N39">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P39">
         <v>2022</v>
       </c>
       <c r="Q39">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="R39">
         <v>2</v>
@@ -2914,43 +2914,43 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>22012</v>
+        <v>22018</v>
       </c>
       <c r="C40" t="s">
         <v>55</v>
       </c>
       <c r="D40">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E40">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="F40">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="G40">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H40">
         <v>34</v>
       </c>
       <c r="I40">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J40">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K40">
-        <v>85</v>
+        <v>131</v>
       </c>
       <c r="L40">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="M40">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N40">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O40">
         <v>2</v>
@@ -2959,10 +2959,10 @@
         <v>2022</v>
       </c>
       <c r="Q40">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R40">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -2970,55 +2970,55 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>22011</v>
+        <v>22017</v>
       </c>
       <c r="C41" t="s">
         <v>56</v>
       </c>
       <c r="D41">
+        <v>10</v>
+      </c>
+      <c r="E41">
+        <v>14</v>
+      </c>
+      <c r="F41">
+        <v>18</v>
+      </c>
+      <c r="G41">
+        <v>23</v>
+      </c>
+      <c r="H41">
+        <v>25</v>
+      </c>
+      <c r="I41">
+        <v>7</v>
+      </c>
+      <c r="J41">
+        <v>11</v>
+      </c>
+      <c r="K41">
+        <v>90</v>
+      </c>
+      <c r="L41">
+        <v>18</v>
+      </c>
+      <c r="M41">
+        <v>18</v>
+      </c>
+      <c r="N41">
+        <v>9</v>
+      </c>
+      <c r="O41">
         <v>3</v>
-      </c>
-      <c r="E41">
-        <v>5</v>
-      </c>
-      <c r="F41">
-        <v>17</v>
-      </c>
-      <c r="G41">
-        <v>24</v>
-      </c>
-      <c r="H41">
-        <v>32</v>
-      </c>
-      <c r="I41">
-        <v>5</v>
-      </c>
-      <c r="J41">
-        <v>12</v>
-      </c>
-      <c r="K41">
-        <v>81</v>
-      </c>
-      <c r="L41">
-        <v>16</v>
-      </c>
-      <c r="M41">
-        <v>17</v>
-      </c>
-      <c r="N41">
-        <v>9</v>
-      </c>
-      <c r="O41">
-        <v>2</v>
       </c>
       <c r="P41">
         <v>2022</v>
       </c>
       <c r="Q41">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="R41">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -3026,55 +3026,55 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>22010</v>
+        <v>22016</v>
       </c>
       <c r="C42" t="s">
         <v>57</v>
       </c>
       <c r="D42">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E42">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="F42">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="G42">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="H42">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J42">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K42">
-        <v>114</v>
+        <v>83</v>
       </c>
       <c r="L42">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M42">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="N42">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P42">
         <v>2022</v>
       </c>
       <c r="Q42">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="R42">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -3082,37 +3082,37 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>22009</v>
+        <v>22015</v>
       </c>
       <c r="C43" t="s">
         <v>58</v>
       </c>
       <c r="D43">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E43">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="F43">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="G43">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="H43">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I43">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J43">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K43">
-        <v>109</v>
+        <v>53</v>
       </c>
       <c r="L43">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="M43">
         <v>17</v>
@@ -3121,16 +3121,16 @@
         <v>9</v>
       </c>
       <c r="O43">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P43">
         <v>2022</v>
       </c>
       <c r="Q43">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="R43">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -3138,7 +3138,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>22008</v>
+        <v>22014</v>
       </c>
       <c r="C44" t="s">
         <v>59</v>
@@ -3147,46 +3147,46 @@
         <v>1</v>
       </c>
       <c r="E44">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F44">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G44">
         <v>18</v>
       </c>
       <c r="H44">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I44">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J44">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K44">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="L44">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M44">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="N44">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O44">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P44">
         <v>2022</v>
       </c>
       <c r="Q44">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="R44">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:18">
@@ -3194,55 +3194,55 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>22007</v>
+        <v>22013</v>
       </c>
       <c r="C45" t="s">
         <v>60</v>
       </c>
       <c r="D45">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E45">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="F45">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="G45">
         <v>25</v>
       </c>
       <c r="H45">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I45">
+        <v>5</v>
+      </c>
+      <c r="J45">
+        <v>6</v>
+      </c>
+      <c r="K45">
+        <v>86</v>
+      </c>
+      <c r="L45">
+        <v>17</v>
+      </c>
+      <c r="M45">
+        <v>11</v>
+      </c>
+      <c r="N45">
+        <v>6</v>
+      </c>
+      <c r="O45">
         <v>3</v>
-      </c>
-      <c r="J45">
-        <v>11</v>
-      </c>
-      <c r="K45">
-        <v>110</v>
-      </c>
-      <c r="L45">
-        <v>22</v>
-      </c>
-      <c r="M45">
-        <v>14</v>
-      </c>
-      <c r="N45">
-        <v>7</v>
-      </c>
-      <c r="O45">
-        <v>1</v>
       </c>
       <c r="P45">
         <v>2022</v>
       </c>
       <c r="Q45">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="R45">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -3250,37 +3250,37 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>22006</v>
+        <v>22012</v>
       </c>
       <c r="C46" t="s">
         <v>61</v>
       </c>
       <c r="D46">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E46">
         <v>5</v>
       </c>
       <c r="F46">
+        <v>10</v>
+      </c>
+      <c r="G46">
+        <v>33</v>
+      </c>
+      <c r="H46">
+        <v>34</v>
+      </c>
+      <c r="I46">
         <v>7</v>
       </c>
-      <c r="G46">
+      <c r="J46">
+        <v>10</v>
+      </c>
+      <c r="K46">
+        <v>85</v>
+      </c>
+      <c r="L46">
         <v>17</v>
-      </c>
-      <c r="H46">
-        <v>20</v>
-      </c>
-      <c r="I46">
-        <v>5</v>
-      </c>
-      <c r="J46">
-        <v>12</v>
-      </c>
-      <c r="K46">
-        <v>50</v>
-      </c>
-      <c r="L46">
-        <v>10</v>
       </c>
       <c r="M46">
         <v>17</v>
@@ -3289,13 +3289,13 @@
         <v>9</v>
       </c>
       <c r="O46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P46">
         <v>2022</v>
       </c>
       <c r="Q46">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="R46">
         <v>1</v>
@@ -3306,43 +3306,43 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>22005</v>
+        <v>22011</v>
       </c>
       <c r="C47" t="s">
         <v>62</v>
       </c>
       <c r="D47">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E47">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F47">
         <v>17</v>
       </c>
       <c r="G47">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H47">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I47">
         <v>5</v>
       </c>
       <c r="J47">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K47">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="L47">
+        <v>16</v>
+      </c>
+      <c r="M47">
         <v>17</v>
       </c>
-      <c r="M47">
-        <v>14</v>
-      </c>
       <c r="N47">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O47">
         <v>2</v>
@@ -3351,7 +3351,7 @@
         <v>2022</v>
       </c>
       <c r="Q47">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="R47">
         <v>1</v>
@@ -3362,52 +3362,52 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>22004</v>
+        <v>22010</v>
       </c>
       <c r="C48" t="s">
         <v>63</v>
       </c>
       <c r="D48">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E48">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F48">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G48">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H48">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I48">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J48">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="K48">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="L48">
         <v>23</v>
       </c>
       <c r="M48">
+        <v>13</v>
+      </c>
+      <c r="N48">
         <v>7</v>
       </c>
-      <c r="N48">
-        <v>4</v>
-      </c>
       <c r="O48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P48">
         <v>2022</v>
       </c>
       <c r="Q48">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="R48">
         <v>1</v>
@@ -3418,52 +3418,52 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>22003</v>
+        <v>22009</v>
       </c>
       <c r="C49" t="s">
         <v>64</v>
       </c>
       <c r="D49">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="E49">
+        <v>14</v>
+      </c>
+      <c r="F49">
         <v>18</v>
       </c>
-      <c r="F49">
-        <v>24</v>
-      </c>
       <c r="G49">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H49">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I49">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J49">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K49">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="L49">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M49">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N49">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O49">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P49">
         <v>2022</v>
       </c>
       <c r="Q49">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="R49">
         <v>1</v>
@@ -3474,43 +3474,43 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>22002</v>
+        <v>22008</v>
       </c>
       <c r="C50" t="s">
         <v>65</v>
       </c>
       <c r="D50">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E50">
+        <v>2</v>
+      </c>
+      <c r="F50">
+        <v>13</v>
+      </c>
+      <c r="G50">
+        <v>18</v>
+      </c>
+      <c r="H50">
+        <v>34</v>
+      </c>
+      <c r="I50">
         <v>6</v>
       </c>
-      <c r="F50">
+      <c r="J50">
         <v>7</v>
       </c>
-      <c r="G50">
-        <v>9</v>
-      </c>
-      <c r="H50">
-        <v>24</v>
-      </c>
-      <c r="I50">
-        <v>4</v>
-      </c>
-      <c r="J50">
-        <v>12</v>
-      </c>
       <c r="K50">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="L50">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="M50">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="N50">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O50">
         <v>3</v>
@@ -3519,7 +3519,7 @@
         <v>2022</v>
       </c>
       <c r="Q50">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="R50">
         <v>1</v>
@@ -3530,25 +3530,25 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>22001</v>
+        <v>22007</v>
       </c>
       <c r="C51" t="s">
         <v>66</v>
       </c>
       <c r="D51">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E51">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F51">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G51">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H51">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="I51">
         <v>3</v>
@@ -3557,10 +3557,10 @@
         <v>11</v>
       </c>
       <c r="K51">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="L51">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="M51">
         <v>14</v>
@@ -3569,13 +3569,13 @@
         <v>7</v>
       </c>
       <c r="O51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P51">
         <v>2022</v>
       </c>
       <c r="Q51">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="R51">
         <v>1</v>
@@ -3586,37 +3586,37 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>21150</v>
+        <v>22006</v>
       </c>
       <c r="C52" t="s">
         <v>67</v>
       </c>
       <c r="D52">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E52">
+        <v>5</v>
+      </c>
+      <c r="F52">
+        <v>7</v>
+      </c>
+      <c r="G52">
+        <v>17</v>
+      </c>
+      <c r="H52">
+        <v>20</v>
+      </c>
+      <c r="I52">
+        <v>5</v>
+      </c>
+      <c r="J52">
+        <v>12</v>
+      </c>
+      <c r="K52">
+        <v>50</v>
+      </c>
+      <c r="L52">
         <v>10</v>
-      </c>
-      <c r="F52">
-        <v>11</v>
-      </c>
-      <c r="G52">
-        <v>23</v>
-      </c>
-      <c r="H52">
-        <v>26</v>
-      </c>
-      <c r="I52">
-        <v>7</v>
-      </c>
-      <c r="J52">
-        <v>10</v>
-      </c>
-      <c r="K52">
-        <v>74</v>
-      </c>
-      <c r="L52">
-        <v>15</v>
       </c>
       <c r="M52">
         <v>17</v>
@@ -3625,16 +3625,16 @@
         <v>9</v>
       </c>
       <c r="O52">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P52">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="Q52">
-        <v>150</v>
+        <v>6</v>
       </c>
       <c r="R52">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -3642,55 +3642,55 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>21149</v>
+        <v>22005</v>
       </c>
       <c r="C53" t="s">
         <v>68</v>
       </c>
       <c r="D53">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="E53">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F53">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="G53">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="H53">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I53">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J53">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K53">
-        <v>139</v>
+        <v>85</v>
       </c>
       <c r="L53">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="M53">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="N53">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="O53">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P53">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="Q53">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="R53">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:18">
@@ -3698,55 +3698,55 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>21148</v>
+        <v>22004</v>
       </c>
       <c r="C54" t="s">
         <v>69</v>
       </c>
       <c r="D54">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E54">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F54">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="G54">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="H54">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I54">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J54">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K54">
-        <v>62</v>
+        <v>117</v>
       </c>
       <c r="L54">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="M54">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="N54">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O54">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P54">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="Q54">
-        <v>148</v>
+        <v>4</v>
       </c>
       <c r="R54">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:18">
@@ -3754,55 +3754,55 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>21147</v>
+        <v>22003</v>
       </c>
       <c r="C55" t="s">
         <v>70</v>
       </c>
       <c r="D55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E55">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F55">
+        <v>24</v>
+      </c>
+      <c r="G55">
+        <v>25</v>
+      </c>
+      <c r="H55">
+        <v>34</v>
+      </c>
+      <c r="I55">
         <v>8</v>
       </c>
-      <c r="G55">
+      <c r="J55">
         <v>12</v>
       </c>
-      <c r="H55">
-        <v>26</v>
-      </c>
-      <c r="I55">
-        <v>1</v>
-      </c>
-      <c r="J55">
-        <v>7</v>
-      </c>
       <c r="K55">
-        <v>49</v>
+        <v>103</v>
       </c>
       <c r="L55">
+        <v>21</v>
+      </c>
+      <c r="M55">
+        <v>20</v>
+      </c>
+      <c r="N55">
         <v>10</v>
       </c>
-      <c r="M55">
-        <v>8</v>
-      </c>
-      <c r="N55">
-        <v>4</v>
-      </c>
       <c r="O55">
         <v>4</v>
       </c>
       <c r="P55">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="Q55">
-        <v>147</v>
+        <v>3</v>
       </c>
       <c r="R55">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:18">
@@ -3810,55 +3810,55 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>21146</v>
+        <v>22002</v>
       </c>
       <c r="C56" t="s">
         <v>71</v>
       </c>
       <c r="D56">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E56">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F56">
+        <v>7</v>
+      </c>
+      <c r="G56">
+        <v>9</v>
+      </c>
+      <c r="H56">
+        <v>24</v>
+      </c>
+      <c r="I56">
+        <v>4</v>
+      </c>
+      <c r="J56">
+        <v>12</v>
+      </c>
+      <c r="K56">
+        <v>50</v>
+      </c>
+      <c r="L56">
+        <v>10</v>
+      </c>
+      <c r="M56">
+        <v>16</v>
+      </c>
+      <c r="N56">
         <v>8</v>
-      </c>
-      <c r="G56">
-        <v>18</v>
-      </c>
-      <c r="H56">
-        <v>20</v>
-      </c>
-      <c r="I56">
-        <v>9</v>
-      </c>
-      <c r="J56">
-        <v>11</v>
-      </c>
-      <c r="K56">
-        <v>54</v>
-      </c>
-      <c r="L56">
-        <v>11</v>
-      </c>
-      <c r="M56">
-        <v>20</v>
-      </c>
-      <c r="N56">
-        <v>10</v>
       </c>
       <c r="O56">
         <v>3</v>
       </c>
       <c r="P56">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="Q56">
-        <v>146</v>
+        <v>2</v>
       </c>
       <c r="R56">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:18">
@@ -3866,55 +3866,55 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>21145</v>
+        <v>22001</v>
       </c>
       <c r="C57" t="s">
         <v>72</v>
       </c>
       <c r="D57">
+        <v>8</v>
+      </c>
+      <c r="E57">
+        <v>11</v>
+      </c>
+      <c r="F57">
+        <v>19</v>
+      </c>
+      <c r="G57">
+        <v>22</v>
+      </c>
+      <c r="H57">
+        <v>29</v>
+      </c>
+      <c r="I57">
         <v>3</v>
       </c>
-      <c r="E57">
-        <v>8</v>
-      </c>
-      <c r="F57">
-        <v>25</v>
-      </c>
-      <c r="G57">
-        <v>29</v>
-      </c>
-      <c r="H57">
-        <v>30</v>
-      </c>
-      <c r="I57">
-        <v>1</v>
-      </c>
       <c r="J57">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="K57">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="L57">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M57">
+        <v>14</v>
+      </c>
+      <c r="N57">
         <v>7</v>
       </c>
-      <c r="N57">
-        <v>4</v>
-      </c>
       <c r="O57">
         <v>2</v>
       </c>
       <c r="P57">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="Q57">
-        <v>145</v>
+        <v>1</v>
       </c>
       <c r="R57">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:18">
@@ -3922,43 +3922,43 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>21144</v>
+        <v>21150</v>
       </c>
       <c r="C58" t="s">
         <v>73</v>
       </c>
       <c r="D58">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E58">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F58">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G58">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H58">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="I58">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J58">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K58">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="L58">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="M58">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="N58">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="O58">
         <v>3</v>
@@ -3967,7 +3967,7 @@
         <v>2021</v>
       </c>
       <c r="Q58">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="R58">
         <v>12</v>
@@ -3978,52 +3978,52 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>21143</v>
+        <v>21149</v>
       </c>
       <c r="C59" t="s">
         <v>74</v>
       </c>
       <c r="D59">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E59">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="F59">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G59">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H59">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I59">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="J59">
         <v>11</v>
       </c>
       <c r="K59">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="L59">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="M59">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="N59">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="O59">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P59">
         <v>2021</v>
       </c>
       <c r="Q59">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="R59">
         <v>12</v>
@@ -4034,52 +4034,52 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>21142</v>
+        <v>21148</v>
       </c>
       <c r="C60" t="s">
         <v>75</v>
       </c>
       <c r="D60">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E60">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F60">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G60">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H60">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I60">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J60">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K60">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="L60">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="M60">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N60">
         <v>6</v>
       </c>
       <c r="O60">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P60">
         <v>2021</v>
       </c>
       <c r="Q60">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="R60">
         <v>12</v>
@@ -4090,43 +4090,43 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>21141</v>
+        <v>21147</v>
       </c>
       <c r="C61" t="s">
         <v>76</v>
       </c>
       <c r="D61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E61">
+        <v>2</v>
+      </c>
+      <c r="F61">
         <v>8</v>
       </c>
-      <c r="F61">
-        <v>16</v>
-      </c>
       <c r="G61">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="H61">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="I61">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J61">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="K61">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="L61">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="M61">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="N61">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="O61">
         <v>4</v>
@@ -4135,7 +4135,7 @@
         <v>2021</v>
       </c>
       <c r="Q61">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="R61">
         <v>12</v>
@@ -4146,52 +4146,52 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>21140</v>
+        <v>21146</v>
       </c>
       <c r="C62" t="s">
         <v>77</v>
       </c>
       <c r="D62">
+        <v>3</v>
+      </c>
+      <c r="E62">
         <v>5</v>
       </c>
-      <c r="E62">
-        <v>24</v>
-      </c>
       <c r="F62">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="G62">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="H62">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="I62">
         <v>9</v>
       </c>
       <c r="J62">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K62">
-        <v>123</v>
+        <v>54</v>
       </c>
       <c r="L62">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="M62">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N62">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O62">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P62">
         <v>2021</v>
       </c>
       <c r="Q62">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="R62">
         <v>12</v>
@@ -4202,43 +4202,43 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>21139</v>
+        <v>21145</v>
       </c>
       <c r="C63" t="s">
         <v>78</v>
       </c>
       <c r="D63">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E63">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F63">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G63">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="H63">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I63">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J63">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K63">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L63">
         <v>19</v>
       </c>
       <c r="M63">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="N63">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="O63">
         <v>2</v>
@@ -4247,7 +4247,7 @@
         <v>2021</v>
       </c>
       <c r="Q63">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="R63">
         <v>12</v>
@@ -4258,52 +4258,52 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>21138</v>
+        <v>21144</v>
       </c>
       <c r="C64" t="s">
         <v>79</v>
       </c>
       <c r="D64">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E64">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F64">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="G64">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H64">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I64">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J64">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K64">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="L64">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="M64">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="N64">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O64">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P64">
         <v>2021</v>
       </c>
       <c r="Q64">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="R64">
         <v>12</v>
@@ -4314,55 +4314,55 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>21137</v>
+        <v>21143</v>
       </c>
       <c r="C65" t="s">
         <v>80</v>
       </c>
       <c r="D65">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E65">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="F65">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G65">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="H65">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="I65">
         <v>4</v>
       </c>
       <c r="J65">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K65">
-        <v>55</v>
+        <v>108</v>
       </c>
       <c r="L65">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="M65">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="N65">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="O65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P65">
         <v>2021</v>
       </c>
       <c r="Q65">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="R65">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -4370,55 +4370,55 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>21136</v>
+        <v>21142</v>
       </c>
       <c r="C66" t="s">
         <v>81</v>
       </c>
       <c r="D66">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E66">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F66">
+        <v>17</v>
+      </c>
+      <c r="G66">
         <v>19</v>
       </c>
-      <c r="G66">
-        <v>27</v>
-      </c>
       <c r="H66">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="I66">
         <v>2</v>
       </c>
       <c r="J66">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K66">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="L66">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="M66">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="N66">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O66">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P66">
         <v>2021</v>
       </c>
       <c r="Q66">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="R66">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -4426,55 +4426,55 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>21135</v>
+        <v>21141</v>
       </c>
       <c r="C67" t="s">
         <v>82</v>
       </c>
       <c r="D67">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E67">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F67">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G67">
         <v>29</v>
       </c>
       <c r="H67">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I67">
         <v>5</v>
       </c>
       <c r="J67">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="K67">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L67">
         <v>18</v>
       </c>
       <c r="M67">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="N67">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="O67">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P67">
         <v>2021</v>
       </c>
       <c r="Q67">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="R67">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" spans="1:18">
@@ -4482,55 +4482,55 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>21134</v>
+        <v>21140</v>
       </c>
       <c r="C68" t="s">
         <v>83</v>
       </c>
       <c r="D68">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E68">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="F68">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="G68">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="H68">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="I68">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J68">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="K68">
-        <v>69</v>
+        <v>123</v>
       </c>
       <c r="L68">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="M68">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="N68">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="O68">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P68">
         <v>2021</v>
       </c>
       <c r="Q68">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="R68">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" spans="1:18">
@@ -4538,55 +4538,55 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>21133</v>
+        <v>21139</v>
       </c>
       <c r="C69" t="s">
         <v>84</v>
       </c>
       <c r="D69">
+        <v>5</v>
+      </c>
+      <c r="E69">
+        <v>13</v>
+      </c>
+      <c r="F69">
+        <v>18</v>
+      </c>
+      <c r="G69">
+        <v>23</v>
+      </c>
+      <c r="H69">
+        <v>34</v>
+      </c>
+      <c r="I69">
         <v>8</v>
       </c>
-      <c r="E69">
-        <v>9</v>
-      </c>
-      <c r="F69">
+      <c r="J69">
+        <v>9</v>
+      </c>
+      <c r="K69">
+        <v>93</v>
+      </c>
+      <c r="L69">
+        <v>19</v>
+      </c>
+      <c r="M69">
         <v>17</v>
       </c>
-      <c r="G69">
-        <v>26</v>
-      </c>
-      <c r="H69">
-        <v>28</v>
-      </c>
-      <c r="I69">
-        <v>6</v>
-      </c>
-      <c r="J69">
-        <v>8</v>
-      </c>
-      <c r="K69">
-        <v>88</v>
-      </c>
-      <c r="L69">
-        <v>18</v>
-      </c>
-      <c r="M69">
-        <v>14</v>
-      </c>
       <c r="N69">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O69">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P69">
         <v>2021</v>
       </c>
       <c r="Q69">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="R69">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" spans="1:18">
@@ -4594,55 +4594,55 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>21132</v>
+        <v>21138</v>
       </c>
       <c r="C70" t="s">
         <v>85</v>
       </c>
       <c r="D70">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E70">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F70">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="G70">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="H70">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I70">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J70">
         <v>11</v>
       </c>
       <c r="K70">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="L70">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="M70">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N70">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P70">
         <v>2021</v>
       </c>
       <c r="Q70">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="R70">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" spans="1:18">
@@ -4650,52 +4650,52 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>21131</v>
+        <v>21137</v>
       </c>
       <c r="C71" t="s">
         <v>86</v>
       </c>
       <c r="D71">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E71">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F71">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G71">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="H71">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="I71">
+        <v>4</v>
+      </c>
+      <c r="J71">
         <v>5</v>
       </c>
-      <c r="J71">
-        <v>6</v>
-      </c>
       <c r="K71">
-        <v>99</v>
+        <v>55</v>
       </c>
       <c r="L71">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="M71">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="N71">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O71">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P71">
         <v>2021</v>
       </c>
       <c r="Q71">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="R71">
         <v>11</v>
@@ -4706,52 +4706,52 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>21130</v>
+        <v>21136</v>
       </c>
       <c r="C72" t="s">
         <v>87</v>
       </c>
       <c r="D72">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E72">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F72">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G72">
         <v>27</v>
       </c>
       <c r="H72">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="I72">
+        <v>2</v>
+      </c>
+      <c r="J72">
         <v>5</v>
       </c>
-      <c r="J72">
-        <v>10</v>
-      </c>
       <c r="K72">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="L72">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="M72">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="N72">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="O72">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P72">
         <v>2021</v>
       </c>
       <c r="Q72">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="R72">
         <v>11</v>
@@ -4762,52 +4762,52 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>21129</v>
+        <v>21135</v>
       </c>
       <c r="C73" t="s">
         <v>88</v>
       </c>
       <c r="D73">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E73">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="F73">
         <v>17</v>
       </c>
       <c r="G73">
+        <v>29</v>
+      </c>
+      <c r="H73">
+        <v>31</v>
+      </c>
+      <c r="I73">
+        <v>5</v>
+      </c>
+      <c r="J73">
+        <v>6</v>
+      </c>
+      <c r="K73">
+        <v>88</v>
+      </c>
+      <c r="L73">
         <v>18</v>
       </c>
-      <c r="H73">
-        <v>34</v>
-      </c>
-      <c r="I73">
-        <v>4</v>
-      </c>
-      <c r="J73">
-        <v>10</v>
-      </c>
-      <c r="K73">
-        <v>87</v>
-      </c>
-      <c r="L73">
-        <v>17</v>
-      </c>
       <c r="M73">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="N73">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O73">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P73">
         <v>2021</v>
       </c>
       <c r="Q73">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="R73">
         <v>11</v>
@@ -4818,52 +4818,52 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>21128</v>
+        <v>21134</v>
       </c>
       <c r="C74" t="s">
         <v>89</v>
       </c>
       <c r="D74">
+        <v>2</v>
+      </c>
+      <c r="E74">
+        <v>6</v>
+      </c>
+      <c r="F74">
         <v>14</v>
       </c>
-      <c r="E74">
-        <v>17</v>
-      </c>
-      <c r="F74">
-        <v>18</v>
-      </c>
       <c r="G74">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H74">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I74">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J74">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K74">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="L74">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="M74">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="N74">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="O74">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P74">
         <v>2021</v>
       </c>
       <c r="Q74">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="R74">
         <v>11</v>
@@ -4874,52 +4874,52 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>21127</v>
+        <v>21133</v>
       </c>
       <c r="C75" t="s">
         <v>90</v>
       </c>
       <c r="D75">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E75">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F75">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G75">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="H75">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I75">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J75">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="K75">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="L75">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="M75">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N75">
         <v>7</v>
       </c>
       <c r="O75">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P75">
         <v>2021</v>
       </c>
       <c r="Q75">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="R75">
         <v>11</v>
@@ -4930,43 +4930,43 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>21126</v>
+        <v>21132</v>
       </c>
       <c r="C76" t="s">
         <v>91</v>
       </c>
       <c r="D76">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E76">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F76">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="G76">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H76">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I76">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="J76">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K76">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="L76">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M76">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="N76">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="O76">
         <v>2</v>
@@ -4975,7 +4975,7 @@
         <v>2021</v>
       </c>
       <c r="Q76">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="R76">
         <v>11</v>
@@ -4986,52 +4986,52 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>21125</v>
+        <v>21131</v>
       </c>
       <c r="C77" t="s">
         <v>92</v>
       </c>
       <c r="D77">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E77">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="F77">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="G77">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="H77">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I77">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J77">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K77">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="L77">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M77">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N77">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O77">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P77">
         <v>2021</v>
       </c>
       <c r="Q77">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="R77">
         <v>11</v>
@@ -5042,55 +5042,55 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>21124</v>
+        <v>21130</v>
       </c>
       <c r="C78" t="s">
         <v>93</v>
       </c>
       <c r="D78">
+        <v>2</v>
+      </c>
+      <c r="E78">
+        <v>3</v>
+      </c>
+      <c r="F78">
+        <v>14</v>
+      </c>
+      <c r="G78">
+        <v>27</v>
+      </c>
+      <c r="H78">
+        <v>28</v>
+      </c>
+      <c r="I78">
+        <v>5</v>
+      </c>
+      <c r="J78">
         <v>10</v>
       </c>
-      <c r="E78">
-        <v>17</v>
-      </c>
-      <c r="F78">
-        <v>22</v>
-      </c>
-      <c r="G78">
-        <v>25</v>
-      </c>
-      <c r="H78">
-        <v>35</v>
-      </c>
-      <c r="I78">
-        <v>7</v>
-      </c>
-      <c r="J78">
-        <v>9</v>
-      </c>
       <c r="K78">
-        <v>109</v>
+        <v>74</v>
       </c>
       <c r="L78">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="M78">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N78">
         <v>8</v>
       </c>
       <c r="O78">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P78">
         <v>2021</v>
       </c>
       <c r="Q78">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="R78">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="79" spans="1:18">
@@ -5098,55 +5098,55 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>21123</v>
+        <v>21129</v>
       </c>
       <c r="C79" t="s">
         <v>94</v>
       </c>
       <c r="D79">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E79">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F79">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="G79">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="H79">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I79">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J79">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K79">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="L79">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M79">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="N79">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O79">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P79">
         <v>2021</v>
       </c>
       <c r="Q79">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="R79">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="80" spans="1:18">
@@ -5154,7 +5154,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>21122</v>
+        <v>21128</v>
       </c>
       <c r="C80" t="s">
         <v>95</v>
@@ -5163,34 +5163,34 @@
         <v>14</v>
       </c>
       <c r="E80">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F80">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="G80">
+        <v>23</v>
+      </c>
+      <c r="H80">
         <v>27</v>
       </c>
-      <c r="H80">
-        <v>29</v>
-      </c>
       <c r="I80">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J80">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K80">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="L80">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M80">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="N80">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O80">
         <v>2</v>
@@ -5199,10 +5199,10 @@
         <v>2021</v>
       </c>
       <c r="Q80">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="R80">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="81" spans="1:18">
@@ -5210,43 +5210,43 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>21121</v>
+        <v>21127</v>
       </c>
       <c r="C81" t="s">
         <v>96</v>
       </c>
       <c r="D81">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E81">
+        <v>2</v>
+      </c>
+      <c r="F81">
         <v>15</v>
       </c>
-      <c r="F81">
-        <v>19</v>
-      </c>
       <c r="G81">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="H81">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I81">
         <v>2</v>
       </c>
       <c r="J81">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K81">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="L81">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="M81">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="N81">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O81">
         <v>2</v>
@@ -5255,10 +5255,10 @@
         <v>2021</v>
       </c>
       <c r="Q81">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="R81">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="82" spans="1:18">
@@ -5266,55 +5266,55 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>21120</v>
+        <v>21126</v>
       </c>
       <c r="C82" t="s">
         <v>97</v>
       </c>
       <c r="D82">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E82">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82">
+        <v>12</v>
+      </c>
+      <c r="G82">
+        <v>34</v>
+      </c>
+      <c r="H82">
+        <v>35</v>
+      </c>
+      <c r="I82">
+        <v>9</v>
+      </c>
+      <c r="J82">
+        <v>12</v>
+      </c>
+      <c r="K82">
+        <v>93</v>
+      </c>
+      <c r="L82">
+        <v>19</v>
+      </c>
+      <c r="M82">
         <v>21</v>
       </c>
-      <c r="G82">
-        <v>25</v>
-      </c>
-      <c r="H82">
-        <v>31</v>
-      </c>
-      <c r="I82">
-        <v>5</v>
-      </c>
-      <c r="J82">
-        <v>11</v>
-      </c>
-      <c r="K82">
-        <v>92</v>
-      </c>
-      <c r="L82">
-        <v>18</v>
-      </c>
-      <c r="M82">
-        <v>16</v>
-      </c>
       <c r="N82">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="O82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P82">
         <v>2021</v>
       </c>
       <c r="Q82">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="R82">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="83" spans="1:18">
@@ -5322,55 +5322,55 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>21119</v>
+        <v>21125</v>
       </c>
       <c r="C83" t="s">
         <v>98</v>
       </c>
       <c r="D83">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E83">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="F83">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="G83">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="H83">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I83">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J83">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K83">
-        <v>58</v>
+        <v>115</v>
       </c>
       <c r="L83">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="M83">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="N83">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="O83">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P83">
         <v>2021</v>
       </c>
       <c r="Q83">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="R83">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="84" spans="1:18">
@@ -5378,52 +5378,52 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>21118</v>
+        <v>21124</v>
       </c>
       <c r="C84" t="s">
         <v>99</v>
       </c>
       <c r="D84">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E84">
         <v>17</v>
       </c>
       <c r="F84">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G84">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H84">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I84">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J84">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="K84">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L84">
         <v>22</v>
       </c>
       <c r="M84">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="N84">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="O84">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P84">
         <v>2021</v>
       </c>
       <c r="Q84">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="R84">
         <v>10</v>
@@ -5434,43 +5434,43 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>21117</v>
+        <v>21123</v>
       </c>
       <c r="C85" t="s">
         <v>100</v>
       </c>
       <c r="D85">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E85">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F85">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G85">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="H85">
         <v>33</v>
       </c>
       <c r="I85">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J85">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K85">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="L85">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M85">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="N85">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="O85">
         <v>2</v>
@@ -5479,7 +5479,7 @@
         <v>2021</v>
       </c>
       <c r="Q85">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="R85">
         <v>10</v>
@@ -5490,43 +5490,43 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>21116</v>
+        <v>21122</v>
       </c>
       <c r="C86" t="s">
         <v>101</v>
       </c>
       <c r="D86">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E86">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="F86">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G86">
+        <v>27</v>
+      </c>
+      <c r="H86">
         <v>29</v>
       </c>
-      <c r="H86">
-        <v>35</v>
-      </c>
       <c r="I86">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J86">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="K86">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="L86">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M86">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="N86">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O86">
         <v>2</v>
@@ -5535,7 +5535,7 @@
         <v>2021</v>
       </c>
       <c r="Q86">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="R86">
         <v>10</v>
@@ -5546,43 +5546,43 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>21115</v>
+        <v>21121</v>
       </c>
       <c r="C87" t="s">
         <v>102</v>
       </c>
       <c r="D87">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E87">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F87">
         <v>19</v>
       </c>
       <c r="G87">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="H87">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I87">
+        <v>2</v>
+      </c>
+      <c r="J87">
+        <v>9</v>
+      </c>
+      <c r="K87">
+        <v>95</v>
+      </c>
+      <c r="L87">
+        <v>19</v>
+      </c>
+      <c r="M87">
+        <v>11</v>
+      </c>
+      <c r="N87">
         <v>6</v>
-      </c>
-      <c r="J87">
-        <v>10</v>
-      </c>
-      <c r="K87">
-        <v>89</v>
-      </c>
-      <c r="L87">
-        <v>18</v>
-      </c>
-      <c r="M87">
-        <v>16</v>
-      </c>
-      <c r="N87">
-        <v>8</v>
       </c>
       <c r="O87">
         <v>2</v>
@@ -5591,7 +5591,7 @@
         <v>2021</v>
       </c>
       <c r="Q87">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="R87">
         <v>10</v>
@@ -5602,52 +5602,52 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>21114</v>
+        <v>21120</v>
       </c>
       <c r="C88" t="s">
         <v>103</v>
       </c>
       <c r="D88">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E88">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F88">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G88">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H88">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I88">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J88">
         <v>11</v>
       </c>
       <c r="K88">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="L88">
         <v>18</v>
       </c>
       <c r="M88">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="N88">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P88">
         <v>2021</v>
       </c>
       <c r="Q88">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="R88">
         <v>10</v>
@@ -5658,55 +5658,55 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>21113</v>
+        <v>21119</v>
       </c>
       <c r="C89" t="s">
         <v>104</v>
       </c>
       <c r="D89">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="E89">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F89">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="G89">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="H89">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I89">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J89">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K89">
-        <v>115</v>
+        <v>58</v>
       </c>
       <c r="L89">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="M89">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="N89">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="O89">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P89">
         <v>2021</v>
       </c>
       <c r="Q89">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="R89">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="90" spans="1:18">
@@ -5714,55 +5714,55 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>21112</v>
+        <v>21118</v>
       </c>
       <c r="C90" t="s">
         <v>105</v>
       </c>
       <c r="D90">
+        <v>14</v>
+      </c>
+      <c r="E90">
+        <v>17</v>
+      </c>
+      <c r="F90">
         <v>18</v>
       </c>
-      <c r="E90">
-        <v>21</v>
-      </c>
-      <c r="F90">
+      <c r="G90">
+        <v>28</v>
+      </c>
+      <c r="H90">
+        <v>34</v>
+      </c>
+      <c r="I90">
+        <v>2</v>
+      </c>
+      <c r="J90">
+        <v>3</v>
+      </c>
+      <c r="K90">
+        <v>111</v>
+      </c>
+      <c r="L90">
         <v>22</v>
       </c>
-      <c r="G90">
-        <v>23</v>
-      </c>
-      <c r="H90">
-        <v>35</v>
-      </c>
-      <c r="I90">
-        <v>11</v>
-      </c>
-      <c r="J90">
-        <v>12</v>
-      </c>
-      <c r="K90">
-        <v>119</v>
-      </c>
-      <c r="L90">
-        <v>24</v>
-      </c>
       <c r="M90">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="N90">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="O90">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P90">
         <v>2021</v>
       </c>
       <c r="Q90">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="R90">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="91" spans="1:18">
@@ -5770,43 +5770,43 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>21111</v>
+        <v>21117</v>
       </c>
       <c r="C91" t="s">
         <v>106</v>
       </c>
       <c r="D91">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E91">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F91">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G91">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H91">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="I91">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J91">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K91">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="L91">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="M91">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="N91">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="O91">
         <v>2</v>
@@ -5815,10 +5815,10 @@
         <v>2021</v>
       </c>
       <c r="Q91">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="R91">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="92" spans="1:18">
@@ -5826,43 +5826,43 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>21110</v>
+        <v>21116</v>
       </c>
       <c r="C92" t="s">
         <v>107</v>
       </c>
       <c r="D92">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E92">
+        <v>25</v>
+      </c>
+      <c r="F92">
+        <v>28</v>
+      </c>
+      <c r="G92">
+        <v>29</v>
+      </c>
+      <c r="H92">
+        <v>35</v>
+      </c>
+      <c r="I92">
+        <v>3</v>
+      </c>
+      <c r="J92">
+        <v>11</v>
+      </c>
+      <c r="K92">
+        <v>121</v>
+      </c>
+      <c r="L92">
+        <v>24</v>
+      </c>
+      <c r="M92">
         <v>14</v>
       </c>
-      <c r="F92">
-        <v>29</v>
-      </c>
-      <c r="G92">
-        <v>31</v>
-      </c>
-      <c r="H92">
-        <v>32</v>
-      </c>
-      <c r="I92">
-        <v>11</v>
-      </c>
-      <c r="J92">
-        <v>12</v>
-      </c>
-      <c r="K92">
-        <v>117</v>
-      </c>
-      <c r="L92">
-        <v>23</v>
-      </c>
-      <c r="M92">
-        <v>23</v>
-      </c>
       <c r="N92">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="O92">
         <v>2</v>
@@ -5871,10 +5871,10 @@
         <v>2021</v>
       </c>
       <c r="Q92">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="R92">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="93" spans="1:18">
@@ -5882,55 +5882,55 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>21109</v>
+        <v>21115</v>
       </c>
       <c r="C93" t="s">
         <v>108</v>
       </c>
       <c r="D93">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E93">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F93">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="G93">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="H93">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I93">
         <v>6</v>
       </c>
       <c r="J93">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K93">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="L93">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="M93">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N93">
         <v>8</v>
       </c>
       <c r="O93">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P93">
         <v>2021</v>
       </c>
       <c r="Q93">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="R93">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="94" spans="1:18">
@@ -5938,43 +5938,43 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>21108</v>
+        <v>21114</v>
       </c>
       <c r="C94" t="s">
         <v>109</v>
       </c>
       <c r="D94">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E94">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="F94">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="G94">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H94">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="I94">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J94">
+        <v>11</v>
+      </c>
+      <c r="K94">
+        <v>89</v>
+      </c>
+      <c r="L94">
+        <v>18</v>
+      </c>
+      <c r="M94">
+        <v>12</v>
+      </c>
+      <c r="N94">
         <v>6</v>
-      </c>
-      <c r="K94">
-        <v>107</v>
-      </c>
-      <c r="L94">
-        <v>21</v>
-      </c>
-      <c r="M94">
-        <v>8</v>
-      </c>
-      <c r="N94">
-        <v>4</v>
       </c>
       <c r="O94">
         <v>2</v>
@@ -5983,10 +5983,10 @@
         <v>2021</v>
       </c>
       <c r="Q94">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="R94">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="95" spans="1:18">
@@ -5994,52 +5994,52 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>21107</v>
+        <v>21113</v>
       </c>
       <c r="C95" t="s">
         <v>110</v>
       </c>
       <c r="D95">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="E95">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="F95">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="G95">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="H95">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I95">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J95">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="K95">
-        <v>66</v>
+        <v>115</v>
       </c>
       <c r="L95">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M95">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="N95">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="O95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P95">
         <v>2021</v>
       </c>
       <c r="Q95">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="R95">
         <v>9</v>
@@ -6050,52 +6050,52 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>21106</v>
+        <v>21112</v>
       </c>
       <c r="C96" t="s">
         <v>111</v>
       </c>
       <c r="D96">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="E96">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F96">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G96">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="H96">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I96">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="J96">
         <v>12</v>
       </c>
       <c r="K96">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="L96">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="M96">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="N96">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="O96">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P96">
         <v>2021</v>
       </c>
       <c r="Q96">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="R96">
         <v>9</v>
@@ -6106,7 +6106,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>21105</v>
+        <v>21111</v>
       </c>
       <c r="C97" t="s">
         <v>112</v>
@@ -6115,34 +6115,34 @@
         <v>7</v>
       </c>
       <c r="E97">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F97">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G97">
+        <v>19</v>
+      </c>
+      <c r="H97">
+        <v>28</v>
+      </c>
+      <c r="I97">
+        <v>8</v>
+      </c>
+      <c r="J97">
+        <v>9</v>
+      </c>
+      <c r="K97">
+        <v>77</v>
+      </c>
+      <c r="L97">
+        <v>15</v>
+      </c>
+      <c r="M97">
         <v>17</v>
       </c>
-      <c r="H97">
-        <v>18</v>
-      </c>
-      <c r="I97">
-        <v>4</v>
-      </c>
-      <c r="J97">
-        <v>9</v>
-      </c>
-      <c r="K97">
-        <v>63</v>
-      </c>
-      <c r="L97">
-        <v>13</v>
-      </c>
-      <c r="M97">
-        <v>13</v>
-      </c>
       <c r="N97">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O97">
         <v>2</v>
@@ -6151,7 +6151,7 @@
         <v>2021</v>
       </c>
       <c r="Q97">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="R97">
         <v>9</v>
@@ -6162,43 +6162,43 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>21104</v>
+        <v>21110</v>
       </c>
       <c r="C98" t="s">
         <v>113</v>
       </c>
       <c r="D98">
+        <v>11</v>
+      </c>
+      <c r="E98">
+        <v>14</v>
+      </c>
+      <c r="F98">
+        <v>29</v>
+      </c>
+      <c r="G98">
+        <v>31</v>
+      </c>
+      <c r="H98">
+        <v>32</v>
+      </c>
+      <c r="I98">
+        <v>11</v>
+      </c>
+      <c r="J98">
+        <v>12</v>
+      </c>
+      <c r="K98">
+        <v>117</v>
+      </c>
+      <c r="L98">
         <v>23</v>
       </c>
-      <c r="E98">
-        <v>25</v>
-      </c>
-      <c r="F98">
-        <v>26</v>
-      </c>
-      <c r="G98">
-        <v>30</v>
-      </c>
-      <c r="H98">
-        <v>33</v>
-      </c>
-      <c r="I98">
-        <v>3</v>
-      </c>
-      <c r="J98">
-        <v>11</v>
-      </c>
-      <c r="K98">
-        <v>137</v>
-      </c>
-      <c r="L98">
-        <v>27</v>
-      </c>
       <c r="M98">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="N98">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="O98">
         <v>2</v>
@@ -6207,7 +6207,7 @@
         <v>2021</v>
       </c>
       <c r="Q98">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="R98">
         <v>9</v>
@@ -6218,52 +6218,52 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>21103</v>
+        <v>21109</v>
       </c>
       <c r="C99" t="s">
         <v>114</v>
       </c>
       <c r="D99">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E99">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F99">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="G99">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H99">
         <v>31</v>
       </c>
       <c r="I99">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J99">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K99">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="L99">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="M99">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N99">
         <v>8</v>
       </c>
       <c r="O99">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P99">
         <v>2021</v>
       </c>
       <c r="Q99">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="R99">
         <v>9</v>
@@ -6274,52 +6274,52 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>21102</v>
+        <v>21108</v>
       </c>
       <c r="C100" t="s">
         <v>115</v>
       </c>
       <c r="D100">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E100">
+        <v>19</v>
+      </c>
+      <c r="F100">
+        <v>22</v>
+      </c>
+      <c r="G100">
+        <v>26</v>
+      </c>
+      <c r="H100">
+        <v>35</v>
+      </c>
+      <c r="I100">
+        <v>2</v>
+      </c>
+      <c r="J100">
+        <v>6</v>
+      </c>
+      <c r="K100">
+        <v>107</v>
+      </c>
+      <c r="L100">
+        <v>21</v>
+      </c>
+      <c r="M100">
         <v>8</v>
       </c>
-      <c r="F100">
-        <v>11</v>
-      </c>
-      <c r="G100">
-        <v>16</v>
-      </c>
-      <c r="H100">
-        <v>23</v>
-      </c>
-      <c r="I100">
-        <v>2</v>
-      </c>
-      <c r="J100">
-        <v>7</v>
-      </c>
-      <c r="K100">
-        <v>60</v>
-      </c>
-      <c r="L100">
-        <v>12</v>
-      </c>
-      <c r="M100">
-        <v>9</v>
-      </c>
       <c r="N100">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O100">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P100">
         <v>2021</v>
       </c>
       <c r="Q100">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="R100">
         <v>9</v>
@@ -6330,52 +6330,52 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>21101</v>
+        <v>21107</v>
       </c>
       <c r="C101" t="s">
         <v>116</v>
       </c>
       <c r="D101">
+        <v>3</v>
+      </c>
+      <c r="E101">
+        <v>5</v>
+      </c>
+      <c r="F101">
         <v>13</v>
       </c>
-      <c r="E101">
+      <c r="G101">
+        <v>20</v>
+      </c>
+      <c r="H101">
+        <v>25</v>
+      </c>
+      <c r="I101">
+        <v>7</v>
+      </c>
+      <c r="J101">
+        <v>11</v>
+      </c>
+      <c r="K101">
+        <v>66</v>
+      </c>
+      <c r="L101">
+        <v>13</v>
+      </c>
+      <c r="M101">
         <v>18</v>
       </c>
-      <c r="F101">
-        <v>19</v>
-      </c>
-      <c r="G101">
-        <v>27</v>
-      </c>
-      <c r="H101">
-        <v>32</v>
-      </c>
-      <c r="I101">
-        <v>6</v>
-      </c>
-      <c r="J101">
-        <v>11</v>
-      </c>
-      <c r="K101">
-        <v>109</v>
-      </c>
-      <c r="L101">
-        <v>22</v>
-      </c>
-      <c r="M101">
-        <v>17</v>
-      </c>
       <c r="N101">
         <v>9</v>
       </c>
       <c r="O101">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P101">
         <v>2021</v>
       </c>
       <c r="Q101">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="R101">
         <v>9</v>

--- a/大乐透最近100期开奖号码.xlsx
+++ b/大乐透最近100期开奖号码.xlsx
@@ -67,6 +67,15 @@
     <t>年内月号</t>
   </si>
   <si>
+    <t>2022-05-28</t>
+  </si>
+  <si>
+    <t>2022-05-25</t>
+  </si>
+  <si>
+    <t>2022-05-23</t>
+  </si>
+  <si>
     <t>2022-05-21</t>
   </si>
   <si>
@@ -356,15 +365,6 @@
   </si>
   <si>
     <t>2021-09-22</t>
-  </si>
-  <si>
-    <t>2021-09-20</t>
-  </si>
-  <si>
-    <t>2021-09-18</t>
-  </si>
-  <si>
-    <t>2021-09-15</t>
   </si>
 </sst>
 </file>
@@ -786,52 +786,52 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>22056</v>
+        <v>22059</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E2">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F2">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G2">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="H2">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I2">
+        <v>4</v>
+      </c>
+      <c r="J2">
+        <v>9</v>
+      </c>
+      <c r="K2">
+        <v>103</v>
+      </c>
+      <c r="L2">
+        <v>21</v>
+      </c>
+      <c r="M2">
+        <v>13</v>
+      </c>
+      <c r="N2">
         <v>7</v>
       </c>
-      <c r="J2">
-        <v>9</v>
-      </c>
-      <c r="K2">
-        <v>76</v>
-      </c>
-      <c r="L2">
-        <v>15</v>
-      </c>
-      <c r="M2">
-        <v>16</v>
-      </c>
-      <c r="N2">
-        <v>8</v>
-      </c>
       <c r="O2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P2">
         <v>2022</v>
       </c>
       <c r="Q2">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="R2">
         <v>5</v>
@@ -842,52 +842,52 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22055</v>
+        <v>22058</v>
       </c>
       <c r="C3" t="s">
         <v>18</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F3">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="G3">
+        <v>26</v>
+      </c>
+      <c r="H3">
+        <v>35</v>
+      </c>
+      <c r="I3">
+        <v>7</v>
+      </c>
+      <c r="J3">
+        <v>8</v>
+      </c>
+      <c r="K3">
+        <v>92</v>
+      </c>
+      <c r="L3">
+        <v>18</v>
+      </c>
+      <c r="M3">
         <v>15</v>
       </c>
-      <c r="H3">
-        <v>23</v>
-      </c>
-      <c r="I3">
-        <v>4</v>
-      </c>
-      <c r="J3">
-        <v>6</v>
-      </c>
-      <c r="K3">
-        <v>53</v>
-      </c>
-      <c r="L3">
-        <v>11</v>
-      </c>
-      <c r="M3">
-        <v>10</v>
-      </c>
       <c r="N3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="O3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P3">
         <v>2022</v>
       </c>
       <c r="Q3">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="R3">
         <v>5</v>
@@ -898,25 +898,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22054</v>
+        <v>22057</v>
       </c>
       <c r="C4" t="s">
         <v>19</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E4">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F4">
+        <v>18</v>
+      </c>
+      <c r="G4">
         <v>21</v>
       </c>
-      <c r="G4">
-        <v>23</v>
-      </c>
       <c r="H4">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I4">
         <v>7</v>
@@ -925,10 +925,10 @@
         <v>10</v>
       </c>
       <c r="K4">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="L4">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M4">
         <v>17</v>
@@ -937,13 +937,13 @@
         <v>9</v>
       </c>
       <c r="O4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P4">
         <v>2022</v>
       </c>
       <c r="Q4">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="R4">
         <v>5</v>
@@ -954,43 +954,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22053</v>
+        <v>22056</v>
       </c>
       <c r="C5" t="s">
         <v>20</v>
       </c>
       <c r="D5">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E5">
+        <v>11</v>
+      </c>
+      <c r="F5">
+        <v>15</v>
+      </c>
+      <c r="G5">
         <v>17</v>
       </c>
-      <c r="F5">
-        <v>19</v>
-      </c>
-      <c r="G5">
-        <v>20</v>
-      </c>
       <c r="H5">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J5">
         <v>9</v>
       </c>
       <c r="K5">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="L5">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M5">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="N5">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="O5">
         <v>1</v>
@@ -999,7 +999,7 @@
         <v>2022</v>
       </c>
       <c r="Q5">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="R5">
         <v>5</v>
@@ -1010,7 +1010,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22052</v>
+        <v>22055</v>
       </c>
       <c r="C6" t="s">
         <v>21</v>
@@ -1019,43 +1019,43 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G6">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="H6">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="I6">
         <v>4</v>
       </c>
       <c r="J6">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K6">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="L6">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="M6">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="N6">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P6">
         <v>2022</v>
       </c>
       <c r="Q6">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="R6">
         <v>5</v>
@@ -1066,52 +1066,52 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22051</v>
+        <v>22054</v>
       </c>
       <c r="C7" t="s">
         <v>22</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E7">
         <v>16</v>
       </c>
       <c r="F7">
+        <v>21</v>
+      </c>
+      <c r="G7">
+        <v>23</v>
+      </c>
+      <c r="H7">
+        <v>34</v>
+      </c>
+      <c r="I7">
+        <v>7</v>
+      </c>
+      <c r="J7">
+        <v>10</v>
+      </c>
+      <c r="K7">
+        <v>99</v>
+      </c>
+      <c r="L7">
+        <v>20</v>
+      </c>
+      <c r="M7">
         <v>17</v>
       </c>
-      <c r="G7">
-        <v>19</v>
-      </c>
-      <c r="H7">
-        <v>33</v>
-      </c>
-      <c r="I7">
-        <v>5</v>
-      </c>
-      <c r="J7">
-        <v>6</v>
-      </c>
-      <c r="K7">
-        <v>86</v>
-      </c>
-      <c r="L7">
-        <v>17</v>
-      </c>
-      <c r="M7">
-        <v>11</v>
-      </c>
       <c r="N7">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="O7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P7">
         <v>2022</v>
       </c>
       <c r="Q7">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="R7">
         <v>5</v>
@@ -1122,52 +1122,52 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>22050</v>
+        <v>22053</v>
       </c>
       <c r="C8" t="s">
         <v>23</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E8">
+        <v>17</v>
+      </c>
+      <c r="F8">
+        <v>19</v>
+      </c>
+      <c r="G8">
+        <v>20</v>
+      </c>
+      <c r="H8">
+        <v>25</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>9</v>
+      </c>
+      <c r="K8">
+        <v>90</v>
+      </c>
+      <c r="L8">
+        <v>18</v>
+      </c>
+      <c r="M8">
         <v>10</v>
       </c>
-      <c r="F8">
-        <v>21</v>
-      </c>
-      <c r="G8">
-        <v>24</v>
-      </c>
-      <c r="H8">
-        <v>30</v>
-      </c>
-      <c r="I8">
-        <v>8</v>
-      </c>
-      <c r="J8">
-        <v>10</v>
-      </c>
-      <c r="K8">
-        <v>87</v>
-      </c>
-      <c r="L8">
-        <v>17</v>
-      </c>
-      <c r="M8">
-        <v>18</v>
-      </c>
       <c r="N8">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P8">
         <v>2022</v>
       </c>
       <c r="Q8">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="R8">
         <v>5</v>
@@ -1178,52 +1178,52 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22049</v>
+        <v>22052</v>
       </c>
       <c r="C9" t="s">
         <v>24</v>
       </c>
       <c r="D9">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F9">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G9">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H9">
         <v>35</v>
       </c>
       <c r="I9">
+        <v>4</v>
+      </c>
+      <c r="J9">
+        <v>9</v>
+      </c>
+      <c r="K9">
+        <v>96</v>
+      </c>
+      <c r="L9">
+        <v>19</v>
+      </c>
+      <c r="M9">
+        <v>13</v>
+      </c>
+      <c r="N9">
+        <v>7</v>
+      </c>
+      <c r="O9">
         <v>1</v>
-      </c>
-      <c r="J9">
-        <v>10</v>
-      </c>
-      <c r="K9">
-        <v>99</v>
-      </c>
-      <c r="L9">
-        <v>20</v>
-      </c>
-      <c r="M9">
-        <v>11</v>
-      </c>
-      <c r="N9">
-        <v>6</v>
-      </c>
-      <c r="O9">
-        <v>4</v>
       </c>
       <c r="P9">
         <v>2022</v>
       </c>
       <c r="Q9">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="R9">
         <v>5</v>
@@ -1234,52 +1234,52 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22048</v>
+        <v>22051</v>
       </c>
       <c r="C10" t="s">
         <v>25</v>
       </c>
       <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
         <v>16</v>
       </c>
-      <c r="E10">
-        <v>22</v>
-      </c>
       <c r="F10">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="G10">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="H10">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I10">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J10">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K10">
-        <v>127</v>
+        <v>86</v>
       </c>
       <c r="L10">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="M10">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="N10">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="O10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P10">
         <v>2022</v>
       </c>
       <c r="Q10">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="R10">
         <v>5</v>
@@ -1290,55 +1290,55 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22047</v>
+        <v>22050</v>
       </c>
       <c r="C11" t="s">
         <v>26</v>
       </c>
       <c r="D11">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E11">
         <v>10</v>
       </c>
       <c r="F11">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G11">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="H11">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I11">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J11">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K11">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="L11">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M11">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="N11">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P11">
         <v>2022</v>
       </c>
       <c r="Q11">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="R11">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -1346,7 +1346,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>22046</v>
+        <v>22049</v>
       </c>
       <c r="C12" t="s">
         <v>27</v>
@@ -1355,46 +1355,46 @@
         <v>6</v>
       </c>
       <c r="E12">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F12">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G12">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="H12">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="I12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J12">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K12">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="L12">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="M12">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="N12">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P12">
         <v>2022</v>
       </c>
       <c r="Q12">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="R12">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -1402,55 +1402,55 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>22045</v>
+        <v>22048</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="F13">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="G13">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="H13">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J13">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K13">
-        <v>44</v>
+        <v>127</v>
       </c>
       <c r="L13">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="M13">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="N13">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="O13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P13">
         <v>2022</v>
       </c>
       <c r="Q13">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="R13">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -1458,52 +1458,52 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22044</v>
+        <v>22047</v>
       </c>
       <c r="C14" t="s">
         <v>29</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F14">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G14">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="H14">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="I14">
         <v>3</v>
       </c>
       <c r="J14">
+        <v>11</v>
+      </c>
+      <c r="K14">
+        <v>73</v>
+      </c>
+      <c r="L14">
+        <v>15</v>
+      </c>
+      <c r="M14">
+        <v>14</v>
+      </c>
+      <c r="N14">
         <v>7</v>
       </c>
-      <c r="K14">
-        <v>56</v>
-      </c>
-      <c r="L14">
-        <v>11</v>
-      </c>
-      <c r="M14">
-        <v>10</v>
-      </c>
-      <c r="N14">
-        <v>5</v>
-      </c>
       <c r="O14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P14">
         <v>2022</v>
       </c>
       <c r="Q14">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="R14">
         <v>4</v>
@@ -1514,52 +1514,52 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22043</v>
+        <v>22046</v>
       </c>
       <c r="C15" t="s">
         <v>30</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E15">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="F15">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G15">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H15">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I15">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="J15">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="K15">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="L15">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M15">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="N15">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="O15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P15">
         <v>2022</v>
       </c>
       <c r="Q15">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="R15">
         <v>4</v>
@@ -1570,43 +1570,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22042</v>
+        <v>22045</v>
       </c>
       <c r="C16" t="s">
         <v>31</v>
       </c>
       <c r="D16">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E16">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G16">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="H16">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="I16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J16">
+        <v>5</v>
+      </c>
+      <c r="K16">
+        <v>44</v>
+      </c>
+      <c r="L16">
+        <v>9</v>
+      </c>
+      <c r="M16">
         <v>6</v>
       </c>
-      <c r="K16">
-        <v>90</v>
-      </c>
-      <c r="L16">
-        <v>18</v>
-      </c>
-      <c r="M16">
-        <v>8</v>
-      </c>
       <c r="N16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O16">
         <v>3</v>
@@ -1615,7 +1615,7 @@
         <v>2022</v>
       </c>
       <c r="Q16">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="R16">
         <v>4</v>
@@ -1626,52 +1626,52 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22041</v>
+        <v>22044</v>
       </c>
       <c r="C17" t="s">
         <v>32</v>
       </c>
       <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>16</v>
+      </c>
+      <c r="G17">
+        <v>17</v>
+      </c>
+      <c r="H17">
+        <v>20</v>
+      </c>
+      <c r="I17">
+        <v>3</v>
+      </c>
+      <c r="J17">
+        <v>7</v>
+      </c>
+      <c r="K17">
+        <v>56</v>
+      </c>
+      <c r="L17">
+        <v>11</v>
+      </c>
+      <c r="M17">
+        <v>10</v>
+      </c>
+      <c r="N17">
         <v>5</v>
       </c>
-      <c r="E17">
-        <v>15</v>
-      </c>
-      <c r="F17">
-        <v>25</v>
-      </c>
-      <c r="G17">
-        <v>26</v>
-      </c>
-      <c r="H17">
-        <v>33</v>
-      </c>
-      <c r="I17">
-        <v>6</v>
-      </c>
-      <c r="J17">
-        <v>11</v>
-      </c>
-      <c r="K17">
-        <v>104</v>
-      </c>
-      <c r="L17">
-        <v>21</v>
-      </c>
-      <c r="M17">
-        <v>17</v>
-      </c>
-      <c r="N17">
-        <v>9</v>
-      </c>
       <c r="O17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P17">
         <v>2022</v>
       </c>
       <c r="Q17">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="R17">
         <v>4</v>
@@ -1682,52 +1682,52 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>22040</v>
+        <v>22043</v>
       </c>
       <c r="C18" t="s">
         <v>33</v>
       </c>
       <c r="D18">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E18">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F18">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="G18">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="H18">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I18">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J18">
         <v>12</v>
       </c>
       <c r="K18">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="L18">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="M18">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N18">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P18">
         <v>2022</v>
       </c>
       <c r="Q18">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="R18">
         <v>4</v>
@@ -1738,52 +1738,52 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>22039</v>
+        <v>22042</v>
       </c>
       <c r="C19" t="s">
         <v>34</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E19">
+        <v>10</v>
+      </c>
+      <c r="F19">
+        <v>11</v>
+      </c>
+      <c r="G19">
+        <v>29</v>
+      </c>
+      <c r="H19">
+        <v>32</v>
+      </c>
+      <c r="I19">
+        <v>2</v>
+      </c>
+      <c r="J19">
+        <v>6</v>
+      </c>
+      <c r="K19">
+        <v>90</v>
+      </c>
+      <c r="L19">
+        <v>18</v>
+      </c>
+      <c r="M19">
         <v>8</v>
       </c>
-      <c r="F19">
-        <v>11</v>
-      </c>
-      <c r="G19">
-        <v>22</v>
-      </c>
-      <c r="H19">
-        <v>31</v>
-      </c>
-      <c r="I19">
-        <v>5</v>
-      </c>
-      <c r="J19">
-        <v>11</v>
-      </c>
-      <c r="K19">
-        <v>73</v>
-      </c>
-      <c r="L19">
-        <v>15</v>
-      </c>
-      <c r="M19">
-        <v>16</v>
-      </c>
       <c r="N19">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="O19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P19">
         <v>2022</v>
       </c>
       <c r="Q19">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="R19">
         <v>4</v>
@@ -1794,52 +1794,52 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22038</v>
+        <v>22041</v>
       </c>
       <c r="C20" t="s">
         <v>35</v>
       </c>
       <c r="D20">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E20">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F20">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="G20">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="H20">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="I20">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J20">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K20">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="L20">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M20">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="N20">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P20">
         <v>2022</v>
       </c>
       <c r="Q20">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="R20">
         <v>4</v>
@@ -1850,52 +1850,52 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22037</v>
+        <v>22040</v>
       </c>
       <c r="C21" t="s">
         <v>36</v>
       </c>
       <c r="D21">
+        <v>10</v>
+      </c>
+      <c r="E21">
+        <v>19</v>
+      </c>
+      <c r="F21">
+        <v>25</v>
+      </c>
+      <c r="G21">
+        <v>29</v>
+      </c>
+      <c r="H21">
+        <v>33</v>
+      </c>
+      <c r="I21">
+        <v>8</v>
+      </c>
+      <c r="J21">
+        <v>12</v>
+      </c>
+      <c r="K21">
+        <v>116</v>
+      </c>
+      <c r="L21">
+        <v>23</v>
+      </c>
+      <c r="M21">
+        <v>20</v>
+      </c>
+      <c r="N21">
+        <v>10</v>
+      </c>
+      <c r="O21">
         <v>1</v>
-      </c>
-      <c r="E21">
-        <v>9</v>
-      </c>
-      <c r="F21">
-        <v>17</v>
-      </c>
-      <c r="G21">
-        <v>20</v>
-      </c>
-      <c r="H21">
-        <v>28</v>
-      </c>
-      <c r="I21">
-        <v>6</v>
-      </c>
-      <c r="J21">
-        <v>10</v>
-      </c>
-      <c r="K21">
-        <v>75</v>
-      </c>
-      <c r="L21">
-        <v>15</v>
-      </c>
-      <c r="M21">
-        <v>16</v>
-      </c>
-      <c r="N21">
-        <v>8</v>
-      </c>
-      <c r="O21">
-        <v>2</v>
       </c>
       <c r="P21">
         <v>2022</v>
       </c>
       <c r="Q21">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="R21">
         <v>4</v>
@@ -1906,52 +1906,52 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>22036</v>
+        <v>22039</v>
       </c>
       <c r="C22" t="s">
         <v>37</v>
       </c>
       <c r="D22">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="E22">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="F22">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="G22">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H22">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I22">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J22">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="K22">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c r="L22">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="M22">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N22">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P22">
         <v>2022</v>
       </c>
       <c r="Q22">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="R22">
         <v>4</v>
@@ -1962,52 +1962,52 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>22035</v>
+        <v>22038</v>
       </c>
       <c r="C23" t="s">
         <v>38</v>
       </c>
       <c r="D23">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E23">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F23">
+        <v>11</v>
+      </c>
+      <c r="G23">
+        <v>12</v>
+      </c>
+      <c r="H23">
+        <v>26</v>
+      </c>
+      <c r="I23">
+        <v>9</v>
+      </c>
+      <c r="J23">
+        <v>12</v>
+      </c>
+      <c r="K23">
+        <v>65</v>
+      </c>
+      <c r="L23">
         <v>13</v>
       </c>
-      <c r="G23">
-        <v>23</v>
-      </c>
-      <c r="H23">
-        <v>31</v>
-      </c>
-      <c r="I23">
-        <v>5</v>
-      </c>
-      <c r="J23">
-        <v>8</v>
-      </c>
-      <c r="K23">
-        <v>87</v>
-      </c>
-      <c r="L23">
-        <v>17</v>
-      </c>
       <c r="M23">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="N23">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P23">
         <v>2022</v>
       </c>
       <c r="Q23">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="R23">
         <v>4</v>
@@ -2018,22 +2018,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22034</v>
+        <v>22037</v>
       </c>
       <c r="C24" t="s">
         <v>39</v>
       </c>
       <c r="D24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E24">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F24">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="G24">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="H24">
         <v>28</v>
@@ -2042,31 +2042,31 @@
         <v>6</v>
       </c>
       <c r="J24">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="K24">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="L24">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M24">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N24">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O24">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P24">
         <v>2022</v>
       </c>
       <c r="Q24">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="R24">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -2074,55 +2074,55 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22033</v>
+        <v>22036</v>
       </c>
       <c r="C25" t="s">
         <v>40</v>
       </c>
       <c r="D25">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E25">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F25">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G25">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H25">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I25">
+        <v>6</v>
+      </c>
+      <c r="J25">
+        <v>7</v>
+      </c>
+      <c r="K25">
+        <v>118</v>
+      </c>
+      <c r="L25">
+        <v>24</v>
+      </c>
+      <c r="M25">
+        <v>13</v>
+      </c>
+      <c r="N25">
+        <v>7</v>
+      </c>
+      <c r="O25">
         <v>3</v>
-      </c>
-      <c r="J25">
-        <v>4</v>
-      </c>
-      <c r="K25">
-        <v>91</v>
-      </c>
-      <c r="L25">
-        <v>18</v>
-      </c>
-      <c r="M25">
-        <v>7</v>
-      </c>
-      <c r="N25">
-        <v>4</v>
-      </c>
-      <c r="O25">
-        <v>2</v>
       </c>
       <c r="P25">
         <v>2022</v>
       </c>
       <c r="Q25">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="R25">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -2130,55 +2130,55 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>22032</v>
+        <v>22035</v>
       </c>
       <c r="C26" t="s">
         <v>41</v>
       </c>
       <c r="D26">
+        <v>9</v>
+      </c>
+      <c r="E26">
+        <v>11</v>
+      </c>
+      <c r="F26">
+        <v>13</v>
+      </c>
+      <c r="G26">
+        <v>23</v>
+      </c>
+      <c r="H26">
+        <v>31</v>
+      </c>
+      <c r="I26">
         <v>5</v>
       </c>
-      <c r="E26">
-        <v>9</v>
-      </c>
-      <c r="F26">
-        <v>18</v>
-      </c>
-      <c r="G26">
-        <v>31</v>
-      </c>
-      <c r="H26">
-        <v>32</v>
-      </c>
-      <c r="I26">
-        <v>1</v>
-      </c>
       <c r="J26">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K26">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="L26">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M26">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="N26">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="O26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P26">
         <v>2022</v>
       </c>
       <c r="Q26">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R26">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -2186,43 +2186,43 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>22031</v>
+        <v>22034</v>
       </c>
       <c r="C27" t="s">
         <v>42</v>
       </c>
       <c r="D27">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E27">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F27">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="G27">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="H27">
         <v>28</v>
       </c>
       <c r="I27">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K27">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="L27">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M27">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N27">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O27">
         <v>4</v>
@@ -2231,7 +2231,7 @@
         <v>2022</v>
       </c>
       <c r="Q27">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="R27">
         <v>3</v>
@@ -2242,52 +2242,52 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>22030</v>
+        <v>22033</v>
       </c>
       <c r="C28" t="s">
         <v>43</v>
       </c>
       <c r="D28">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E28">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F28">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G28">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H28">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J28">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="K28">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L28">
         <v>18</v>
       </c>
       <c r="M28">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="N28">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P28">
         <v>2022</v>
       </c>
       <c r="Q28">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="R28">
         <v>3</v>
@@ -2298,52 +2298,52 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>22029</v>
+        <v>22032</v>
       </c>
       <c r="C29" t="s">
         <v>44</v>
       </c>
       <c r="D29">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E29">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F29">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G29">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="H29">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="I29">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J29">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="K29">
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="L29">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="M29">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="N29">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="O29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P29">
         <v>2022</v>
       </c>
       <c r="Q29">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="R29">
         <v>3</v>
@@ -2354,52 +2354,52 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>22028</v>
+        <v>22031</v>
       </c>
       <c r="C30" t="s">
         <v>45</v>
       </c>
       <c r="D30">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E30">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F30">
         <v>16</v>
       </c>
       <c r="G30">
+        <v>20</v>
+      </c>
+      <c r="H30">
+        <v>28</v>
+      </c>
+      <c r="I30">
+        <v>4</v>
+      </c>
+      <c r="J30">
+        <v>8</v>
+      </c>
+      <c r="K30">
+        <v>85</v>
+      </c>
+      <c r="L30">
         <v>17</v>
       </c>
-      <c r="H30">
-        <v>35</v>
-      </c>
-      <c r="I30">
-        <v>1</v>
-      </c>
-      <c r="J30">
-        <v>7</v>
-      </c>
-      <c r="K30">
-        <v>81</v>
-      </c>
-      <c r="L30">
-        <v>16</v>
-      </c>
       <c r="M30">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="N30">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P30">
         <v>2022</v>
       </c>
       <c r="Q30">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="R30">
         <v>3</v>
@@ -2410,52 +2410,52 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>22027</v>
+        <v>22030</v>
       </c>
       <c r="C31" t="s">
         <v>46</v>
       </c>
       <c r="D31">
+        <v>12</v>
+      </c>
+      <c r="E31">
+        <v>14</v>
+      </c>
+      <c r="F31">
+        <v>15</v>
+      </c>
+      <c r="G31">
+        <v>21</v>
+      </c>
+      <c r="H31">
+        <v>30</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>9</v>
+      </c>
+      <c r="K31">
+        <v>92</v>
+      </c>
+      <c r="L31">
+        <v>18</v>
+      </c>
+      <c r="M31">
+        <v>10</v>
+      </c>
+      <c r="N31">
+        <v>5</v>
+      </c>
+      <c r="O31">
         <v>3</v>
-      </c>
-      <c r="E31">
-        <v>6</v>
-      </c>
-      <c r="F31">
-        <v>11</v>
-      </c>
-      <c r="G31">
-        <v>31</v>
-      </c>
-      <c r="H31">
-        <v>32</v>
-      </c>
-      <c r="I31">
-        <v>5</v>
-      </c>
-      <c r="J31">
-        <v>12</v>
-      </c>
-      <c r="K31">
-        <v>83</v>
-      </c>
-      <c r="L31">
-        <v>17</v>
-      </c>
-      <c r="M31">
-        <v>17</v>
-      </c>
-      <c r="N31">
-        <v>9</v>
-      </c>
-      <c r="O31">
-        <v>2</v>
       </c>
       <c r="P31">
         <v>2022</v>
       </c>
       <c r="Q31">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="R31">
         <v>3</v>
@@ -2466,52 +2466,52 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>22026</v>
+        <v>22029</v>
       </c>
       <c r="C32" t="s">
         <v>47</v>
       </c>
       <c r="D32">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E32">
+        <v>8</v>
+      </c>
+      <c r="F32">
+        <v>10</v>
+      </c>
+      <c r="G32">
         <v>14</v>
       </c>
-      <c r="F32">
+      <c r="H32">
+        <v>17</v>
+      </c>
+      <c r="I32">
+        <v>10</v>
+      </c>
+      <c r="J32">
+        <v>12</v>
+      </c>
+      <c r="K32">
+        <v>56</v>
+      </c>
+      <c r="L32">
+        <v>11</v>
+      </c>
+      <c r="M32">
         <v>22</v>
       </c>
-      <c r="G32">
-        <v>23</v>
-      </c>
-      <c r="H32">
-        <v>27</v>
-      </c>
-      <c r="I32">
-        <v>8</v>
-      </c>
-      <c r="J32">
-        <v>10</v>
-      </c>
-      <c r="K32">
-        <v>97</v>
-      </c>
-      <c r="L32">
-        <v>19</v>
-      </c>
-      <c r="M32">
-        <v>18</v>
-      </c>
       <c r="N32">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="O32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P32">
         <v>2022</v>
       </c>
       <c r="Q32">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="R32">
         <v>3</v>
@@ -2522,7 +2522,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>22025</v>
+        <v>22028</v>
       </c>
       <c r="C33" t="s">
         <v>48</v>
@@ -2531,16 +2531,16 @@
         <v>4</v>
       </c>
       <c r="E33">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F33">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G33">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H33">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="I33">
         <v>1</v>
@@ -2549,10 +2549,10 @@
         <v>7</v>
       </c>
       <c r="K33">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="L33">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M33">
         <v>8</v>
@@ -2561,13 +2561,13 @@
         <v>4</v>
       </c>
       <c r="O33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P33">
         <v>2022</v>
       </c>
       <c r="Q33">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R33">
         <v>3</v>
@@ -2578,43 +2578,43 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>22024</v>
+        <v>22027</v>
       </c>
       <c r="C34" t="s">
         <v>49</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E34">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F34">
         <v>11</v>
       </c>
       <c r="G34">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H34">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I34">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J34">
         <v>12</v>
       </c>
       <c r="K34">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="L34">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M34">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N34">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O34">
         <v>2</v>
@@ -2623,7 +2623,7 @@
         <v>2022</v>
       </c>
       <c r="Q34">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="R34">
         <v>3</v>
@@ -2634,52 +2634,52 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>22023</v>
+        <v>22026</v>
       </c>
       <c r="C35" t="s">
         <v>50</v>
       </c>
       <c r="D35">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E35">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F35">
+        <v>22</v>
+      </c>
+      <c r="G35">
+        <v>23</v>
+      </c>
+      <c r="H35">
+        <v>27</v>
+      </c>
+      <c r="I35">
+        <v>8</v>
+      </c>
+      <c r="J35">
+        <v>10</v>
+      </c>
+      <c r="K35">
+        <v>97</v>
+      </c>
+      <c r="L35">
+        <v>19</v>
+      </c>
+      <c r="M35">
         <v>18</v>
       </c>
-      <c r="G35">
-        <v>20</v>
-      </c>
-      <c r="H35">
-        <v>25</v>
-      </c>
-      <c r="I35">
-        <v>11</v>
-      </c>
-      <c r="J35">
-        <v>12</v>
-      </c>
-      <c r="K35">
-        <v>72</v>
-      </c>
-      <c r="L35">
-        <v>14</v>
-      </c>
-      <c r="M35">
-        <v>23</v>
-      </c>
       <c r="N35">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="O35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P35">
         <v>2022</v>
       </c>
       <c r="Q35">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="R35">
         <v>3</v>
@@ -2690,52 +2690,52 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>22022</v>
+        <v>22025</v>
       </c>
       <c r="C36" t="s">
         <v>51</v>
       </c>
       <c r="D36">
+        <v>4</v>
+      </c>
+      <c r="E36">
+        <v>7</v>
+      </c>
+      <c r="F36">
+        <v>22</v>
+      </c>
+      <c r="G36">
+        <v>24</v>
+      </c>
+      <c r="H36">
+        <v>29</v>
+      </c>
+      <c r="I36">
         <v>1</v>
-      </c>
-      <c r="E36">
-        <v>5</v>
-      </c>
-      <c r="F36">
-        <v>14</v>
-      </c>
-      <c r="G36">
-        <v>17</v>
-      </c>
-      <c r="H36">
-        <v>28</v>
-      </c>
-      <c r="I36">
-        <v>6</v>
       </c>
       <c r="J36">
         <v>7</v>
       </c>
       <c r="K36">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="L36">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="M36">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="N36">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="O36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P36">
         <v>2022</v>
       </c>
       <c r="Q36">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="R36">
         <v>3</v>
@@ -2746,43 +2746,43 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>22021</v>
+        <v>22024</v>
       </c>
       <c r="C37" t="s">
         <v>52</v>
       </c>
       <c r="D37">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E37">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="F37">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G37">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H37">
         <v>35</v>
       </c>
       <c r="I37">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J37">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K37">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="L37">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M37">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N37">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O37">
         <v>2</v>
@@ -2791,10 +2791,10 @@
         <v>2022</v>
       </c>
       <c r="Q37">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="R37">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -2802,55 +2802,55 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>22020</v>
+        <v>22023</v>
       </c>
       <c r="C38" t="s">
         <v>53</v>
       </c>
       <c r="D38">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E38">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="F38">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="G38">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="H38">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I38">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J38">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K38">
-        <v>129</v>
+        <v>72</v>
       </c>
       <c r="L38">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="M38">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="N38">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="O38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P38">
         <v>2022</v>
       </c>
       <c r="Q38">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="R38">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -2858,7 +2858,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>22019</v>
+        <v>22022</v>
       </c>
       <c r="C39" t="s">
         <v>54</v>
@@ -2867,46 +2867,46 @@
         <v>1</v>
       </c>
       <c r="E39">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F39">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="G39">
         <v>17</v>
       </c>
       <c r="H39">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I39">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J39">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K39">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="L39">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="M39">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="N39">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="O39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P39">
         <v>2022</v>
       </c>
       <c r="Q39">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="R39">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -2914,25 +2914,25 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>22018</v>
+        <v>22021</v>
       </c>
       <c r="C40" t="s">
         <v>55</v>
       </c>
       <c r="D40">
+        <v>11</v>
+      </c>
+      <c r="E40">
+        <v>15</v>
+      </c>
+      <c r="F40">
         <v>16</v>
       </c>
-      <c r="E40">
-        <v>21</v>
-      </c>
-      <c r="F40">
-        <v>29</v>
-      </c>
       <c r="G40">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="H40">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I40">
         <v>6</v>
@@ -2941,10 +2941,10 @@
         <v>9</v>
       </c>
       <c r="K40">
-        <v>131</v>
+        <v>95</v>
       </c>
       <c r="L40">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="M40">
         <v>15</v>
@@ -2959,7 +2959,7 @@
         <v>2022</v>
       </c>
       <c r="Q40">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="R40">
         <v>2</v>
@@ -2970,52 +2970,52 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>22017</v>
+        <v>22020</v>
       </c>
       <c r="C41" t="s">
         <v>56</v>
       </c>
       <c r="D41">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E41">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F41">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G41">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="H41">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="I41">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J41">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K41">
-        <v>90</v>
+        <v>129</v>
       </c>
       <c r="L41">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="M41">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N41">
         <v>9</v>
       </c>
       <c r="O41">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P41">
         <v>2022</v>
       </c>
       <c r="Q41">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="R41">
         <v>2</v>
@@ -3026,7 +3026,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>22016</v>
+        <v>22019</v>
       </c>
       <c r="C42" t="s">
         <v>57</v>
@@ -3035,43 +3035,43 @@
         <v>1</v>
       </c>
       <c r="E42">
+        <v>4</v>
+      </c>
+      <c r="F42">
         <v>7</v>
       </c>
-      <c r="F42">
+      <c r="G42">
         <v>17</v>
       </c>
-      <c r="G42">
-        <v>26</v>
-      </c>
       <c r="H42">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I42">
         <v>1</v>
       </c>
       <c r="J42">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="K42">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="L42">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="M42">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="N42">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P42">
         <v>2022</v>
       </c>
       <c r="Q42">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="R42">
         <v>2</v>
@@ -3082,52 +3082,52 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>22015</v>
+        <v>22018</v>
       </c>
       <c r="C43" t="s">
         <v>58</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E43">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="F43">
+        <v>29</v>
+      </c>
+      <c r="G43">
+        <v>31</v>
+      </c>
+      <c r="H43">
+        <v>34</v>
+      </c>
+      <c r="I43">
+        <v>6</v>
+      </c>
+      <c r="J43">
+        <v>9</v>
+      </c>
+      <c r="K43">
+        <v>131</v>
+      </c>
+      <c r="L43">
+        <v>26</v>
+      </c>
+      <c r="M43">
+        <v>15</v>
+      </c>
+      <c r="N43">
         <v>8</v>
       </c>
-      <c r="G43">
-        <v>12</v>
-      </c>
-      <c r="H43">
-        <v>30</v>
-      </c>
-      <c r="I43">
-        <v>5</v>
-      </c>
-      <c r="J43">
-        <v>12</v>
-      </c>
-      <c r="K43">
-        <v>53</v>
-      </c>
-      <c r="L43">
-        <v>11</v>
-      </c>
-      <c r="M43">
-        <v>17</v>
-      </c>
-      <c r="N43">
-        <v>9</v>
-      </c>
       <c r="O43">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P43">
         <v>2022</v>
       </c>
       <c r="Q43">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R43">
         <v>2</v>
@@ -3138,52 +3138,52 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>22014</v>
+        <v>22017</v>
       </c>
       <c r="C44" t="s">
         <v>59</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E44">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F44">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G44">
+        <v>23</v>
+      </c>
+      <c r="H44">
+        <v>25</v>
+      </c>
+      <c r="I44">
+        <v>7</v>
+      </c>
+      <c r="J44">
+        <v>11</v>
+      </c>
+      <c r="K44">
+        <v>90</v>
+      </c>
+      <c r="L44">
         <v>18</v>
       </c>
-      <c r="H44">
-        <v>32</v>
-      </c>
-      <c r="I44">
-        <v>1</v>
-      </c>
-      <c r="J44">
-        <v>9</v>
-      </c>
-      <c r="K44">
-        <v>65</v>
-      </c>
-      <c r="L44">
-        <v>13</v>
-      </c>
       <c r="M44">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="N44">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="O44">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P44">
         <v>2022</v>
       </c>
       <c r="Q44">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="R44">
         <v>2</v>
@@ -3194,52 +3194,52 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>22013</v>
+        <v>22016</v>
       </c>
       <c r="C45" t="s">
         <v>60</v>
       </c>
       <c r="D45">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E45">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F45">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G45">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H45">
         <v>32</v>
       </c>
       <c r="I45">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J45">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K45">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="L45">
         <v>17</v>
       </c>
       <c r="M45">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N45">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O45">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P45">
         <v>2022</v>
       </c>
       <c r="Q45">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="R45">
         <v>2</v>
@@ -3250,37 +3250,37 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>22012</v>
+        <v>22015</v>
       </c>
       <c r="C46" t="s">
         <v>61</v>
       </c>
       <c r="D46">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E46">
+        <v>2</v>
+      </c>
+      <c r="F46">
+        <v>8</v>
+      </c>
+      <c r="G46">
+        <v>12</v>
+      </c>
+      <c r="H46">
+        <v>30</v>
+      </c>
+      <c r="I46">
         <v>5</v>
       </c>
-      <c r="F46">
-        <v>10</v>
-      </c>
-      <c r="G46">
-        <v>33</v>
-      </c>
-      <c r="H46">
-        <v>34</v>
-      </c>
-      <c r="I46">
-        <v>7</v>
-      </c>
       <c r="J46">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K46">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="L46">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="M46">
         <v>17</v>
@@ -3289,16 +3289,16 @@
         <v>9</v>
       </c>
       <c r="O46">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P46">
         <v>2022</v>
       </c>
       <c r="Q46">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R46">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:18">
@@ -3306,55 +3306,55 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>22011</v>
+        <v>22014</v>
       </c>
       <c r="C47" t="s">
         <v>62</v>
       </c>
       <c r="D47">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E47">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F47">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G47">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H47">
         <v>32</v>
       </c>
       <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <v>9</v>
+      </c>
+      <c r="K47">
+        <v>65</v>
+      </c>
+      <c r="L47">
+        <v>13</v>
+      </c>
+      <c r="M47">
+        <v>10</v>
+      </c>
+      <c r="N47">
         <v>5</v>
       </c>
-      <c r="J47">
-        <v>12</v>
-      </c>
-      <c r="K47">
-        <v>81</v>
-      </c>
-      <c r="L47">
-        <v>16</v>
-      </c>
-      <c r="M47">
-        <v>17</v>
-      </c>
-      <c r="N47">
-        <v>9</v>
-      </c>
       <c r="O47">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P47">
         <v>2022</v>
       </c>
       <c r="Q47">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="R47">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -3362,7 +3362,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>22010</v>
+        <v>22013</v>
       </c>
       <c r="C48" t="s">
         <v>63</v>
@@ -3371,46 +3371,46 @@
         <v>4</v>
       </c>
       <c r="E48">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="F48">
+        <v>16</v>
+      </c>
+      <c r="G48">
         <v>25</v>
       </c>
-      <c r="G48">
-        <v>31</v>
-      </c>
       <c r="H48">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I48">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J48">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="K48">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="L48">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M48">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N48">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O48">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P48">
         <v>2022</v>
       </c>
       <c r="Q48">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="R48">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:18">
@@ -3418,25 +3418,25 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>22009</v>
+        <v>22012</v>
       </c>
       <c r="C49" t="s">
         <v>64</v>
       </c>
       <c r="D49">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E49">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="F49">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G49">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H49">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I49">
         <v>7</v>
@@ -3445,10 +3445,10 @@
         <v>10</v>
       </c>
       <c r="K49">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="L49">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="M49">
         <v>17</v>
@@ -3463,7 +3463,7 @@
         <v>2022</v>
       </c>
       <c r="Q49">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="R49">
         <v>1</v>
@@ -3474,52 +3474,52 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>22008</v>
+        <v>22011</v>
       </c>
       <c r="C50" t="s">
         <v>65</v>
       </c>
       <c r="D50">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E50">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F50">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G50">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="H50">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I50">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J50">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="K50">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="L50">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M50">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N50">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O50">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P50">
         <v>2022</v>
       </c>
       <c r="Q50">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="R50">
         <v>1</v>
@@ -3530,40 +3530,40 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>22007</v>
+        <v>22010</v>
       </c>
       <c r="C51" t="s">
         <v>66</v>
       </c>
       <c r="D51">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E51">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F51">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G51">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H51">
         <v>35</v>
       </c>
       <c r="I51">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J51">
         <v>11</v>
       </c>
       <c r="K51">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="L51">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M51">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N51">
         <v>7</v>
@@ -3575,7 +3575,7 @@
         <v>2022</v>
       </c>
       <c r="Q51">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="R51">
         <v>1</v>
@@ -3586,37 +3586,37 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>22006</v>
+        <v>22009</v>
       </c>
       <c r="C52" t="s">
         <v>67</v>
       </c>
       <c r="D52">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E52">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F52">
+        <v>18</v>
+      </c>
+      <c r="G52">
+        <v>31</v>
+      </c>
+      <c r="H52">
+        <v>33</v>
+      </c>
+      <c r="I52">
         <v>7</v>
       </c>
-      <c r="G52">
-        <v>17</v>
-      </c>
-      <c r="H52">
-        <v>20</v>
-      </c>
-      <c r="I52">
-        <v>5</v>
-      </c>
       <c r="J52">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K52">
-        <v>50</v>
+        <v>109</v>
       </c>
       <c r="L52">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="M52">
         <v>17</v>
@@ -3625,13 +3625,13 @@
         <v>9</v>
       </c>
       <c r="O52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P52">
         <v>2022</v>
       </c>
       <c r="Q52">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="R52">
         <v>1</v>
@@ -3642,52 +3642,52 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>22005</v>
+        <v>22008</v>
       </c>
       <c r="C53" t="s">
         <v>68</v>
       </c>
       <c r="D53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E53">
+        <v>2</v>
+      </c>
+      <c r="F53">
         <v>13</v>
       </c>
-      <c r="F53">
-        <v>17</v>
-      </c>
       <c r="G53">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H53">
         <v>34</v>
       </c>
       <c r="I53">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J53">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K53">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="L53">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="M53">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N53">
         <v>7</v>
       </c>
       <c r="O53">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P53">
         <v>2022</v>
       </c>
       <c r="Q53">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="R53">
         <v>1</v>
@@ -3698,52 +3698,52 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>22004</v>
+        <v>22007</v>
       </c>
       <c r="C54" t="s">
         <v>69</v>
       </c>
       <c r="D54">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E54">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F54">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G54">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H54">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I54">
         <v>3</v>
       </c>
       <c r="J54">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="K54">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="L54">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M54">
+        <v>14</v>
+      </c>
+      <c r="N54">
         <v>7</v>
       </c>
-      <c r="N54">
-        <v>4</v>
-      </c>
       <c r="O54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P54">
         <v>2022</v>
       </c>
       <c r="Q54">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="R54">
         <v>1</v>
@@ -3754,52 +3754,52 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>22003</v>
+        <v>22006</v>
       </c>
       <c r="C55" t="s">
         <v>70</v>
       </c>
       <c r="D55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E55">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="F55">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="G55">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H55">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="I55">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J55">
         <v>12</v>
       </c>
       <c r="K55">
-        <v>103</v>
+        <v>50</v>
       </c>
       <c r="L55">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="M55">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N55">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O55">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P55">
         <v>2022</v>
       </c>
       <c r="Q55">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="R55">
         <v>1</v>
@@ -3810,52 +3810,52 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>22002</v>
+        <v>22005</v>
       </c>
       <c r="C56" t="s">
         <v>71</v>
       </c>
       <c r="D56">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E56">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="F56">
+        <v>17</v>
+      </c>
+      <c r="G56">
+        <v>19</v>
+      </c>
+      <c r="H56">
+        <v>34</v>
+      </c>
+      <c r="I56">
+        <v>5</v>
+      </c>
+      <c r="J56">
+        <v>9</v>
+      </c>
+      <c r="K56">
+        <v>85</v>
+      </c>
+      <c r="L56">
+        <v>17</v>
+      </c>
+      <c r="M56">
+        <v>14</v>
+      </c>
+      <c r="N56">
         <v>7</v>
       </c>
-      <c r="G56">
-        <v>9</v>
-      </c>
-      <c r="H56">
-        <v>24</v>
-      </c>
-      <c r="I56">
-        <v>4</v>
-      </c>
-      <c r="J56">
-        <v>12</v>
-      </c>
-      <c r="K56">
-        <v>50</v>
-      </c>
-      <c r="L56">
-        <v>10</v>
-      </c>
-      <c r="M56">
-        <v>16</v>
-      </c>
-      <c r="N56">
-        <v>8</v>
-      </c>
       <c r="O56">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P56">
         <v>2022</v>
       </c>
       <c r="Q56">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R56">
         <v>1</v>
@@ -3866,43 +3866,43 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>22001</v>
+        <v>22004</v>
       </c>
       <c r="C57" t="s">
         <v>72</v>
       </c>
       <c r="D57">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E57">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F57">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="G57">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="H57">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I57">
         <v>3</v>
       </c>
       <c r="J57">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="K57">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="L57">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="M57">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N57">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="O57">
         <v>2</v>
@@ -3911,7 +3911,7 @@
         <v>2022</v>
       </c>
       <c r="Q57">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R57">
         <v>1</v>
@@ -3922,55 +3922,55 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>21150</v>
+        <v>22003</v>
       </c>
       <c r="C58" t="s">
         <v>73</v>
       </c>
       <c r="D58">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E58">
+        <v>18</v>
+      </c>
+      <c r="F58">
+        <v>24</v>
+      </c>
+      <c r="G58">
+        <v>25</v>
+      </c>
+      <c r="H58">
+        <v>34</v>
+      </c>
+      <c r="I58">
+        <v>8</v>
+      </c>
+      <c r="J58">
+        <v>12</v>
+      </c>
+      <c r="K58">
+        <v>103</v>
+      </c>
+      <c r="L58">
+        <v>21</v>
+      </c>
+      <c r="M58">
+        <v>20</v>
+      </c>
+      <c r="N58">
         <v>10</v>
       </c>
-      <c r="F58">
-        <v>11</v>
-      </c>
-      <c r="G58">
-        <v>23</v>
-      </c>
-      <c r="H58">
-        <v>26</v>
-      </c>
-      <c r="I58">
-        <v>7</v>
-      </c>
-      <c r="J58">
-        <v>10</v>
-      </c>
-      <c r="K58">
-        <v>74</v>
-      </c>
-      <c r="L58">
-        <v>15</v>
-      </c>
-      <c r="M58">
-        <v>17</v>
-      </c>
-      <c r="N58">
-        <v>9</v>
-      </c>
       <c r="O58">
+        <v>4</v>
+      </c>
+      <c r="P58">
+        <v>2022</v>
+      </c>
+      <c r="Q58">
         <v>3</v>
       </c>
-      <c r="P58">
-        <v>2021</v>
-      </c>
-      <c r="Q58">
-        <v>150</v>
-      </c>
       <c r="R58">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -3978,55 +3978,55 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>21149</v>
+        <v>22002</v>
       </c>
       <c r="C59" t="s">
         <v>74</v>
       </c>
       <c r="D59">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="E59">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="F59">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="G59">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="H59">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="I59">
+        <v>4</v>
+      </c>
+      <c r="J59">
+        <v>12</v>
+      </c>
+      <c r="K59">
+        <v>50</v>
+      </c>
+      <c r="L59">
         <v>10</v>
       </c>
-      <c r="J59">
-        <v>11</v>
-      </c>
-      <c r="K59">
-        <v>139</v>
-      </c>
-      <c r="L59">
-        <v>28</v>
-      </c>
       <c r="M59">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="N59">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="O59">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P59">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="Q59">
-        <v>149</v>
+        <v>2</v>
       </c>
       <c r="R59">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:18">
@@ -4034,55 +4034,55 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>21148</v>
+        <v>22001</v>
       </c>
       <c r="C60" t="s">
         <v>75</v>
       </c>
       <c r="D60">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E60">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F60">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G60">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H60">
         <v>29</v>
       </c>
       <c r="I60">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J60">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="K60">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="L60">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="M60">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N60">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O60">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P60">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="Q60">
-        <v>148</v>
+        <v>1</v>
       </c>
       <c r="R60">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:18">
@@ -4090,52 +4090,52 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>21147</v>
+        <v>21150</v>
       </c>
       <c r="C61" t="s">
         <v>76</v>
       </c>
       <c r="D61">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E61">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F61">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G61">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="H61">
         <v>26</v>
       </c>
       <c r="I61">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J61">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="K61">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="L61">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="M61">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="N61">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="O61">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P61">
         <v>2021</v>
       </c>
       <c r="Q61">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="R61">
         <v>12</v>
@@ -4146,52 +4146,52 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>21146</v>
+        <v>21149</v>
       </c>
       <c r="C62" t="s">
         <v>77</v>
       </c>
       <c r="D62">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="E62">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="F62">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="G62">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H62">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="I62">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J62">
         <v>11</v>
       </c>
       <c r="K62">
-        <v>54</v>
+        <v>139</v>
       </c>
       <c r="L62">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="M62">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N62">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O62">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P62">
         <v>2021</v>
       </c>
       <c r="Q62">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="R62">
         <v>12</v>
@@ -4202,52 +4202,52 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>21145</v>
+        <v>21148</v>
       </c>
       <c r="C63" t="s">
         <v>78</v>
       </c>
       <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63">
+        <v>4</v>
+      </c>
+      <c r="F63">
+        <v>12</v>
+      </c>
+      <c r="G63">
+        <v>16</v>
+      </c>
+      <c r="H63">
+        <v>29</v>
+      </c>
+      <c r="I63">
+        <v>4</v>
+      </c>
+      <c r="J63">
+        <v>8</v>
+      </c>
+      <c r="K63">
+        <v>62</v>
+      </c>
+      <c r="L63">
+        <v>12</v>
+      </c>
+      <c r="M63">
+        <v>12</v>
+      </c>
+      <c r="N63">
+        <v>6</v>
+      </c>
+      <c r="O63">
         <v>3</v>
-      </c>
-      <c r="E63">
-        <v>8</v>
-      </c>
-      <c r="F63">
-        <v>25</v>
-      </c>
-      <c r="G63">
-        <v>29</v>
-      </c>
-      <c r="H63">
-        <v>30</v>
-      </c>
-      <c r="I63">
-        <v>1</v>
-      </c>
-      <c r="J63">
-        <v>6</v>
-      </c>
-      <c r="K63">
-        <v>95</v>
-      </c>
-      <c r="L63">
-        <v>19</v>
-      </c>
-      <c r="M63">
-        <v>7</v>
-      </c>
-      <c r="N63">
-        <v>4</v>
-      </c>
-      <c r="O63">
-        <v>2</v>
       </c>
       <c r="P63">
         <v>2021</v>
       </c>
       <c r="Q63">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="R63">
         <v>12</v>
@@ -4258,52 +4258,52 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>21144</v>
+        <v>21147</v>
       </c>
       <c r="C64" t="s">
         <v>79</v>
       </c>
       <c r="D64">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E64">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="F64">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="G64">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="H64">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="I64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J64">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K64">
-        <v>112</v>
+        <v>49</v>
       </c>
       <c r="L64">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="M64">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="N64">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O64">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P64">
         <v>2021</v>
       </c>
       <c r="Q64">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="R64">
         <v>12</v>
@@ -4314,52 +4314,52 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>21143</v>
+        <v>21146</v>
       </c>
       <c r="C65" t="s">
         <v>80</v>
       </c>
       <c r="D65">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E65">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="F65">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="G65">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="H65">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="I65">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J65">
         <v>11</v>
       </c>
       <c r="K65">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="L65">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="M65">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N65">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O65">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P65">
         <v>2021</v>
       </c>
       <c r="Q65">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="R65">
         <v>12</v>
@@ -4370,52 +4370,52 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>21142</v>
+        <v>21145</v>
       </c>
       <c r="C66" t="s">
         <v>81</v>
       </c>
       <c r="D66">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E66">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F66">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="G66">
+        <v>29</v>
+      </c>
+      <c r="H66">
+        <v>30</v>
+      </c>
+      <c r="I66">
+        <v>1</v>
+      </c>
+      <c r="J66">
+        <v>6</v>
+      </c>
+      <c r="K66">
+        <v>95</v>
+      </c>
+      <c r="L66">
         <v>19</v>
       </c>
-      <c r="H66">
-        <v>25</v>
-      </c>
-      <c r="I66">
-        <v>2</v>
-      </c>
-      <c r="J66">
-        <v>9</v>
-      </c>
-      <c r="K66">
-        <v>85</v>
-      </c>
-      <c r="L66">
-        <v>17</v>
-      </c>
       <c r="M66">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N66">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O66">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P66">
         <v>2021</v>
       </c>
       <c r="Q66">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="R66">
         <v>12</v>
@@ -4426,52 +4426,52 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>21141</v>
+        <v>21144</v>
       </c>
       <c r="C67" t="s">
         <v>82</v>
       </c>
       <c r="D67">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E67">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F67">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="G67">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H67">
         <v>34</v>
       </c>
       <c r="I67">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J67">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="K67">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="L67">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="M67">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="N67">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="O67">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P67">
         <v>2021</v>
       </c>
       <c r="Q67">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="R67">
         <v>12</v>
@@ -4482,52 +4482,52 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>21140</v>
+        <v>21143</v>
       </c>
       <c r="C68" t="s">
         <v>83</v>
       </c>
       <c r="D68">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E68">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F68">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="G68">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H68">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I68">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J68">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K68">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="L68">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M68">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="N68">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="O68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P68">
         <v>2021</v>
       </c>
       <c r="Q68">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="R68">
         <v>12</v>
@@ -4538,52 +4538,52 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>21139</v>
+        <v>21142</v>
       </c>
       <c r="C69" t="s">
         <v>84</v>
       </c>
       <c r="D69">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E69">
         <v>13</v>
       </c>
       <c r="F69">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G69">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H69">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="I69">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J69">
         <v>9</v>
       </c>
       <c r="K69">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="L69">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M69">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="N69">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="O69">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P69">
         <v>2021</v>
       </c>
       <c r="Q69">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="R69">
         <v>12</v>
@@ -4594,52 +4594,52 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>21138</v>
+        <v>21141</v>
       </c>
       <c r="C70" t="s">
         <v>85</v>
       </c>
       <c r="D70">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E70">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F70">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G70">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="H70">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I70">
         <v>5</v>
       </c>
       <c r="J70">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K70">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="L70">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M70">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N70">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O70">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P70">
         <v>2021</v>
       </c>
       <c r="Q70">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="R70">
         <v>12</v>
@@ -4650,43 +4650,43 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>21137</v>
+        <v>21140</v>
       </c>
       <c r="C71" t="s">
         <v>86</v>
       </c>
       <c r="D71">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E71">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="F71">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="G71">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="H71">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="I71">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J71">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="K71">
-        <v>55</v>
+        <v>123</v>
       </c>
       <c r="L71">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="M71">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="N71">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O71">
         <v>2</v>
@@ -4695,10 +4695,10 @@
         <v>2021</v>
       </c>
       <c r="Q71">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="R71">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -4706,43 +4706,43 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>21136</v>
+        <v>21139</v>
       </c>
       <c r="C72" t="s">
         <v>87</v>
       </c>
       <c r="D72">
+        <v>5</v>
+      </c>
+      <c r="E72">
+        <v>13</v>
+      </c>
+      <c r="F72">
+        <v>18</v>
+      </c>
+      <c r="G72">
+        <v>23</v>
+      </c>
+      <c r="H72">
+        <v>34</v>
+      </c>
+      <c r="I72">
         <v>8</v>
       </c>
-      <c r="E72">
-        <v>12</v>
-      </c>
-      <c r="F72">
+      <c r="J72">
+        <v>9</v>
+      </c>
+      <c r="K72">
+        <v>93</v>
+      </c>
+      <c r="L72">
         <v>19</v>
       </c>
-      <c r="G72">
-        <v>27</v>
-      </c>
-      <c r="H72">
-        <v>33</v>
-      </c>
-      <c r="I72">
-        <v>2</v>
-      </c>
-      <c r="J72">
-        <v>5</v>
-      </c>
-      <c r="K72">
-        <v>99</v>
-      </c>
-      <c r="L72">
-        <v>20</v>
-      </c>
       <c r="M72">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="N72">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="O72">
         <v>2</v>
@@ -4751,10 +4751,10 @@
         <v>2021</v>
       </c>
       <c r="Q72">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="R72">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" spans="1:18">
@@ -4762,22 +4762,22 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>21135</v>
+        <v>21138</v>
       </c>
       <c r="C73" t="s">
         <v>88</v>
       </c>
       <c r="D73">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E73">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F73">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G73">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="H73">
         <v>31</v>
@@ -4786,19 +4786,19 @@
         <v>5</v>
       </c>
       <c r="J73">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="K73">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="L73">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M73">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="N73">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O73">
         <v>1</v>
@@ -4807,10 +4807,10 @@
         <v>2021</v>
       </c>
       <c r="Q73">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="R73">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" spans="1:18">
@@ -4818,7 +4818,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>21134</v>
+        <v>21137</v>
       </c>
       <c r="C74" t="s">
         <v>89</v>
@@ -4827,43 +4827,43 @@
         <v>2</v>
       </c>
       <c r="E74">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F74">
+        <v>13</v>
+      </c>
+      <c r="G74">
         <v>14</v>
       </c>
-      <c r="G74">
+      <c r="H74">
         <v>19</v>
       </c>
-      <c r="H74">
-        <v>28</v>
-      </c>
       <c r="I74">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J74">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K74">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="L74">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="M74">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N74">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O74">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P74">
         <v>2021</v>
       </c>
       <c r="Q74">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="R74">
         <v>11</v>
@@ -4874,7 +4874,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>21133</v>
+        <v>21136</v>
       </c>
       <c r="C75" t="s">
         <v>90</v>
@@ -4883,43 +4883,43 @@
         <v>8</v>
       </c>
       <c r="E75">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F75">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G75">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H75">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="I75">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J75">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K75">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="L75">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M75">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N75">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="O75">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P75">
         <v>2021</v>
       </c>
       <c r="Q75">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="R75">
         <v>11</v>
@@ -4930,7 +4930,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>21132</v>
+        <v>21135</v>
       </c>
       <c r="C76" t="s">
         <v>91</v>
@@ -4939,43 +4939,43 @@
         <v>4</v>
       </c>
       <c r="E76">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="F76">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="G76">
         <v>29</v>
       </c>
       <c r="H76">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I76">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J76">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="K76">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="L76">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="M76">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="N76">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P76">
         <v>2021</v>
       </c>
       <c r="Q76">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="R76">
         <v>11</v>
@@ -4986,43 +4986,43 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>21131</v>
+        <v>21134</v>
       </c>
       <c r="C77" t="s">
         <v>92</v>
       </c>
       <c r="D77">
+        <v>2</v>
+      </c>
+      <c r="E77">
         <v>6</v>
       </c>
-      <c r="E77">
-        <v>8</v>
-      </c>
       <c r="F77">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G77">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="H77">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="I77">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J77">
         <v>6</v>
       </c>
       <c r="K77">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="L77">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="M77">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N77">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O77">
         <v>4</v>
@@ -5031,7 +5031,7 @@
         <v>2021</v>
       </c>
       <c r="Q77">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="R77">
         <v>11</v>
@@ -5042,43 +5042,43 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>21130</v>
+        <v>21133</v>
       </c>
       <c r="C78" t="s">
         <v>93</v>
       </c>
       <c r="D78">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E78">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F78">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G78">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H78">
         <v>28</v>
       </c>
       <c r="I78">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J78">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K78">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="L78">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M78">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N78">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O78">
         <v>3</v>
@@ -5087,7 +5087,7 @@
         <v>2021</v>
       </c>
       <c r="Q78">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="R78">
         <v>11</v>
@@ -5098,37 +5098,37 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>21129</v>
+        <v>21132</v>
       </c>
       <c r="C79" t="s">
         <v>94</v>
       </c>
       <c r="D79">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E79">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F79">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="G79">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="H79">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I79">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J79">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K79">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="L79">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="M79">
         <v>14</v>
@@ -5137,13 +5137,13 @@
         <v>7</v>
       </c>
       <c r="O79">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P79">
         <v>2021</v>
       </c>
       <c r="Q79">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="R79">
         <v>11</v>
@@ -5154,31 +5154,31 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>21128</v>
+        <v>21131</v>
       </c>
       <c r="C80" t="s">
         <v>95</v>
       </c>
       <c r="D80">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E80">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F80">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G80">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="H80">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="I80">
         <v>5</v>
       </c>
       <c r="J80">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K80">
         <v>99</v>
@@ -5187,19 +5187,19 @@
         <v>20</v>
       </c>
       <c r="M80">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N80">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O80">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P80">
         <v>2021</v>
       </c>
       <c r="Q80">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="R80">
         <v>11</v>
@@ -5210,52 +5210,52 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>21127</v>
+        <v>21130</v>
       </c>
       <c r="C81" t="s">
         <v>96</v>
       </c>
       <c r="D81">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E81">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F81">
+        <v>14</v>
+      </c>
+      <c r="G81">
+        <v>27</v>
+      </c>
+      <c r="H81">
+        <v>28</v>
+      </c>
+      <c r="I81">
+        <v>5</v>
+      </c>
+      <c r="J81">
+        <v>10</v>
+      </c>
+      <c r="K81">
+        <v>74</v>
+      </c>
+      <c r="L81">
         <v>15</v>
       </c>
-      <c r="G81">
-        <v>17</v>
-      </c>
-      <c r="H81">
-        <v>26</v>
-      </c>
-      <c r="I81">
-        <v>2</v>
-      </c>
-      <c r="J81">
-        <v>11</v>
-      </c>
-      <c r="K81">
-        <v>61</v>
-      </c>
-      <c r="L81">
-        <v>12</v>
-      </c>
       <c r="M81">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N81">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O81">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P81">
         <v>2021</v>
       </c>
       <c r="Q81">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="R81">
         <v>11</v>
@@ -5266,52 +5266,52 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>21126</v>
+        <v>21129</v>
       </c>
       <c r="C82" t="s">
         <v>97</v>
       </c>
       <c r="D82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E82">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F82">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G82">
+        <v>18</v>
+      </c>
+      <c r="H82">
         <v>34</v>
       </c>
-      <c r="H82">
-        <v>35</v>
-      </c>
       <c r="I82">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J82">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K82">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="L82">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M82">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="N82">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="O82">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P82">
         <v>2021</v>
       </c>
       <c r="Q82">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="R82">
         <v>11</v>
@@ -5322,37 +5322,37 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>21125</v>
+        <v>21128</v>
       </c>
       <c r="C83" t="s">
         <v>98</v>
       </c>
       <c r="D83">
+        <v>14</v>
+      </c>
+      <c r="E83">
         <v>17</v>
       </c>
-      <c r="E83">
-        <v>19</v>
-      </c>
       <c r="F83">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G83">
+        <v>23</v>
+      </c>
+      <c r="H83">
         <v>27</v>
       </c>
-      <c r="H83">
-        <v>31</v>
-      </c>
       <c r="I83">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J83">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K83">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="L83">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M83">
         <v>13</v>
@@ -5361,13 +5361,13 @@
         <v>7</v>
       </c>
       <c r="O83">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P83">
         <v>2021</v>
       </c>
       <c r="Q83">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="R83">
         <v>11</v>
@@ -5378,43 +5378,43 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>21124</v>
+        <v>21127</v>
       </c>
       <c r="C84" t="s">
         <v>99</v>
       </c>
       <c r="D84">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E84">
+        <v>2</v>
+      </c>
+      <c r="F84">
+        <v>15</v>
+      </c>
+      <c r="G84">
         <v>17</v>
       </c>
-      <c r="F84">
-        <v>22</v>
-      </c>
-      <c r="G84">
-        <v>25</v>
-      </c>
       <c r="H84">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="I84">
+        <v>2</v>
+      </c>
+      <c r="J84">
+        <v>11</v>
+      </c>
+      <c r="K84">
+        <v>61</v>
+      </c>
+      <c r="L84">
+        <v>12</v>
+      </c>
+      <c r="M84">
+        <v>13</v>
+      </c>
+      <c r="N84">
         <v>7</v>
-      </c>
-      <c r="J84">
-        <v>9</v>
-      </c>
-      <c r="K84">
-        <v>109</v>
-      </c>
-      <c r="L84">
-        <v>22</v>
-      </c>
-      <c r="M84">
-        <v>16</v>
-      </c>
-      <c r="N84">
-        <v>8</v>
       </c>
       <c r="O84">
         <v>2</v>
@@ -5423,10 +5423,10 @@
         <v>2021</v>
       </c>
       <c r="Q84">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="R84">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="85" spans="1:18">
@@ -5434,43 +5434,43 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>21123</v>
+        <v>21126</v>
       </c>
       <c r="C85" t="s">
         <v>100</v>
       </c>
       <c r="D85">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E85">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="F85">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G85">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="H85">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I85">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J85">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K85">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="L85">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M85">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="N85">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="O85">
         <v>2</v>
@@ -5479,10 +5479,10 @@
         <v>2021</v>
       </c>
       <c r="Q85">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="R85">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="86" spans="1:18">
@@ -5490,55 +5490,55 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>21122</v>
+        <v>21125</v>
       </c>
       <c r="C86" t="s">
         <v>101</v>
       </c>
       <c r="D86">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E86">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F86">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G86">
         <v>27</v>
       </c>
       <c r="H86">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I86">
         <v>4</v>
       </c>
       <c r="J86">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K86">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="L86">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M86">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="N86">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O86">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P86">
         <v>2021</v>
       </c>
       <c r="Q86">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="R86">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="87" spans="1:18">
@@ -5546,43 +5546,43 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>21121</v>
+        <v>21124</v>
       </c>
       <c r="C87" t="s">
         <v>102</v>
       </c>
       <c r="D87">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E87">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F87">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G87">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H87">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="I87">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J87">
         <v>9</v>
       </c>
       <c r="K87">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="L87">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M87">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="N87">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O87">
         <v>2</v>
@@ -5591,7 +5591,7 @@
         <v>2021</v>
       </c>
       <c r="Q87">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="R87">
         <v>10</v>
@@ -5602,52 +5602,52 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>21120</v>
+        <v>21123</v>
       </c>
       <c r="C88" t="s">
         <v>103</v>
       </c>
       <c r="D88">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E88">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="F88">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G88">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H88">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I88">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J88">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K88">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="L88">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="M88">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N88">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O88">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P88">
         <v>2021</v>
       </c>
       <c r="Q88">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="R88">
         <v>10</v>
@@ -5658,52 +5658,52 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>21119</v>
+        <v>21122</v>
       </c>
       <c r="C89" t="s">
         <v>104</v>
       </c>
       <c r="D89">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E89">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="F89">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="G89">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="H89">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I89">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J89">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K89">
-        <v>58</v>
+        <v>111</v>
       </c>
       <c r="L89">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="M89">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="N89">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="O89">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P89">
         <v>2021</v>
       </c>
       <c r="Q89">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="R89">
         <v>10</v>
@@ -5714,52 +5714,52 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>21118</v>
+        <v>21121</v>
       </c>
       <c r="C90" t="s">
         <v>105</v>
       </c>
       <c r="D90">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E90">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F90">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G90">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H90">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I90">
         <v>2</v>
       </c>
       <c r="J90">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="K90">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="L90">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="M90">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N90">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O90">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P90">
         <v>2021</v>
       </c>
       <c r="Q90">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="R90">
         <v>10</v>
@@ -5770,52 +5770,52 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>21117</v>
+        <v>21120</v>
       </c>
       <c r="C91" t="s">
         <v>106</v>
       </c>
       <c r="D91">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E91">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F91">
         <v>21</v>
       </c>
       <c r="G91">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H91">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I91">
         <v>5</v>
       </c>
       <c r="J91">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="K91">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="L91">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M91">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="N91">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O91">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P91">
         <v>2021</v>
       </c>
       <c r="Q91">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="R91">
         <v>10</v>
@@ -5826,52 +5826,52 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>21116</v>
+        <v>21119</v>
       </c>
       <c r="C92" t="s">
         <v>107</v>
       </c>
       <c r="D92">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E92">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="F92">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="G92">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="H92">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="I92">
+        <v>9</v>
+      </c>
+      <c r="J92">
+        <v>10</v>
+      </c>
+      <c r="K92">
+        <v>58</v>
+      </c>
+      <c r="L92">
+        <v>12</v>
+      </c>
+      <c r="M92">
+        <v>19</v>
+      </c>
+      <c r="N92">
+        <v>10</v>
+      </c>
+      <c r="O92">
         <v>3</v>
-      </c>
-      <c r="J92">
-        <v>11</v>
-      </c>
-      <c r="K92">
-        <v>121</v>
-      </c>
-      <c r="L92">
-        <v>24</v>
-      </c>
-      <c r="M92">
-        <v>14</v>
-      </c>
-      <c r="N92">
-        <v>7</v>
-      </c>
-      <c r="O92">
-        <v>2</v>
       </c>
       <c r="P92">
         <v>2021</v>
       </c>
       <c r="Q92">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="R92">
         <v>10</v>
@@ -5882,52 +5882,52 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>21115</v>
+        <v>21118</v>
       </c>
       <c r="C93" t="s">
         <v>108</v>
       </c>
       <c r="D93">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E93">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F93">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G93">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="H93">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="I93">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J93">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="K93">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="L93">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="M93">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="N93">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="O93">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P93">
         <v>2021</v>
       </c>
       <c r="Q93">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="R93">
         <v>10</v>
@@ -5938,40 +5938,40 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>21114</v>
+        <v>21117</v>
       </c>
       <c r="C94" t="s">
         <v>109</v>
       </c>
       <c r="D94">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E94">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="F94">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G94">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="H94">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I94">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J94">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="K94">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="L94">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M94">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N94">
         <v>6</v>
@@ -5983,7 +5983,7 @@
         <v>2021</v>
       </c>
       <c r="Q94">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="R94">
         <v>10</v>
@@ -5994,43 +5994,43 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>21113</v>
+        <v>21116</v>
       </c>
       <c r="C95" t="s">
         <v>110</v>
       </c>
       <c r="D95">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="E95">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F95">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G95">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H95">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="I95">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J95">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="K95">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="L95">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M95">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N95">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O95">
         <v>2</v>
@@ -6039,10 +6039,10 @@
         <v>2021</v>
       </c>
       <c r="Q95">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="R95">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="96" spans="1:18">
@@ -6050,43 +6050,43 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>21112</v>
+        <v>21115</v>
       </c>
       <c r="C96" t="s">
         <v>111</v>
       </c>
       <c r="D96">
+        <v>8</v>
+      </c>
+      <c r="E96">
+        <v>13</v>
+      </c>
+      <c r="F96">
+        <v>19</v>
+      </c>
+      <c r="G96">
+        <v>20</v>
+      </c>
+      <c r="H96">
+        <v>29</v>
+      </c>
+      <c r="I96">
+        <v>6</v>
+      </c>
+      <c r="J96">
+        <v>10</v>
+      </c>
+      <c r="K96">
+        <v>89</v>
+      </c>
+      <c r="L96">
         <v>18</v>
       </c>
-      <c r="E96">
-        <v>21</v>
-      </c>
-      <c r="F96">
-        <v>22</v>
-      </c>
-      <c r="G96">
-        <v>23</v>
-      </c>
-      <c r="H96">
-        <v>35</v>
-      </c>
-      <c r="I96">
-        <v>11</v>
-      </c>
-      <c r="J96">
-        <v>12</v>
-      </c>
-      <c r="K96">
-        <v>119</v>
-      </c>
-      <c r="L96">
-        <v>24</v>
-      </c>
       <c r="M96">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="N96">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="O96">
         <v>2</v>
@@ -6095,10 +6095,10 @@
         <v>2021</v>
       </c>
       <c r="Q96">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="R96">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="97" spans="1:18">
@@ -6106,43 +6106,43 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>21111</v>
+        <v>21114</v>
       </c>
       <c r="C97" t="s">
         <v>112</v>
       </c>
       <c r="D97">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E97">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F97">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G97">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H97">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I97">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J97">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K97">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="L97">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M97">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="N97">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="O97">
         <v>2</v>
@@ -6151,10 +6151,10 @@
         <v>2021</v>
       </c>
       <c r="Q97">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="R97">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="98" spans="1:18">
@@ -6162,43 +6162,43 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>21110</v>
+        <v>21113</v>
       </c>
       <c r="C98" t="s">
         <v>113</v>
       </c>
       <c r="D98">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E98">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F98">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G98">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H98">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I98">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="J98">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="K98">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L98">
         <v>23</v>
       </c>
       <c r="M98">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="N98">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="O98">
         <v>2</v>
@@ -6207,7 +6207,7 @@
         <v>2021</v>
       </c>
       <c r="Q98">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="R98">
         <v>9</v>
@@ -6218,52 +6218,52 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>21109</v>
+        <v>21112</v>
       </c>
       <c r="C99" t="s">
         <v>114</v>
       </c>
       <c r="D99">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="E99">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="F99">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="G99">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H99">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I99">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="J99">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K99">
-        <v>72</v>
+        <v>119</v>
       </c>
       <c r="L99">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="M99">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="N99">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="O99">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P99">
         <v>2021</v>
       </c>
       <c r="Q99">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="R99">
         <v>9</v>
@@ -6274,43 +6274,43 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>21108</v>
+        <v>21111</v>
       </c>
       <c r="C100" t="s">
         <v>115</v>
       </c>
       <c r="D100">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E100">
+        <v>8</v>
+      </c>
+      <c r="F100">
+        <v>15</v>
+      </c>
+      <c r="G100">
         <v>19</v>
       </c>
-      <c r="F100">
-        <v>22</v>
-      </c>
-      <c r="G100">
-        <v>26</v>
-      </c>
       <c r="H100">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="I100">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J100">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K100">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="L100">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="M100">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="N100">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="O100">
         <v>2</v>
@@ -6319,7 +6319,7 @@
         <v>2021</v>
       </c>
       <c r="Q100">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="R100">
         <v>9</v>
@@ -6330,52 +6330,52 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>21107</v>
+        <v>21110</v>
       </c>
       <c r="C101" t="s">
         <v>116</v>
       </c>
       <c r="D101">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E101">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F101">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="G101">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="H101">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I101">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="J101">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K101">
-        <v>66</v>
+        <v>117</v>
       </c>
       <c r="L101">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M101">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="N101">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="O101">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P101">
         <v>2021</v>
       </c>
       <c r="Q101">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="R101">
         <v>9</v>

--- a/大乐透最近100期开奖号码.xlsx
+++ b/大乐透最近100期开奖号码.xlsx
@@ -67,6 +67,21 @@
     <t>年内月号</t>
   </si>
   <si>
+    <t>2022-06-08</t>
+  </si>
+  <si>
+    <t>2022-06-06</t>
+  </si>
+  <si>
+    <t>2022-06-04</t>
+  </si>
+  <si>
+    <t>2022-06-01</t>
+  </si>
+  <si>
+    <t>2022-05-30</t>
+  </si>
+  <si>
     <t>2022-05-28</t>
   </si>
   <si>
@@ -350,21 +365,6 @@
   </si>
   <si>
     <t>2021-10-09</t>
-  </si>
-  <si>
-    <t>2021-10-06</t>
-  </si>
-  <si>
-    <t>2021-09-29</t>
-  </si>
-  <si>
-    <t>2021-09-27</t>
-  </si>
-  <si>
-    <t>2021-09-25</t>
-  </si>
-  <si>
-    <t>2021-09-22</t>
   </si>
 </sst>
 </file>
@@ -786,31 +786,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>22059</v>
+        <v>22064</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
       </c>
       <c r="D2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E2">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F2">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G2">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="H2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K2">
         <v>103</v>
@@ -819,22 +819,22 @@
         <v>21</v>
       </c>
       <c r="M2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P2">
         <v>2022</v>
       </c>
       <c r="Q2">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="R2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -842,40 +842,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22058</v>
+        <v>22063</v>
       </c>
       <c r="C3" t="s">
         <v>18</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G3">
         <v>26</v>
       </c>
       <c r="H3">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K3">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N3">
         <v>8</v>
@@ -887,10 +887,10 @@
         <v>2022</v>
       </c>
       <c r="Q3">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="R3">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -898,55 +898,55 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22057</v>
+        <v>22062</v>
       </c>
       <c r="C4" t="s">
         <v>19</v>
       </c>
       <c r="D4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E4">
+        <v>9</v>
+      </c>
+      <c r="F4">
+        <v>11</v>
+      </c>
+      <c r="G4">
         <v>12</v>
       </c>
-      <c r="F4">
-        <v>18</v>
-      </c>
-      <c r="G4">
-        <v>21</v>
-      </c>
       <c r="H4">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I4">
         <v>7</v>
       </c>
       <c r="J4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K4">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="L4">
+        <v>14</v>
+      </c>
+      <c r="M4">
         <v>18</v>
       </c>
-      <c r="M4">
-        <v>17</v>
-      </c>
       <c r="N4">
         <v>9</v>
       </c>
       <c r="O4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P4">
         <v>2022</v>
       </c>
       <c r="Q4">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="R4">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -954,55 +954,55 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22056</v>
+        <v>22061</v>
       </c>
       <c r="C5" t="s">
         <v>20</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E5">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F5">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G5">
+        <v>22</v>
+      </c>
+      <c r="H5">
+        <v>30</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>6</v>
+      </c>
+      <c r="K5">
+        <v>86</v>
+      </c>
+      <c r="L5">
         <v>17</v>
       </c>
-      <c r="H5">
-        <v>31</v>
-      </c>
-      <c r="I5">
+      <c r="M5">
         <v>7</v>
       </c>
-      <c r="J5">
-        <v>9</v>
-      </c>
-      <c r="K5">
-        <v>76</v>
-      </c>
-      <c r="L5">
-        <v>15</v>
-      </c>
-      <c r="M5">
-        <v>16</v>
-      </c>
       <c r="N5">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P5">
         <v>2022</v>
       </c>
       <c r="Q5">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="R5">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -1010,52 +1010,52 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22055</v>
+        <v>22060</v>
       </c>
       <c r="C6" t="s">
         <v>21</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F6">
+        <v>10</v>
+      </c>
+      <c r="G6">
+        <v>11</v>
+      </c>
+      <c r="H6">
+        <v>20</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+      <c r="J6">
+        <v>9</v>
+      </c>
+      <c r="K6">
+        <v>49</v>
+      </c>
+      <c r="L6">
+        <v>10</v>
+      </c>
+      <c r="M6">
         <v>12</v>
       </c>
-      <c r="G6">
-        <v>15</v>
-      </c>
-      <c r="H6">
-        <v>23</v>
-      </c>
-      <c r="I6">
-        <v>4</v>
-      </c>
-      <c r="J6">
+      <c r="N6">
         <v>6</v>
       </c>
-      <c r="K6">
-        <v>53</v>
-      </c>
-      <c r="L6">
-        <v>11</v>
-      </c>
-      <c r="M6">
-        <v>10</v>
-      </c>
-      <c r="N6">
-        <v>5</v>
-      </c>
       <c r="O6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P6">
         <v>2022</v>
       </c>
       <c r="Q6">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="R6">
         <v>5</v>
@@ -1066,52 +1066,52 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22054</v>
+        <v>22059</v>
       </c>
       <c r="C7" t="s">
         <v>22</v>
       </c>
       <c r="D7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E7">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F7">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G7">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="H7">
         <v>34</v>
       </c>
       <c r="I7">
+        <v>4</v>
+      </c>
+      <c r="J7">
+        <v>9</v>
+      </c>
+      <c r="K7">
+        <v>103</v>
+      </c>
+      <c r="L7">
+        <v>21</v>
+      </c>
+      <c r="M7">
+        <v>13</v>
+      </c>
+      <c r="N7">
         <v>7</v>
       </c>
-      <c r="J7">
-        <v>10</v>
-      </c>
-      <c r="K7">
-        <v>99</v>
-      </c>
-      <c r="L7">
-        <v>20</v>
-      </c>
-      <c r="M7">
-        <v>17</v>
-      </c>
-      <c r="N7">
-        <v>9</v>
-      </c>
       <c r="O7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P7">
         <v>2022</v>
       </c>
       <c r="Q7">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="R7">
         <v>5</v>
@@ -1122,52 +1122,52 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>22053</v>
+        <v>22058</v>
       </c>
       <c r="C8" t="s">
         <v>23</v>
       </c>
       <c r="D8">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E8">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="F8">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G8">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="H8">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K8">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L8">
         <v>18</v>
       </c>
       <c r="M8">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N8">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="O8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P8">
         <v>2022</v>
       </c>
       <c r="Q8">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="R8">
         <v>5</v>
@@ -1178,52 +1178,52 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22052</v>
+        <v>22057</v>
       </c>
       <c r="C9" t="s">
         <v>24</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E9">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F9">
         <v>18</v>
       </c>
       <c r="G9">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H9">
         <v>35</v>
       </c>
       <c r="I9">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K9">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="L9">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M9">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N9">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P9">
         <v>2022</v>
       </c>
       <c r="Q9">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="R9">
         <v>5</v>
@@ -1234,43 +1234,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22051</v>
+        <v>22056</v>
       </c>
       <c r="C10" t="s">
         <v>25</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E10">
+        <v>11</v>
+      </c>
+      <c r="F10">
+        <v>15</v>
+      </c>
+      <c r="G10">
+        <v>17</v>
+      </c>
+      <c r="H10">
+        <v>31</v>
+      </c>
+      <c r="I10">
+        <v>7</v>
+      </c>
+      <c r="J10">
+        <v>9</v>
+      </c>
+      <c r="K10">
+        <v>76</v>
+      </c>
+      <c r="L10">
+        <v>15</v>
+      </c>
+      <c r="M10">
         <v>16</v>
       </c>
-      <c r="F10">
-        <v>17</v>
-      </c>
-      <c r="G10">
-        <v>19</v>
-      </c>
-      <c r="H10">
-        <v>33</v>
-      </c>
-      <c r="I10">
-        <v>5</v>
-      </c>
-      <c r="J10">
-        <v>6</v>
-      </c>
-      <c r="K10">
-        <v>86</v>
-      </c>
-      <c r="L10">
-        <v>17</v>
-      </c>
-      <c r="M10">
-        <v>11</v>
-      </c>
       <c r="N10">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O10">
         <v>1</v>
@@ -1279,7 +1279,7 @@
         <v>2022</v>
       </c>
       <c r="Q10">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="R10">
         <v>5</v>
@@ -1290,52 +1290,52 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22050</v>
+        <v>22055</v>
       </c>
       <c r="C11" t="s">
         <v>26</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>12</v>
+      </c>
+      <c r="G11">
+        <v>15</v>
+      </c>
+      <c r="H11">
+        <v>23</v>
+      </c>
+      <c r="I11">
+        <v>4</v>
+      </c>
+      <c r="J11">
+        <v>6</v>
+      </c>
+      <c r="K11">
+        <v>53</v>
+      </c>
+      <c r="L11">
+        <v>11</v>
+      </c>
+      <c r="M11">
         <v>10</v>
       </c>
-      <c r="F11">
-        <v>21</v>
-      </c>
-      <c r="G11">
-        <v>24</v>
-      </c>
-      <c r="H11">
-        <v>30</v>
-      </c>
-      <c r="I11">
-        <v>8</v>
-      </c>
-      <c r="J11">
-        <v>10</v>
-      </c>
-      <c r="K11">
-        <v>87</v>
-      </c>
-      <c r="L11">
-        <v>17</v>
-      </c>
-      <c r="M11">
-        <v>18</v>
-      </c>
       <c r="N11">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P11">
         <v>2022</v>
       </c>
       <c r="Q11">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="R11">
         <v>5</v>
@@ -1346,28 +1346,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>22049</v>
+        <v>22054</v>
       </c>
       <c r="C12" t="s">
         <v>27</v>
       </c>
       <c r="D12">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E12">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F12">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G12">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="H12">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J12">
         <v>10</v>
@@ -1379,19 +1379,19 @@
         <v>20</v>
       </c>
       <c r="M12">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="N12">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="O12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P12">
         <v>2022</v>
       </c>
       <c r="Q12">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="R12">
         <v>5</v>
@@ -1402,52 +1402,52 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>22048</v>
+        <v>22053</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
       </c>
       <c r="D13">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E13">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F13">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="G13">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="H13">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I13">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J13">
         <v>9</v>
       </c>
       <c r="K13">
-        <v>127</v>
+        <v>90</v>
       </c>
       <c r="L13">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="M13">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="N13">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O13">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P13">
         <v>2022</v>
       </c>
       <c r="Q13">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="R13">
         <v>5</v>
@@ -1458,55 +1458,55 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22047</v>
+        <v>22052</v>
       </c>
       <c r="C14" t="s">
         <v>29</v>
       </c>
       <c r="D14">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E14">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F14">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G14">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="H14">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J14">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K14">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="L14">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="M14">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N14">
         <v>7</v>
       </c>
       <c r="O14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P14">
         <v>2022</v>
       </c>
       <c r="Q14">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="R14">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -1514,55 +1514,55 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22046</v>
+        <v>22051</v>
       </c>
       <c r="C15" t="s">
         <v>30</v>
       </c>
       <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>16</v>
+      </c>
+      <c r="F15">
+        <v>17</v>
+      </c>
+      <c r="G15">
+        <v>19</v>
+      </c>
+      <c r="H15">
+        <v>33</v>
+      </c>
+      <c r="I15">
+        <v>5</v>
+      </c>
+      <c r="J15">
         <v>6</v>
       </c>
-      <c r="E15">
-        <v>7</v>
-      </c>
-      <c r="F15">
-        <v>12</v>
-      </c>
-      <c r="G15">
-        <v>22</v>
-      </c>
-      <c r="H15">
-        <v>27</v>
-      </c>
-      <c r="I15">
-        <v>3</v>
-      </c>
-      <c r="J15">
-        <v>5</v>
-      </c>
       <c r="K15">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="L15">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M15">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="N15">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P15">
         <v>2022</v>
       </c>
       <c r="Q15">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="R15">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -1570,7 +1570,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22045</v>
+        <v>22050</v>
       </c>
       <c r="C16" t="s">
         <v>31</v>
@@ -1579,46 +1579,46 @@
         <v>2</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F16">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="G16">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="H16">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J16">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K16">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="L16">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="M16">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="N16">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="O16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P16">
         <v>2022</v>
       </c>
       <c r="Q16">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="R16">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -1626,55 +1626,55 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22044</v>
+        <v>22049</v>
       </c>
       <c r="C17" t="s">
         <v>32</v>
       </c>
       <c r="D17">
+        <v>6</v>
+      </c>
+      <c r="E17">
+        <v>10</v>
+      </c>
+      <c r="F17">
+        <v>20</v>
+      </c>
+      <c r="G17">
+        <v>28</v>
+      </c>
+      <c r="H17">
+        <v>35</v>
+      </c>
+      <c r="I17">
         <v>1</v>
       </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>16</v>
-      </c>
-      <c r="G17">
-        <v>17</v>
-      </c>
-      <c r="H17">
+      <c r="J17">
+        <v>10</v>
+      </c>
+      <c r="K17">
+        <v>99</v>
+      </c>
+      <c r="L17">
         <v>20</v>
       </c>
-      <c r="I17">
-        <v>3</v>
-      </c>
-      <c r="J17">
-        <v>7</v>
-      </c>
-      <c r="K17">
-        <v>56</v>
-      </c>
-      <c r="L17">
-        <v>11</v>
-      </c>
       <c r="M17">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N17">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P17">
         <v>2022</v>
       </c>
       <c r="Q17">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="R17">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -1682,43 +1682,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>22043</v>
+        <v>22048</v>
       </c>
       <c r="C18" t="s">
         <v>33</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="E18">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F18">
+        <v>28</v>
+      </c>
+      <c r="G18">
+        <v>29</v>
+      </c>
+      <c r="H18">
+        <v>32</v>
+      </c>
+      <c r="I18">
+        <v>8</v>
+      </c>
+      <c r="J18">
+        <v>9</v>
+      </c>
+      <c r="K18">
+        <v>127</v>
+      </c>
+      <c r="L18">
+        <v>25</v>
+      </c>
+      <c r="M18">
         <v>17</v>
       </c>
-      <c r="G18">
-        <v>24</v>
-      </c>
-      <c r="H18">
-        <v>30</v>
-      </c>
-      <c r="I18">
-        <v>9</v>
-      </c>
-      <c r="J18">
-        <v>12</v>
-      </c>
-      <c r="K18">
-        <v>89</v>
-      </c>
-      <c r="L18">
-        <v>18</v>
-      </c>
-      <c r="M18">
-        <v>21</v>
-      </c>
       <c r="N18">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O18">
         <v>4</v>
@@ -1727,10 +1727,10 @@
         <v>2022</v>
       </c>
       <c r="Q18">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="R18">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -1738,13 +1738,13 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>22042</v>
+        <v>22047</v>
       </c>
       <c r="C19" t="s">
         <v>34</v>
       </c>
       <c r="D19">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E19">
         <v>10</v>
@@ -1753,37 +1753,37 @@
         <v>11</v>
       </c>
       <c r="G19">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="H19">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J19">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="K19">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="L19">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M19">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="N19">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="O19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P19">
         <v>2022</v>
       </c>
       <c r="Q19">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="R19">
         <v>4</v>
@@ -1794,52 +1794,52 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22041</v>
+        <v>22046</v>
       </c>
       <c r="C20" t="s">
         <v>35</v>
       </c>
       <c r="D20">
+        <v>6</v>
+      </c>
+      <c r="E20">
+        <v>7</v>
+      </c>
+      <c r="F20">
+        <v>12</v>
+      </c>
+      <c r="G20">
+        <v>22</v>
+      </c>
+      <c r="H20">
+        <v>27</v>
+      </c>
+      <c r="I20">
+        <v>3</v>
+      </c>
+      <c r="J20">
         <v>5</v>
       </c>
-      <c r="E20">
+      <c r="K20">
+        <v>74</v>
+      </c>
+      <c r="L20">
         <v>15</v>
       </c>
-      <c r="F20">
-        <v>25</v>
-      </c>
-      <c r="G20">
-        <v>26</v>
-      </c>
-      <c r="H20">
-        <v>33</v>
-      </c>
-      <c r="I20">
-        <v>6</v>
-      </c>
-      <c r="J20">
-        <v>11</v>
-      </c>
-      <c r="K20">
-        <v>104</v>
-      </c>
-      <c r="L20">
-        <v>21</v>
-      </c>
       <c r="M20">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="N20">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="O20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P20">
         <v>2022</v>
       </c>
       <c r="Q20">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="R20">
         <v>4</v>
@@ -1850,52 +1850,52 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22040</v>
+        <v>22045</v>
       </c>
       <c r="C21" t="s">
         <v>36</v>
       </c>
       <c r="D21">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E21">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="F21">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="G21">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="H21">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="I21">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J21">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="K21">
-        <v>116</v>
+        <v>44</v>
       </c>
       <c r="L21">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="M21">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="N21">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="O21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P21">
         <v>2022</v>
       </c>
       <c r="Q21">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="R21">
         <v>4</v>
@@ -1906,7 +1906,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>22039</v>
+        <v>22044</v>
       </c>
       <c r="C22" t="s">
         <v>37</v>
@@ -1915,43 +1915,43 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G22">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H22">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="I22">
+        <v>3</v>
+      </c>
+      <c r="J22">
+        <v>7</v>
+      </c>
+      <c r="K22">
+        <v>56</v>
+      </c>
+      <c r="L22">
+        <v>11</v>
+      </c>
+      <c r="M22">
+        <v>10</v>
+      </c>
+      <c r="N22">
         <v>5</v>
       </c>
-      <c r="J22">
-        <v>11</v>
-      </c>
-      <c r="K22">
-        <v>73</v>
-      </c>
-      <c r="L22">
-        <v>15</v>
-      </c>
-      <c r="M22">
-        <v>16</v>
-      </c>
-      <c r="N22">
-        <v>8</v>
-      </c>
       <c r="O22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P22">
         <v>2022</v>
       </c>
       <c r="Q22">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="R22">
         <v>4</v>
@@ -1962,25 +1962,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>22038</v>
+        <v>22043</v>
       </c>
       <c r="C23" t="s">
         <v>38</v>
       </c>
       <c r="D23">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E23">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F23">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G23">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="H23">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I23">
         <v>9</v>
@@ -1989,10 +1989,10 @@
         <v>12</v>
       </c>
       <c r="K23">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="L23">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M23">
         <v>21</v>
@@ -2001,13 +2001,13 @@
         <v>11</v>
       </c>
       <c r="O23">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P23">
         <v>2022</v>
       </c>
       <c r="Q23">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="R23">
         <v>4</v>
@@ -2018,52 +2018,52 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22037</v>
+        <v>22042</v>
       </c>
       <c r="C24" t="s">
         <v>39</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E24">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F24">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G24">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="H24">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="I24">
+        <v>2</v>
+      </c>
+      <c r="J24">
         <v>6</v>
       </c>
-      <c r="J24">
-        <v>10</v>
-      </c>
       <c r="K24">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="L24">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M24">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="N24">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="O24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P24">
         <v>2022</v>
       </c>
       <c r="Q24">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="R24">
         <v>4</v>
@@ -2074,52 +2074,52 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22036</v>
+        <v>22041</v>
       </c>
       <c r="C25" t="s">
         <v>40</v>
       </c>
       <c r="D25">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="E25">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F25">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G25">
         <v>26</v>
       </c>
       <c r="H25">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I25">
         <v>6</v>
       </c>
       <c r="J25">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="K25">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="L25">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M25">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N25">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P25">
         <v>2022</v>
       </c>
       <c r="Q25">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="R25">
         <v>4</v>
@@ -2130,52 +2130,52 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>22035</v>
+        <v>22040</v>
       </c>
       <c r="C26" t="s">
         <v>41</v>
       </c>
       <c r="D26">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F26">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="G26">
+        <v>29</v>
+      </c>
+      <c r="H26">
+        <v>33</v>
+      </c>
+      <c r="I26">
+        <v>8</v>
+      </c>
+      <c r="J26">
+        <v>12</v>
+      </c>
+      <c r="K26">
+        <v>116</v>
+      </c>
+      <c r="L26">
         <v>23</v>
       </c>
-      <c r="H26">
-        <v>31</v>
-      </c>
-      <c r="I26">
-        <v>5</v>
-      </c>
-      <c r="J26">
-        <v>8</v>
-      </c>
-      <c r="K26">
-        <v>87</v>
-      </c>
-      <c r="L26">
-        <v>17</v>
-      </c>
       <c r="M26">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="N26">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="O26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P26">
         <v>2022</v>
       </c>
       <c r="Q26">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="R26">
         <v>4</v>
@@ -2186,55 +2186,55 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>22034</v>
+        <v>22039</v>
       </c>
       <c r="C27" t="s">
         <v>42</v>
       </c>
       <c r="D27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E27">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F27">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="G27">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="H27">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I27">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J27">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="K27">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="L27">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M27">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N27">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O27">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P27">
         <v>2022</v>
       </c>
       <c r="Q27">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="R27">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -2242,43 +2242,43 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>22033</v>
+        <v>22038</v>
       </c>
       <c r="C28" t="s">
         <v>43</v>
       </c>
       <c r="D28">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E28">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F28">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G28">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H28">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="I28">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J28">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="K28">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="L28">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M28">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="N28">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="O28">
         <v>2</v>
@@ -2287,10 +2287,10 @@
         <v>2022</v>
       </c>
       <c r="Q28">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="R28">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -2298,43 +2298,43 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>22032</v>
+        <v>22037</v>
       </c>
       <c r="C29" t="s">
         <v>44</v>
       </c>
       <c r="D29">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E29">
         <v>9</v>
       </c>
       <c r="F29">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G29">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="H29">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I29">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J29">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K29">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="L29">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="M29">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="N29">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="O29">
         <v>2</v>
@@ -2343,10 +2343,10 @@
         <v>2022</v>
       </c>
       <c r="Q29">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="R29">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -2354,55 +2354,55 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>22031</v>
+        <v>22036</v>
       </c>
       <c r="C30" t="s">
         <v>45</v>
       </c>
       <c r="D30">
+        <v>18</v>
+      </c>
+      <c r="E30">
+        <v>19</v>
+      </c>
+      <c r="F30">
+        <v>21</v>
+      </c>
+      <c r="G30">
+        <v>26</v>
+      </c>
+      <c r="H30">
+        <v>34</v>
+      </c>
+      <c r="I30">
+        <v>6</v>
+      </c>
+      <c r="J30">
         <v>7</v>
       </c>
-      <c r="E30">
-        <v>14</v>
-      </c>
-      <c r="F30">
-        <v>16</v>
-      </c>
-      <c r="G30">
-        <v>20</v>
-      </c>
-      <c r="H30">
-        <v>28</v>
-      </c>
-      <c r="I30">
-        <v>4</v>
-      </c>
-      <c r="J30">
-        <v>8</v>
-      </c>
       <c r="K30">
-        <v>85</v>
+        <v>118</v>
       </c>
       <c r="L30">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="M30">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N30">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P30">
         <v>2022</v>
       </c>
       <c r="Q30">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="R30">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -2410,55 +2410,55 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>22030</v>
+        <v>22035</v>
       </c>
       <c r="C31" t="s">
         <v>46</v>
       </c>
       <c r="D31">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E31">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F31">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G31">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H31">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I31">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J31">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K31">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="L31">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M31">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="N31">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O31">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P31">
         <v>2022</v>
       </c>
       <c r="Q31">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="R31">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -2466,52 +2466,52 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>22029</v>
+        <v>22034</v>
       </c>
       <c r="C32" t="s">
         <v>47</v>
       </c>
       <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32">
+        <v>10</v>
+      </c>
+      <c r="F32">
+        <v>24</v>
+      </c>
+      <c r="G32">
+        <v>27</v>
+      </c>
+      <c r="H32">
+        <v>28</v>
+      </c>
+      <c r="I32">
+        <v>6</v>
+      </c>
+      <c r="J32">
         <v>7</v>
       </c>
-      <c r="E32">
-        <v>8</v>
-      </c>
-      <c r="F32">
-        <v>10</v>
-      </c>
-      <c r="G32">
-        <v>14</v>
-      </c>
-      <c r="H32">
-        <v>17</v>
-      </c>
-      <c r="I32">
-        <v>10</v>
-      </c>
-      <c r="J32">
-        <v>12</v>
-      </c>
       <c r="K32">
-        <v>56</v>
+        <v>91</v>
       </c>
       <c r="L32">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="M32">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="N32">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="O32">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P32">
         <v>2022</v>
       </c>
       <c r="Q32">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="R32">
         <v>3</v>
@@ -2522,40 +2522,40 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>22028</v>
+        <v>22033</v>
       </c>
       <c r="C33" t="s">
         <v>48</v>
       </c>
       <c r="D33">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E33">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F33">
         <v>16</v>
       </c>
       <c r="G33">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H33">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J33">
+        <v>4</v>
+      </c>
+      <c r="K33">
+        <v>91</v>
+      </c>
+      <c r="L33">
+        <v>18</v>
+      </c>
+      <c r="M33">
         <v>7</v>
-      </c>
-      <c r="K33">
-        <v>81</v>
-      </c>
-      <c r="L33">
-        <v>16</v>
-      </c>
-      <c r="M33">
-        <v>8</v>
       </c>
       <c r="N33">
         <v>4</v>
@@ -2567,7 +2567,7 @@
         <v>2022</v>
       </c>
       <c r="Q33">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="R33">
         <v>3</v>
@@ -2578,19 +2578,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>22027</v>
+        <v>22032</v>
       </c>
       <c r="C34" t="s">
         <v>49</v>
       </c>
       <c r="D34">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E34">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F34">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G34">
         <v>31</v>
@@ -2599,22 +2599,22 @@
         <v>32</v>
       </c>
       <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34">
         <v>5</v>
       </c>
-      <c r="J34">
-        <v>12</v>
-      </c>
       <c r="K34">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="L34">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M34">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="N34">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="O34">
         <v>2</v>
@@ -2623,7 +2623,7 @@
         <v>2022</v>
       </c>
       <c r="Q34">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="R34">
         <v>3</v>
@@ -2634,52 +2634,52 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>22026</v>
+        <v>22031</v>
       </c>
       <c r="C35" t="s">
         <v>50</v>
       </c>
       <c r="D35">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E35">
         <v>14</v>
       </c>
       <c r="F35">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G35">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H35">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I35">
+        <v>4</v>
+      </c>
+      <c r="J35">
         <v>8</v>
       </c>
-      <c r="J35">
-        <v>10</v>
-      </c>
       <c r="K35">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="L35">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M35">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="N35">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="O35">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P35">
         <v>2022</v>
       </c>
       <c r="Q35">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="R35">
         <v>3</v>
@@ -2690,43 +2690,43 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>22025</v>
+        <v>22030</v>
       </c>
       <c r="C36" t="s">
         <v>51</v>
       </c>
       <c r="D36">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E36">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F36">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G36">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H36">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I36">
         <v>1</v>
       </c>
       <c r="J36">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K36">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="L36">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M36">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N36">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O36">
         <v>3</v>
@@ -2735,7 +2735,7 @@
         <v>2022</v>
       </c>
       <c r="Q36">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="R36">
         <v>3</v>
@@ -2746,52 +2746,52 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>22024</v>
+        <v>22029</v>
       </c>
       <c r="C37" t="s">
         <v>52</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F37">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G37">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="H37">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="I37">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J37">
         <v>12</v>
       </c>
       <c r="K37">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="L37">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="M37">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="N37">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="O37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P37">
         <v>2022</v>
       </c>
       <c r="Q37">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="R37">
         <v>3</v>
@@ -2802,7 +2802,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>22023</v>
+        <v>22028</v>
       </c>
       <c r="C38" t="s">
         <v>53</v>
@@ -2811,43 +2811,43 @@
         <v>4</v>
       </c>
       <c r="E38">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F38">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G38">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H38">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="I38">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="J38">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="K38">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="L38">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M38">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="N38">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="O38">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P38">
         <v>2022</v>
       </c>
       <c r="Q38">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="R38">
         <v>3</v>
@@ -2858,43 +2858,43 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>22022</v>
+        <v>22027</v>
       </c>
       <c r="C39" t="s">
         <v>54</v>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E39">
+        <v>6</v>
+      </c>
+      <c r="F39">
+        <v>11</v>
+      </c>
+      <c r="G39">
+        <v>31</v>
+      </c>
+      <c r="H39">
+        <v>32</v>
+      </c>
+      <c r="I39">
         <v>5</v>
       </c>
-      <c r="F39">
-        <v>14</v>
-      </c>
-      <c r="G39">
+      <c r="J39">
+        <v>12</v>
+      </c>
+      <c r="K39">
+        <v>83</v>
+      </c>
+      <c r="L39">
         <v>17</v>
       </c>
-      <c r="H39">
-        <v>28</v>
-      </c>
-      <c r="I39">
-        <v>6</v>
-      </c>
-      <c r="J39">
-        <v>7</v>
-      </c>
-      <c r="K39">
-        <v>65</v>
-      </c>
-      <c r="L39">
-        <v>13</v>
-      </c>
       <c r="M39">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N39">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O39">
         <v>2</v>
@@ -2903,7 +2903,7 @@
         <v>2022</v>
       </c>
       <c r="Q39">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="R39">
         <v>3</v>
@@ -2914,7 +2914,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>22021</v>
+        <v>22026</v>
       </c>
       <c r="C40" t="s">
         <v>55</v>
@@ -2923,34 +2923,34 @@
         <v>11</v>
       </c>
       <c r="E40">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F40">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G40">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H40">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="I40">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J40">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K40">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L40">
         <v>19</v>
       </c>
       <c r="M40">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N40">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O40">
         <v>2</v>
@@ -2959,10 +2959,10 @@
         <v>2022</v>
       </c>
       <c r="Q40">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="R40">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -2970,55 +2970,55 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>22020</v>
+        <v>22025</v>
       </c>
       <c r="C41" t="s">
         <v>56</v>
       </c>
       <c r="D41">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E41">
+        <v>7</v>
+      </c>
+      <c r="F41">
+        <v>22</v>
+      </c>
+      <c r="G41">
+        <v>24</v>
+      </c>
+      <c r="H41">
+        <v>29</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <v>7</v>
+      </c>
+      <c r="K41">
+        <v>86</v>
+      </c>
+      <c r="L41">
         <v>17</v>
       </c>
-      <c r="F41">
-        <v>30</v>
-      </c>
-      <c r="G41">
-        <v>31</v>
-      </c>
-      <c r="H41">
-        <v>35</v>
-      </c>
-      <c r="I41">
+      <c r="M41">
         <v>8</v>
       </c>
-      <c r="J41">
-        <v>9</v>
-      </c>
-      <c r="K41">
-        <v>129</v>
-      </c>
-      <c r="L41">
-        <v>26</v>
-      </c>
-      <c r="M41">
-        <v>17</v>
-      </c>
       <c r="N41">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="O41">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P41">
         <v>2022</v>
       </c>
       <c r="Q41">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="R41">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -3026,7 +3026,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>22019</v>
+        <v>22024</v>
       </c>
       <c r="C42" t="s">
         <v>57</v>
@@ -3035,46 +3035,46 @@
         <v>1</v>
       </c>
       <c r="E42">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F42">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G42">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="H42">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="I42">
         <v>1</v>
       </c>
       <c r="J42">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="K42">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="L42">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="M42">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="N42">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="O42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P42">
         <v>2022</v>
       </c>
       <c r="Q42">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="R42">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -3082,55 +3082,55 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>22018</v>
+        <v>22023</v>
       </c>
       <c r="C43" t="s">
         <v>58</v>
       </c>
       <c r="D43">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E43">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="F43">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="G43">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="H43">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="I43">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="J43">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K43">
-        <v>131</v>
+        <v>72</v>
       </c>
       <c r="L43">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="M43">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="N43">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="O43">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P43">
         <v>2022</v>
       </c>
       <c r="Q43">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="R43">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -3138,55 +3138,55 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>22017</v>
+        <v>22022</v>
       </c>
       <c r="C44" t="s">
         <v>59</v>
       </c>
       <c r="D44">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E44">
+        <v>5</v>
+      </c>
+      <c r="F44">
         <v>14</v>
       </c>
-      <c r="F44">
-        <v>18</v>
-      </c>
       <c r="G44">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="H44">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I44">
+        <v>6</v>
+      </c>
+      <c r="J44">
         <v>7</v>
       </c>
-      <c r="J44">
-        <v>11</v>
-      </c>
       <c r="K44">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="L44">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M44">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N44">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O44">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P44">
         <v>2022</v>
       </c>
       <c r="Q44">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="R44">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:18">
@@ -3194,43 +3194,43 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>22016</v>
+        <v>22021</v>
       </c>
       <c r="C45" t="s">
         <v>60</v>
       </c>
       <c r="D45">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E45">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F45">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G45">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H45">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I45">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J45">
         <v>9</v>
       </c>
       <c r="K45">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="L45">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M45">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N45">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="O45">
         <v>2</v>
@@ -3239,7 +3239,7 @@
         <v>2022</v>
       </c>
       <c r="Q45">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="R45">
         <v>2</v>
@@ -3250,37 +3250,37 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>22015</v>
+        <v>22020</v>
       </c>
       <c r="C46" t="s">
         <v>61</v>
       </c>
       <c r="D46">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E46">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="F46">
+        <v>30</v>
+      </c>
+      <c r="G46">
+        <v>31</v>
+      </c>
+      <c r="H46">
+        <v>35</v>
+      </c>
+      <c r="I46">
         <v>8</v>
       </c>
-      <c r="G46">
-        <v>12</v>
-      </c>
-      <c r="H46">
-        <v>30</v>
-      </c>
-      <c r="I46">
-        <v>5</v>
-      </c>
       <c r="J46">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="K46">
-        <v>53</v>
+        <v>129</v>
       </c>
       <c r="L46">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="M46">
         <v>17</v>
@@ -3289,13 +3289,13 @@
         <v>9</v>
       </c>
       <c r="O46">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P46">
         <v>2022</v>
       </c>
       <c r="Q46">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R46">
         <v>2</v>
@@ -3306,7 +3306,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>22014</v>
+        <v>22019</v>
       </c>
       <c r="C47" t="s">
         <v>62</v>
@@ -3318,40 +3318,40 @@
         <v>4</v>
       </c>
       <c r="F47">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G47">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H47">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I47">
         <v>1</v>
       </c>
       <c r="J47">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="K47">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="L47">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="M47">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="N47">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O47">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P47">
         <v>2022</v>
       </c>
       <c r="Q47">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="R47">
         <v>2</v>
@@ -3362,52 +3362,52 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>22013</v>
+        <v>22018</v>
       </c>
       <c r="C48" t="s">
         <v>63</v>
       </c>
       <c r="D48">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="E48">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="F48">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="G48">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H48">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I48">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J48">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K48">
-        <v>86</v>
+        <v>131</v>
       </c>
       <c r="L48">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="M48">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="N48">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O48">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P48">
         <v>2022</v>
       </c>
       <c r="Q48">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="R48">
         <v>2</v>
@@ -3418,55 +3418,55 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>22012</v>
+        <v>22017</v>
       </c>
       <c r="C49" t="s">
         <v>64</v>
       </c>
       <c r="D49">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E49">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F49">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G49">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="H49">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="I49">
         <v>7</v>
       </c>
       <c r="J49">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K49">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="L49">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M49">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N49">
         <v>9</v>
       </c>
       <c r="O49">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P49">
         <v>2022</v>
       </c>
       <c r="Q49">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="R49">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:18">
@@ -3474,43 +3474,43 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>22011</v>
+        <v>22016</v>
       </c>
       <c r="C50" t="s">
         <v>65</v>
       </c>
       <c r="D50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E50">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F50">
         <v>17</v>
       </c>
       <c r="G50">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H50">
         <v>32</v>
       </c>
       <c r="I50">
+        <v>1</v>
+      </c>
+      <c r="J50">
+        <v>9</v>
+      </c>
+      <c r="K50">
+        <v>83</v>
+      </c>
+      <c r="L50">
+        <v>17</v>
+      </c>
+      <c r="M50">
+        <v>10</v>
+      </c>
+      <c r="N50">
         <v>5</v>
-      </c>
-      <c r="J50">
-        <v>12</v>
-      </c>
-      <c r="K50">
-        <v>81</v>
-      </c>
-      <c r="L50">
-        <v>16</v>
-      </c>
-      <c r="M50">
-        <v>17</v>
-      </c>
-      <c r="N50">
-        <v>9</v>
       </c>
       <c r="O50">
         <v>2</v>
@@ -3519,10 +3519,10 @@
         <v>2022</v>
       </c>
       <c r="Q50">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="R50">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:18">
@@ -3530,55 +3530,55 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>22010</v>
+        <v>22015</v>
       </c>
       <c r="C51" t="s">
         <v>66</v>
       </c>
       <c r="D51">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E51">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="F51">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="G51">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="H51">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="I51">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J51">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K51">
-        <v>114</v>
+        <v>53</v>
       </c>
       <c r="L51">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="M51">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N51">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O51">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P51">
         <v>2022</v>
       </c>
       <c r="Q51">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R51">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:18">
@@ -3586,55 +3586,55 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>22009</v>
+        <v>22014</v>
       </c>
       <c r="C52" t="s">
         <v>67</v>
       </c>
       <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>4</v>
+      </c>
+      <c r="F52">
+        <v>10</v>
+      </c>
+      <c r="G52">
+        <v>18</v>
+      </c>
+      <c r="H52">
+        <v>32</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+      <c r="J52">
+        <v>9</v>
+      </c>
+      <c r="K52">
+        <v>65</v>
+      </c>
+      <c r="L52">
         <v>13</v>
       </c>
-      <c r="E52">
-        <v>14</v>
-      </c>
-      <c r="F52">
-        <v>18</v>
-      </c>
-      <c r="G52">
-        <v>31</v>
-      </c>
-      <c r="H52">
-        <v>33</v>
-      </c>
-      <c r="I52">
-        <v>7</v>
-      </c>
-      <c r="J52">
+      <c r="M52">
         <v>10</v>
       </c>
-      <c r="K52">
-        <v>109</v>
-      </c>
-      <c r="L52">
-        <v>22</v>
-      </c>
-      <c r="M52">
-        <v>17</v>
-      </c>
       <c r="N52">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O52">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P52">
         <v>2022</v>
       </c>
       <c r="Q52">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="R52">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -3642,43 +3642,43 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>22008</v>
+        <v>22013</v>
       </c>
       <c r="C53" t="s">
         <v>68</v>
       </c>
       <c r="D53">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E53">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F53">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G53">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="H53">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I53">
+        <v>5</v>
+      </c>
+      <c r="J53">
         <v>6</v>
       </c>
-      <c r="J53">
-        <v>7</v>
-      </c>
       <c r="K53">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="L53">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="M53">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N53">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O53">
         <v>3</v>
@@ -3687,10 +3687,10 @@
         <v>2022</v>
       </c>
       <c r="Q53">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="R53">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:18">
@@ -3698,52 +3698,52 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>22007</v>
+        <v>22012</v>
       </c>
       <c r="C54" t="s">
         <v>69</v>
       </c>
       <c r="D54">
+        <v>3</v>
+      </c>
+      <c r="E54">
         <v>5</v>
       </c>
-      <c r="E54">
-        <v>22</v>
-      </c>
       <c r="F54">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="G54">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="H54">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I54">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J54">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K54">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="L54">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="M54">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="N54">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P54">
         <v>2022</v>
       </c>
       <c r="Q54">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="R54">
         <v>1</v>
@@ -3754,25 +3754,25 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>22006</v>
+        <v>22011</v>
       </c>
       <c r="C55" t="s">
         <v>70</v>
       </c>
       <c r="D55">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E55">
         <v>5</v>
       </c>
       <c r="F55">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="G55">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H55">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="I55">
         <v>5</v>
@@ -3781,10 +3781,10 @@
         <v>12</v>
       </c>
       <c r="K55">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="L55">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="M55">
         <v>17</v>
@@ -3793,13 +3793,13 @@
         <v>9</v>
       </c>
       <c r="O55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P55">
         <v>2022</v>
       </c>
       <c r="Q55">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="R55">
         <v>1</v>
@@ -3810,52 +3810,52 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>22005</v>
+        <v>22010</v>
       </c>
       <c r="C56" t="s">
         <v>71</v>
       </c>
       <c r="D56">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E56">
+        <v>19</v>
+      </c>
+      <c r="F56">
+        <v>25</v>
+      </c>
+      <c r="G56">
+        <v>31</v>
+      </c>
+      <c r="H56">
+        <v>35</v>
+      </c>
+      <c r="I56">
+        <v>2</v>
+      </c>
+      <c r="J56">
+        <v>11</v>
+      </c>
+      <c r="K56">
+        <v>114</v>
+      </c>
+      <c r="L56">
+        <v>23</v>
+      </c>
+      <c r="M56">
         <v>13</v>
-      </c>
-      <c r="F56">
-        <v>17</v>
-      </c>
-      <c r="G56">
-        <v>19</v>
-      </c>
-      <c r="H56">
-        <v>34</v>
-      </c>
-      <c r="I56">
-        <v>5</v>
-      </c>
-      <c r="J56">
-        <v>9</v>
-      </c>
-      <c r="K56">
-        <v>85</v>
-      </c>
-      <c r="L56">
-        <v>17</v>
-      </c>
-      <c r="M56">
-        <v>14</v>
       </c>
       <c r="N56">
         <v>7</v>
       </c>
       <c r="O56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P56">
         <v>2022</v>
       </c>
       <c r="Q56">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="R56">
         <v>1</v>
@@ -3866,43 +3866,43 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>22004</v>
+        <v>22009</v>
       </c>
       <c r="C57" t="s">
         <v>72</v>
       </c>
       <c r="D57">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E57">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F57">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="G57">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H57">
         <v>33</v>
       </c>
       <c r="I57">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J57">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="K57">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="L57">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M57">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="N57">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="O57">
         <v>2</v>
@@ -3911,7 +3911,7 @@
         <v>2022</v>
       </c>
       <c r="Q57">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="R57">
         <v>1</v>
@@ -3922,52 +3922,52 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>22003</v>
+        <v>22008</v>
       </c>
       <c r="C58" t="s">
         <v>73</v>
       </c>
       <c r="D58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E58">
+        <v>2</v>
+      </c>
+      <c r="F58">
+        <v>13</v>
+      </c>
+      <c r="G58">
         <v>18</v>
-      </c>
-      <c r="F58">
-        <v>24</v>
-      </c>
-      <c r="G58">
-        <v>25</v>
       </c>
       <c r="H58">
         <v>34</v>
       </c>
       <c r="I58">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J58">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="K58">
-        <v>103</v>
+        <v>68</v>
       </c>
       <c r="L58">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="M58">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="N58">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="O58">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P58">
         <v>2022</v>
       </c>
       <c r="Q58">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="R58">
         <v>1</v>
@@ -3978,52 +3978,52 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>22002</v>
+        <v>22007</v>
       </c>
       <c r="C59" t="s">
         <v>74</v>
       </c>
       <c r="D59">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E59">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="F59">
+        <v>23</v>
+      </c>
+      <c r="G59">
+        <v>25</v>
+      </c>
+      <c r="H59">
+        <v>35</v>
+      </c>
+      <c r="I59">
+        <v>3</v>
+      </c>
+      <c r="J59">
+        <v>11</v>
+      </c>
+      <c r="K59">
+        <v>110</v>
+      </c>
+      <c r="L59">
+        <v>22</v>
+      </c>
+      <c r="M59">
+        <v>14</v>
+      </c>
+      <c r="N59">
         <v>7</v>
       </c>
-      <c r="G59">
-        <v>9</v>
-      </c>
-      <c r="H59">
-        <v>24</v>
-      </c>
-      <c r="I59">
-        <v>4</v>
-      </c>
-      <c r="J59">
-        <v>12</v>
-      </c>
-      <c r="K59">
-        <v>50</v>
-      </c>
-      <c r="L59">
-        <v>10</v>
-      </c>
-      <c r="M59">
-        <v>16</v>
-      </c>
-      <c r="N59">
-        <v>8</v>
-      </c>
       <c r="O59">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P59">
         <v>2022</v>
       </c>
       <c r="Q59">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="R59">
         <v>1</v>
@@ -4034,52 +4034,52 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>22001</v>
+        <v>22006</v>
       </c>
       <c r="C60" t="s">
         <v>75</v>
       </c>
       <c r="D60">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E60">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F60">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="G60">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H60">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="I60">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J60">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K60">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="L60">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="M60">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="N60">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P60">
         <v>2022</v>
       </c>
       <c r="Q60">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R60">
         <v>1</v>
@@ -4090,55 +4090,55 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>21150</v>
+        <v>22005</v>
       </c>
       <c r="C61" t="s">
         <v>76</v>
       </c>
       <c r="D61">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E61">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F61">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G61">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H61">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="I61">
+        <v>5</v>
+      </c>
+      <c r="J61">
+        <v>9</v>
+      </c>
+      <c r="K61">
+        <v>85</v>
+      </c>
+      <c r="L61">
+        <v>17</v>
+      </c>
+      <c r="M61">
+        <v>14</v>
+      </c>
+      <c r="N61">
         <v>7</v>
       </c>
-      <c r="J61">
-        <v>10</v>
-      </c>
-      <c r="K61">
-        <v>74</v>
-      </c>
-      <c r="L61">
-        <v>15</v>
-      </c>
-      <c r="M61">
-        <v>17</v>
-      </c>
-      <c r="N61">
-        <v>9</v>
-      </c>
       <c r="O61">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P61">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="Q61">
-        <v>150</v>
+        <v>5</v>
       </c>
       <c r="R61">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:18">
@@ -4146,55 +4146,55 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>21149</v>
+        <v>22004</v>
       </c>
       <c r="C62" t="s">
         <v>77</v>
       </c>
       <c r="D62">
+        <v>7</v>
+      </c>
+      <c r="E62">
         <v>20</v>
       </c>
-      <c r="E62">
-        <v>26</v>
-      </c>
       <c r="F62">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G62">
         <v>30</v>
       </c>
       <c r="H62">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I62">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="J62">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="K62">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="L62">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="M62">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="N62">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="O62">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P62">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="Q62">
-        <v>149</v>
+        <v>4</v>
       </c>
       <c r="R62">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:18">
@@ -4202,55 +4202,55 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>21148</v>
+        <v>22003</v>
       </c>
       <c r="C63" t="s">
         <v>78</v>
       </c>
       <c r="D63">
+        <v>2</v>
+      </c>
+      <c r="E63">
+        <v>18</v>
+      </c>
+      <c r="F63">
+        <v>24</v>
+      </c>
+      <c r="G63">
+        <v>25</v>
+      </c>
+      <c r="H63">
+        <v>34</v>
+      </c>
+      <c r="I63">
+        <v>8</v>
+      </c>
+      <c r="J63">
+        <v>12</v>
+      </c>
+      <c r="K63">
+        <v>103</v>
+      </c>
+      <c r="L63">
+        <v>21</v>
+      </c>
+      <c r="M63">
+        <v>20</v>
+      </c>
+      <c r="N63">
+        <v>10</v>
+      </c>
+      <c r="O63">
+        <v>4</v>
+      </c>
+      <c r="P63">
+        <v>2022</v>
+      </c>
+      <c r="Q63">
+        <v>3</v>
+      </c>
+      <c r="R63">
         <v>1</v>
-      </c>
-      <c r="E63">
-        <v>4</v>
-      </c>
-      <c r="F63">
-        <v>12</v>
-      </c>
-      <c r="G63">
-        <v>16</v>
-      </c>
-      <c r="H63">
-        <v>29</v>
-      </c>
-      <c r="I63">
-        <v>4</v>
-      </c>
-      <c r="J63">
-        <v>8</v>
-      </c>
-      <c r="K63">
-        <v>62</v>
-      </c>
-      <c r="L63">
-        <v>12</v>
-      </c>
-      <c r="M63">
-        <v>12</v>
-      </c>
-      <c r="N63">
-        <v>6</v>
-      </c>
-      <c r="O63">
-        <v>3</v>
-      </c>
-      <c r="P63">
-        <v>2021</v>
-      </c>
-      <c r="Q63">
-        <v>148</v>
-      </c>
-      <c r="R63">
-        <v>12</v>
       </c>
     </row>
     <row r="64" spans="1:18">
@@ -4258,55 +4258,55 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>21147</v>
+        <v>22002</v>
       </c>
       <c r="C64" t="s">
         <v>79</v>
       </c>
       <c r="D64">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E64">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F64">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G64">
+        <v>9</v>
+      </c>
+      <c r="H64">
+        <v>24</v>
+      </c>
+      <c r="I64">
+        <v>4</v>
+      </c>
+      <c r="J64">
         <v>12</v>
       </c>
-      <c r="H64">
-        <v>26</v>
-      </c>
-      <c r="I64">
-        <v>1</v>
-      </c>
-      <c r="J64">
-        <v>7</v>
-      </c>
       <c r="K64">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L64">
         <v>10</v>
       </c>
       <c r="M64">
+        <v>16</v>
+      </c>
+      <c r="N64">
         <v>8</v>
       </c>
-      <c r="N64">
-        <v>4</v>
-      </c>
       <c r="O64">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P64">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="Q64">
-        <v>147</v>
+        <v>2</v>
       </c>
       <c r="R64">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:18">
@@ -4314,55 +4314,55 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>21146</v>
+        <v>22001</v>
       </c>
       <c r="C65" t="s">
         <v>80</v>
       </c>
       <c r="D65">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E65">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F65">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="G65">
+        <v>22</v>
+      </c>
+      <c r="H65">
+        <v>29</v>
+      </c>
+      <c r="I65">
+        <v>3</v>
+      </c>
+      <c r="J65">
+        <v>11</v>
+      </c>
+      <c r="K65">
+        <v>89</v>
+      </c>
+      <c r="L65">
         <v>18</v>
       </c>
-      <c r="H65">
-        <v>20</v>
-      </c>
-      <c r="I65">
-        <v>9</v>
-      </c>
-      <c r="J65">
-        <v>11</v>
-      </c>
-      <c r="K65">
-        <v>54</v>
-      </c>
-      <c r="L65">
-        <v>11</v>
-      </c>
       <c r="M65">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="N65">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="O65">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P65">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="Q65">
-        <v>146</v>
+        <v>1</v>
       </c>
       <c r="R65">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -4370,52 +4370,52 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>21145</v>
+        <v>21150</v>
       </c>
       <c r="C66" t="s">
         <v>81</v>
       </c>
       <c r="D66">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E66">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F66">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G66">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="H66">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I66">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J66">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K66">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="L66">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="M66">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="N66">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="O66">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P66">
         <v>2021</v>
       </c>
       <c r="Q66">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="R66">
         <v>12</v>
@@ -4426,52 +4426,52 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>21144</v>
+        <v>21149</v>
       </c>
       <c r="C67" t="s">
         <v>82</v>
       </c>
       <c r="D67">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="E67">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F67">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G67">
         <v>30</v>
       </c>
       <c r="H67">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I67">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J67">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K67">
-        <v>112</v>
+        <v>139</v>
       </c>
       <c r="L67">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="M67">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="N67">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="O67">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P67">
         <v>2021</v>
       </c>
       <c r="Q67">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="R67">
         <v>12</v>
@@ -4482,52 +4482,52 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>21143</v>
+        <v>21148</v>
       </c>
       <c r="C68" t="s">
         <v>83</v>
       </c>
       <c r="D68">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E68">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="F68">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G68">
+        <v>16</v>
+      </c>
+      <c r="H68">
         <v>29</v>
       </c>
-      <c r="H68">
-        <v>34</v>
-      </c>
       <c r="I68">
         <v>4</v>
       </c>
       <c r="J68">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="K68">
-        <v>108</v>
+        <v>62</v>
       </c>
       <c r="L68">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="M68">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N68">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O68">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P68">
         <v>2021</v>
       </c>
       <c r="Q68">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="R68">
         <v>12</v>
@@ -4538,52 +4538,52 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>21142</v>
+        <v>21147</v>
       </c>
       <c r="C69" t="s">
         <v>84</v>
       </c>
       <c r="D69">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E69">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="F69">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="G69">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H69">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J69">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K69">
-        <v>85</v>
+        <v>49</v>
       </c>
       <c r="L69">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="M69">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="N69">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O69">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P69">
         <v>2021</v>
       </c>
       <c r="Q69">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="R69">
         <v>12</v>
@@ -4594,52 +4594,52 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>21141</v>
+        <v>21146</v>
       </c>
       <c r="C70" t="s">
         <v>85</v>
       </c>
       <c r="D70">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E70">
+        <v>5</v>
+      </c>
+      <c r="F70">
         <v>8</v>
       </c>
-      <c r="F70">
-        <v>16</v>
-      </c>
       <c r="G70">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="H70">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="I70">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J70">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K70">
-        <v>89</v>
+        <v>54</v>
       </c>
       <c r="L70">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="M70">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="N70">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O70">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P70">
         <v>2021</v>
       </c>
       <c r="Q70">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="R70">
         <v>12</v>
@@ -4650,43 +4650,43 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>21140</v>
+        <v>21145</v>
       </c>
       <c r="C71" t="s">
         <v>86</v>
       </c>
       <c r="D71">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E71">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="F71">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G71">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H71">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="I71">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="J71">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="K71">
-        <v>123</v>
+        <v>95</v>
       </c>
       <c r="L71">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="M71">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="N71">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="O71">
         <v>2</v>
@@ -4695,7 +4695,7 @@
         <v>2021</v>
       </c>
       <c r="Q71">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="R71">
         <v>12</v>
@@ -4706,52 +4706,52 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>21139</v>
+        <v>21144</v>
       </c>
       <c r="C72" t="s">
         <v>87</v>
       </c>
       <c r="D72">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E72">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F72">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G72">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H72">
         <v>34</v>
       </c>
       <c r="I72">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J72">
         <v>9</v>
       </c>
       <c r="K72">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="L72">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M72">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="N72">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="O72">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P72">
         <v>2021</v>
       </c>
       <c r="Q72">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="R72">
         <v>12</v>
@@ -4762,7 +4762,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>21138</v>
+        <v>21143</v>
       </c>
       <c r="C73" t="s">
         <v>88</v>
@@ -4771,31 +4771,31 @@
         <v>9</v>
       </c>
       <c r="E73">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F73">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G73">
+        <v>29</v>
+      </c>
+      <c r="H73">
+        <v>34</v>
+      </c>
+      <c r="I73">
+        <v>4</v>
+      </c>
+      <c r="J73">
+        <v>11</v>
+      </c>
+      <c r="K73">
+        <v>108</v>
+      </c>
+      <c r="L73">
+        <v>22</v>
+      </c>
+      <c r="M73">
         <v>15</v>
-      </c>
-      <c r="H73">
-        <v>31</v>
-      </c>
-      <c r="I73">
-        <v>5</v>
-      </c>
-      <c r="J73">
-        <v>11</v>
-      </c>
-      <c r="K73">
-        <v>78</v>
-      </c>
-      <c r="L73">
-        <v>16</v>
-      </c>
-      <c r="M73">
-        <v>16</v>
       </c>
       <c r="N73">
         <v>8</v>
@@ -4807,7 +4807,7 @@
         <v>2021</v>
       </c>
       <c r="Q73">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="R73">
         <v>12</v>
@@ -4818,55 +4818,55 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>21137</v>
+        <v>21142</v>
       </c>
       <c r="C74" t="s">
         <v>89</v>
       </c>
       <c r="D74">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E74">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="F74">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G74">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H74">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="I74">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J74">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K74">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="L74">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="M74">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="N74">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O74">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P74">
         <v>2021</v>
       </c>
       <c r="Q74">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="R74">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" spans="1:18">
@@ -4874,55 +4874,55 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>21136</v>
+        <v>21141</v>
       </c>
       <c r="C75" t="s">
         <v>90</v>
       </c>
       <c r="D75">
+        <v>2</v>
+      </c>
+      <c r="E75">
         <v>8</v>
       </c>
-      <c r="E75">
+      <c r="F75">
+        <v>16</v>
+      </c>
+      <c r="G75">
+        <v>29</v>
+      </c>
+      <c r="H75">
+        <v>34</v>
+      </c>
+      <c r="I75">
+        <v>5</v>
+      </c>
+      <c r="J75">
         <v>12</v>
       </c>
-      <c r="F75">
-        <v>19</v>
-      </c>
-      <c r="G75">
-        <v>27</v>
-      </c>
-      <c r="H75">
-        <v>33</v>
-      </c>
-      <c r="I75">
-        <v>2</v>
-      </c>
-      <c r="J75">
-        <v>5</v>
-      </c>
       <c r="K75">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="L75">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M75">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="N75">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="O75">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P75">
         <v>2021</v>
       </c>
       <c r="Q75">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="R75">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" spans="1:18">
@@ -4930,55 +4930,55 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>21135</v>
+        <v>21140</v>
       </c>
       <c r="C76" t="s">
         <v>91</v>
       </c>
       <c r="D76">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E76">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="F76">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="G76">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H76">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I76">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J76">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="K76">
-        <v>88</v>
+        <v>123</v>
       </c>
       <c r="L76">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="M76">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="N76">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="O76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P76">
         <v>2021</v>
       </c>
       <c r="Q76">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="R76">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" spans="1:18">
@@ -4986,55 +4986,55 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>21134</v>
+        <v>21139</v>
       </c>
       <c r="C77" t="s">
         <v>92</v>
       </c>
       <c r="D77">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E77">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="F77">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G77">
+        <v>23</v>
+      </c>
+      <c r="H77">
+        <v>34</v>
+      </c>
+      <c r="I77">
+        <v>8</v>
+      </c>
+      <c r="J77">
+        <v>9</v>
+      </c>
+      <c r="K77">
+        <v>93</v>
+      </c>
+      <c r="L77">
         <v>19</v>
       </c>
-      <c r="H77">
-        <v>28</v>
-      </c>
-      <c r="I77">
-        <v>1</v>
-      </c>
-      <c r="J77">
-        <v>6</v>
-      </c>
-      <c r="K77">
-        <v>69</v>
-      </c>
-      <c r="L77">
-        <v>14</v>
-      </c>
       <c r="M77">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="N77">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="O77">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P77">
         <v>2021</v>
       </c>
       <c r="Q77">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="R77">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" spans="1:18">
@@ -5042,55 +5042,55 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>21133</v>
+        <v>21138</v>
       </c>
       <c r="C78" t="s">
         <v>93</v>
       </c>
       <c r="D78">
+        <v>9</v>
+      </c>
+      <c r="E78">
+        <v>11</v>
+      </c>
+      <c r="F78">
+        <v>12</v>
+      </c>
+      <c r="G78">
+        <v>15</v>
+      </c>
+      <c r="H78">
+        <v>31</v>
+      </c>
+      <c r="I78">
+        <v>5</v>
+      </c>
+      <c r="J78">
+        <v>11</v>
+      </c>
+      <c r="K78">
+        <v>78</v>
+      </c>
+      <c r="L78">
+        <v>16</v>
+      </c>
+      <c r="M78">
+        <v>16</v>
+      </c>
+      <c r="N78">
         <v>8</v>
       </c>
-      <c r="E78">
-        <v>9</v>
-      </c>
-      <c r="F78">
-        <v>17</v>
-      </c>
-      <c r="G78">
-        <v>26</v>
-      </c>
-      <c r="H78">
-        <v>28</v>
-      </c>
-      <c r="I78">
-        <v>6</v>
-      </c>
-      <c r="J78">
-        <v>8</v>
-      </c>
-      <c r="K78">
-        <v>88</v>
-      </c>
-      <c r="L78">
-        <v>18</v>
-      </c>
-      <c r="M78">
-        <v>14</v>
-      </c>
-      <c r="N78">
-        <v>7</v>
-      </c>
       <c r="O78">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P78">
         <v>2021</v>
       </c>
       <c r="Q78">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="R78">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" spans="1:18">
@@ -5098,43 +5098,43 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>21132</v>
+        <v>21137</v>
       </c>
       <c r="C79" t="s">
         <v>94</v>
       </c>
       <c r="D79">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E79">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="F79">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="G79">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="H79">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="I79">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J79">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="K79">
-        <v>115</v>
+        <v>55</v>
       </c>
       <c r="L79">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="M79">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="N79">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O79">
         <v>2</v>
@@ -5143,7 +5143,7 @@
         <v>2021</v>
       </c>
       <c r="Q79">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="R79">
         <v>11</v>
@@ -5154,31 +5154,31 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>21131</v>
+        <v>21136</v>
       </c>
       <c r="C80" t="s">
         <v>95</v>
       </c>
       <c r="D80">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E80">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F80">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G80">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="H80">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I80">
+        <v>2</v>
+      </c>
+      <c r="J80">
         <v>5</v>
-      </c>
-      <c r="J80">
-        <v>6</v>
       </c>
       <c r="K80">
         <v>99</v>
@@ -5187,19 +5187,19 @@
         <v>20</v>
       </c>
       <c r="M80">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N80">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O80">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P80">
         <v>2021</v>
       </c>
       <c r="Q80">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="R80">
         <v>11</v>
@@ -5210,52 +5210,52 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>21130</v>
+        <v>21135</v>
       </c>
       <c r="C81" t="s">
         <v>96</v>
       </c>
       <c r="D81">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E81">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F81">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G81">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H81">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I81">
         <v>5</v>
       </c>
       <c r="J81">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="K81">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="L81">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M81">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="N81">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O81">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P81">
         <v>2021</v>
       </c>
       <c r="Q81">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="R81">
         <v>11</v>
@@ -5266,7 +5266,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>21129</v>
+        <v>21134</v>
       </c>
       <c r="C82" t="s">
         <v>97</v>
@@ -5275,34 +5275,34 @@
         <v>2</v>
       </c>
       <c r="E82">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F82">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G82">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H82">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="I82">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J82">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="K82">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="L82">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="M82">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N82">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="O82">
         <v>4</v>
@@ -5311,7 +5311,7 @@
         <v>2021</v>
       </c>
       <c r="Q82">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="R82">
         <v>11</v>
@@ -5322,52 +5322,52 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>21128</v>
+        <v>21133</v>
       </c>
       <c r="C83" t="s">
         <v>98</v>
       </c>
       <c r="D83">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E83">
+        <v>9</v>
+      </c>
+      <c r="F83">
         <v>17</v>
       </c>
-      <c r="F83">
-        <v>18</v>
-      </c>
       <c r="G83">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H83">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I83">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J83">
         <v>8</v>
       </c>
       <c r="K83">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="L83">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M83">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N83">
         <v>7</v>
       </c>
       <c r="O83">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P83">
         <v>2021</v>
       </c>
       <c r="Q83">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="R83">
         <v>11</v>
@@ -5378,40 +5378,40 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>21127</v>
+        <v>21132</v>
       </c>
       <c r="C84" t="s">
         <v>99</v>
       </c>
       <c r="D84">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E84">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="F84">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="G84">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="H84">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="I84">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J84">
         <v>11</v>
       </c>
       <c r="K84">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="L84">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="M84">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N84">
         <v>7</v>
@@ -5423,7 +5423,7 @@
         <v>2021</v>
       </c>
       <c r="Q84">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="R84">
         <v>11</v>
@@ -5434,19 +5434,19 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>21126</v>
+        <v>21131</v>
       </c>
       <c r="C85" t="s">
         <v>100</v>
       </c>
       <c r="D85">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E85">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F85">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G85">
         <v>34</v>
@@ -5455,31 +5455,31 @@
         <v>35</v>
       </c>
       <c r="I85">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J85">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="K85">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="L85">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M85">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="N85">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="O85">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P85">
         <v>2021</v>
       </c>
       <c r="Q85">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="R85">
         <v>11</v>
@@ -5490,52 +5490,52 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>21125</v>
+        <v>21130</v>
       </c>
       <c r="C86" t="s">
         <v>101</v>
       </c>
       <c r="D86">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="E86">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="F86">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="G86">
         <v>27</v>
       </c>
       <c r="H86">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I86">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J86">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K86">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="L86">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="M86">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N86">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O86">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P86">
         <v>2021</v>
       </c>
       <c r="Q86">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="R86">
         <v>11</v>
@@ -5546,55 +5546,55 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>21124</v>
+        <v>21129</v>
       </c>
       <c r="C87" t="s">
         <v>102</v>
       </c>
       <c r="D87">
+        <v>2</v>
+      </c>
+      <c r="E87">
+        <v>16</v>
+      </c>
+      <c r="F87">
+        <v>17</v>
+      </c>
+      <c r="G87">
+        <v>18</v>
+      </c>
+      <c r="H87">
+        <v>34</v>
+      </c>
+      <c r="I87">
+        <v>4</v>
+      </c>
+      <c r="J87">
         <v>10</v>
       </c>
-      <c r="E87">
+      <c r="K87">
+        <v>87</v>
+      </c>
+      <c r="L87">
         <v>17</v>
       </c>
-      <c r="F87">
-        <v>22</v>
-      </c>
-      <c r="G87">
-        <v>25</v>
-      </c>
-      <c r="H87">
-        <v>35</v>
-      </c>
-      <c r="I87">
+      <c r="M87">
+        <v>14</v>
+      </c>
+      <c r="N87">
         <v>7</v>
       </c>
-      <c r="J87">
-        <v>9</v>
-      </c>
-      <c r="K87">
-        <v>109</v>
-      </c>
-      <c r="L87">
-        <v>22</v>
-      </c>
-      <c r="M87">
-        <v>16</v>
-      </c>
-      <c r="N87">
-        <v>8</v>
-      </c>
       <c r="O87">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P87">
         <v>2021</v>
       </c>
       <c r="Q87">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="R87">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="88" spans="1:18">
@@ -5602,43 +5602,43 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>21123</v>
+        <v>21128</v>
       </c>
       <c r="C88" t="s">
         <v>103</v>
       </c>
       <c r="D88">
+        <v>14</v>
+      </c>
+      <c r="E88">
+        <v>17</v>
+      </c>
+      <c r="F88">
+        <v>18</v>
+      </c>
+      <c r="G88">
+        <v>23</v>
+      </c>
+      <c r="H88">
+        <v>27</v>
+      </c>
+      <c r="I88">
+        <v>5</v>
+      </c>
+      <c r="J88">
         <v>8</v>
       </c>
-      <c r="E88">
-        <v>23</v>
-      </c>
-      <c r="F88">
-        <v>26</v>
-      </c>
-      <c r="G88">
-        <v>27</v>
-      </c>
-      <c r="H88">
-        <v>33</v>
-      </c>
-      <c r="I88">
-        <v>8</v>
-      </c>
-      <c r="J88">
-        <v>9</v>
-      </c>
       <c r="K88">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="L88">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M88">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N88">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O88">
         <v>2</v>
@@ -5647,10 +5647,10 @@
         <v>2021</v>
       </c>
       <c r="Q88">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="R88">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="89" spans="1:18">
@@ -5658,43 +5658,43 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>21122</v>
+        <v>21127</v>
       </c>
       <c r="C89" t="s">
         <v>104</v>
       </c>
       <c r="D89">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="E89">
+        <v>2</v>
+      </c>
+      <c r="F89">
         <v>15</v>
       </c>
-      <c r="F89">
+      <c r="G89">
+        <v>17</v>
+      </c>
+      <c r="H89">
         <v>26</v>
       </c>
-      <c r="G89">
-        <v>27</v>
-      </c>
-      <c r="H89">
-        <v>29</v>
-      </c>
       <c r="I89">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J89">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K89">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="L89">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="M89">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="N89">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O89">
         <v>2</v>
@@ -5703,10 +5703,10 @@
         <v>2021</v>
       </c>
       <c r="Q89">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="R89">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="90" spans="1:18">
@@ -5714,43 +5714,43 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>21121</v>
+        <v>21126</v>
       </c>
       <c r="C90" t="s">
         <v>105</v>
       </c>
       <c r="D90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E90">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F90">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G90">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H90">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="I90">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J90">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K90">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L90">
         <v>19</v>
       </c>
       <c r="M90">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="N90">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="O90">
         <v>2</v>
@@ -5759,10 +5759,10 @@
         <v>2021</v>
       </c>
       <c r="Q90">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="R90">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="91" spans="1:18">
@@ -5770,55 +5770,55 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>21120</v>
+        <v>21125</v>
       </c>
       <c r="C91" t="s">
         <v>106</v>
       </c>
       <c r="D91">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E91">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F91">
         <v>21</v>
       </c>
       <c r="G91">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H91">
         <v>31</v>
       </c>
       <c r="I91">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J91">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K91">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="L91">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="M91">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="N91">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P91">
         <v>2021</v>
       </c>
       <c r="Q91">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="R91">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="92" spans="1:18">
@@ -5826,52 +5826,52 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>21119</v>
+        <v>21124</v>
       </c>
       <c r="C92" t="s">
         <v>107</v>
       </c>
       <c r="D92">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E92">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="F92">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="G92">
+        <v>25</v>
+      </c>
+      <c r="H92">
+        <v>35</v>
+      </c>
+      <c r="I92">
+        <v>7</v>
+      </c>
+      <c r="J92">
+        <v>9</v>
+      </c>
+      <c r="K92">
+        <v>109</v>
+      </c>
+      <c r="L92">
+        <v>22</v>
+      </c>
+      <c r="M92">
         <v>16</v>
       </c>
-      <c r="H92">
-        <v>30</v>
-      </c>
-      <c r="I92">
-        <v>9</v>
-      </c>
-      <c r="J92">
-        <v>10</v>
-      </c>
-      <c r="K92">
-        <v>58</v>
-      </c>
-      <c r="L92">
-        <v>12</v>
-      </c>
-      <c r="M92">
-        <v>19</v>
-      </c>
       <c r="N92">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O92">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P92">
         <v>2021</v>
       </c>
       <c r="Q92">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="R92">
         <v>10</v>
@@ -5882,52 +5882,52 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>21118</v>
+        <v>21123</v>
       </c>
       <c r="C93" t="s">
         <v>108</v>
       </c>
       <c r="D93">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E93">
+        <v>23</v>
+      </c>
+      <c r="F93">
+        <v>26</v>
+      </c>
+      <c r="G93">
+        <v>27</v>
+      </c>
+      <c r="H93">
+        <v>33</v>
+      </c>
+      <c r="I93">
+        <v>8</v>
+      </c>
+      <c r="J93">
+        <v>9</v>
+      </c>
+      <c r="K93">
+        <v>117</v>
+      </c>
+      <c r="L93">
+        <v>23</v>
+      </c>
+      <c r="M93">
         <v>17</v>
       </c>
-      <c r="F93">
-        <v>18</v>
-      </c>
-      <c r="G93">
-        <v>28</v>
-      </c>
-      <c r="H93">
-        <v>34</v>
-      </c>
-      <c r="I93">
-        <v>2</v>
-      </c>
-      <c r="J93">
-        <v>3</v>
-      </c>
-      <c r="K93">
-        <v>111</v>
-      </c>
-      <c r="L93">
-        <v>22</v>
-      </c>
-      <c r="M93">
-        <v>5</v>
-      </c>
       <c r="N93">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="O93">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P93">
         <v>2021</v>
       </c>
       <c r="Q93">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="R93">
         <v>10</v>
@@ -5938,43 +5938,43 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>21117</v>
+        <v>21122</v>
       </c>
       <c r="C94" t="s">
         <v>109</v>
       </c>
       <c r="D94">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E94">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F94">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G94">
+        <v>27</v>
+      </c>
+      <c r="H94">
+        <v>29</v>
+      </c>
+      <c r="I94">
+        <v>4</v>
+      </c>
+      <c r="J94">
+        <v>5</v>
+      </c>
+      <c r="K94">
+        <v>111</v>
+      </c>
+      <c r="L94">
         <v>22</v>
       </c>
-      <c r="H94">
-        <v>33</v>
-      </c>
-      <c r="I94">
+      <c r="M94">
+        <v>9</v>
+      </c>
+      <c r="N94">
         <v>5</v>
-      </c>
-      <c r="J94">
-        <v>6</v>
-      </c>
-      <c r="K94">
-        <v>105</v>
-      </c>
-      <c r="L94">
-        <v>21</v>
-      </c>
-      <c r="M94">
-        <v>11</v>
-      </c>
-      <c r="N94">
-        <v>6</v>
       </c>
       <c r="O94">
         <v>2</v>
@@ -5983,7 +5983,7 @@
         <v>2021</v>
       </c>
       <c r="Q94">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="R94">
         <v>10</v>
@@ -5994,43 +5994,43 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>21116</v>
+        <v>21121</v>
       </c>
       <c r="C95" t="s">
         <v>110</v>
       </c>
       <c r="D95">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E95">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="F95">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="G95">
         <v>29</v>
       </c>
       <c r="H95">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="I95">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J95">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K95">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="L95">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="M95">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="N95">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O95">
         <v>2</v>
@@ -6039,7 +6039,7 @@
         <v>2021</v>
       </c>
       <c r="Q95">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="R95">
         <v>10</v>
@@ -6050,34 +6050,34 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>21115</v>
+        <v>21120</v>
       </c>
       <c r="C96" t="s">
         <v>111</v>
       </c>
       <c r="D96">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E96">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F96">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G96">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H96">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I96">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J96">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K96">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="L96">
         <v>18</v>
@@ -6089,13 +6089,13 @@
         <v>8</v>
       </c>
       <c r="O96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P96">
         <v>2021</v>
       </c>
       <c r="Q96">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="R96">
         <v>10</v>
@@ -6106,52 +6106,52 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>21114</v>
+        <v>21119</v>
       </c>
       <c r="C97" t="s">
         <v>112</v>
       </c>
       <c r="D97">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E97">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F97">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G97">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="H97">
         <v>30</v>
       </c>
       <c r="I97">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J97">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K97">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="L97">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="M97">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="N97">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="O97">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P97">
         <v>2021</v>
       </c>
       <c r="Q97">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="R97">
         <v>10</v>
@@ -6162,55 +6162,55 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>21113</v>
+        <v>21118</v>
       </c>
       <c r="C98" t="s">
         <v>113</v>
       </c>
       <c r="D98">
+        <v>14</v>
+      </c>
+      <c r="E98">
         <v>17</v>
       </c>
-      <c r="E98">
+      <c r="F98">
         <v>18</v>
       </c>
-      <c r="F98">
-        <v>25</v>
-      </c>
       <c r="G98">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H98">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="I98">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J98">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K98">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="L98">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M98">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="N98">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O98">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P98">
         <v>2021</v>
       </c>
       <c r="Q98">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="R98">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="99" spans="1:18">
@@ -6218,43 +6218,43 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>21112</v>
+        <v>21117</v>
       </c>
       <c r="C99" t="s">
         <v>114</v>
       </c>
       <c r="D99">
+        <v>11</v>
+      </c>
+      <c r="E99">
         <v>18</v>
       </c>
-      <c r="E99">
+      <c r="F99">
         <v>21</v>
       </c>
-      <c r="F99">
+      <c r="G99">
         <v>22</v>
       </c>
-      <c r="G99">
-        <v>23</v>
-      </c>
       <c r="H99">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I99">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="J99">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="K99">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="L99">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M99">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="N99">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="O99">
         <v>2</v>
@@ -6263,10 +6263,10 @@
         <v>2021</v>
       </c>
       <c r="Q99">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="R99">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="100" spans="1:18">
@@ -6274,43 +6274,43 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>21111</v>
+        <v>21116</v>
       </c>
       <c r="C100" t="s">
         <v>115</v>
       </c>
       <c r="D100">
+        <v>4</v>
+      </c>
+      <c r="E100">
+        <v>25</v>
+      </c>
+      <c r="F100">
+        <v>28</v>
+      </c>
+      <c r="G100">
+        <v>29</v>
+      </c>
+      <c r="H100">
+        <v>35</v>
+      </c>
+      <c r="I100">
+        <v>3</v>
+      </c>
+      <c r="J100">
+        <v>11</v>
+      </c>
+      <c r="K100">
+        <v>121</v>
+      </c>
+      <c r="L100">
+        <v>24</v>
+      </c>
+      <c r="M100">
+        <v>14</v>
+      </c>
+      <c r="N100">
         <v>7</v>
-      </c>
-      <c r="E100">
-        <v>8</v>
-      </c>
-      <c r="F100">
-        <v>15</v>
-      </c>
-      <c r="G100">
-        <v>19</v>
-      </c>
-      <c r="H100">
-        <v>28</v>
-      </c>
-      <c r="I100">
-        <v>8</v>
-      </c>
-      <c r="J100">
-        <v>9</v>
-      </c>
-      <c r="K100">
-        <v>77</v>
-      </c>
-      <c r="L100">
-        <v>15</v>
-      </c>
-      <c r="M100">
-        <v>17</v>
-      </c>
-      <c r="N100">
-        <v>9</v>
       </c>
       <c r="O100">
         <v>2</v>
@@ -6319,10 +6319,10 @@
         <v>2021</v>
       </c>
       <c r="Q100">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="R100">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="101" spans="1:18">
@@ -6330,43 +6330,43 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>21110</v>
+        <v>21115</v>
       </c>
       <c r="C101" t="s">
         <v>116</v>
       </c>
       <c r="D101">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E101">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F101">
+        <v>19</v>
+      </c>
+      <c r="G101">
+        <v>20</v>
+      </c>
+      <c r="H101">
         <v>29</v>
       </c>
-      <c r="G101">
-        <v>31</v>
-      </c>
-      <c r="H101">
-        <v>32</v>
-      </c>
       <c r="I101">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="J101">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K101">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="L101">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="M101">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="N101">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="O101">
         <v>2</v>
@@ -6375,10 +6375,10 @@
         <v>2021</v>
       </c>
       <c r="Q101">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="R101">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/大乐透最近100期开奖号码.xlsx
+++ b/大乐透最近100期开奖号码.xlsx
@@ -67,6 +67,15 @@
     <t>年内月号</t>
   </si>
   <si>
+    <t>2022-06-15</t>
+  </si>
+  <si>
+    <t>2022-06-13</t>
+  </si>
+  <si>
+    <t>2022-06-11</t>
+  </si>
+  <si>
     <t>2022-06-08</t>
   </si>
   <si>
@@ -356,15 +365,6 @@
   </si>
   <si>
     <t>2021-10-16</t>
-  </si>
-  <si>
-    <t>2021-10-13</t>
-  </si>
-  <si>
-    <t>2021-10-11</t>
-  </si>
-  <si>
-    <t>2021-10-09</t>
   </si>
 </sst>
 </file>
@@ -786,52 +786,52 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>22064</v>
+        <v>22067</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E2">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F2">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G2">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H2">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J2">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="K2">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="L2">
+        <v>20</v>
+      </c>
+      <c r="M2">
         <v>21</v>
       </c>
-      <c r="M2">
-        <v>12</v>
-      </c>
       <c r="N2">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="O2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P2">
         <v>2022</v>
       </c>
       <c r="Q2">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="R2">
         <v>6</v>
@@ -842,7 +842,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22063</v>
+        <v>22066</v>
       </c>
       <c r="C3" t="s">
         <v>18</v>
@@ -851,43 +851,43 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="F3">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G3">
         <v>26</v>
       </c>
       <c r="H3">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K3">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="L3">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="M3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N3">
         <v>8</v>
       </c>
       <c r="O3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P3">
         <v>2022</v>
       </c>
       <c r="Q3">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="R3">
         <v>6</v>
@@ -898,7 +898,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22062</v>
+        <v>22065</v>
       </c>
       <c r="C4" t="s">
         <v>19</v>
@@ -907,43 +907,43 @@
         <v>5</v>
       </c>
       <c r="E4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G4">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="H4">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I4">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="K4">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="L4">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M4">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="N4">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P4">
         <v>2022</v>
       </c>
       <c r="Q4">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="R4">
         <v>6</v>
@@ -954,52 +954,52 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22061</v>
+        <v>22064</v>
       </c>
       <c r="C5" t="s">
         <v>20</v>
       </c>
       <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>19</v>
+      </c>
+      <c r="F5">
+        <v>22</v>
+      </c>
+      <c r="G5">
+        <v>25</v>
+      </c>
+      <c r="H5">
+        <v>35</v>
+      </c>
+      <c r="I5">
+        <v>5</v>
+      </c>
+      <c r="J5">
+        <v>7</v>
+      </c>
+      <c r="K5">
+        <v>103</v>
+      </c>
+      <c r="L5">
+        <v>21</v>
+      </c>
+      <c r="M5">
+        <v>12</v>
+      </c>
+      <c r="N5">
         <v>6</v>
       </c>
-      <c r="E5">
-        <v>9</v>
-      </c>
-      <c r="F5">
-        <v>19</v>
-      </c>
-      <c r="G5">
-        <v>22</v>
-      </c>
-      <c r="H5">
-        <v>30</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>6</v>
-      </c>
-      <c r="K5">
-        <v>86</v>
-      </c>
-      <c r="L5">
-        <v>17</v>
-      </c>
-      <c r="M5">
-        <v>7</v>
-      </c>
-      <c r="N5">
-        <v>4</v>
-      </c>
       <c r="O5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P5">
         <v>2022</v>
       </c>
       <c r="Q5">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="R5">
         <v>6</v>
@@ -1010,7 +1010,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22060</v>
+        <v>22063</v>
       </c>
       <c r="C6" t="s">
         <v>21</v>
@@ -1019,46 +1019,46 @@
         <v>2</v>
       </c>
       <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>22</v>
+      </c>
+      <c r="G6">
+        <v>26</v>
+      </c>
+      <c r="H6">
+        <v>31</v>
+      </c>
+      <c r="I6">
         <v>6</v>
       </c>
-      <c r="F6">
+      <c r="J6">
         <v>10</v>
       </c>
-      <c r="G6">
-        <v>11</v>
-      </c>
-      <c r="H6">
-        <v>20</v>
-      </c>
-      <c r="I6">
-        <v>3</v>
-      </c>
-      <c r="J6">
-        <v>9</v>
-      </c>
       <c r="K6">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="L6">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="M6">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="N6">
+        <v>8</v>
+      </c>
+      <c r="O6">
+        <v>3</v>
+      </c>
+      <c r="P6">
+        <v>2022</v>
+      </c>
+      <c r="Q6">
+        <v>63</v>
+      </c>
+      <c r="R6">
         <v>6</v>
-      </c>
-      <c r="O6">
-        <v>4</v>
-      </c>
-      <c r="P6">
-        <v>2022</v>
-      </c>
-      <c r="Q6">
-        <v>60</v>
-      </c>
-      <c r="R6">
-        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -1066,55 +1066,55 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22059</v>
+        <v>22062</v>
       </c>
       <c r="C7" t="s">
         <v>22</v>
       </c>
       <c r="D7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E7">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F7">
+        <v>11</v>
+      </c>
+      <c r="G7">
+        <v>12</v>
+      </c>
+      <c r="H7">
+        <v>31</v>
+      </c>
+      <c r="I7">
+        <v>7</v>
+      </c>
+      <c r="J7">
+        <v>11</v>
+      </c>
+      <c r="K7">
+        <v>68</v>
+      </c>
+      <c r="L7">
+        <v>14</v>
+      </c>
+      <c r="M7">
         <v>18</v>
       </c>
-      <c r="G7">
-        <v>32</v>
-      </c>
-      <c r="H7">
-        <v>34</v>
-      </c>
-      <c r="I7">
-        <v>4</v>
-      </c>
-      <c r="J7">
-        <v>9</v>
-      </c>
-      <c r="K7">
-        <v>103</v>
-      </c>
-      <c r="L7">
-        <v>21</v>
-      </c>
-      <c r="M7">
-        <v>13</v>
-      </c>
       <c r="N7">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P7">
         <v>2022</v>
       </c>
       <c r="Q7">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="R7">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -1122,43 +1122,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>22058</v>
+        <v>22061</v>
       </c>
       <c r="C8" t="s">
         <v>23</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E8">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F8">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G8">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H8">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>6</v>
+      </c>
+      <c r="K8">
+        <v>86</v>
+      </c>
+      <c r="L8">
+        <v>17</v>
+      </c>
+      <c r="M8">
         <v>7</v>
       </c>
-      <c r="J8">
-        <v>8</v>
-      </c>
-      <c r="K8">
-        <v>92</v>
-      </c>
-      <c r="L8">
-        <v>18</v>
-      </c>
-      <c r="M8">
-        <v>15</v>
-      </c>
       <c r="N8">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="O8">
         <v>3</v>
@@ -1167,10 +1167,10 @@
         <v>2022</v>
       </c>
       <c r="Q8">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="R8">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -1178,52 +1178,52 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22057</v>
+        <v>22060</v>
       </c>
       <c r="C9" t="s">
         <v>24</v>
       </c>
       <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
         <v>6</v>
       </c>
-      <c r="E9">
+      <c r="F9">
+        <v>10</v>
+      </c>
+      <c r="G9">
+        <v>11</v>
+      </c>
+      <c r="H9">
+        <v>20</v>
+      </c>
+      <c r="I9">
+        <v>3</v>
+      </c>
+      <c r="J9">
+        <v>9</v>
+      </c>
+      <c r="K9">
+        <v>49</v>
+      </c>
+      <c r="L9">
+        <v>10</v>
+      </c>
+      <c r="M9">
         <v>12</v>
       </c>
-      <c r="F9">
-        <v>18</v>
-      </c>
-      <c r="G9">
-        <v>21</v>
-      </c>
-      <c r="H9">
-        <v>35</v>
-      </c>
-      <c r="I9">
-        <v>7</v>
-      </c>
-      <c r="J9">
-        <v>10</v>
-      </c>
-      <c r="K9">
-        <v>92</v>
-      </c>
-      <c r="L9">
-        <v>18</v>
-      </c>
-      <c r="M9">
-        <v>17</v>
-      </c>
       <c r="N9">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="O9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P9">
         <v>2022</v>
       </c>
       <c r="Q9">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="R9">
         <v>5</v>
@@ -1234,52 +1234,52 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22056</v>
+        <v>22059</v>
       </c>
       <c r="C10" t="s">
         <v>25</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E10">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F10">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G10">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="H10">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I10">
+        <v>4</v>
+      </c>
+      <c r="J10">
+        <v>9</v>
+      </c>
+      <c r="K10">
+        <v>103</v>
+      </c>
+      <c r="L10">
+        <v>21</v>
+      </c>
+      <c r="M10">
+        <v>13</v>
+      </c>
+      <c r="N10">
         <v>7</v>
       </c>
-      <c r="J10">
-        <v>9</v>
-      </c>
-      <c r="K10">
-        <v>76</v>
-      </c>
-      <c r="L10">
-        <v>15</v>
-      </c>
-      <c r="M10">
-        <v>16</v>
-      </c>
-      <c r="N10">
-        <v>8</v>
-      </c>
       <c r="O10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P10">
         <v>2022</v>
       </c>
       <c r="Q10">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="R10">
         <v>5</v>
@@ -1290,52 +1290,52 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22055</v>
+        <v>22058</v>
       </c>
       <c r="C11" t="s">
         <v>26</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F11">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="G11">
+        <v>26</v>
+      </c>
+      <c r="H11">
+        <v>35</v>
+      </c>
+      <c r="I11">
+        <v>7</v>
+      </c>
+      <c r="J11">
+        <v>8</v>
+      </c>
+      <c r="K11">
+        <v>92</v>
+      </c>
+      <c r="L11">
+        <v>18</v>
+      </c>
+      <c r="M11">
         <v>15</v>
       </c>
-      <c r="H11">
-        <v>23</v>
-      </c>
-      <c r="I11">
-        <v>4</v>
-      </c>
-      <c r="J11">
-        <v>6</v>
-      </c>
-      <c r="K11">
-        <v>53</v>
-      </c>
-      <c r="L11">
-        <v>11</v>
-      </c>
-      <c r="M11">
-        <v>10</v>
-      </c>
       <c r="N11">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="O11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P11">
         <v>2022</v>
       </c>
       <c r="Q11">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="R11">
         <v>5</v>
@@ -1346,25 +1346,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>22054</v>
+        <v>22057</v>
       </c>
       <c r="C12" t="s">
         <v>27</v>
       </c>
       <c r="D12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E12">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F12">
+        <v>18</v>
+      </c>
+      <c r="G12">
         <v>21</v>
       </c>
-      <c r="G12">
-        <v>23</v>
-      </c>
       <c r="H12">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I12">
         <v>7</v>
@@ -1373,10 +1373,10 @@
         <v>10</v>
       </c>
       <c r="K12">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="L12">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M12">
         <v>17</v>
@@ -1385,13 +1385,13 @@
         <v>9</v>
       </c>
       <c r="O12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P12">
         <v>2022</v>
       </c>
       <c r="Q12">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="R12">
         <v>5</v>
@@ -1402,43 +1402,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>22053</v>
+        <v>22056</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
       </c>
       <c r="D13">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E13">
+        <v>11</v>
+      </c>
+      <c r="F13">
+        <v>15</v>
+      </c>
+      <c r="G13">
         <v>17</v>
       </c>
-      <c r="F13">
-        <v>19</v>
-      </c>
-      <c r="G13">
-        <v>20</v>
-      </c>
       <c r="H13">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J13">
         <v>9</v>
       </c>
       <c r="K13">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="L13">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M13">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="N13">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="O13">
         <v>1</v>
@@ -1447,7 +1447,7 @@
         <v>2022</v>
       </c>
       <c r="Q13">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="R13">
         <v>5</v>
@@ -1458,7 +1458,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22052</v>
+        <v>22055</v>
       </c>
       <c r="C14" t="s">
         <v>29</v>
@@ -1467,43 +1467,43 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G14">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="H14">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="I14">
         <v>4</v>
       </c>
       <c r="J14">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K14">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="L14">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="M14">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="N14">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P14">
         <v>2022</v>
       </c>
       <c r="Q14">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="R14">
         <v>5</v>
@@ -1514,52 +1514,52 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22051</v>
+        <v>22054</v>
       </c>
       <c r="C15" t="s">
         <v>30</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E15">
         <v>16</v>
       </c>
       <c r="F15">
+        <v>21</v>
+      </c>
+      <c r="G15">
+        <v>23</v>
+      </c>
+      <c r="H15">
+        <v>34</v>
+      </c>
+      <c r="I15">
+        <v>7</v>
+      </c>
+      <c r="J15">
+        <v>10</v>
+      </c>
+      <c r="K15">
+        <v>99</v>
+      </c>
+      <c r="L15">
+        <v>20</v>
+      </c>
+      <c r="M15">
         <v>17</v>
       </c>
-      <c r="G15">
-        <v>19</v>
-      </c>
-      <c r="H15">
-        <v>33</v>
-      </c>
-      <c r="I15">
-        <v>5</v>
-      </c>
-      <c r="J15">
-        <v>6</v>
-      </c>
-      <c r="K15">
-        <v>86</v>
-      </c>
-      <c r="L15">
-        <v>17</v>
-      </c>
-      <c r="M15">
-        <v>11</v>
-      </c>
       <c r="N15">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="O15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P15">
         <v>2022</v>
       </c>
       <c r="Q15">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="R15">
         <v>5</v>
@@ -1570,52 +1570,52 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22050</v>
+        <v>22053</v>
       </c>
       <c r="C16" t="s">
         <v>31</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E16">
+        <v>17</v>
+      </c>
+      <c r="F16">
+        <v>19</v>
+      </c>
+      <c r="G16">
+        <v>20</v>
+      </c>
+      <c r="H16">
+        <v>25</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>9</v>
+      </c>
+      <c r="K16">
+        <v>90</v>
+      </c>
+      <c r="L16">
+        <v>18</v>
+      </c>
+      <c r="M16">
         <v>10</v>
       </c>
-      <c r="F16">
-        <v>21</v>
-      </c>
-      <c r="G16">
-        <v>24</v>
-      </c>
-      <c r="H16">
-        <v>30</v>
-      </c>
-      <c r="I16">
-        <v>8</v>
-      </c>
-      <c r="J16">
-        <v>10</v>
-      </c>
-      <c r="K16">
-        <v>87</v>
-      </c>
-      <c r="L16">
-        <v>17</v>
-      </c>
-      <c r="M16">
-        <v>18</v>
-      </c>
       <c r="N16">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O16">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P16">
         <v>2022</v>
       </c>
       <c r="Q16">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="R16">
         <v>5</v>
@@ -1626,52 +1626,52 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22049</v>
+        <v>22052</v>
       </c>
       <c r="C17" t="s">
         <v>32</v>
       </c>
       <c r="D17">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E17">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F17">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G17">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H17">
         <v>35</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J17">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K17">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="L17">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M17">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="N17">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P17">
         <v>2022</v>
       </c>
       <c r="Q17">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="R17">
         <v>5</v>
@@ -1682,52 +1682,52 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>22048</v>
+        <v>22051</v>
       </c>
       <c r="C18" t="s">
         <v>33</v>
       </c>
       <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
         <v>16</v>
       </c>
-      <c r="E18">
-        <v>22</v>
-      </c>
       <c r="F18">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="G18">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="H18">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I18">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J18">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K18">
-        <v>127</v>
+        <v>86</v>
       </c>
       <c r="L18">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="M18">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="N18">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="O18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P18">
         <v>2022</v>
       </c>
       <c r="Q18">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="R18">
         <v>5</v>
@@ -1738,55 +1738,55 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>22047</v>
+        <v>22050</v>
       </c>
       <c r="C19" t="s">
         <v>34</v>
       </c>
       <c r="D19">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E19">
         <v>10</v>
       </c>
       <c r="F19">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G19">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="H19">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I19">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J19">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K19">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="L19">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M19">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="N19">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P19">
         <v>2022</v>
       </c>
       <c r="Q19">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="R19">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -1794,7 +1794,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22046</v>
+        <v>22049</v>
       </c>
       <c r="C20" t="s">
         <v>35</v>
@@ -1803,46 +1803,46 @@
         <v>6</v>
       </c>
       <c r="E20">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F20">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G20">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="H20">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="I20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J20">
+        <v>10</v>
+      </c>
+      <c r="K20">
+        <v>99</v>
+      </c>
+      <c r="L20">
+        <v>20</v>
+      </c>
+      <c r="M20">
+        <v>11</v>
+      </c>
+      <c r="N20">
+        <v>6</v>
+      </c>
+      <c r="O20">
+        <v>4</v>
+      </c>
+      <c r="P20">
+        <v>2022</v>
+      </c>
+      <c r="Q20">
+        <v>49</v>
+      </c>
+      <c r="R20">
         <v>5</v>
-      </c>
-      <c r="K20">
-        <v>74</v>
-      </c>
-      <c r="L20">
-        <v>15</v>
-      </c>
-      <c r="M20">
-        <v>8</v>
-      </c>
-      <c r="N20">
-        <v>4</v>
-      </c>
-      <c r="O20">
-        <v>3</v>
-      </c>
-      <c r="P20">
-        <v>2022</v>
-      </c>
-      <c r="Q20">
-        <v>46</v>
-      </c>
-      <c r="R20">
-        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -1850,55 +1850,55 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22045</v>
+        <v>22048</v>
       </c>
       <c r="C21" t="s">
         <v>36</v>
       </c>
       <c r="D21">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="F21">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="G21">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="H21">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J21">
+        <v>9</v>
+      </c>
+      <c r="K21">
+        <v>127</v>
+      </c>
+      <c r="L21">
+        <v>25</v>
+      </c>
+      <c r="M21">
+        <v>17</v>
+      </c>
+      <c r="N21">
+        <v>9</v>
+      </c>
+      <c r="O21">
+        <v>4</v>
+      </c>
+      <c r="P21">
+        <v>2022</v>
+      </c>
+      <c r="Q21">
+        <v>48</v>
+      </c>
+      <c r="R21">
         <v>5</v>
-      </c>
-      <c r="K21">
-        <v>44</v>
-      </c>
-      <c r="L21">
-        <v>9</v>
-      </c>
-      <c r="M21">
-        <v>6</v>
-      </c>
-      <c r="N21">
-        <v>3</v>
-      </c>
-      <c r="O21">
-        <v>3</v>
-      </c>
-      <c r="P21">
-        <v>2022</v>
-      </c>
-      <c r="Q21">
-        <v>45</v>
-      </c>
-      <c r="R21">
-        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -1906,52 +1906,52 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>22044</v>
+        <v>22047</v>
       </c>
       <c r="C22" t="s">
         <v>37</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F22">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G22">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="H22">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="I22">
         <v>3</v>
       </c>
       <c r="J22">
+        <v>11</v>
+      </c>
+      <c r="K22">
+        <v>73</v>
+      </c>
+      <c r="L22">
+        <v>15</v>
+      </c>
+      <c r="M22">
+        <v>14</v>
+      </c>
+      <c r="N22">
         <v>7</v>
       </c>
-      <c r="K22">
-        <v>56</v>
-      </c>
-      <c r="L22">
-        <v>11</v>
-      </c>
-      <c r="M22">
-        <v>10</v>
-      </c>
-      <c r="N22">
-        <v>5</v>
-      </c>
       <c r="O22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P22">
         <v>2022</v>
       </c>
       <c r="Q22">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="R22">
         <v>4</v>
@@ -1962,52 +1962,52 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>22043</v>
+        <v>22046</v>
       </c>
       <c r="C23" t="s">
         <v>38</v>
       </c>
       <c r="D23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E23">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="F23">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G23">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H23">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I23">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="J23">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="K23">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="L23">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M23">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="N23">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="O23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P23">
         <v>2022</v>
       </c>
       <c r="Q23">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="R23">
         <v>4</v>
@@ -2018,43 +2018,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22042</v>
+        <v>22045</v>
       </c>
       <c r="C24" t="s">
         <v>39</v>
       </c>
       <c r="D24">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E24">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G24">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="H24">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="I24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J24">
+        <v>5</v>
+      </c>
+      <c r="K24">
+        <v>44</v>
+      </c>
+      <c r="L24">
+        <v>9</v>
+      </c>
+      <c r="M24">
         <v>6</v>
       </c>
-      <c r="K24">
-        <v>90</v>
-      </c>
-      <c r="L24">
-        <v>18</v>
-      </c>
-      <c r="M24">
-        <v>8</v>
-      </c>
       <c r="N24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O24">
         <v>3</v>
@@ -2063,7 +2063,7 @@
         <v>2022</v>
       </c>
       <c r="Q24">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="R24">
         <v>4</v>
@@ -2074,52 +2074,52 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22041</v>
+        <v>22044</v>
       </c>
       <c r="C25" t="s">
         <v>40</v>
       </c>
       <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>16</v>
+      </c>
+      <c r="G25">
+        <v>17</v>
+      </c>
+      <c r="H25">
+        <v>20</v>
+      </c>
+      <c r="I25">
+        <v>3</v>
+      </c>
+      <c r="J25">
+        <v>7</v>
+      </c>
+      <c r="K25">
+        <v>56</v>
+      </c>
+      <c r="L25">
+        <v>11</v>
+      </c>
+      <c r="M25">
+        <v>10</v>
+      </c>
+      <c r="N25">
         <v>5</v>
       </c>
-      <c r="E25">
-        <v>15</v>
-      </c>
-      <c r="F25">
-        <v>25</v>
-      </c>
-      <c r="G25">
-        <v>26</v>
-      </c>
-      <c r="H25">
-        <v>33</v>
-      </c>
-      <c r="I25">
-        <v>6</v>
-      </c>
-      <c r="J25">
-        <v>11</v>
-      </c>
-      <c r="K25">
-        <v>104</v>
-      </c>
-      <c r="L25">
-        <v>21</v>
-      </c>
-      <c r="M25">
-        <v>17</v>
-      </c>
-      <c r="N25">
-        <v>9</v>
-      </c>
       <c r="O25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P25">
         <v>2022</v>
       </c>
       <c r="Q25">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="R25">
         <v>4</v>
@@ -2130,52 +2130,52 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>22040</v>
+        <v>22043</v>
       </c>
       <c r="C26" t="s">
         <v>41</v>
       </c>
       <c r="D26">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E26">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F26">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="G26">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="H26">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I26">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J26">
         <v>12</v>
       </c>
       <c r="K26">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="L26">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="M26">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N26">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O26">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P26">
         <v>2022</v>
       </c>
       <c r="Q26">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="R26">
         <v>4</v>
@@ -2186,52 +2186,52 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>22039</v>
+        <v>22042</v>
       </c>
       <c r="C27" t="s">
         <v>42</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E27">
+        <v>10</v>
+      </c>
+      <c r="F27">
+        <v>11</v>
+      </c>
+      <c r="G27">
+        <v>29</v>
+      </c>
+      <c r="H27">
+        <v>32</v>
+      </c>
+      <c r="I27">
+        <v>2</v>
+      </c>
+      <c r="J27">
+        <v>6</v>
+      </c>
+      <c r="K27">
+        <v>90</v>
+      </c>
+      <c r="L27">
+        <v>18</v>
+      </c>
+      <c r="M27">
         <v>8</v>
       </c>
-      <c r="F27">
-        <v>11</v>
-      </c>
-      <c r="G27">
-        <v>22</v>
-      </c>
-      <c r="H27">
-        <v>31</v>
-      </c>
-      <c r="I27">
-        <v>5</v>
-      </c>
-      <c r="J27">
-        <v>11</v>
-      </c>
-      <c r="K27">
-        <v>73</v>
-      </c>
-      <c r="L27">
-        <v>15</v>
-      </c>
-      <c r="M27">
-        <v>16</v>
-      </c>
       <c r="N27">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="O27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P27">
         <v>2022</v>
       </c>
       <c r="Q27">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="R27">
         <v>4</v>
@@ -2242,52 +2242,52 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>22038</v>
+        <v>22041</v>
       </c>
       <c r="C28" t="s">
         <v>43</v>
       </c>
       <c r="D28">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E28">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F28">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="G28">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="H28">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="I28">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J28">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K28">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="L28">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M28">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="N28">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P28">
         <v>2022</v>
       </c>
       <c r="Q28">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="R28">
         <v>4</v>
@@ -2298,52 +2298,52 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>22037</v>
+        <v>22040</v>
       </c>
       <c r="C29" t="s">
         <v>44</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E29">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="F29">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="G29">
+        <v>29</v>
+      </c>
+      <c r="H29">
+        <v>33</v>
+      </c>
+      <c r="I29">
+        <v>8</v>
+      </c>
+      <c r="J29">
+        <v>12</v>
+      </c>
+      <c r="K29">
+        <v>116</v>
+      </c>
+      <c r="L29">
+        <v>23</v>
+      </c>
+      <c r="M29">
         <v>20</v>
       </c>
-      <c r="H29">
-        <v>28</v>
-      </c>
-      <c r="I29">
-        <v>6</v>
-      </c>
-      <c r="J29">
+      <c r="N29">
         <v>10</v>
       </c>
-      <c r="K29">
-        <v>75</v>
-      </c>
-      <c r="L29">
-        <v>15</v>
-      </c>
-      <c r="M29">
-        <v>16</v>
-      </c>
-      <c r="N29">
-        <v>8</v>
-      </c>
       <c r="O29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P29">
         <v>2022</v>
       </c>
       <c r="Q29">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="R29">
         <v>4</v>
@@ -2354,52 +2354,52 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>22036</v>
+        <v>22039</v>
       </c>
       <c r="C30" t="s">
         <v>45</v>
       </c>
       <c r="D30">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="E30">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="F30">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="G30">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H30">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I30">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J30">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="K30">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c r="L30">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="M30">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N30">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P30">
         <v>2022</v>
       </c>
       <c r="Q30">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="R30">
         <v>4</v>
@@ -2410,52 +2410,52 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>22035</v>
+        <v>22038</v>
       </c>
       <c r="C31" t="s">
         <v>46</v>
       </c>
       <c r="D31">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E31">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F31">
+        <v>11</v>
+      </c>
+      <c r="G31">
+        <v>12</v>
+      </c>
+      <c r="H31">
+        <v>26</v>
+      </c>
+      <c r="I31">
+        <v>9</v>
+      </c>
+      <c r="J31">
+        <v>12</v>
+      </c>
+      <c r="K31">
+        <v>65</v>
+      </c>
+      <c r="L31">
         <v>13</v>
       </c>
-      <c r="G31">
-        <v>23</v>
-      </c>
-      <c r="H31">
-        <v>31</v>
-      </c>
-      <c r="I31">
-        <v>5</v>
-      </c>
-      <c r="J31">
-        <v>8</v>
-      </c>
-      <c r="K31">
-        <v>87</v>
-      </c>
-      <c r="L31">
-        <v>17</v>
-      </c>
       <c r="M31">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="N31">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="O31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P31">
         <v>2022</v>
       </c>
       <c r="Q31">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="R31">
         <v>4</v>
@@ -2466,22 +2466,22 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>22034</v>
+        <v>22037</v>
       </c>
       <c r="C32" t="s">
         <v>47</v>
       </c>
       <c r="D32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E32">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F32">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="G32">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="H32">
         <v>28</v>
@@ -2490,31 +2490,31 @@
         <v>6</v>
       </c>
       <c r="J32">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="K32">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="L32">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M32">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N32">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O32">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P32">
         <v>2022</v>
       </c>
       <c r="Q32">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="R32">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -2522,55 +2522,55 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>22033</v>
+        <v>22036</v>
       </c>
       <c r="C33" t="s">
         <v>48</v>
       </c>
       <c r="D33">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E33">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F33">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G33">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H33">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I33">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J33">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K33">
-        <v>91</v>
+        <v>118</v>
       </c>
       <c r="L33">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="M33">
+        <v>13</v>
+      </c>
+      <c r="N33">
         <v>7</v>
       </c>
-      <c r="N33">
-        <v>4</v>
-      </c>
       <c r="O33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P33">
         <v>2022</v>
       </c>
       <c r="Q33">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="R33">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -2578,55 +2578,55 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>22032</v>
+        <v>22035</v>
       </c>
       <c r="C34" t="s">
         <v>49</v>
       </c>
       <c r="D34">
+        <v>9</v>
+      </c>
+      <c r="E34">
+        <v>11</v>
+      </c>
+      <c r="F34">
+        <v>13</v>
+      </c>
+      <c r="G34">
+        <v>23</v>
+      </c>
+      <c r="H34">
+        <v>31</v>
+      </c>
+      <c r="I34">
         <v>5</v>
       </c>
-      <c r="E34">
-        <v>9</v>
-      </c>
-      <c r="F34">
-        <v>18</v>
-      </c>
-      <c r="G34">
-        <v>31</v>
-      </c>
-      <c r="H34">
-        <v>32</v>
-      </c>
-      <c r="I34">
-        <v>1</v>
-      </c>
       <c r="J34">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K34">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="L34">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M34">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="N34">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="O34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P34">
         <v>2022</v>
       </c>
       <c r="Q34">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R34">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -2634,43 +2634,43 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>22031</v>
+        <v>22034</v>
       </c>
       <c r="C35" t="s">
         <v>50</v>
       </c>
       <c r="D35">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E35">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F35">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="G35">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="H35">
         <v>28</v>
       </c>
       <c r="I35">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J35">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K35">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="L35">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M35">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N35">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O35">
         <v>4</v>
@@ -2679,7 +2679,7 @@
         <v>2022</v>
       </c>
       <c r="Q35">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="R35">
         <v>3</v>
@@ -2690,52 +2690,52 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>22030</v>
+        <v>22033</v>
       </c>
       <c r="C36" t="s">
         <v>51</v>
       </c>
       <c r="D36">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E36">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F36">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G36">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H36">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J36">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="K36">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L36">
         <v>18</v>
       </c>
       <c r="M36">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="N36">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P36">
         <v>2022</v>
       </c>
       <c r="Q36">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="R36">
         <v>3</v>
@@ -2746,52 +2746,52 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>22029</v>
+        <v>22032</v>
       </c>
       <c r="C37" t="s">
         <v>52</v>
       </c>
       <c r="D37">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E37">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F37">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G37">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="H37">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="I37">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J37">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="K37">
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="L37">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="M37">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="N37">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="O37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P37">
         <v>2022</v>
       </c>
       <c r="Q37">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="R37">
         <v>3</v>
@@ -2802,52 +2802,52 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>22028</v>
+        <v>22031</v>
       </c>
       <c r="C38" t="s">
         <v>53</v>
       </c>
       <c r="D38">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E38">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F38">
         <v>16</v>
       </c>
       <c r="G38">
+        <v>20</v>
+      </c>
+      <c r="H38">
+        <v>28</v>
+      </c>
+      <c r="I38">
+        <v>4</v>
+      </c>
+      <c r="J38">
+        <v>8</v>
+      </c>
+      <c r="K38">
+        <v>85</v>
+      </c>
+      <c r="L38">
         <v>17</v>
       </c>
-      <c r="H38">
-        <v>35</v>
-      </c>
-      <c r="I38">
-        <v>1</v>
-      </c>
-      <c r="J38">
-        <v>7</v>
-      </c>
-      <c r="K38">
-        <v>81</v>
-      </c>
-      <c r="L38">
-        <v>16</v>
-      </c>
       <c r="M38">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="N38">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O38">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P38">
         <v>2022</v>
       </c>
       <c r="Q38">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="R38">
         <v>3</v>
@@ -2858,52 +2858,52 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>22027</v>
+        <v>22030</v>
       </c>
       <c r="C39" t="s">
         <v>54</v>
       </c>
       <c r="D39">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E39">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="F39">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G39">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H39">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39">
+        <v>9</v>
+      </c>
+      <c r="K39">
+        <v>92</v>
+      </c>
+      <c r="L39">
+        <v>18</v>
+      </c>
+      <c r="M39">
+        <v>10</v>
+      </c>
+      <c r="N39">
         <v>5</v>
       </c>
-      <c r="J39">
-        <v>12</v>
-      </c>
-      <c r="K39">
-        <v>83</v>
-      </c>
-      <c r="L39">
-        <v>17</v>
-      </c>
-      <c r="M39">
-        <v>17</v>
-      </c>
-      <c r="N39">
-        <v>9</v>
-      </c>
       <c r="O39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P39">
         <v>2022</v>
       </c>
       <c r="Q39">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="R39">
         <v>3</v>
@@ -2914,52 +2914,52 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>22026</v>
+        <v>22029</v>
       </c>
       <c r="C40" t="s">
         <v>55</v>
       </c>
       <c r="D40">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E40">
+        <v>8</v>
+      </c>
+      <c r="F40">
+        <v>10</v>
+      </c>
+      <c r="G40">
         <v>14</v>
       </c>
-      <c r="F40">
+      <c r="H40">
+        <v>17</v>
+      </c>
+      <c r="I40">
+        <v>10</v>
+      </c>
+      <c r="J40">
+        <v>12</v>
+      </c>
+      <c r="K40">
+        <v>56</v>
+      </c>
+      <c r="L40">
+        <v>11</v>
+      </c>
+      <c r="M40">
         <v>22</v>
       </c>
-      <c r="G40">
-        <v>23</v>
-      </c>
-      <c r="H40">
-        <v>27</v>
-      </c>
-      <c r="I40">
-        <v>8</v>
-      </c>
-      <c r="J40">
-        <v>10</v>
-      </c>
-      <c r="K40">
-        <v>97</v>
-      </c>
-      <c r="L40">
-        <v>19</v>
-      </c>
-      <c r="M40">
-        <v>18</v>
-      </c>
       <c r="N40">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="O40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P40">
         <v>2022</v>
       </c>
       <c r="Q40">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="R40">
         <v>3</v>
@@ -2970,7 +2970,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>22025</v>
+        <v>22028</v>
       </c>
       <c r="C41" t="s">
         <v>56</v>
@@ -2979,16 +2979,16 @@
         <v>4</v>
       </c>
       <c r="E41">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F41">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G41">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H41">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="I41">
         <v>1</v>
@@ -2997,10 +2997,10 @@
         <v>7</v>
       </c>
       <c r="K41">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="L41">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M41">
         <v>8</v>
@@ -3009,13 +3009,13 @@
         <v>4</v>
       </c>
       <c r="O41">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P41">
         <v>2022</v>
       </c>
       <c r="Q41">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R41">
         <v>3</v>
@@ -3026,43 +3026,43 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>22024</v>
+        <v>22027</v>
       </c>
       <c r="C42" t="s">
         <v>57</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E42">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F42">
         <v>11</v>
       </c>
       <c r="G42">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H42">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I42">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J42">
         <v>12</v>
       </c>
       <c r="K42">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="L42">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M42">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N42">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O42">
         <v>2</v>
@@ -3071,7 +3071,7 @@
         <v>2022</v>
       </c>
       <c r="Q42">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="R42">
         <v>3</v>
@@ -3082,52 +3082,52 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>22023</v>
+        <v>22026</v>
       </c>
       <c r="C43" t="s">
         <v>58</v>
       </c>
       <c r="D43">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E43">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F43">
+        <v>22</v>
+      </c>
+      <c r="G43">
+        <v>23</v>
+      </c>
+      <c r="H43">
+        <v>27</v>
+      </c>
+      <c r="I43">
+        <v>8</v>
+      </c>
+      <c r="J43">
+        <v>10</v>
+      </c>
+      <c r="K43">
+        <v>97</v>
+      </c>
+      <c r="L43">
+        <v>19</v>
+      </c>
+      <c r="M43">
         <v>18</v>
       </c>
-      <c r="G43">
-        <v>20</v>
-      </c>
-      <c r="H43">
-        <v>25</v>
-      </c>
-      <c r="I43">
-        <v>11</v>
-      </c>
-      <c r="J43">
-        <v>12</v>
-      </c>
-      <c r="K43">
-        <v>72</v>
-      </c>
-      <c r="L43">
-        <v>14</v>
-      </c>
-      <c r="M43">
-        <v>23</v>
-      </c>
       <c r="N43">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="O43">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P43">
         <v>2022</v>
       </c>
       <c r="Q43">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="R43">
         <v>3</v>
@@ -3138,52 +3138,52 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>22022</v>
+        <v>22025</v>
       </c>
       <c r="C44" t="s">
         <v>59</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E44">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F44">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G44">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H44">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I44">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J44">
         <v>7</v>
       </c>
       <c r="K44">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="L44">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="M44">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="N44">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="O44">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P44">
         <v>2022</v>
       </c>
       <c r="Q44">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="R44">
         <v>3</v>
@@ -3194,43 +3194,43 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>22021</v>
+        <v>22024</v>
       </c>
       <c r="C45" t="s">
         <v>60</v>
       </c>
       <c r="D45">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E45">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="F45">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G45">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H45">
         <v>35</v>
       </c>
       <c r="I45">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J45">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K45">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="L45">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M45">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N45">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O45">
         <v>2</v>
@@ -3239,10 +3239,10 @@
         <v>2022</v>
       </c>
       <c r="Q45">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="R45">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -3250,55 +3250,55 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>22020</v>
+        <v>22023</v>
       </c>
       <c r="C46" t="s">
         <v>61</v>
       </c>
       <c r="D46">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E46">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="F46">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="G46">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="H46">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I46">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J46">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K46">
-        <v>129</v>
+        <v>72</v>
       </c>
       <c r="L46">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="M46">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="N46">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="O46">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P46">
         <v>2022</v>
       </c>
       <c r="Q46">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="R46">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:18">
@@ -3306,7 +3306,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>22019</v>
+        <v>22022</v>
       </c>
       <c r="C47" t="s">
         <v>62</v>
@@ -3315,46 +3315,46 @@
         <v>1</v>
       </c>
       <c r="E47">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F47">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="G47">
         <v>17</v>
       </c>
       <c r="H47">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I47">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J47">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K47">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="L47">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="M47">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="N47">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="O47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P47">
         <v>2022</v>
       </c>
       <c r="Q47">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="R47">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -3362,25 +3362,25 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>22018</v>
+        <v>22021</v>
       </c>
       <c r="C48" t="s">
         <v>63</v>
       </c>
       <c r="D48">
+        <v>11</v>
+      </c>
+      <c r="E48">
+        <v>15</v>
+      </c>
+      <c r="F48">
         <v>16</v>
       </c>
-      <c r="E48">
-        <v>21</v>
-      </c>
-      <c r="F48">
-        <v>29</v>
-      </c>
       <c r="G48">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="H48">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I48">
         <v>6</v>
@@ -3389,10 +3389,10 @@
         <v>9</v>
       </c>
       <c r="K48">
-        <v>131</v>
+        <v>95</v>
       </c>
       <c r="L48">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="M48">
         <v>15</v>
@@ -3407,7 +3407,7 @@
         <v>2022</v>
       </c>
       <c r="Q48">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="R48">
         <v>2</v>
@@ -3418,52 +3418,52 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>22017</v>
+        <v>22020</v>
       </c>
       <c r="C49" t="s">
         <v>64</v>
       </c>
       <c r="D49">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E49">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F49">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G49">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="H49">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="I49">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J49">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K49">
-        <v>90</v>
+        <v>129</v>
       </c>
       <c r="L49">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="M49">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N49">
         <v>9</v>
       </c>
       <c r="O49">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P49">
         <v>2022</v>
       </c>
       <c r="Q49">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="R49">
         <v>2</v>
@@ -3474,7 +3474,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>22016</v>
+        <v>22019</v>
       </c>
       <c r="C50" t="s">
         <v>65</v>
@@ -3483,43 +3483,43 @@
         <v>1</v>
       </c>
       <c r="E50">
+        <v>4</v>
+      </c>
+      <c r="F50">
         <v>7</v>
       </c>
-      <c r="F50">
+      <c r="G50">
         <v>17</v>
       </c>
-      <c r="G50">
-        <v>26</v>
-      </c>
       <c r="H50">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I50">
         <v>1</v>
       </c>
       <c r="J50">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="K50">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="L50">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="M50">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="N50">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P50">
         <v>2022</v>
       </c>
       <c r="Q50">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="R50">
         <v>2</v>
@@ -3530,52 +3530,52 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>22015</v>
+        <v>22018</v>
       </c>
       <c r="C51" t="s">
         <v>66</v>
       </c>
       <c r="D51">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E51">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="F51">
+        <v>29</v>
+      </c>
+      <c r="G51">
+        <v>31</v>
+      </c>
+      <c r="H51">
+        <v>34</v>
+      </c>
+      <c r="I51">
+        <v>6</v>
+      </c>
+      <c r="J51">
+        <v>9</v>
+      </c>
+      <c r="K51">
+        <v>131</v>
+      </c>
+      <c r="L51">
+        <v>26</v>
+      </c>
+      <c r="M51">
+        <v>15</v>
+      </c>
+      <c r="N51">
         <v>8</v>
       </c>
-      <c r="G51">
-        <v>12</v>
-      </c>
-      <c r="H51">
-        <v>30</v>
-      </c>
-      <c r="I51">
-        <v>5</v>
-      </c>
-      <c r="J51">
-        <v>12</v>
-      </c>
-      <c r="K51">
-        <v>53</v>
-      </c>
-      <c r="L51">
-        <v>11</v>
-      </c>
-      <c r="M51">
-        <v>17</v>
-      </c>
-      <c r="N51">
-        <v>9</v>
-      </c>
       <c r="O51">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P51">
         <v>2022</v>
       </c>
       <c r="Q51">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R51">
         <v>2</v>
@@ -3586,52 +3586,52 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>22014</v>
+        <v>22017</v>
       </c>
       <c r="C52" t="s">
         <v>67</v>
       </c>
       <c r="D52">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E52">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F52">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G52">
+        <v>23</v>
+      </c>
+      <c r="H52">
+        <v>25</v>
+      </c>
+      <c r="I52">
+        <v>7</v>
+      </c>
+      <c r="J52">
+        <v>11</v>
+      </c>
+      <c r="K52">
+        <v>90</v>
+      </c>
+      <c r="L52">
         <v>18</v>
       </c>
-      <c r="H52">
-        <v>32</v>
-      </c>
-      <c r="I52">
-        <v>1</v>
-      </c>
-      <c r="J52">
-        <v>9</v>
-      </c>
-      <c r="K52">
-        <v>65</v>
-      </c>
-      <c r="L52">
-        <v>13</v>
-      </c>
       <c r="M52">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="N52">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="O52">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P52">
         <v>2022</v>
       </c>
       <c r="Q52">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="R52">
         <v>2</v>
@@ -3642,52 +3642,52 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>22013</v>
+        <v>22016</v>
       </c>
       <c r="C53" t="s">
         <v>68</v>
       </c>
       <c r="D53">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E53">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F53">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G53">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H53">
         <v>32</v>
       </c>
       <c r="I53">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J53">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K53">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="L53">
         <v>17</v>
       </c>
       <c r="M53">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N53">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O53">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P53">
         <v>2022</v>
       </c>
       <c r="Q53">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="R53">
         <v>2</v>
@@ -3698,37 +3698,37 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>22012</v>
+        <v>22015</v>
       </c>
       <c r="C54" t="s">
         <v>69</v>
       </c>
       <c r="D54">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E54">
+        <v>2</v>
+      </c>
+      <c r="F54">
+        <v>8</v>
+      </c>
+      <c r="G54">
+        <v>12</v>
+      </c>
+      <c r="H54">
+        <v>30</v>
+      </c>
+      <c r="I54">
         <v>5</v>
       </c>
-      <c r="F54">
-        <v>10</v>
-      </c>
-      <c r="G54">
-        <v>33</v>
-      </c>
-      <c r="H54">
-        <v>34</v>
-      </c>
-      <c r="I54">
-        <v>7</v>
-      </c>
       <c r="J54">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K54">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="L54">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="M54">
         <v>17</v>
@@ -3737,16 +3737,16 @@
         <v>9</v>
       </c>
       <c r="O54">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P54">
         <v>2022</v>
       </c>
       <c r="Q54">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R54">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:18">
@@ -3754,55 +3754,55 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>22011</v>
+        <v>22014</v>
       </c>
       <c r="C55" t="s">
         <v>70</v>
       </c>
       <c r="D55">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E55">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F55">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G55">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H55">
         <v>32</v>
       </c>
       <c r="I55">
+        <v>1</v>
+      </c>
+      <c r="J55">
+        <v>9</v>
+      </c>
+      <c r="K55">
+        <v>65</v>
+      </c>
+      <c r="L55">
+        <v>13</v>
+      </c>
+      <c r="M55">
+        <v>10</v>
+      </c>
+      <c r="N55">
         <v>5</v>
       </c>
-      <c r="J55">
-        <v>12</v>
-      </c>
-      <c r="K55">
-        <v>81</v>
-      </c>
-      <c r="L55">
-        <v>16</v>
-      </c>
-      <c r="M55">
-        <v>17</v>
-      </c>
-      <c r="N55">
-        <v>9</v>
-      </c>
       <c r="O55">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P55">
         <v>2022</v>
       </c>
       <c r="Q55">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="R55">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:18">
@@ -3810,7 +3810,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>22010</v>
+        <v>22013</v>
       </c>
       <c r="C56" t="s">
         <v>71</v>
@@ -3819,46 +3819,46 @@
         <v>4</v>
       </c>
       <c r="E56">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="F56">
+        <v>16</v>
+      </c>
+      <c r="G56">
         <v>25</v>
       </c>
-      <c r="G56">
-        <v>31</v>
-      </c>
       <c r="H56">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I56">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J56">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="K56">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="L56">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M56">
+        <v>11</v>
+      </c>
+      <c r="N56">
+        <v>6</v>
+      </c>
+      <c r="O56">
+        <v>3</v>
+      </c>
+      <c r="P56">
+        <v>2022</v>
+      </c>
+      <c r="Q56">
         <v>13</v>
       </c>
-      <c r="N56">
-        <v>7</v>
-      </c>
-      <c r="O56">
-        <v>1</v>
-      </c>
-      <c r="P56">
-        <v>2022</v>
-      </c>
-      <c r="Q56">
-        <v>10</v>
-      </c>
       <c r="R56">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:18">
@@ -3866,25 +3866,25 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>22009</v>
+        <v>22012</v>
       </c>
       <c r="C57" t="s">
         <v>72</v>
       </c>
       <c r="D57">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E57">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="F57">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G57">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H57">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I57">
         <v>7</v>
@@ -3893,10 +3893,10 @@
         <v>10</v>
       </c>
       <c r="K57">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="L57">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="M57">
         <v>17</v>
@@ -3911,7 +3911,7 @@
         <v>2022</v>
       </c>
       <c r="Q57">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="R57">
         <v>1</v>
@@ -3922,52 +3922,52 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>22008</v>
+        <v>22011</v>
       </c>
       <c r="C58" t="s">
         <v>73</v>
       </c>
       <c r="D58">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E58">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F58">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G58">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="H58">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I58">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J58">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="K58">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="L58">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M58">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N58">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O58">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P58">
         <v>2022</v>
       </c>
       <c r="Q58">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="R58">
         <v>1</v>
@@ -3978,40 +3978,40 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>22007</v>
+        <v>22010</v>
       </c>
       <c r="C59" t="s">
         <v>74</v>
       </c>
       <c r="D59">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E59">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F59">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G59">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H59">
         <v>35</v>
       </c>
       <c r="I59">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J59">
         <v>11</v>
       </c>
       <c r="K59">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="L59">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M59">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N59">
         <v>7</v>
@@ -4023,7 +4023,7 @@
         <v>2022</v>
       </c>
       <c r="Q59">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="R59">
         <v>1</v>
@@ -4034,37 +4034,37 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>22006</v>
+        <v>22009</v>
       </c>
       <c r="C60" t="s">
         <v>75</v>
       </c>
       <c r="D60">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E60">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F60">
+        <v>18</v>
+      </c>
+      <c r="G60">
+        <v>31</v>
+      </c>
+      <c r="H60">
+        <v>33</v>
+      </c>
+      <c r="I60">
         <v>7</v>
       </c>
-      <c r="G60">
-        <v>17</v>
-      </c>
-      <c r="H60">
-        <v>20</v>
-      </c>
-      <c r="I60">
-        <v>5</v>
-      </c>
       <c r="J60">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K60">
-        <v>50</v>
+        <v>109</v>
       </c>
       <c r="L60">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="M60">
         <v>17</v>
@@ -4073,13 +4073,13 @@
         <v>9</v>
       </c>
       <c r="O60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P60">
         <v>2022</v>
       </c>
       <c r="Q60">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="R60">
         <v>1</v>
@@ -4090,52 +4090,52 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>22005</v>
+        <v>22008</v>
       </c>
       <c r="C61" t="s">
         <v>76</v>
       </c>
       <c r="D61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E61">
+        <v>2</v>
+      </c>
+      <c r="F61">
         <v>13</v>
       </c>
-      <c r="F61">
-        <v>17</v>
-      </c>
       <c r="G61">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H61">
         <v>34</v>
       </c>
       <c r="I61">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J61">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K61">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="L61">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="M61">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N61">
         <v>7</v>
       </c>
       <c r="O61">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P61">
         <v>2022</v>
       </c>
       <c r="Q61">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="R61">
         <v>1</v>
@@ -4146,52 +4146,52 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>22004</v>
+        <v>22007</v>
       </c>
       <c r="C62" t="s">
         <v>77</v>
       </c>
       <c r="D62">
+        <v>5</v>
+      </c>
+      <c r="E62">
+        <v>22</v>
+      </c>
+      <c r="F62">
+        <v>23</v>
+      </c>
+      <c r="G62">
+        <v>25</v>
+      </c>
+      <c r="H62">
+        <v>35</v>
+      </c>
+      <c r="I62">
+        <v>3</v>
+      </c>
+      <c r="J62">
+        <v>11</v>
+      </c>
+      <c r="K62">
+        <v>110</v>
+      </c>
+      <c r="L62">
+        <v>22</v>
+      </c>
+      <c r="M62">
+        <v>14</v>
+      </c>
+      <c r="N62">
         <v>7</v>
       </c>
-      <c r="E62">
-        <v>20</v>
-      </c>
-      <c r="F62">
-        <v>27</v>
-      </c>
-      <c r="G62">
-        <v>30</v>
-      </c>
-      <c r="H62">
-        <v>33</v>
-      </c>
-      <c r="I62">
-        <v>3</v>
-      </c>
-      <c r="J62">
-        <v>4</v>
-      </c>
-      <c r="K62">
-        <v>117</v>
-      </c>
-      <c r="L62">
-        <v>23</v>
-      </c>
-      <c r="M62">
+      <c r="O62">
+        <v>1</v>
+      </c>
+      <c r="P62">
+        <v>2022</v>
+      </c>
+      <c r="Q62">
         <v>7</v>
-      </c>
-      <c r="N62">
-        <v>4</v>
-      </c>
-      <c r="O62">
-        <v>2</v>
-      </c>
-      <c r="P62">
-        <v>2022</v>
-      </c>
-      <c r="Q62">
-        <v>4</v>
       </c>
       <c r="R62">
         <v>1</v>
@@ -4202,52 +4202,52 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>22003</v>
+        <v>22006</v>
       </c>
       <c r="C63" t="s">
         <v>78</v>
       </c>
       <c r="D63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E63">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="F63">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="G63">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H63">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="I63">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J63">
         <v>12</v>
       </c>
       <c r="K63">
-        <v>103</v>
+        <v>50</v>
       </c>
       <c r="L63">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="M63">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N63">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O63">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P63">
         <v>2022</v>
       </c>
       <c r="Q63">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="R63">
         <v>1</v>
@@ -4258,52 +4258,52 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>22002</v>
+        <v>22005</v>
       </c>
       <c r="C64" t="s">
         <v>79</v>
       </c>
       <c r="D64">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E64">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="F64">
+        <v>17</v>
+      </c>
+      <c r="G64">
+        <v>19</v>
+      </c>
+      <c r="H64">
+        <v>34</v>
+      </c>
+      <c r="I64">
+        <v>5</v>
+      </c>
+      <c r="J64">
+        <v>9</v>
+      </c>
+      <c r="K64">
+        <v>85</v>
+      </c>
+      <c r="L64">
+        <v>17</v>
+      </c>
+      <c r="M64">
+        <v>14</v>
+      </c>
+      <c r="N64">
         <v>7</v>
       </c>
-      <c r="G64">
-        <v>9</v>
-      </c>
-      <c r="H64">
-        <v>24</v>
-      </c>
-      <c r="I64">
-        <v>4</v>
-      </c>
-      <c r="J64">
-        <v>12</v>
-      </c>
-      <c r="K64">
-        <v>50</v>
-      </c>
-      <c r="L64">
-        <v>10</v>
-      </c>
-      <c r="M64">
-        <v>16</v>
-      </c>
-      <c r="N64">
-        <v>8</v>
-      </c>
       <c r="O64">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P64">
         <v>2022</v>
       </c>
       <c r="Q64">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R64">
         <v>1</v>
@@ -4314,43 +4314,43 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>22001</v>
+        <v>22004</v>
       </c>
       <c r="C65" t="s">
         <v>80</v>
       </c>
       <c r="D65">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E65">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F65">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="G65">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="H65">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I65">
         <v>3</v>
       </c>
       <c r="J65">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="K65">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="L65">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="M65">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N65">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="O65">
         <v>2</v>
@@ -4359,7 +4359,7 @@
         <v>2022</v>
       </c>
       <c r="Q65">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R65">
         <v>1</v>
@@ -4370,55 +4370,55 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>21150</v>
+        <v>22003</v>
       </c>
       <c r="C66" t="s">
         <v>81</v>
       </c>
       <c r="D66">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E66">
+        <v>18</v>
+      </c>
+      <c r="F66">
+        <v>24</v>
+      </c>
+      <c r="G66">
+        <v>25</v>
+      </c>
+      <c r="H66">
+        <v>34</v>
+      </c>
+      <c r="I66">
+        <v>8</v>
+      </c>
+      <c r="J66">
+        <v>12</v>
+      </c>
+      <c r="K66">
+        <v>103</v>
+      </c>
+      <c r="L66">
+        <v>21</v>
+      </c>
+      <c r="M66">
+        <v>20</v>
+      </c>
+      <c r="N66">
         <v>10</v>
       </c>
-      <c r="F66">
-        <v>11</v>
-      </c>
-      <c r="G66">
-        <v>23</v>
-      </c>
-      <c r="H66">
-        <v>26</v>
-      </c>
-      <c r="I66">
-        <v>7</v>
-      </c>
-      <c r="J66">
-        <v>10</v>
-      </c>
-      <c r="K66">
-        <v>74</v>
-      </c>
-      <c r="L66">
-        <v>15</v>
-      </c>
-      <c r="M66">
-        <v>17</v>
-      </c>
-      <c r="N66">
-        <v>9</v>
-      </c>
       <c r="O66">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P66">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="Q66">
-        <v>150</v>
+        <v>3</v>
       </c>
       <c r="R66">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -4426,55 +4426,55 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>21149</v>
+        <v>22002</v>
       </c>
       <c r="C67" t="s">
         <v>82</v>
       </c>
       <c r="D67">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="E67">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="F67">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="G67">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="H67">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="I67">
+        <v>4</v>
+      </c>
+      <c r="J67">
+        <v>12</v>
+      </c>
+      <c r="K67">
+        <v>50</v>
+      </c>
+      <c r="L67">
         <v>10</v>
       </c>
-      <c r="J67">
-        <v>11</v>
-      </c>
-      <c r="K67">
-        <v>139</v>
-      </c>
-      <c r="L67">
-        <v>28</v>
-      </c>
       <c r="M67">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="N67">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="O67">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P67">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="Q67">
-        <v>149</v>
+        <v>2</v>
       </c>
       <c r="R67">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:18">
@@ -4482,55 +4482,55 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>21148</v>
+        <v>22001</v>
       </c>
       <c r="C68" t="s">
         <v>83</v>
       </c>
       <c r="D68">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E68">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F68">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G68">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H68">
         <v>29</v>
       </c>
       <c r="I68">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J68">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="K68">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="L68">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="M68">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N68">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O68">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P68">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="Q68">
-        <v>148</v>
+        <v>1</v>
       </c>
       <c r="R68">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:18">
@@ -4538,52 +4538,52 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>21147</v>
+        <v>21150</v>
       </c>
       <c r="C69" t="s">
         <v>84</v>
       </c>
       <c r="D69">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E69">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F69">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G69">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="H69">
         <v>26</v>
       </c>
       <c r="I69">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J69">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="K69">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="L69">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="M69">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="N69">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="O69">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P69">
         <v>2021</v>
       </c>
       <c r="Q69">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="R69">
         <v>12</v>
@@ -4594,52 +4594,52 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>21146</v>
+        <v>21149</v>
       </c>
       <c r="C70" t="s">
         <v>85</v>
       </c>
       <c r="D70">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="E70">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="F70">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="G70">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H70">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="I70">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J70">
         <v>11</v>
       </c>
       <c r="K70">
-        <v>54</v>
+        <v>139</v>
       </c>
       <c r="L70">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="M70">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N70">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O70">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P70">
         <v>2021</v>
       </c>
       <c r="Q70">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="R70">
         <v>12</v>
@@ -4650,52 +4650,52 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>21145</v>
+        <v>21148</v>
       </c>
       <c r="C71" t="s">
         <v>86</v>
       </c>
       <c r="D71">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E71">
+        <v>4</v>
+      </c>
+      <c r="F71">
+        <v>12</v>
+      </c>
+      <c r="G71">
+        <v>16</v>
+      </c>
+      <c r="H71">
+        <v>29</v>
+      </c>
+      <c r="I71">
+        <v>4</v>
+      </c>
+      <c r="J71">
         <v>8</v>
       </c>
-      <c r="F71">
-        <v>25</v>
-      </c>
-      <c r="G71">
-        <v>29</v>
-      </c>
-      <c r="H71">
-        <v>30</v>
-      </c>
-      <c r="I71">
-        <v>1</v>
-      </c>
-      <c r="J71">
+      <c r="K71">
+        <v>62</v>
+      </c>
+      <c r="L71">
+        <v>12</v>
+      </c>
+      <c r="M71">
+        <v>12</v>
+      </c>
+      <c r="N71">
         <v>6</v>
       </c>
-      <c r="K71">
-        <v>95</v>
-      </c>
-      <c r="L71">
-        <v>19</v>
-      </c>
-      <c r="M71">
-        <v>7</v>
-      </c>
-      <c r="N71">
-        <v>4</v>
-      </c>
       <c r="O71">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P71">
         <v>2021</v>
       </c>
       <c r="Q71">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="R71">
         <v>12</v>
@@ -4706,52 +4706,52 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>21144</v>
+        <v>21147</v>
       </c>
       <c r="C72" t="s">
         <v>87</v>
       </c>
       <c r="D72">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E72">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="F72">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="G72">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="H72">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="I72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J72">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K72">
-        <v>112</v>
+        <v>49</v>
       </c>
       <c r="L72">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="M72">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="N72">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O72">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P72">
         <v>2021</v>
       </c>
       <c r="Q72">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="R72">
         <v>12</v>
@@ -4762,52 +4762,52 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>21143</v>
+        <v>21146</v>
       </c>
       <c r="C73" t="s">
         <v>88</v>
       </c>
       <c r="D73">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E73">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="F73">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="G73">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="H73">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="I73">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J73">
         <v>11</v>
       </c>
       <c r="K73">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="L73">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="M73">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N73">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O73">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P73">
         <v>2021</v>
       </c>
       <c r="Q73">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="R73">
         <v>12</v>
@@ -4818,52 +4818,52 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>21142</v>
+        <v>21145</v>
       </c>
       <c r="C74" t="s">
         <v>89</v>
       </c>
       <c r="D74">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E74">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F74">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="G74">
+        <v>29</v>
+      </c>
+      <c r="H74">
+        <v>30</v>
+      </c>
+      <c r="I74">
+        <v>1</v>
+      </c>
+      <c r="J74">
+        <v>6</v>
+      </c>
+      <c r="K74">
+        <v>95</v>
+      </c>
+      <c r="L74">
         <v>19</v>
       </c>
-      <c r="H74">
-        <v>25</v>
-      </c>
-      <c r="I74">
-        <v>2</v>
-      </c>
-      <c r="J74">
-        <v>9</v>
-      </c>
-      <c r="K74">
-        <v>85</v>
-      </c>
-      <c r="L74">
-        <v>17</v>
-      </c>
       <c r="M74">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N74">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O74">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P74">
         <v>2021</v>
       </c>
       <c r="Q74">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="R74">
         <v>12</v>
@@ -4874,52 +4874,52 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>21141</v>
+        <v>21144</v>
       </c>
       <c r="C75" t="s">
         <v>90</v>
       </c>
       <c r="D75">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E75">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F75">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="G75">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H75">
         <v>34</v>
       </c>
       <c r="I75">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J75">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="K75">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="L75">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="M75">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="N75">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="O75">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P75">
         <v>2021</v>
       </c>
       <c r="Q75">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="R75">
         <v>12</v>
@@ -4930,52 +4930,52 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>21140</v>
+        <v>21143</v>
       </c>
       <c r="C76" t="s">
         <v>91</v>
       </c>
       <c r="D76">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E76">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F76">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="G76">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H76">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I76">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J76">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K76">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="L76">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M76">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="N76">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="O76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P76">
         <v>2021</v>
       </c>
       <c r="Q76">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="R76">
         <v>12</v>
@@ -4986,52 +4986,52 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>21139</v>
+        <v>21142</v>
       </c>
       <c r="C77" t="s">
         <v>92</v>
       </c>
       <c r="D77">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E77">
         <v>13</v>
       </c>
       <c r="F77">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G77">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H77">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="I77">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J77">
         <v>9</v>
       </c>
       <c r="K77">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="L77">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M77">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="N77">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="O77">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P77">
         <v>2021</v>
       </c>
       <c r="Q77">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="R77">
         <v>12</v>
@@ -5042,52 +5042,52 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>21138</v>
+        <v>21141</v>
       </c>
       <c r="C78" t="s">
         <v>93</v>
       </c>
       <c r="D78">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E78">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F78">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G78">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="H78">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I78">
         <v>5</v>
       </c>
       <c r="J78">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K78">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="L78">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M78">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N78">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O78">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P78">
         <v>2021</v>
       </c>
       <c r="Q78">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="R78">
         <v>12</v>
@@ -5098,43 +5098,43 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>21137</v>
+        <v>21140</v>
       </c>
       <c r="C79" t="s">
         <v>94</v>
       </c>
       <c r="D79">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E79">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="F79">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="G79">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="H79">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="I79">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J79">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="K79">
-        <v>55</v>
+        <v>123</v>
       </c>
       <c r="L79">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="M79">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="N79">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O79">
         <v>2</v>
@@ -5143,10 +5143,10 @@
         <v>2021</v>
       </c>
       <c r="Q79">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="R79">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" spans="1:18">
@@ -5154,43 +5154,43 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>21136</v>
+        <v>21139</v>
       </c>
       <c r="C80" t="s">
         <v>95</v>
       </c>
       <c r="D80">
+        <v>5</v>
+      </c>
+      <c r="E80">
+        <v>13</v>
+      </c>
+      <c r="F80">
+        <v>18</v>
+      </c>
+      <c r="G80">
+        <v>23</v>
+      </c>
+      <c r="H80">
+        <v>34</v>
+      </c>
+      <c r="I80">
         <v>8</v>
       </c>
-      <c r="E80">
-        <v>12</v>
-      </c>
-      <c r="F80">
+      <c r="J80">
+        <v>9</v>
+      </c>
+      <c r="K80">
+        <v>93</v>
+      </c>
+      <c r="L80">
         <v>19</v>
       </c>
-      <c r="G80">
-        <v>27</v>
-      </c>
-      <c r="H80">
-        <v>33</v>
-      </c>
-      <c r="I80">
-        <v>2</v>
-      </c>
-      <c r="J80">
-        <v>5</v>
-      </c>
-      <c r="K80">
-        <v>99</v>
-      </c>
-      <c r="L80">
-        <v>20</v>
-      </c>
       <c r="M80">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="N80">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="O80">
         <v>2</v>
@@ -5199,10 +5199,10 @@
         <v>2021</v>
       </c>
       <c r="Q80">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="R80">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" spans="1:18">
@@ -5210,22 +5210,22 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>21135</v>
+        <v>21138</v>
       </c>
       <c r="C81" t="s">
         <v>96</v>
       </c>
       <c r="D81">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E81">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F81">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G81">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="H81">
         <v>31</v>
@@ -5234,19 +5234,19 @@
         <v>5</v>
       </c>
       <c r="J81">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="K81">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="L81">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M81">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="N81">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O81">
         <v>1</v>
@@ -5255,10 +5255,10 @@
         <v>2021</v>
       </c>
       <c r="Q81">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="R81">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" spans="1:18">
@@ -5266,7 +5266,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>21134</v>
+        <v>21137</v>
       </c>
       <c r="C82" t="s">
         <v>97</v>
@@ -5275,43 +5275,43 @@
         <v>2</v>
       </c>
       <c r="E82">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F82">
+        <v>13</v>
+      </c>
+      <c r="G82">
         <v>14</v>
       </c>
-      <c r="G82">
+      <c r="H82">
         <v>19</v>
       </c>
-      <c r="H82">
-        <v>28</v>
-      </c>
       <c r="I82">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J82">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K82">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="L82">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="M82">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N82">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O82">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P82">
         <v>2021</v>
       </c>
       <c r="Q82">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="R82">
         <v>11</v>
@@ -5322,7 +5322,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>21133</v>
+        <v>21136</v>
       </c>
       <c r="C83" t="s">
         <v>98</v>
@@ -5331,43 +5331,43 @@
         <v>8</v>
       </c>
       <c r="E83">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F83">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G83">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H83">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="I83">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J83">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K83">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="L83">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M83">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N83">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="O83">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P83">
         <v>2021</v>
       </c>
       <c r="Q83">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="R83">
         <v>11</v>
@@ -5378,7 +5378,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>21132</v>
+        <v>21135</v>
       </c>
       <c r="C84" t="s">
         <v>99</v>
@@ -5387,43 +5387,43 @@
         <v>4</v>
       </c>
       <c r="E84">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="F84">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="G84">
         <v>29</v>
       </c>
       <c r="H84">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I84">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J84">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="K84">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="L84">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="M84">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="N84">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P84">
         <v>2021</v>
       </c>
       <c r="Q84">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="R84">
         <v>11</v>
@@ -5434,43 +5434,43 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>21131</v>
+        <v>21134</v>
       </c>
       <c r="C85" t="s">
         <v>100</v>
       </c>
       <c r="D85">
+        <v>2</v>
+      </c>
+      <c r="E85">
         <v>6</v>
       </c>
-      <c r="E85">
-        <v>8</v>
-      </c>
       <c r="F85">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G85">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="H85">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="I85">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J85">
         <v>6</v>
       </c>
       <c r="K85">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="L85">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="M85">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N85">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O85">
         <v>4</v>
@@ -5479,7 +5479,7 @@
         <v>2021</v>
       </c>
       <c r="Q85">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="R85">
         <v>11</v>
@@ -5490,43 +5490,43 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>21130</v>
+        <v>21133</v>
       </c>
       <c r="C86" t="s">
         <v>101</v>
       </c>
       <c r="D86">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E86">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F86">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G86">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H86">
         <v>28</v>
       </c>
       <c r="I86">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J86">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K86">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="L86">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M86">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N86">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O86">
         <v>3</v>
@@ -5535,7 +5535,7 @@
         <v>2021</v>
       </c>
       <c r="Q86">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="R86">
         <v>11</v>
@@ -5546,37 +5546,37 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>21129</v>
+        <v>21132</v>
       </c>
       <c r="C87" t="s">
         <v>102</v>
       </c>
       <c r="D87">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E87">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F87">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="G87">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="H87">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I87">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J87">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K87">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="L87">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="M87">
         <v>14</v>
@@ -5585,13 +5585,13 @@
         <v>7</v>
       </c>
       <c r="O87">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P87">
         <v>2021</v>
       </c>
       <c r="Q87">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="R87">
         <v>11</v>
@@ -5602,31 +5602,31 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>21128</v>
+        <v>21131</v>
       </c>
       <c r="C88" t="s">
         <v>103</v>
       </c>
       <c r="D88">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E88">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F88">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G88">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="H88">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="I88">
         <v>5</v>
       </c>
       <c r="J88">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K88">
         <v>99</v>
@@ -5635,19 +5635,19 @@
         <v>20</v>
       </c>
       <c r="M88">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N88">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O88">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P88">
         <v>2021</v>
       </c>
       <c r="Q88">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="R88">
         <v>11</v>
@@ -5658,52 +5658,52 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>21127</v>
+        <v>21130</v>
       </c>
       <c r="C89" t="s">
         <v>104</v>
       </c>
       <c r="D89">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E89">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F89">
+        <v>14</v>
+      </c>
+      <c r="G89">
+        <v>27</v>
+      </c>
+      <c r="H89">
+        <v>28</v>
+      </c>
+      <c r="I89">
+        <v>5</v>
+      </c>
+      <c r="J89">
+        <v>10</v>
+      </c>
+      <c r="K89">
+        <v>74</v>
+      </c>
+      <c r="L89">
         <v>15</v>
       </c>
-      <c r="G89">
-        <v>17</v>
-      </c>
-      <c r="H89">
-        <v>26</v>
-      </c>
-      <c r="I89">
-        <v>2</v>
-      </c>
-      <c r="J89">
-        <v>11</v>
-      </c>
-      <c r="K89">
-        <v>61</v>
-      </c>
-      <c r="L89">
-        <v>12</v>
-      </c>
       <c r="M89">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N89">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O89">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P89">
         <v>2021</v>
       </c>
       <c r="Q89">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="R89">
         <v>11</v>
@@ -5714,52 +5714,52 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>21126</v>
+        <v>21129</v>
       </c>
       <c r="C90" t="s">
         <v>105</v>
       </c>
       <c r="D90">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E90">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F90">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G90">
+        <v>18</v>
+      </c>
+      <c r="H90">
         <v>34</v>
       </c>
-      <c r="H90">
-        <v>35</v>
-      </c>
       <c r="I90">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J90">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K90">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="L90">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M90">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="N90">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="O90">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P90">
         <v>2021</v>
       </c>
       <c r="Q90">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="R90">
         <v>11</v>
@@ -5770,37 +5770,37 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>21125</v>
+        <v>21128</v>
       </c>
       <c r="C91" t="s">
         <v>106</v>
       </c>
       <c r="D91">
+        <v>14</v>
+      </c>
+      <c r="E91">
         <v>17</v>
       </c>
-      <c r="E91">
-        <v>19</v>
-      </c>
       <c r="F91">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G91">
+        <v>23</v>
+      </c>
+      <c r="H91">
         <v>27</v>
       </c>
-      <c r="H91">
-        <v>31</v>
-      </c>
       <c r="I91">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J91">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K91">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="L91">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M91">
         <v>13</v>
@@ -5809,13 +5809,13 @@
         <v>7</v>
       </c>
       <c r="O91">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P91">
         <v>2021</v>
       </c>
       <c r="Q91">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="R91">
         <v>11</v>
@@ -5826,43 +5826,43 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>21124</v>
+        <v>21127</v>
       </c>
       <c r="C92" t="s">
         <v>107</v>
       </c>
       <c r="D92">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E92">
+        <v>2</v>
+      </c>
+      <c r="F92">
+        <v>15</v>
+      </c>
+      <c r="G92">
         <v>17</v>
       </c>
-      <c r="F92">
-        <v>22</v>
-      </c>
-      <c r="G92">
-        <v>25</v>
-      </c>
       <c r="H92">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="I92">
+        <v>2</v>
+      </c>
+      <c r="J92">
+        <v>11</v>
+      </c>
+      <c r="K92">
+        <v>61</v>
+      </c>
+      <c r="L92">
+        <v>12</v>
+      </c>
+      <c r="M92">
+        <v>13</v>
+      </c>
+      <c r="N92">
         <v>7</v>
-      </c>
-      <c r="J92">
-        <v>9</v>
-      </c>
-      <c r="K92">
-        <v>109</v>
-      </c>
-      <c r="L92">
-        <v>22</v>
-      </c>
-      <c r="M92">
-        <v>16</v>
-      </c>
-      <c r="N92">
-        <v>8</v>
       </c>
       <c r="O92">
         <v>2</v>
@@ -5871,10 +5871,10 @@
         <v>2021</v>
       </c>
       <c r="Q92">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="R92">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="93" spans="1:18">
@@ -5882,43 +5882,43 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>21123</v>
+        <v>21126</v>
       </c>
       <c r="C93" t="s">
         <v>108</v>
       </c>
       <c r="D93">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E93">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="F93">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G93">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="H93">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I93">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J93">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K93">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="L93">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M93">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="N93">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="O93">
         <v>2</v>
@@ -5927,10 +5927,10 @@
         <v>2021</v>
       </c>
       <c r="Q93">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="R93">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="94" spans="1:18">
@@ -5938,55 +5938,55 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>21122</v>
+        <v>21125</v>
       </c>
       <c r="C94" t="s">
         <v>109</v>
       </c>
       <c r="D94">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E94">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F94">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G94">
         <v>27</v>
       </c>
       <c r="H94">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I94">
         <v>4</v>
       </c>
       <c r="J94">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K94">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="L94">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M94">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="N94">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O94">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P94">
         <v>2021</v>
       </c>
       <c r="Q94">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="R94">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="95" spans="1:18">
@@ -5994,43 +5994,43 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>21121</v>
+        <v>21124</v>
       </c>
       <c r="C95" t="s">
         <v>110</v>
       </c>
       <c r="D95">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E95">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F95">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G95">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H95">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="I95">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J95">
         <v>9</v>
       </c>
       <c r="K95">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="L95">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M95">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="N95">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O95">
         <v>2</v>
@@ -6039,7 +6039,7 @@
         <v>2021</v>
       </c>
       <c r="Q95">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="R95">
         <v>10</v>
@@ -6050,52 +6050,52 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>21120</v>
+        <v>21123</v>
       </c>
       <c r="C96" t="s">
         <v>111</v>
       </c>
       <c r="D96">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E96">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="F96">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G96">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H96">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I96">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J96">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K96">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="L96">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="M96">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N96">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O96">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P96">
         <v>2021</v>
       </c>
       <c r="Q96">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="R96">
         <v>10</v>
@@ -6106,52 +6106,52 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>21119</v>
+        <v>21122</v>
       </c>
       <c r="C97" t="s">
         <v>112</v>
       </c>
       <c r="D97">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E97">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="F97">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="G97">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="H97">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I97">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J97">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K97">
-        <v>58</v>
+        <v>111</v>
       </c>
       <c r="L97">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="M97">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="N97">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="O97">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P97">
         <v>2021</v>
       </c>
       <c r="Q97">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="R97">
         <v>10</v>
@@ -6162,52 +6162,52 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>21118</v>
+        <v>21121</v>
       </c>
       <c r="C98" t="s">
         <v>113</v>
       </c>
       <c r="D98">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E98">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F98">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G98">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H98">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I98">
         <v>2</v>
       </c>
       <c r="J98">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="K98">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="L98">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="M98">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N98">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O98">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P98">
         <v>2021</v>
       </c>
       <c r="Q98">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="R98">
         <v>10</v>
@@ -6218,52 +6218,52 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>21117</v>
+        <v>21120</v>
       </c>
       <c r="C99" t="s">
         <v>114</v>
       </c>
       <c r="D99">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E99">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F99">
         <v>21</v>
       </c>
       <c r="G99">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H99">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I99">
         <v>5</v>
       </c>
       <c r="J99">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="K99">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="L99">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M99">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="N99">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O99">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P99">
         <v>2021</v>
       </c>
       <c r="Q99">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="R99">
         <v>10</v>
@@ -6274,52 +6274,52 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>21116</v>
+        <v>21119</v>
       </c>
       <c r="C100" t="s">
         <v>115</v>
       </c>
       <c r="D100">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E100">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="F100">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="G100">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="H100">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="I100">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J100">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K100">
-        <v>121</v>
+        <v>58</v>
       </c>
       <c r="L100">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="M100">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="N100">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="O100">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P100">
         <v>2021</v>
       </c>
       <c r="Q100">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="R100">
         <v>10</v>
@@ -6330,52 +6330,52 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>21115</v>
+        <v>21118</v>
       </c>
       <c r="C101" t="s">
         <v>116</v>
       </c>
       <c r="D101">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E101">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F101">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G101">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="H101">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="I101">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J101">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="K101">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="L101">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="M101">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="N101">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="O101">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P101">
         <v>2021</v>
       </c>
       <c r="Q101">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="R101">
         <v>10</v>
